--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="552">
   <si>
     <t>id</t>
   </si>
@@ -1554,6 +1554,30 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>PMID:32061636</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32061636/</t>
+  </si>
+  <si>
+    <t>PMID:24411268</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24411268/</t>
+  </si>
+  <si>
+    <t>PMID:14565534</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/14565534/</t>
+  </si>
+  <si>
+    <t>PMID:33491187</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33491187/</t>
   </si>
   <si>
     <t>description</t>
@@ -1707,7 +1731,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1752,9 +1776,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -1782,10 +1803,6 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <b/>
       <sz val="9.0"/>
       <color rgb="FF008000"/>
       <name val="&quot;Courier New&quot;"/>
@@ -1802,7 +1819,6 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1822,10 +1838,6 @@
       <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
     </font>
     <font>
       <u/>
@@ -1896,7 +1908,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2002,19 +2014,16 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2032,12 +2041,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
@@ -2050,7 +2059,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2060,18 +2069,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2121,7 +2118,7 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2158,13 +2155,13 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -2192,7 +2189,7 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2229,7 +2226,7 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2238,43 +2235,37 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2283,22 +2274,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2603,32 +2591,33 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="41.86"/>
+    <col customWidth="1" min="3" max="3" width="16.57"/>
     <col customWidth="1" min="4" max="4" width="18.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="123" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="130" t="s">
-        <v>495</v>
+      <c r="F1" s="123" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>485</v>
@@ -2640,12 +2629,12 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>487</v>
@@ -2655,21 +2644,23 @@
         <v>488</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>505</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -2692,98 +2683,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="131" t="s">
-        <v>504</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>505</v>
+      <c r="A2" s="124" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="131" t="s">
-        <v>506</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>507</v>
+      <c r="A3" s="124" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="131" t="s">
-        <v>508</v>
-      </c>
-      <c r="B4" s="134" t="s">
-        <v>509</v>
+      <c r="A4" s="124" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="131" t="s">
-        <v>510</v>
-      </c>
-      <c r="B5" s="134" t="s">
-        <v>511</v>
+      <c r="A5" s="124" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="131" t="s">
-        <v>512</v>
-      </c>
-      <c r="B6" s="134" t="s">
-        <v>513</v>
+      <c r="A6" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="127" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="131" t="s">
-        <v>514</v>
-      </c>
-      <c r="B7" s="134" t="s">
-        <v>515</v>
+      <c r="A7" s="124" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="131" t="s">
-        <v>516</v>
-      </c>
-      <c r="B8" s="134" t="s">
-        <v>517</v>
+      <c r="A8" s="124" t="s">
+        <v>524</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="131" t="s">
-        <v>518</v>
-      </c>
-      <c r="B9" s="134" t="s">
-        <v>519</v>
+      <c r="A9" s="124" t="s">
+        <v>526</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="131" t="s">
-        <v>520</v>
-      </c>
-      <c r="B10" s="134" t="s">
-        <v>521</v>
+      <c r="A10" s="124" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="131" t="s">
-        <v>522</v>
-      </c>
-      <c r="B11" s="134" t="s">
-        <v>523</v>
+      <c r="A11" s="124" t="s">
+        <v>530</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B12" s="135" t="s">
-        <v>525</v>
+        <v>532</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -2819,3057 +2810,3057 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="128" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="137" t="s">
-        <v>527</v>
+      <c r="A2" s="129" t="s">
+        <v>535</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="137" t="s">
-        <v>529</v>
+      <c r="A3" s="129" t="s">
+        <v>537</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="137" t="s">
-        <v>531</v>
+      <c r="A4" s="129" t="s">
+        <v>539</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="137" t="s">
-        <v>533</v>
-      </c>
-      <c r="B5" s="138" t="s">
-        <v>534</v>
+      <c r="A5" s="129" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="137" t="s">
-        <v>535</v>
-      </c>
-      <c r="B6" s="138" t="s">
-        <v>536</v>
+      <c r="A6" s="129" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="137" t="s">
-        <v>537</v>
-      </c>
-      <c r="B7" s="138" t="s">
-        <v>538</v>
+      <c r="A7" s="129" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="139"/>
-      <c r="B8" s="138" t="s">
-        <v>539</v>
+      <c r="A8" s="131"/>
+      <c r="B8" s="130" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="139"/>
-      <c r="B9" s="138" t="s">
-        <v>540</v>
+      <c r="A9" s="131"/>
+      <c r="B9" s="130" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="139"/>
-      <c r="B10" s="138" t="s">
-        <v>541</v>
+      <c r="A10" s="131"/>
+      <c r="B10" s="130" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="139"/>
-      <c r="B11" s="138" t="s">
-        <v>542</v>
+      <c r="A11" s="131"/>
+      <c r="B11" s="130" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="139"/>
-      <c r="B12" s="138" t="s">
-        <v>543</v>
+      <c r="A12" s="131"/>
+      <c r="B12" s="130" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="139"/>
+      <c r="A13" s="131"/>
     </row>
     <row r="14">
-      <c r="A14" s="139"/>
+      <c r="A14" s="131"/>
     </row>
     <row r="15">
-      <c r="A15" s="139"/>
+      <c r="A15" s="131"/>
     </row>
     <row r="16">
-      <c r="A16" s="139"/>
+      <c r="A16" s="131"/>
     </row>
     <row r="17">
-      <c r="A17" s="139"/>
+      <c r="A17" s="131"/>
     </row>
     <row r="18">
-      <c r="A18" s="139"/>
+      <c r="A18" s="131"/>
     </row>
     <row r="19">
-      <c r="A19" s="139"/>
+      <c r="A19" s="131"/>
     </row>
     <row r="20">
-      <c r="A20" s="139"/>
+      <c r="A20" s="131"/>
     </row>
     <row r="21">
-      <c r="A21" s="139"/>
+      <c r="A21" s="131"/>
     </row>
     <row r="22">
-      <c r="A22" s="139"/>
+      <c r="A22" s="131"/>
     </row>
     <row r="23">
-      <c r="A23" s="139"/>
+      <c r="A23" s="131"/>
     </row>
     <row r="24">
-      <c r="A24" s="139"/>
+      <c r="A24" s="131"/>
     </row>
     <row r="25">
-      <c r="A25" s="139"/>
+      <c r="A25" s="131"/>
     </row>
     <row r="26">
-      <c r="A26" s="139"/>
+      <c r="A26" s="131"/>
     </row>
     <row r="27">
-      <c r="A27" s="139"/>
+      <c r="A27" s="131"/>
     </row>
     <row r="28">
-      <c r="A28" s="139"/>
+      <c r="A28" s="131"/>
     </row>
     <row r="29">
-      <c r="A29" s="139"/>
+      <c r="A29" s="131"/>
     </row>
     <row r="30">
-      <c r="A30" s="139"/>
+      <c r="A30" s="131"/>
     </row>
     <row r="31">
-      <c r="A31" s="139"/>
+      <c r="A31" s="131"/>
     </row>
     <row r="32">
-      <c r="A32" s="139"/>
+      <c r="A32" s="131"/>
     </row>
     <row r="33">
-      <c r="A33" s="139"/>
+      <c r="A33" s="131"/>
     </row>
     <row r="34">
-      <c r="A34" s="139"/>
+      <c r="A34" s="131"/>
     </row>
     <row r="35">
-      <c r="A35" s="139"/>
+      <c r="A35" s="131"/>
     </row>
     <row r="36">
-      <c r="A36" s="139"/>
+      <c r="A36" s="131"/>
     </row>
     <row r="37">
-      <c r="A37" s="139"/>
+      <c r="A37" s="131"/>
     </row>
     <row r="38">
-      <c r="A38" s="139"/>
+      <c r="A38" s="131"/>
     </row>
     <row r="39">
-      <c r="A39" s="139"/>
+      <c r="A39" s="131"/>
     </row>
     <row r="40">
-      <c r="A40" s="139"/>
+      <c r="A40" s="131"/>
     </row>
     <row r="41">
-      <c r="A41" s="139"/>
+      <c r="A41" s="131"/>
     </row>
     <row r="42">
-      <c r="A42" s="139"/>
+      <c r="A42" s="131"/>
     </row>
     <row r="43">
-      <c r="A43" s="139"/>
+      <c r="A43" s="131"/>
     </row>
     <row r="44">
-      <c r="A44" s="139"/>
+      <c r="A44" s="131"/>
     </row>
     <row r="45">
-      <c r="A45" s="139"/>
+      <c r="A45" s="131"/>
     </row>
     <row r="46">
-      <c r="A46" s="139"/>
+      <c r="A46" s="131"/>
     </row>
     <row r="47">
-      <c r="A47" s="139"/>
+      <c r="A47" s="131"/>
     </row>
     <row r="48">
-      <c r="A48" s="139"/>
+      <c r="A48" s="131"/>
     </row>
     <row r="49">
-      <c r="A49" s="139"/>
+      <c r="A49" s="131"/>
     </row>
     <row r="50">
-      <c r="A50" s="139"/>
+      <c r="A50" s="131"/>
     </row>
     <row r="51">
-      <c r="A51" s="139"/>
+      <c r="A51" s="131"/>
     </row>
     <row r="52">
-      <c r="A52" s="139"/>
+      <c r="A52" s="131"/>
     </row>
     <row r="53">
-      <c r="A53" s="139"/>
+      <c r="A53" s="131"/>
     </row>
     <row r="54">
-      <c r="A54" s="139"/>
+      <c r="A54" s="131"/>
     </row>
     <row r="55">
-      <c r="A55" s="139"/>
+      <c r="A55" s="131"/>
     </row>
     <row r="56">
-      <c r="A56" s="139"/>
+      <c r="A56" s="131"/>
     </row>
     <row r="57">
-      <c r="A57" s="139"/>
+      <c r="A57" s="131"/>
     </row>
     <row r="58">
-      <c r="A58" s="139"/>
+      <c r="A58" s="131"/>
     </row>
     <row r="59">
-      <c r="A59" s="139"/>
+      <c r="A59" s="131"/>
     </row>
     <row r="60">
-      <c r="A60" s="139"/>
+      <c r="A60" s="131"/>
     </row>
     <row r="61">
-      <c r="A61" s="139"/>
+      <c r="A61" s="131"/>
     </row>
     <row r="62">
-      <c r="A62" s="139"/>
+      <c r="A62" s="131"/>
     </row>
     <row r="63">
-      <c r="A63" s="139"/>
+      <c r="A63" s="131"/>
     </row>
     <row r="64">
-      <c r="A64" s="139"/>
+      <c r="A64" s="131"/>
     </row>
     <row r="65">
-      <c r="A65" s="139"/>
+      <c r="A65" s="131"/>
     </row>
     <row r="66">
-      <c r="A66" s="139"/>
+      <c r="A66" s="131"/>
     </row>
     <row r="67">
-      <c r="A67" s="139"/>
+      <c r="A67" s="131"/>
     </row>
     <row r="68">
-      <c r="A68" s="139"/>
+      <c r="A68" s="131"/>
     </row>
     <row r="69">
-      <c r="A69" s="139"/>
+      <c r="A69" s="131"/>
     </row>
     <row r="70">
-      <c r="A70" s="139"/>
+      <c r="A70" s="131"/>
     </row>
     <row r="71">
-      <c r="A71" s="139"/>
+      <c r="A71" s="131"/>
     </row>
     <row r="72">
-      <c r="A72" s="139"/>
+      <c r="A72" s="131"/>
     </row>
     <row r="73">
-      <c r="A73" s="139"/>
+      <c r="A73" s="131"/>
     </row>
     <row r="74">
-      <c r="A74" s="139"/>
+      <c r="A74" s="131"/>
     </row>
     <row r="75">
-      <c r="A75" s="139"/>
+      <c r="A75" s="131"/>
     </row>
     <row r="76">
-      <c r="A76" s="139"/>
+      <c r="A76" s="131"/>
     </row>
     <row r="77">
-      <c r="A77" s="139"/>
+      <c r="A77" s="131"/>
     </row>
     <row r="78">
-      <c r="A78" s="139"/>
+      <c r="A78" s="131"/>
     </row>
     <row r="79">
-      <c r="A79" s="139"/>
+      <c r="A79" s="131"/>
     </row>
     <row r="80">
-      <c r="A80" s="139"/>
+      <c r="A80" s="131"/>
     </row>
     <row r="81">
-      <c r="A81" s="139"/>
+      <c r="A81" s="131"/>
     </row>
     <row r="82">
-      <c r="A82" s="139"/>
+      <c r="A82" s="131"/>
     </row>
     <row r="83">
-      <c r="A83" s="139"/>
+      <c r="A83" s="131"/>
     </row>
     <row r="84">
-      <c r="A84" s="139"/>
+      <c r="A84" s="131"/>
     </row>
     <row r="85">
-      <c r="A85" s="139"/>
+      <c r="A85" s="131"/>
     </row>
     <row r="86">
-      <c r="A86" s="139"/>
+      <c r="A86" s="131"/>
     </row>
     <row r="87">
-      <c r="A87" s="139"/>
+      <c r="A87" s="131"/>
     </row>
     <row r="88">
-      <c r="A88" s="139"/>
+      <c r="A88" s="131"/>
     </row>
     <row r="89">
-      <c r="A89" s="139"/>
+      <c r="A89" s="131"/>
     </row>
     <row r="90">
-      <c r="A90" s="139"/>
+      <c r="A90" s="131"/>
     </row>
     <row r="91">
-      <c r="A91" s="139"/>
+      <c r="A91" s="131"/>
     </row>
     <row r="92">
-      <c r="A92" s="139"/>
+      <c r="A92" s="131"/>
     </row>
     <row r="93">
-      <c r="A93" s="139"/>
+      <c r="A93" s="131"/>
     </row>
     <row r="94">
-      <c r="A94" s="139"/>
+      <c r="A94" s="131"/>
     </row>
     <row r="95">
-      <c r="A95" s="139"/>
+      <c r="A95" s="131"/>
     </row>
     <row r="96">
-      <c r="A96" s="139"/>
+      <c r="A96" s="131"/>
     </row>
     <row r="97">
-      <c r="A97" s="139"/>
+      <c r="A97" s="131"/>
     </row>
     <row r="98">
-      <c r="A98" s="139"/>
+      <c r="A98" s="131"/>
     </row>
     <row r="99">
-      <c r="A99" s="139"/>
+      <c r="A99" s="131"/>
     </row>
     <row r="100">
-      <c r="A100" s="139"/>
+      <c r="A100" s="131"/>
     </row>
     <row r="101">
-      <c r="A101" s="139"/>
+      <c r="A101" s="131"/>
     </row>
     <row r="102">
-      <c r="A102" s="139"/>
+      <c r="A102" s="131"/>
     </row>
     <row r="103">
-      <c r="A103" s="139"/>
+      <c r="A103" s="131"/>
     </row>
     <row r="104">
-      <c r="A104" s="139"/>
+      <c r="A104" s="131"/>
     </row>
     <row r="105">
-      <c r="A105" s="139"/>
+      <c r="A105" s="131"/>
     </row>
     <row r="106">
-      <c r="A106" s="139"/>
+      <c r="A106" s="131"/>
     </row>
     <row r="107">
-      <c r="A107" s="139"/>
+      <c r="A107" s="131"/>
     </row>
     <row r="108">
-      <c r="A108" s="139"/>
+      <c r="A108" s="131"/>
     </row>
     <row r="109">
-      <c r="A109" s="139"/>
+      <c r="A109" s="131"/>
     </row>
     <row r="110">
-      <c r="A110" s="139"/>
+      <c r="A110" s="131"/>
     </row>
     <row r="111">
-      <c r="A111" s="139"/>
+      <c r="A111" s="131"/>
     </row>
     <row r="112">
-      <c r="A112" s="139"/>
+      <c r="A112" s="131"/>
     </row>
     <row r="113">
-      <c r="A113" s="139"/>
+      <c r="A113" s="131"/>
     </row>
     <row r="114">
-      <c r="A114" s="139"/>
+      <c r="A114" s="131"/>
     </row>
     <row r="115">
-      <c r="A115" s="139"/>
+      <c r="A115" s="131"/>
     </row>
     <row r="116">
-      <c r="A116" s="139"/>
+      <c r="A116" s="131"/>
     </row>
     <row r="117">
-      <c r="A117" s="139"/>
+      <c r="A117" s="131"/>
     </row>
     <row r="118">
-      <c r="A118" s="139"/>
+      <c r="A118" s="131"/>
     </row>
     <row r="119">
-      <c r="A119" s="139"/>
+      <c r="A119" s="131"/>
     </row>
     <row r="120">
-      <c r="A120" s="139"/>
+      <c r="A120" s="131"/>
     </row>
     <row r="121">
-      <c r="A121" s="139"/>
+      <c r="A121" s="131"/>
     </row>
     <row r="122">
-      <c r="A122" s="139"/>
+      <c r="A122" s="131"/>
     </row>
     <row r="123">
-      <c r="A123" s="139"/>
+      <c r="A123" s="131"/>
     </row>
     <row r="124">
-      <c r="A124" s="139"/>
+      <c r="A124" s="131"/>
     </row>
     <row r="125">
-      <c r="A125" s="139"/>
+      <c r="A125" s="131"/>
     </row>
     <row r="126">
-      <c r="A126" s="139"/>
+      <c r="A126" s="131"/>
     </row>
     <row r="127">
-      <c r="A127" s="139"/>
+      <c r="A127" s="131"/>
     </row>
     <row r="128">
-      <c r="A128" s="139"/>
+      <c r="A128" s="131"/>
     </row>
     <row r="129">
-      <c r="A129" s="139"/>
+      <c r="A129" s="131"/>
     </row>
     <row r="130">
-      <c r="A130" s="139"/>
+      <c r="A130" s="131"/>
     </row>
     <row r="131">
-      <c r="A131" s="139"/>
+      <c r="A131" s="131"/>
     </row>
     <row r="132">
-      <c r="A132" s="139"/>
+      <c r="A132" s="131"/>
     </row>
     <row r="133">
-      <c r="A133" s="139"/>
+      <c r="A133" s="131"/>
     </row>
     <row r="134">
-      <c r="A134" s="139"/>
+      <c r="A134" s="131"/>
     </row>
     <row r="135">
-      <c r="A135" s="139"/>
+      <c r="A135" s="131"/>
     </row>
     <row r="136">
-      <c r="A136" s="139"/>
+      <c r="A136" s="131"/>
     </row>
     <row r="137">
-      <c r="A137" s="139"/>
+      <c r="A137" s="131"/>
     </row>
     <row r="138">
-      <c r="A138" s="139"/>
+      <c r="A138" s="131"/>
     </row>
     <row r="139">
-      <c r="A139" s="139"/>
+      <c r="A139" s="131"/>
     </row>
     <row r="140">
-      <c r="A140" s="139"/>
+      <c r="A140" s="131"/>
     </row>
     <row r="141">
-      <c r="A141" s="139"/>
+      <c r="A141" s="131"/>
     </row>
     <row r="142">
-      <c r="A142" s="139"/>
+      <c r="A142" s="131"/>
     </row>
     <row r="143">
-      <c r="A143" s="139"/>
+      <c r="A143" s="131"/>
     </row>
     <row r="144">
-      <c r="A144" s="139"/>
+      <c r="A144" s="131"/>
     </row>
     <row r="145">
-      <c r="A145" s="139"/>
+      <c r="A145" s="131"/>
     </row>
     <row r="146">
-      <c r="A146" s="139"/>
+      <c r="A146" s="131"/>
     </row>
     <row r="147">
-      <c r="A147" s="139"/>
+      <c r="A147" s="131"/>
     </row>
     <row r="148">
-      <c r="A148" s="139"/>
+      <c r="A148" s="131"/>
     </row>
     <row r="149">
-      <c r="A149" s="139"/>
+      <c r="A149" s="131"/>
     </row>
     <row r="150">
-      <c r="A150" s="139"/>
+      <c r="A150" s="131"/>
     </row>
     <row r="151">
-      <c r="A151" s="139"/>
+      <c r="A151" s="131"/>
     </row>
     <row r="152">
-      <c r="A152" s="139"/>
+      <c r="A152" s="131"/>
     </row>
     <row r="153">
-      <c r="A153" s="139"/>
+      <c r="A153" s="131"/>
     </row>
     <row r="154">
-      <c r="A154" s="139"/>
+      <c r="A154" s="131"/>
     </row>
     <row r="155">
-      <c r="A155" s="139"/>
+      <c r="A155" s="131"/>
     </row>
     <row r="156">
-      <c r="A156" s="139"/>
+      <c r="A156" s="131"/>
     </row>
     <row r="157">
-      <c r="A157" s="139"/>
+      <c r="A157" s="131"/>
     </row>
     <row r="158">
-      <c r="A158" s="139"/>
+      <c r="A158" s="131"/>
     </row>
     <row r="159">
-      <c r="A159" s="139"/>
+      <c r="A159" s="131"/>
     </row>
     <row r="160">
-      <c r="A160" s="139"/>
+      <c r="A160" s="131"/>
     </row>
     <row r="161">
-      <c r="A161" s="139"/>
+      <c r="A161" s="131"/>
     </row>
     <row r="162">
-      <c r="A162" s="139"/>
+      <c r="A162" s="131"/>
     </row>
     <row r="163">
-      <c r="A163" s="139"/>
+      <c r="A163" s="131"/>
     </row>
     <row r="164">
-      <c r="A164" s="139"/>
+      <c r="A164" s="131"/>
     </row>
     <row r="165">
-      <c r="A165" s="139"/>
+      <c r="A165" s="131"/>
     </row>
     <row r="166">
-      <c r="A166" s="139"/>
+      <c r="A166" s="131"/>
     </row>
     <row r="167">
-      <c r="A167" s="139"/>
+      <c r="A167" s="131"/>
     </row>
     <row r="168">
-      <c r="A168" s="139"/>
+      <c r="A168" s="131"/>
     </row>
     <row r="169">
-      <c r="A169" s="139"/>
+      <c r="A169" s="131"/>
     </row>
     <row r="170">
-      <c r="A170" s="139"/>
+      <c r="A170" s="131"/>
     </row>
     <row r="171">
-      <c r="A171" s="139"/>
+      <c r="A171" s="131"/>
     </row>
     <row r="172">
-      <c r="A172" s="139"/>
+      <c r="A172" s="131"/>
     </row>
     <row r="173">
-      <c r="A173" s="139"/>
+      <c r="A173" s="131"/>
     </row>
     <row r="174">
-      <c r="A174" s="139"/>
+      <c r="A174" s="131"/>
     </row>
     <row r="175">
-      <c r="A175" s="139"/>
+      <c r="A175" s="131"/>
     </row>
     <row r="176">
-      <c r="A176" s="139"/>
+      <c r="A176" s="131"/>
     </row>
     <row r="177">
-      <c r="A177" s="139"/>
+      <c r="A177" s="131"/>
     </row>
     <row r="178">
-      <c r="A178" s="139"/>
+      <c r="A178" s="131"/>
     </row>
     <row r="179">
-      <c r="A179" s="139"/>
+      <c r="A179" s="131"/>
     </row>
     <row r="180">
-      <c r="A180" s="139"/>
+      <c r="A180" s="131"/>
     </row>
     <row r="181">
-      <c r="A181" s="139"/>
+      <c r="A181" s="131"/>
     </row>
     <row r="182">
-      <c r="A182" s="139"/>
+      <c r="A182" s="131"/>
     </row>
     <row r="183">
-      <c r="A183" s="139"/>
+      <c r="A183" s="131"/>
     </row>
     <row r="184">
-      <c r="A184" s="139"/>
+      <c r="A184" s="131"/>
     </row>
     <row r="185">
-      <c r="A185" s="139"/>
+      <c r="A185" s="131"/>
     </row>
     <row r="186">
-      <c r="A186" s="139"/>
+      <c r="A186" s="131"/>
     </row>
     <row r="187">
-      <c r="A187" s="139"/>
+      <c r="A187" s="131"/>
     </row>
     <row r="188">
-      <c r="A188" s="139"/>
+      <c r="A188" s="131"/>
     </row>
     <row r="189">
-      <c r="A189" s="139"/>
+      <c r="A189" s="131"/>
     </row>
     <row r="190">
-      <c r="A190" s="139"/>
+      <c r="A190" s="131"/>
     </row>
     <row r="191">
-      <c r="A191" s="139"/>
+      <c r="A191" s="131"/>
     </row>
     <row r="192">
-      <c r="A192" s="139"/>
+      <c r="A192" s="131"/>
     </row>
     <row r="193">
-      <c r="A193" s="139"/>
+      <c r="A193" s="131"/>
     </row>
     <row r="194">
-      <c r="A194" s="139"/>
+      <c r="A194" s="131"/>
     </row>
     <row r="195">
-      <c r="A195" s="139"/>
+      <c r="A195" s="131"/>
     </row>
     <row r="196">
-      <c r="A196" s="139"/>
+      <c r="A196" s="131"/>
     </row>
     <row r="197">
-      <c r="A197" s="139"/>
+      <c r="A197" s="131"/>
     </row>
     <row r="198">
-      <c r="A198" s="139"/>
+      <c r="A198" s="131"/>
     </row>
     <row r="199">
-      <c r="A199" s="139"/>
+      <c r="A199" s="131"/>
     </row>
     <row r="200">
-      <c r="A200" s="139"/>
+      <c r="A200" s="131"/>
     </row>
     <row r="201">
-      <c r="A201" s="139"/>
+      <c r="A201" s="131"/>
     </row>
     <row r="202">
-      <c r="A202" s="139"/>
+      <c r="A202" s="131"/>
     </row>
     <row r="203">
-      <c r="A203" s="139"/>
+      <c r="A203" s="131"/>
     </row>
     <row r="204">
-      <c r="A204" s="139"/>
+      <c r="A204" s="131"/>
     </row>
     <row r="205">
-      <c r="A205" s="139"/>
+      <c r="A205" s="131"/>
     </row>
     <row r="206">
-      <c r="A206" s="139"/>
+      <c r="A206" s="131"/>
     </row>
     <row r="207">
-      <c r="A207" s="139"/>
+      <c r="A207" s="131"/>
     </row>
     <row r="208">
-      <c r="A208" s="139"/>
+      <c r="A208" s="131"/>
     </row>
     <row r="209">
-      <c r="A209" s="139"/>
+      <c r="A209" s="131"/>
     </row>
     <row r="210">
-      <c r="A210" s="139"/>
+      <c r="A210" s="131"/>
     </row>
     <row r="211">
-      <c r="A211" s="139"/>
+      <c r="A211" s="131"/>
     </row>
     <row r="212">
-      <c r="A212" s="139"/>
+      <c r="A212" s="131"/>
     </row>
     <row r="213">
-      <c r="A213" s="139"/>
+      <c r="A213" s="131"/>
     </row>
     <row r="214">
-      <c r="A214" s="139"/>
+      <c r="A214" s="131"/>
     </row>
     <row r="215">
-      <c r="A215" s="139"/>
+      <c r="A215" s="131"/>
     </row>
     <row r="216">
-      <c r="A216" s="139"/>
+      <c r="A216" s="131"/>
     </row>
     <row r="217">
-      <c r="A217" s="139"/>
+      <c r="A217" s="131"/>
     </row>
     <row r="218">
-      <c r="A218" s="139"/>
+      <c r="A218" s="131"/>
     </row>
     <row r="219">
-      <c r="A219" s="139"/>
+      <c r="A219" s="131"/>
     </row>
     <row r="220">
-      <c r="A220" s="139"/>
+      <c r="A220" s="131"/>
     </row>
     <row r="221">
-      <c r="A221" s="139"/>
+      <c r="A221" s="131"/>
     </row>
     <row r="222">
-      <c r="A222" s="139"/>
+      <c r="A222" s="131"/>
     </row>
     <row r="223">
-      <c r="A223" s="139"/>
+      <c r="A223" s="131"/>
     </row>
     <row r="224">
-      <c r="A224" s="139"/>
+      <c r="A224" s="131"/>
     </row>
     <row r="225">
-      <c r="A225" s="139"/>
+      <c r="A225" s="131"/>
     </row>
     <row r="226">
-      <c r="A226" s="139"/>
+      <c r="A226" s="131"/>
     </row>
     <row r="227">
-      <c r="A227" s="139"/>
+      <c r="A227" s="131"/>
     </row>
     <row r="228">
-      <c r="A228" s="139"/>
+      <c r="A228" s="131"/>
     </row>
     <row r="229">
-      <c r="A229" s="139"/>
+      <c r="A229" s="131"/>
     </row>
     <row r="230">
-      <c r="A230" s="139"/>
+      <c r="A230" s="131"/>
     </row>
     <row r="231">
-      <c r="A231" s="139"/>
+      <c r="A231" s="131"/>
     </row>
     <row r="232">
-      <c r="A232" s="139"/>
+      <c r="A232" s="131"/>
     </row>
     <row r="233">
-      <c r="A233" s="139"/>
+      <c r="A233" s="131"/>
     </row>
     <row r="234">
-      <c r="A234" s="139"/>
+      <c r="A234" s="131"/>
     </row>
     <row r="235">
-      <c r="A235" s="139"/>
+      <c r="A235" s="131"/>
     </row>
     <row r="236">
-      <c r="A236" s="139"/>
+      <c r="A236" s="131"/>
     </row>
     <row r="237">
-      <c r="A237" s="139"/>
+      <c r="A237" s="131"/>
     </row>
     <row r="238">
-      <c r="A238" s="139"/>
+      <c r="A238" s="131"/>
     </row>
     <row r="239">
-      <c r="A239" s="139"/>
+      <c r="A239" s="131"/>
     </row>
     <row r="240">
-      <c r="A240" s="139"/>
+      <c r="A240" s="131"/>
     </row>
     <row r="241">
-      <c r="A241" s="139"/>
+      <c r="A241" s="131"/>
     </row>
     <row r="242">
-      <c r="A242" s="139"/>
+      <c r="A242" s="131"/>
     </row>
     <row r="243">
-      <c r="A243" s="139"/>
+      <c r="A243" s="131"/>
     </row>
     <row r="244">
-      <c r="A244" s="139"/>
+      <c r="A244" s="131"/>
     </row>
     <row r="245">
-      <c r="A245" s="139"/>
+      <c r="A245" s="131"/>
     </row>
     <row r="246">
-      <c r="A246" s="139"/>
+      <c r="A246" s="131"/>
     </row>
     <row r="247">
-      <c r="A247" s="139"/>
+      <c r="A247" s="131"/>
     </row>
     <row r="248">
-      <c r="A248" s="139"/>
+      <c r="A248" s="131"/>
     </row>
     <row r="249">
-      <c r="A249" s="139"/>
+      <c r="A249" s="131"/>
     </row>
     <row r="250">
-      <c r="A250" s="139"/>
+      <c r="A250" s="131"/>
     </row>
     <row r="251">
-      <c r="A251" s="139"/>
+      <c r="A251" s="131"/>
     </row>
     <row r="252">
-      <c r="A252" s="139"/>
+      <c r="A252" s="131"/>
     </row>
     <row r="253">
-      <c r="A253" s="139"/>
+      <c r="A253" s="131"/>
     </row>
     <row r="254">
-      <c r="A254" s="139"/>
+      <c r="A254" s="131"/>
     </row>
     <row r="255">
-      <c r="A255" s="139"/>
+      <c r="A255" s="131"/>
     </row>
     <row r="256">
-      <c r="A256" s="139"/>
+      <c r="A256" s="131"/>
     </row>
     <row r="257">
-      <c r="A257" s="139"/>
+      <c r="A257" s="131"/>
     </row>
     <row r="258">
-      <c r="A258" s="139"/>
+      <c r="A258" s="131"/>
     </row>
     <row r="259">
-      <c r="A259" s="139"/>
+      <c r="A259" s="131"/>
     </row>
     <row r="260">
-      <c r="A260" s="139"/>
+      <c r="A260" s="131"/>
     </row>
     <row r="261">
-      <c r="A261" s="139"/>
+      <c r="A261" s="131"/>
     </row>
     <row r="262">
-      <c r="A262" s="139"/>
+      <c r="A262" s="131"/>
     </row>
     <row r="263">
-      <c r="A263" s="139"/>
+      <c r="A263" s="131"/>
     </row>
     <row r="264">
-      <c r="A264" s="139"/>
+      <c r="A264" s="131"/>
     </row>
     <row r="265">
-      <c r="A265" s="139"/>
+      <c r="A265" s="131"/>
     </row>
     <row r="266">
-      <c r="A266" s="139"/>
+      <c r="A266" s="131"/>
     </row>
     <row r="267">
-      <c r="A267" s="139"/>
+      <c r="A267" s="131"/>
     </row>
     <row r="268">
-      <c r="A268" s="139"/>
+      <c r="A268" s="131"/>
     </row>
     <row r="269">
-      <c r="A269" s="139"/>
+      <c r="A269" s="131"/>
     </row>
     <row r="270">
-      <c r="A270" s="139"/>
+      <c r="A270" s="131"/>
     </row>
     <row r="271">
-      <c r="A271" s="139"/>
+      <c r="A271" s="131"/>
     </row>
     <row r="272">
-      <c r="A272" s="139"/>
+      <c r="A272" s="131"/>
     </row>
     <row r="273">
-      <c r="A273" s="139"/>
+      <c r="A273" s="131"/>
     </row>
     <row r="274">
-      <c r="A274" s="139"/>
+      <c r="A274" s="131"/>
     </row>
     <row r="275">
-      <c r="A275" s="139"/>
+      <c r="A275" s="131"/>
     </row>
     <row r="276">
-      <c r="A276" s="139"/>
+      <c r="A276" s="131"/>
     </row>
     <row r="277">
-      <c r="A277" s="139"/>
+      <c r="A277" s="131"/>
     </row>
     <row r="278">
-      <c r="A278" s="139"/>
+      <c r="A278" s="131"/>
     </row>
     <row r="279">
-      <c r="A279" s="139"/>
+      <c r="A279" s="131"/>
     </row>
     <row r="280">
-      <c r="A280" s="139"/>
+      <c r="A280" s="131"/>
     </row>
     <row r="281">
-      <c r="A281" s="139"/>
+      <c r="A281" s="131"/>
     </row>
     <row r="282">
-      <c r="A282" s="139"/>
+      <c r="A282" s="131"/>
     </row>
     <row r="283">
-      <c r="A283" s="139"/>
+      <c r="A283" s="131"/>
     </row>
     <row r="284">
-      <c r="A284" s="139"/>
+      <c r="A284" s="131"/>
     </row>
     <row r="285">
-      <c r="A285" s="139"/>
+      <c r="A285" s="131"/>
     </row>
     <row r="286">
-      <c r="A286" s="139"/>
+      <c r="A286" s="131"/>
     </row>
     <row r="287">
-      <c r="A287" s="139"/>
+      <c r="A287" s="131"/>
     </row>
     <row r="288">
-      <c r="A288" s="139"/>
+      <c r="A288" s="131"/>
     </row>
     <row r="289">
-      <c r="A289" s="139"/>
+      <c r="A289" s="131"/>
     </row>
     <row r="290">
-      <c r="A290" s="139"/>
+      <c r="A290" s="131"/>
     </row>
     <row r="291">
-      <c r="A291" s="139"/>
+      <c r="A291" s="131"/>
     </row>
     <row r="292">
-      <c r="A292" s="139"/>
+      <c r="A292" s="131"/>
     </row>
     <row r="293">
-      <c r="A293" s="139"/>
+      <c r="A293" s="131"/>
     </row>
     <row r="294">
-      <c r="A294" s="139"/>
+      <c r="A294" s="131"/>
     </row>
     <row r="295">
-      <c r="A295" s="139"/>
+      <c r="A295" s="131"/>
     </row>
     <row r="296">
-      <c r="A296" s="139"/>
+      <c r="A296" s="131"/>
     </row>
     <row r="297">
-      <c r="A297" s="139"/>
+      <c r="A297" s="131"/>
     </row>
     <row r="298">
-      <c r="A298" s="139"/>
+      <c r="A298" s="131"/>
     </row>
     <row r="299">
-      <c r="A299" s="139"/>
+      <c r="A299" s="131"/>
     </row>
     <row r="300">
-      <c r="A300" s="139"/>
+      <c r="A300" s="131"/>
     </row>
     <row r="301">
-      <c r="A301" s="139"/>
+      <c r="A301" s="131"/>
     </row>
     <row r="302">
-      <c r="A302" s="139"/>
+      <c r="A302" s="131"/>
     </row>
     <row r="303">
-      <c r="A303" s="139"/>
+      <c r="A303" s="131"/>
     </row>
     <row r="304">
-      <c r="A304" s="139"/>
+      <c r="A304" s="131"/>
     </row>
     <row r="305">
-      <c r="A305" s="139"/>
+      <c r="A305" s="131"/>
     </row>
     <row r="306">
-      <c r="A306" s="139"/>
+      <c r="A306" s="131"/>
     </row>
     <row r="307">
-      <c r="A307" s="139"/>
+      <c r="A307" s="131"/>
     </row>
     <row r="308">
-      <c r="A308" s="139"/>
+      <c r="A308" s="131"/>
     </row>
     <row r="309">
-      <c r="A309" s="139"/>
+      <c r="A309" s="131"/>
     </row>
     <row r="310">
-      <c r="A310" s="139"/>
+      <c r="A310" s="131"/>
     </row>
     <row r="311">
-      <c r="A311" s="139"/>
+      <c r="A311" s="131"/>
     </row>
     <row r="312">
-      <c r="A312" s="139"/>
+      <c r="A312" s="131"/>
     </row>
     <row r="313">
-      <c r="A313" s="139"/>
+      <c r="A313" s="131"/>
     </row>
     <row r="314">
-      <c r="A314" s="139"/>
+      <c r="A314" s="131"/>
     </row>
     <row r="315">
-      <c r="A315" s="139"/>
+      <c r="A315" s="131"/>
     </row>
     <row r="316">
-      <c r="A316" s="139"/>
+      <c r="A316" s="131"/>
     </row>
     <row r="317">
-      <c r="A317" s="139"/>
+      <c r="A317" s="131"/>
     </row>
     <row r="318">
-      <c r="A318" s="139"/>
+      <c r="A318" s="131"/>
     </row>
     <row r="319">
-      <c r="A319" s="139"/>
+      <c r="A319" s="131"/>
     </row>
     <row r="320">
-      <c r="A320" s="139"/>
+      <c r="A320" s="131"/>
     </row>
     <row r="321">
-      <c r="A321" s="139"/>
+      <c r="A321" s="131"/>
     </row>
     <row r="322">
-      <c r="A322" s="139"/>
+      <c r="A322" s="131"/>
     </row>
     <row r="323">
-      <c r="A323" s="139"/>
+      <c r="A323" s="131"/>
     </row>
     <row r="324">
-      <c r="A324" s="139"/>
+      <c r="A324" s="131"/>
     </row>
     <row r="325">
-      <c r="A325" s="139"/>
+      <c r="A325" s="131"/>
     </row>
     <row r="326">
-      <c r="A326" s="139"/>
+      <c r="A326" s="131"/>
     </row>
     <row r="327">
-      <c r="A327" s="139"/>
+      <c r="A327" s="131"/>
     </row>
     <row r="328">
-      <c r="A328" s="139"/>
+      <c r="A328" s="131"/>
     </row>
     <row r="329">
-      <c r="A329" s="139"/>
+      <c r="A329" s="131"/>
     </row>
     <row r="330">
-      <c r="A330" s="139"/>
+      <c r="A330" s="131"/>
     </row>
     <row r="331">
-      <c r="A331" s="139"/>
+      <c r="A331" s="131"/>
     </row>
     <row r="332">
-      <c r="A332" s="139"/>
+      <c r="A332" s="131"/>
     </row>
     <row r="333">
-      <c r="A333" s="139"/>
+      <c r="A333" s="131"/>
     </row>
     <row r="334">
-      <c r="A334" s="139"/>
+      <c r="A334" s="131"/>
     </row>
     <row r="335">
-      <c r="A335" s="139"/>
+      <c r="A335" s="131"/>
     </row>
     <row r="336">
-      <c r="A336" s="139"/>
+      <c r="A336" s="131"/>
     </row>
     <row r="337">
-      <c r="A337" s="139"/>
+      <c r="A337" s="131"/>
     </row>
     <row r="338">
-      <c r="A338" s="139"/>
+      <c r="A338" s="131"/>
     </row>
     <row r="339">
-      <c r="A339" s="139"/>
+      <c r="A339" s="131"/>
     </row>
     <row r="340">
-      <c r="A340" s="139"/>
+      <c r="A340" s="131"/>
     </row>
     <row r="341">
-      <c r="A341" s="139"/>
+      <c r="A341" s="131"/>
     </row>
     <row r="342">
-      <c r="A342" s="139"/>
+      <c r="A342" s="131"/>
     </row>
     <row r="343">
-      <c r="A343" s="139"/>
+      <c r="A343" s="131"/>
     </row>
     <row r="344">
-      <c r="A344" s="139"/>
+      <c r="A344" s="131"/>
     </row>
     <row r="345">
-      <c r="A345" s="139"/>
+      <c r="A345" s="131"/>
     </row>
     <row r="346">
-      <c r="A346" s="139"/>
+      <c r="A346" s="131"/>
     </row>
     <row r="347">
-      <c r="A347" s="139"/>
+      <c r="A347" s="131"/>
     </row>
     <row r="348">
-      <c r="A348" s="139"/>
+      <c r="A348" s="131"/>
     </row>
     <row r="349">
-      <c r="A349" s="139"/>
+      <c r="A349" s="131"/>
     </row>
     <row r="350">
-      <c r="A350" s="139"/>
+      <c r="A350" s="131"/>
     </row>
     <row r="351">
-      <c r="A351" s="139"/>
+      <c r="A351" s="131"/>
     </row>
     <row r="352">
-      <c r="A352" s="139"/>
+      <c r="A352" s="131"/>
     </row>
     <row r="353">
-      <c r="A353" s="139"/>
+      <c r="A353" s="131"/>
     </row>
     <row r="354">
-      <c r="A354" s="139"/>
+      <c r="A354" s="131"/>
     </row>
     <row r="355">
-      <c r="A355" s="139"/>
+      <c r="A355" s="131"/>
     </row>
     <row r="356">
-      <c r="A356" s="139"/>
+      <c r="A356" s="131"/>
     </row>
     <row r="357">
-      <c r="A357" s="139"/>
+      <c r="A357" s="131"/>
     </row>
     <row r="358">
-      <c r="A358" s="139"/>
+      <c r="A358" s="131"/>
     </row>
     <row r="359">
-      <c r="A359" s="139"/>
+      <c r="A359" s="131"/>
     </row>
     <row r="360">
-      <c r="A360" s="139"/>
+      <c r="A360" s="131"/>
     </row>
     <row r="361">
-      <c r="A361" s="139"/>
+      <c r="A361" s="131"/>
     </row>
     <row r="362">
-      <c r="A362" s="139"/>
+      <c r="A362" s="131"/>
     </row>
     <row r="363">
-      <c r="A363" s="139"/>
+      <c r="A363" s="131"/>
     </row>
     <row r="364">
-      <c r="A364" s="139"/>
+      <c r="A364" s="131"/>
     </row>
     <row r="365">
-      <c r="A365" s="139"/>
+      <c r="A365" s="131"/>
     </row>
     <row r="366">
-      <c r="A366" s="139"/>
+      <c r="A366" s="131"/>
     </row>
     <row r="367">
-      <c r="A367" s="139"/>
+      <c r="A367" s="131"/>
     </row>
     <row r="368">
-      <c r="A368" s="139"/>
+      <c r="A368" s="131"/>
     </row>
     <row r="369">
-      <c r="A369" s="139"/>
+      <c r="A369" s="131"/>
     </row>
     <row r="370">
-      <c r="A370" s="139"/>
+      <c r="A370" s="131"/>
     </row>
     <row r="371">
-      <c r="A371" s="139"/>
+      <c r="A371" s="131"/>
     </row>
     <row r="372">
-      <c r="A372" s="139"/>
+      <c r="A372" s="131"/>
     </row>
     <row r="373">
-      <c r="A373" s="139"/>
+      <c r="A373" s="131"/>
     </row>
     <row r="374">
-      <c r="A374" s="139"/>
+      <c r="A374" s="131"/>
     </row>
     <row r="375">
-      <c r="A375" s="139"/>
+      <c r="A375" s="131"/>
     </row>
     <row r="376">
-      <c r="A376" s="139"/>
+      <c r="A376" s="131"/>
     </row>
     <row r="377">
-      <c r="A377" s="139"/>
+      <c r="A377" s="131"/>
     </row>
     <row r="378">
-      <c r="A378" s="139"/>
+      <c r="A378" s="131"/>
     </row>
     <row r="379">
-      <c r="A379" s="139"/>
+      <c r="A379" s="131"/>
     </row>
     <row r="380">
-      <c r="A380" s="139"/>
+      <c r="A380" s="131"/>
     </row>
     <row r="381">
-      <c r="A381" s="139"/>
+      <c r="A381" s="131"/>
     </row>
     <row r="382">
-      <c r="A382" s="139"/>
+      <c r="A382" s="131"/>
     </row>
     <row r="383">
-      <c r="A383" s="139"/>
+      <c r="A383" s="131"/>
     </row>
     <row r="384">
-      <c r="A384" s="139"/>
+      <c r="A384" s="131"/>
     </row>
     <row r="385">
-      <c r="A385" s="139"/>
+      <c r="A385" s="131"/>
     </row>
     <row r="386">
-      <c r="A386" s="139"/>
+      <c r="A386" s="131"/>
     </row>
     <row r="387">
-      <c r="A387" s="139"/>
+      <c r="A387" s="131"/>
     </row>
     <row r="388">
-      <c r="A388" s="139"/>
+      <c r="A388" s="131"/>
     </row>
     <row r="389">
-      <c r="A389" s="139"/>
+      <c r="A389" s="131"/>
     </row>
     <row r="390">
-      <c r="A390" s="139"/>
+      <c r="A390" s="131"/>
     </row>
     <row r="391">
-      <c r="A391" s="139"/>
+      <c r="A391" s="131"/>
     </row>
     <row r="392">
-      <c r="A392" s="139"/>
+      <c r="A392" s="131"/>
     </row>
     <row r="393">
-      <c r="A393" s="139"/>
+      <c r="A393" s="131"/>
     </row>
     <row r="394">
-      <c r="A394" s="139"/>
+      <c r="A394" s="131"/>
     </row>
     <row r="395">
-      <c r="A395" s="139"/>
+      <c r="A395" s="131"/>
     </row>
     <row r="396">
-      <c r="A396" s="139"/>
+      <c r="A396" s="131"/>
     </row>
     <row r="397">
-      <c r="A397" s="139"/>
+      <c r="A397" s="131"/>
     </row>
     <row r="398">
-      <c r="A398" s="139"/>
+      <c r="A398" s="131"/>
     </row>
     <row r="399">
-      <c r="A399" s="139"/>
+      <c r="A399" s="131"/>
     </row>
     <row r="400">
-      <c r="A400" s="139"/>
+      <c r="A400" s="131"/>
     </row>
     <row r="401">
-      <c r="A401" s="139"/>
+      <c r="A401" s="131"/>
     </row>
     <row r="402">
-      <c r="A402" s="139"/>
+      <c r="A402" s="131"/>
     </row>
     <row r="403">
-      <c r="A403" s="139"/>
+      <c r="A403" s="131"/>
     </row>
     <row r="404">
-      <c r="A404" s="139"/>
+      <c r="A404" s="131"/>
     </row>
     <row r="405">
-      <c r="A405" s="139"/>
+      <c r="A405" s="131"/>
     </row>
     <row r="406">
-      <c r="A406" s="139"/>
+      <c r="A406" s="131"/>
     </row>
     <row r="407">
-      <c r="A407" s="139"/>
+      <c r="A407" s="131"/>
     </row>
     <row r="408">
-      <c r="A408" s="139"/>
+      <c r="A408" s="131"/>
     </row>
     <row r="409">
-      <c r="A409" s="139"/>
+      <c r="A409" s="131"/>
     </row>
     <row r="410">
-      <c r="A410" s="139"/>
+      <c r="A410" s="131"/>
     </row>
     <row r="411">
-      <c r="A411" s="139"/>
+      <c r="A411" s="131"/>
     </row>
     <row r="412">
-      <c r="A412" s="139"/>
+      <c r="A412" s="131"/>
     </row>
     <row r="413">
-      <c r="A413" s="139"/>
+      <c r="A413" s="131"/>
     </row>
     <row r="414">
-      <c r="A414" s="139"/>
+      <c r="A414" s="131"/>
     </row>
     <row r="415">
-      <c r="A415" s="139"/>
+      <c r="A415" s="131"/>
     </row>
     <row r="416">
-      <c r="A416" s="139"/>
+      <c r="A416" s="131"/>
     </row>
     <row r="417">
-      <c r="A417" s="139"/>
+      <c r="A417" s="131"/>
     </row>
     <row r="418">
-      <c r="A418" s="139"/>
+      <c r="A418" s="131"/>
     </row>
     <row r="419">
-      <c r="A419" s="139"/>
+      <c r="A419" s="131"/>
     </row>
     <row r="420">
-      <c r="A420" s="139"/>
+      <c r="A420" s="131"/>
     </row>
     <row r="421">
-      <c r="A421" s="139"/>
+      <c r="A421" s="131"/>
     </row>
     <row r="422">
-      <c r="A422" s="139"/>
+      <c r="A422" s="131"/>
     </row>
     <row r="423">
-      <c r="A423" s="139"/>
+      <c r="A423" s="131"/>
     </row>
     <row r="424">
-      <c r="A424" s="139"/>
+      <c r="A424" s="131"/>
     </row>
     <row r="425">
-      <c r="A425" s="139"/>
+      <c r="A425" s="131"/>
     </row>
     <row r="426">
-      <c r="A426" s="139"/>
+      <c r="A426" s="131"/>
     </row>
     <row r="427">
-      <c r="A427" s="139"/>
+      <c r="A427" s="131"/>
     </row>
     <row r="428">
-      <c r="A428" s="139"/>
+      <c r="A428" s="131"/>
     </row>
     <row r="429">
-      <c r="A429" s="139"/>
+      <c r="A429" s="131"/>
     </row>
     <row r="430">
-      <c r="A430" s="139"/>
+      <c r="A430" s="131"/>
     </row>
     <row r="431">
-      <c r="A431" s="139"/>
+      <c r="A431" s="131"/>
     </row>
     <row r="432">
-      <c r="A432" s="139"/>
+      <c r="A432" s="131"/>
     </row>
     <row r="433">
-      <c r="A433" s="139"/>
+      <c r="A433" s="131"/>
     </row>
     <row r="434">
-      <c r="A434" s="139"/>
+      <c r="A434" s="131"/>
     </row>
     <row r="435">
-      <c r="A435" s="139"/>
+      <c r="A435" s="131"/>
     </row>
     <row r="436">
-      <c r="A436" s="139"/>
+      <c r="A436" s="131"/>
     </row>
     <row r="437">
-      <c r="A437" s="139"/>
+      <c r="A437" s="131"/>
     </row>
     <row r="438">
-      <c r="A438" s="139"/>
+      <c r="A438" s="131"/>
     </row>
     <row r="439">
-      <c r="A439" s="139"/>
+      <c r="A439" s="131"/>
     </row>
     <row r="440">
-      <c r="A440" s="139"/>
+      <c r="A440" s="131"/>
     </row>
     <row r="441">
-      <c r="A441" s="139"/>
+      <c r="A441" s="131"/>
     </row>
     <row r="442">
-      <c r="A442" s="139"/>
+      <c r="A442" s="131"/>
     </row>
     <row r="443">
-      <c r="A443" s="139"/>
+      <c r="A443" s="131"/>
     </row>
     <row r="444">
-      <c r="A444" s="139"/>
+      <c r="A444" s="131"/>
     </row>
     <row r="445">
-      <c r="A445" s="139"/>
+      <c r="A445" s="131"/>
     </row>
     <row r="446">
-      <c r="A446" s="139"/>
+      <c r="A446" s="131"/>
     </row>
     <row r="447">
-      <c r="A447" s="139"/>
+      <c r="A447" s="131"/>
     </row>
     <row r="448">
-      <c r="A448" s="139"/>
+      <c r="A448" s="131"/>
     </row>
     <row r="449">
-      <c r="A449" s="139"/>
+      <c r="A449" s="131"/>
     </row>
     <row r="450">
-      <c r="A450" s="139"/>
+      <c r="A450" s="131"/>
     </row>
     <row r="451">
-      <c r="A451" s="139"/>
+      <c r="A451" s="131"/>
     </row>
     <row r="452">
-      <c r="A452" s="139"/>
+      <c r="A452" s="131"/>
     </row>
     <row r="453">
-      <c r="A453" s="139"/>
+      <c r="A453" s="131"/>
     </row>
     <row r="454">
-      <c r="A454" s="139"/>
+      <c r="A454" s="131"/>
     </row>
     <row r="455">
-      <c r="A455" s="139"/>
+      <c r="A455" s="131"/>
     </row>
     <row r="456">
-      <c r="A456" s="139"/>
+      <c r="A456" s="131"/>
     </row>
     <row r="457">
-      <c r="A457" s="139"/>
+      <c r="A457" s="131"/>
     </row>
     <row r="458">
-      <c r="A458" s="139"/>
+      <c r="A458" s="131"/>
     </row>
     <row r="459">
-      <c r="A459" s="139"/>
+      <c r="A459" s="131"/>
     </row>
     <row r="460">
-      <c r="A460" s="139"/>
+      <c r="A460" s="131"/>
     </row>
     <row r="461">
-      <c r="A461" s="139"/>
+      <c r="A461" s="131"/>
     </row>
     <row r="462">
-      <c r="A462" s="139"/>
+      <c r="A462" s="131"/>
     </row>
     <row r="463">
-      <c r="A463" s="139"/>
+      <c r="A463" s="131"/>
     </row>
     <row r="464">
-      <c r="A464" s="139"/>
+      <c r="A464" s="131"/>
     </row>
     <row r="465">
-      <c r="A465" s="139"/>
+      <c r="A465" s="131"/>
     </row>
     <row r="466">
-      <c r="A466" s="139"/>
+      <c r="A466" s="131"/>
     </row>
     <row r="467">
-      <c r="A467" s="139"/>
+      <c r="A467" s="131"/>
     </row>
     <row r="468">
-      <c r="A468" s="139"/>
+      <c r="A468" s="131"/>
     </row>
     <row r="469">
-      <c r="A469" s="139"/>
+      <c r="A469" s="131"/>
     </row>
     <row r="470">
-      <c r="A470" s="139"/>
+      <c r="A470" s="131"/>
     </row>
     <row r="471">
-      <c r="A471" s="139"/>
+      <c r="A471" s="131"/>
     </row>
     <row r="472">
-      <c r="A472" s="139"/>
+      <c r="A472" s="131"/>
     </row>
     <row r="473">
-      <c r="A473" s="139"/>
+      <c r="A473" s="131"/>
     </row>
     <row r="474">
-      <c r="A474" s="139"/>
+      <c r="A474" s="131"/>
     </row>
     <row r="475">
-      <c r="A475" s="139"/>
+      <c r="A475" s="131"/>
     </row>
     <row r="476">
-      <c r="A476" s="139"/>
+      <c r="A476" s="131"/>
     </row>
     <row r="477">
-      <c r="A477" s="139"/>
+      <c r="A477" s="131"/>
     </row>
     <row r="478">
-      <c r="A478" s="139"/>
+      <c r="A478" s="131"/>
     </row>
     <row r="479">
-      <c r="A479" s="139"/>
+      <c r="A479" s="131"/>
     </row>
     <row r="480">
-      <c r="A480" s="139"/>
+      <c r="A480" s="131"/>
     </row>
     <row r="481">
-      <c r="A481" s="139"/>
+      <c r="A481" s="131"/>
     </row>
     <row r="482">
-      <c r="A482" s="139"/>
+      <c r="A482" s="131"/>
     </row>
     <row r="483">
-      <c r="A483" s="139"/>
+      <c r="A483" s="131"/>
     </row>
     <row r="484">
-      <c r="A484" s="139"/>
+      <c r="A484" s="131"/>
     </row>
     <row r="485">
-      <c r="A485" s="139"/>
+      <c r="A485" s="131"/>
     </row>
     <row r="486">
-      <c r="A486" s="139"/>
+      <c r="A486" s="131"/>
     </row>
     <row r="487">
-      <c r="A487" s="139"/>
+      <c r="A487" s="131"/>
     </row>
     <row r="488">
-      <c r="A488" s="139"/>
+      <c r="A488" s="131"/>
     </row>
     <row r="489">
-      <c r="A489" s="139"/>
+      <c r="A489" s="131"/>
     </row>
     <row r="490">
-      <c r="A490" s="139"/>
+      <c r="A490" s="131"/>
     </row>
     <row r="491">
-      <c r="A491" s="139"/>
+      <c r="A491" s="131"/>
     </row>
     <row r="492">
-      <c r="A492" s="139"/>
+      <c r="A492" s="131"/>
     </row>
     <row r="493">
-      <c r="A493" s="139"/>
+      <c r="A493" s="131"/>
     </row>
     <row r="494">
-      <c r="A494" s="139"/>
+      <c r="A494" s="131"/>
     </row>
     <row r="495">
-      <c r="A495" s="139"/>
+      <c r="A495" s="131"/>
     </row>
     <row r="496">
-      <c r="A496" s="139"/>
+      <c r="A496" s="131"/>
     </row>
     <row r="497">
-      <c r="A497" s="139"/>
+      <c r="A497" s="131"/>
     </row>
     <row r="498">
-      <c r="A498" s="139"/>
+      <c r="A498" s="131"/>
     </row>
     <row r="499">
-      <c r="A499" s="139"/>
+      <c r="A499" s="131"/>
     </row>
     <row r="500">
-      <c r="A500" s="139"/>
+      <c r="A500" s="131"/>
     </row>
     <row r="501">
-      <c r="A501" s="139"/>
+      <c r="A501" s="131"/>
     </row>
     <row r="502">
-      <c r="A502" s="139"/>
+      <c r="A502" s="131"/>
     </row>
     <row r="503">
-      <c r="A503" s="139"/>
+      <c r="A503" s="131"/>
     </row>
     <row r="504">
-      <c r="A504" s="139"/>
+      <c r="A504" s="131"/>
     </row>
     <row r="505">
-      <c r="A505" s="139"/>
+      <c r="A505" s="131"/>
     </row>
     <row r="506">
-      <c r="A506" s="139"/>
+      <c r="A506" s="131"/>
     </row>
     <row r="507">
-      <c r="A507" s="139"/>
+      <c r="A507" s="131"/>
     </row>
     <row r="508">
-      <c r="A508" s="139"/>
+      <c r="A508" s="131"/>
     </row>
     <row r="509">
-      <c r="A509" s="139"/>
+      <c r="A509" s="131"/>
     </row>
     <row r="510">
-      <c r="A510" s="139"/>
+      <c r="A510" s="131"/>
     </row>
     <row r="511">
-      <c r="A511" s="139"/>
+      <c r="A511" s="131"/>
     </row>
     <row r="512">
-      <c r="A512" s="139"/>
+      <c r="A512" s="131"/>
     </row>
     <row r="513">
-      <c r="A513" s="139"/>
+      <c r="A513" s="131"/>
     </row>
     <row r="514">
-      <c r="A514" s="139"/>
+      <c r="A514" s="131"/>
     </row>
     <row r="515">
-      <c r="A515" s="139"/>
+      <c r="A515" s="131"/>
     </row>
     <row r="516">
-      <c r="A516" s="139"/>
+      <c r="A516" s="131"/>
     </row>
     <row r="517">
-      <c r="A517" s="139"/>
+      <c r="A517" s="131"/>
     </row>
     <row r="518">
-      <c r="A518" s="139"/>
+      <c r="A518" s="131"/>
     </row>
     <row r="519">
-      <c r="A519" s="139"/>
+      <c r="A519" s="131"/>
     </row>
     <row r="520">
-      <c r="A520" s="139"/>
+      <c r="A520" s="131"/>
     </row>
     <row r="521">
-      <c r="A521" s="139"/>
+      <c r="A521" s="131"/>
     </row>
     <row r="522">
-      <c r="A522" s="139"/>
+      <c r="A522" s="131"/>
     </row>
     <row r="523">
-      <c r="A523" s="139"/>
+      <c r="A523" s="131"/>
     </row>
     <row r="524">
-      <c r="A524" s="139"/>
+      <c r="A524" s="131"/>
     </row>
     <row r="525">
-      <c r="A525" s="139"/>
+      <c r="A525" s="131"/>
     </row>
     <row r="526">
-      <c r="A526" s="139"/>
+      <c r="A526" s="131"/>
     </row>
     <row r="527">
-      <c r="A527" s="139"/>
+      <c r="A527" s="131"/>
     </row>
     <row r="528">
-      <c r="A528" s="139"/>
+      <c r="A528" s="131"/>
     </row>
     <row r="529">
-      <c r="A529" s="139"/>
+      <c r="A529" s="131"/>
     </row>
     <row r="530">
-      <c r="A530" s="139"/>
+      <c r="A530" s="131"/>
     </row>
     <row r="531">
-      <c r="A531" s="139"/>
+      <c r="A531" s="131"/>
     </row>
     <row r="532">
-      <c r="A532" s="139"/>
+      <c r="A532" s="131"/>
     </row>
     <row r="533">
-      <c r="A533" s="139"/>
+      <c r="A533" s="131"/>
     </row>
     <row r="534">
-      <c r="A534" s="139"/>
+      <c r="A534" s="131"/>
     </row>
     <row r="535">
-      <c r="A535" s="139"/>
+      <c r="A535" s="131"/>
     </row>
     <row r="536">
-      <c r="A536" s="139"/>
+      <c r="A536" s="131"/>
     </row>
     <row r="537">
-      <c r="A537" s="139"/>
+      <c r="A537" s="131"/>
     </row>
     <row r="538">
-      <c r="A538" s="139"/>
+      <c r="A538" s="131"/>
     </row>
     <row r="539">
-      <c r="A539" s="139"/>
+      <c r="A539" s="131"/>
     </row>
     <row r="540">
-      <c r="A540" s="139"/>
+      <c r="A540" s="131"/>
     </row>
     <row r="541">
-      <c r="A541" s="139"/>
+      <c r="A541" s="131"/>
     </row>
     <row r="542">
-      <c r="A542" s="139"/>
+      <c r="A542" s="131"/>
     </row>
     <row r="543">
-      <c r="A543" s="139"/>
+      <c r="A543" s="131"/>
     </row>
     <row r="544">
-      <c r="A544" s="139"/>
+      <c r="A544" s="131"/>
     </row>
     <row r="545">
-      <c r="A545" s="139"/>
+      <c r="A545" s="131"/>
     </row>
     <row r="546">
-      <c r="A546" s="139"/>
+      <c r="A546" s="131"/>
     </row>
     <row r="547">
-      <c r="A547" s="139"/>
+      <c r="A547" s="131"/>
     </row>
     <row r="548">
-      <c r="A548" s="139"/>
+      <c r="A548" s="131"/>
     </row>
     <row r="549">
-      <c r="A549" s="139"/>
+      <c r="A549" s="131"/>
     </row>
     <row r="550">
-      <c r="A550" s="139"/>
+      <c r="A550" s="131"/>
     </row>
     <row r="551">
-      <c r="A551" s="139"/>
+      <c r="A551" s="131"/>
     </row>
     <row r="552">
-      <c r="A552" s="139"/>
+      <c r="A552" s="131"/>
     </row>
     <row r="553">
-      <c r="A553" s="139"/>
+      <c r="A553" s="131"/>
     </row>
     <row r="554">
-      <c r="A554" s="139"/>
+      <c r="A554" s="131"/>
     </row>
     <row r="555">
-      <c r="A555" s="139"/>
+      <c r="A555" s="131"/>
     </row>
     <row r="556">
-      <c r="A556" s="139"/>
+      <c r="A556" s="131"/>
     </row>
     <row r="557">
-      <c r="A557" s="139"/>
+      <c r="A557" s="131"/>
     </row>
     <row r="558">
-      <c r="A558" s="139"/>
+      <c r="A558" s="131"/>
     </row>
     <row r="559">
-      <c r="A559" s="139"/>
+      <c r="A559" s="131"/>
     </row>
     <row r="560">
-      <c r="A560" s="139"/>
+      <c r="A560" s="131"/>
     </row>
     <row r="561">
-      <c r="A561" s="139"/>
+      <c r="A561" s="131"/>
     </row>
     <row r="562">
-      <c r="A562" s="139"/>
+      <c r="A562" s="131"/>
     </row>
     <row r="563">
-      <c r="A563" s="139"/>
+      <c r="A563" s="131"/>
     </row>
     <row r="564">
-      <c r="A564" s="139"/>
+      <c r="A564" s="131"/>
     </row>
     <row r="565">
-      <c r="A565" s="139"/>
+      <c r="A565" s="131"/>
     </row>
     <row r="566">
-      <c r="A566" s="139"/>
+      <c r="A566" s="131"/>
     </row>
     <row r="567">
-      <c r="A567" s="139"/>
+      <c r="A567" s="131"/>
     </row>
     <row r="568">
-      <c r="A568" s="139"/>
+      <c r="A568" s="131"/>
     </row>
     <row r="569">
-      <c r="A569" s="139"/>
+      <c r="A569" s="131"/>
     </row>
     <row r="570">
-      <c r="A570" s="139"/>
+      <c r="A570" s="131"/>
     </row>
     <row r="571">
-      <c r="A571" s="139"/>
+      <c r="A571" s="131"/>
     </row>
     <row r="572">
-      <c r="A572" s="139"/>
+      <c r="A572" s="131"/>
     </row>
     <row r="573">
-      <c r="A573" s="139"/>
+      <c r="A573" s="131"/>
     </row>
     <row r="574">
-      <c r="A574" s="139"/>
+      <c r="A574" s="131"/>
     </row>
     <row r="575">
-      <c r="A575" s="139"/>
+      <c r="A575" s="131"/>
     </row>
     <row r="576">
-      <c r="A576" s="139"/>
+      <c r="A576" s="131"/>
     </row>
     <row r="577">
-      <c r="A577" s="139"/>
+      <c r="A577" s="131"/>
     </row>
     <row r="578">
-      <c r="A578" s="139"/>
+      <c r="A578" s="131"/>
     </row>
     <row r="579">
-      <c r="A579" s="139"/>
+      <c r="A579" s="131"/>
     </row>
     <row r="580">
-      <c r="A580" s="139"/>
+      <c r="A580" s="131"/>
     </row>
     <row r="581">
-      <c r="A581" s="139"/>
+      <c r="A581" s="131"/>
     </row>
     <row r="582">
-      <c r="A582" s="139"/>
+      <c r="A582" s="131"/>
     </row>
     <row r="583">
-      <c r="A583" s="139"/>
+      <c r="A583" s="131"/>
     </row>
     <row r="584">
-      <c r="A584" s="139"/>
+      <c r="A584" s="131"/>
     </row>
     <row r="585">
-      <c r="A585" s="139"/>
+      <c r="A585" s="131"/>
     </row>
     <row r="586">
-      <c r="A586" s="139"/>
+      <c r="A586" s="131"/>
     </row>
     <row r="587">
-      <c r="A587" s="139"/>
+      <c r="A587" s="131"/>
     </row>
     <row r="588">
-      <c r="A588" s="139"/>
+      <c r="A588" s="131"/>
     </row>
     <row r="589">
-      <c r="A589" s="139"/>
+      <c r="A589" s="131"/>
     </row>
     <row r="590">
-      <c r="A590" s="139"/>
+      <c r="A590" s="131"/>
     </row>
     <row r="591">
-      <c r="A591" s="139"/>
+      <c r="A591" s="131"/>
     </row>
     <row r="592">
-      <c r="A592" s="139"/>
+      <c r="A592" s="131"/>
     </row>
     <row r="593">
-      <c r="A593" s="139"/>
+      <c r="A593" s="131"/>
     </row>
     <row r="594">
-      <c r="A594" s="139"/>
+      <c r="A594" s="131"/>
     </row>
     <row r="595">
-      <c r="A595" s="139"/>
+      <c r="A595" s="131"/>
     </row>
     <row r="596">
-      <c r="A596" s="139"/>
+      <c r="A596" s="131"/>
     </row>
     <row r="597">
-      <c r="A597" s="139"/>
+      <c r="A597" s="131"/>
     </row>
     <row r="598">
-      <c r="A598" s="139"/>
+      <c r="A598" s="131"/>
     </row>
     <row r="599">
-      <c r="A599" s="139"/>
+      <c r="A599" s="131"/>
     </row>
     <row r="600">
-      <c r="A600" s="139"/>
+      <c r="A600" s="131"/>
     </row>
     <row r="601">
-      <c r="A601" s="139"/>
+      <c r="A601" s="131"/>
     </row>
     <row r="602">
-      <c r="A602" s="139"/>
+      <c r="A602" s="131"/>
     </row>
     <row r="603">
-      <c r="A603" s="139"/>
+      <c r="A603" s="131"/>
     </row>
     <row r="604">
-      <c r="A604" s="139"/>
+      <c r="A604" s="131"/>
     </row>
     <row r="605">
-      <c r="A605" s="139"/>
+      <c r="A605" s="131"/>
     </row>
     <row r="606">
-      <c r="A606" s="139"/>
+      <c r="A606" s="131"/>
     </row>
     <row r="607">
-      <c r="A607" s="139"/>
+      <c r="A607" s="131"/>
     </row>
     <row r="608">
-      <c r="A608" s="139"/>
+      <c r="A608" s="131"/>
     </row>
     <row r="609">
-      <c r="A609" s="139"/>
+      <c r="A609" s="131"/>
     </row>
     <row r="610">
-      <c r="A610" s="139"/>
+      <c r="A610" s="131"/>
     </row>
     <row r="611">
-      <c r="A611" s="139"/>
+      <c r="A611" s="131"/>
     </row>
     <row r="612">
-      <c r="A612" s="139"/>
+      <c r="A612" s="131"/>
     </row>
     <row r="613">
-      <c r="A613" s="139"/>
+      <c r="A613" s="131"/>
     </row>
     <row r="614">
-      <c r="A614" s="139"/>
+      <c r="A614" s="131"/>
     </row>
     <row r="615">
-      <c r="A615" s="139"/>
+      <c r="A615" s="131"/>
     </row>
     <row r="616">
-      <c r="A616" s="139"/>
+      <c r="A616" s="131"/>
     </row>
     <row r="617">
-      <c r="A617" s="139"/>
+      <c r="A617" s="131"/>
     </row>
     <row r="618">
-      <c r="A618" s="139"/>
+      <c r="A618" s="131"/>
     </row>
     <row r="619">
-      <c r="A619" s="139"/>
+      <c r="A619" s="131"/>
     </row>
     <row r="620">
-      <c r="A620" s="139"/>
+      <c r="A620" s="131"/>
     </row>
     <row r="621">
-      <c r="A621" s="139"/>
+      <c r="A621" s="131"/>
     </row>
     <row r="622">
-      <c r="A622" s="139"/>
+      <c r="A622" s="131"/>
     </row>
     <row r="623">
-      <c r="A623" s="139"/>
+      <c r="A623" s="131"/>
     </row>
     <row r="624">
-      <c r="A624" s="139"/>
+      <c r="A624" s="131"/>
     </row>
     <row r="625">
-      <c r="A625" s="139"/>
+      <c r="A625" s="131"/>
     </row>
     <row r="626">
-      <c r="A626" s="139"/>
+      <c r="A626" s="131"/>
     </row>
     <row r="627">
-      <c r="A627" s="139"/>
+      <c r="A627" s="131"/>
     </row>
     <row r="628">
-      <c r="A628" s="139"/>
+      <c r="A628" s="131"/>
     </row>
     <row r="629">
-      <c r="A629" s="139"/>
+      <c r="A629" s="131"/>
     </row>
     <row r="630">
-      <c r="A630" s="139"/>
+      <c r="A630" s="131"/>
     </row>
     <row r="631">
-      <c r="A631" s="139"/>
+      <c r="A631" s="131"/>
     </row>
     <row r="632">
-      <c r="A632" s="139"/>
+      <c r="A632" s="131"/>
     </row>
     <row r="633">
-      <c r="A633" s="139"/>
+      <c r="A633" s="131"/>
     </row>
     <row r="634">
-      <c r="A634" s="139"/>
+      <c r="A634" s="131"/>
     </row>
     <row r="635">
-      <c r="A635" s="139"/>
+      <c r="A635" s="131"/>
     </row>
     <row r="636">
-      <c r="A636" s="139"/>
+      <c r="A636" s="131"/>
     </row>
     <row r="637">
-      <c r="A637" s="139"/>
+      <c r="A637" s="131"/>
     </row>
     <row r="638">
-      <c r="A638" s="139"/>
+      <c r="A638" s="131"/>
     </row>
     <row r="639">
-      <c r="A639" s="139"/>
+      <c r="A639" s="131"/>
     </row>
     <row r="640">
-      <c r="A640" s="139"/>
+      <c r="A640" s="131"/>
     </row>
     <row r="641">
-      <c r="A641" s="139"/>
+      <c r="A641" s="131"/>
     </row>
     <row r="642">
-      <c r="A642" s="139"/>
+      <c r="A642" s="131"/>
     </row>
     <row r="643">
-      <c r="A643" s="139"/>
+      <c r="A643" s="131"/>
     </row>
     <row r="644">
-      <c r="A644" s="139"/>
+      <c r="A644" s="131"/>
     </row>
     <row r="645">
-      <c r="A645" s="139"/>
+      <c r="A645" s="131"/>
     </row>
     <row r="646">
-      <c r="A646" s="139"/>
+      <c r="A646" s="131"/>
     </row>
     <row r="647">
-      <c r="A647" s="139"/>
+      <c r="A647" s="131"/>
     </row>
     <row r="648">
-      <c r="A648" s="139"/>
+      <c r="A648" s="131"/>
     </row>
     <row r="649">
-      <c r="A649" s="139"/>
+      <c r="A649" s="131"/>
     </row>
     <row r="650">
-      <c r="A650" s="139"/>
+      <c r="A650" s="131"/>
     </row>
     <row r="651">
-      <c r="A651" s="139"/>
+      <c r="A651" s="131"/>
     </row>
     <row r="652">
-      <c r="A652" s="139"/>
+      <c r="A652" s="131"/>
     </row>
     <row r="653">
-      <c r="A653" s="139"/>
+      <c r="A653" s="131"/>
     </row>
     <row r="654">
-      <c r="A654" s="139"/>
+      <c r="A654" s="131"/>
     </row>
     <row r="655">
-      <c r="A655" s="139"/>
+      <c r="A655" s="131"/>
     </row>
     <row r="656">
-      <c r="A656" s="139"/>
+      <c r="A656" s="131"/>
     </row>
     <row r="657">
-      <c r="A657" s="139"/>
+      <c r="A657" s="131"/>
     </row>
     <row r="658">
-      <c r="A658" s="139"/>
+      <c r="A658" s="131"/>
     </row>
     <row r="659">
-      <c r="A659" s="139"/>
+      <c r="A659" s="131"/>
     </row>
     <row r="660">
-      <c r="A660" s="139"/>
+      <c r="A660" s="131"/>
     </row>
     <row r="661">
-      <c r="A661" s="139"/>
+      <c r="A661" s="131"/>
     </row>
     <row r="662">
-      <c r="A662" s="139"/>
+      <c r="A662" s="131"/>
     </row>
     <row r="663">
-      <c r="A663" s="139"/>
+      <c r="A663" s="131"/>
     </row>
     <row r="664">
-      <c r="A664" s="139"/>
+      <c r="A664" s="131"/>
     </row>
     <row r="665">
-      <c r="A665" s="139"/>
+      <c r="A665" s="131"/>
     </row>
     <row r="666">
-      <c r="A666" s="139"/>
+      <c r="A666" s="131"/>
     </row>
     <row r="667">
-      <c r="A667" s="139"/>
+      <c r="A667" s="131"/>
     </row>
     <row r="668">
-      <c r="A668" s="139"/>
+      <c r="A668" s="131"/>
     </row>
     <row r="669">
-      <c r="A669" s="139"/>
+      <c r="A669" s="131"/>
     </row>
     <row r="670">
-      <c r="A670" s="139"/>
+      <c r="A670" s="131"/>
     </row>
     <row r="671">
-      <c r="A671" s="139"/>
+      <c r="A671" s="131"/>
     </row>
     <row r="672">
-      <c r="A672" s="139"/>
+      <c r="A672" s="131"/>
     </row>
     <row r="673">
-      <c r="A673" s="139"/>
+      <c r="A673" s="131"/>
     </row>
     <row r="674">
-      <c r="A674" s="139"/>
+      <c r="A674" s="131"/>
     </row>
     <row r="675">
-      <c r="A675" s="139"/>
+      <c r="A675" s="131"/>
     </row>
     <row r="676">
-      <c r="A676" s="139"/>
+      <c r="A676" s="131"/>
     </row>
     <row r="677">
-      <c r="A677" s="139"/>
+      <c r="A677" s="131"/>
     </row>
     <row r="678">
-      <c r="A678" s="139"/>
+      <c r="A678" s="131"/>
     </row>
     <row r="679">
-      <c r="A679" s="139"/>
+      <c r="A679" s="131"/>
     </row>
     <row r="680">
-      <c r="A680" s="139"/>
+      <c r="A680" s="131"/>
     </row>
     <row r="681">
-      <c r="A681" s="139"/>
+      <c r="A681" s="131"/>
     </row>
     <row r="682">
-      <c r="A682" s="139"/>
+      <c r="A682" s="131"/>
     </row>
     <row r="683">
-      <c r="A683" s="139"/>
+      <c r="A683" s="131"/>
     </row>
     <row r="684">
-      <c r="A684" s="139"/>
+      <c r="A684" s="131"/>
     </row>
     <row r="685">
-      <c r="A685" s="139"/>
+      <c r="A685" s="131"/>
     </row>
     <row r="686">
-      <c r="A686" s="139"/>
+      <c r="A686" s="131"/>
     </row>
     <row r="687">
-      <c r="A687" s="139"/>
+      <c r="A687" s="131"/>
     </row>
     <row r="688">
-      <c r="A688" s="139"/>
+      <c r="A688" s="131"/>
     </row>
     <row r="689">
-      <c r="A689" s="139"/>
+      <c r="A689" s="131"/>
     </row>
     <row r="690">
-      <c r="A690" s="139"/>
+      <c r="A690" s="131"/>
     </row>
     <row r="691">
-      <c r="A691" s="139"/>
+      <c r="A691" s="131"/>
     </row>
     <row r="692">
-      <c r="A692" s="139"/>
+      <c r="A692" s="131"/>
     </row>
     <row r="693">
-      <c r="A693" s="139"/>
+      <c r="A693" s="131"/>
     </row>
     <row r="694">
-      <c r="A694" s="139"/>
+      <c r="A694" s="131"/>
     </row>
     <row r="695">
-      <c r="A695" s="139"/>
+      <c r="A695" s="131"/>
     </row>
     <row r="696">
-      <c r="A696" s="139"/>
+      <c r="A696" s="131"/>
     </row>
     <row r="697">
-      <c r="A697" s="139"/>
+      <c r="A697" s="131"/>
     </row>
     <row r="698">
-      <c r="A698" s="139"/>
+      <c r="A698" s="131"/>
     </row>
     <row r="699">
-      <c r="A699" s="139"/>
+      <c r="A699" s="131"/>
     </row>
     <row r="700">
-      <c r="A700" s="139"/>
+      <c r="A700" s="131"/>
     </row>
     <row r="701">
-      <c r="A701" s="139"/>
+      <c r="A701" s="131"/>
     </row>
     <row r="702">
-      <c r="A702" s="139"/>
+      <c r="A702" s="131"/>
     </row>
     <row r="703">
-      <c r="A703" s="139"/>
+      <c r="A703" s="131"/>
     </row>
     <row r="704">
-      <c r="A704" s="139"/>
+      <c r="A704" s="131"/>
     </row>
     <row r="705">
-      <c r="A705" s="139"/>
+      <c r="A705" s="131"/>
     </row>
     <row r="706">
-      <c r="A706" s="139"/>
+      <c r="A706" s="131"/>
     </row>
     <row r="707">
-      <c r="A707" s="139"/>
+      <c r="A707" s="131"/>
     </row>
     <row r="708">
-      <c r="A708" s="139"/>
+      <c r="A708" s="131"/>
     </row>
     <row r="709">
-      <c r="A709" s="139"/>
+      <c r="A709" s="131"/>
     </row>
     <row r="710">
-      <c r="A710" s="139"/>
+      <c r="A710" s="131"/>
     </row>
     <row r="711">
-      <c r="A711" s="139"/>
+      <c r="A711" s="131"/>
     </row>
     <row r="712">
-      <c r="A712" s="139"/>
+      <c r="A712" s="131"/>
     </row>
     <row r="713">
-      <c r="A713" s="139"/>
+      <c r="A713" s="131"/>
     </row>
     <row r="714">
-      <c r="A714" s="139"/>
+      <c r="A714" s="131"/>
     </row>
     <row r="715">
-      <c r="A715" s="139"/>
+      <c r="A715" s="131"/>
     </row>
     <row r="716">
-      <c r="A716" s="139"/>
+      <c r="A716" s="131"/>
     </row>
     <row r="717">
-      <c r="A717" s="139"/>
+      <c r="A717" s="131"/>
     </row>
     <row r="718">
-      <c r="A718" s="139"/>
+      <c r="A718" s="131"/>
     </row>
     <row r="719">
-      <c r="A719" s="139"/>
+      <c r="A719" s="131"/>
     </row>
     <row r="720">
-      <c r="A720" s="139"/>
+      <c r="A720" s="131"/>
     </row>
     <row r="721">
-      <c r="A721" s="139"/>
+      <c r="A721" s="131"/>
     </row>
     <row r="722">
-      <c r="A722" s="139"/>
+      <c r="A722" s="131"/>
     </row>
     <row r="723">
-      <c r="A723" s="139"/>
+      <c r="A723" s="131"/>
     </row>
     <row r="724">
-      <c r="A724" s="139"/>
+      <c r="A724" s="131"/>
     </row>
     <row r="725">
-      <c r="A725" s="139"/>
+      <c r="A725" s="131"/>
     </row>
     <row r="726">
-      <c r="A726" s="139"/>
+      <c r="A726" s="131"/>
     </row>
     <row r="727">
-      <c r="A727" s="139"/>
+      <c r="A727" s="131"/>
     </row>
     <row r="728">
-      <c r="A728" s="139"/>
+      <c r="A728" s="131"/>
     </row>
     <row r="729">
-      <c r="A729" s="139"/>
+      <c r="A729" s="131"/>
     </row>
     <row r="730">
-      <c r="A730" s="139"/>
+      <c r="A730" s="131"/>
     </row>
     <row r="731">
-      <c r="A731" s="139"/>
+      <c r="A731" s="131"/>
     </row>
     <row r="732">
-      <c r="A732" s="139"/>
+      <c r="A732" s="131"/>
     </row>
     <row r="733">
-      <c r="A733" s="139"/>
+      <c r="A733" s="131"/>
     </row>
     <row r="734">
-      <c r="A734" s="139"/>
+      <c r="A734" s="131"/>
     </row>
     <row r="735">
-      <c r="A735" s="139"/>
+      <c r="A735" s="131"/>
     </row>
     <row r="736">
-      <c r="A736" s="139"/>
+      <c r="A736" s="131"/>
     </row>
     <row r="737">
-      <c r="A737" s="139"/>
+      <c r="A737" s="131"/>
     </row>
     <row r="738">
-      <c r="A738" s="139"/>
+      <c r="A738" s="131"/>
     </row>
     <row r="739">
-      <c r="A739" s="139"/>
+      <c r="A739" s="131"/>
     </row>
     <row r="740">
-      <c r="A740" s="139"/>
+      <c r="A740" s="131"/>
     </row>
     <row r="741">
-      <c r="A741" s="139"/>
+      <c r="A741" s="131"/>
     </row>
     <row r="742">
-      <c r="A742" s="139"/>
+      <c r="A742" s="131"/>
     </row>
     <row r="743">
-      <c r="A743" s="139"/>
+      <c r="A743" s="131"/>
     </row>
     <row r="744">
-      <c r="A744" s="139"/>
+      <c r="A744" s="131"/>
     </row>
     <row r="745">
-      <c r="A745" s="139"/>
+      <c r="A745" s="131"/>
     </row>
     <row r="746">
-      <c r="A746" s="139"/>
+      <c r="A746" s="131"/>
     </row>
     <row r="747">
-      <c r="A747" s="139"/>
+      <c r="A747" s="131"/>
     </row>
     <row r="748">
-      <c r="A748" s="139"/>
+      <c r="A748" s="131"/>
     </row>
     <row r="749">
-      <c r="A749" s="139"/>
+      <c r="A749" s="131"/>
     </row>
     <row r="750">
-      <c r="A750" s="139"/>
+      <c r="A750" s="131"/>
     </row>
     <row r="751">
-      <c r="A751" s="139"/>
+      <c r="A751" s="131"/>
     </row>
     <row r="752">
-      <c r="A752" s="139"/>
+      <c r="A752" s="131"/>
     </row>
     <row r="753">
-      <c r="A753" s="139"/>
+      <c r="A753" s="131"/>
     </row>
     <row r="754">
-      <c r="A754" s="139"/>
+      <c r="A754" s="131"/>
     </row>
     <row r="755">
-      <c r="A755" s="139"/>
+      <c r="A755" s="131"/>
     </row>
     <row r="756">
-      <c r="A756" s="139"/>
+      <c r="A756" s="131"/>
     </row>
     <row r="757">
-      <c r="A757" s="139"/>
+      <c r="A757" s="131"/>
     </row>
     <row r="758">
-      <c r="A758" s="139"/>
+      <c r="A758" s="131"/>
     </row>
     <row r="759">
-      <c r="A759" s="139"/>
+      <c r="A759" s="131"/>
     </row>
     <row r="760">
-      <c r="A760" s="139"/>
+      <c r="A760" s="131"/>
     </row>
     <row r="761">
-      <c r="A761" s="139"/>
+      <c r="A761" s="131"/>
     </row>
     <row r="762">
-      <c r="A762" s="139"/>
+      <c r="A762" s="131"/>
     </row>
     <row r="763">
-      <c r="A763" s="139"/>
+      <c r="A763" s="131"/>
     </row>
     <row r="764">
-      <c r="A764" s="139"/>
+      <c r="A764" s="131"/>
     </row>
     <row r="765">
-      <c r="A765" s="139"/>
+      <c r="A765" s="131"/>
     </row>
     <row r="766">
-      <c r="A766" s="139"/>
+      <c r="A766" s="131"/>
     </row>
     <row r="767">
-      <c r="A767" s="139"/>
+      <c r="A767" s="131"/>
     </row>
     <row r="768">
-      <c r="A768" s="139"/>
+      <c r="A768" s="131"/>
     </row>
     <row r="769">
-      <c r="A769" s="139"/>
+      <c r="A769" s="131"/>
     </row>
     <row r="770">
-      <c r="A770" s="139"/>
+      <c r="A770" s="131"/>
     </row>
     <row r="771">
-      <c r="A771" s="139"/>
+      <c r="A771" s="131"/>
     </row>
     <row r="772">
-      <c r="A772" s="139"/>
+      <c r="A772" s="131"/>
     </row>
     <row r="773">
-      <c r="A773" s="139"/>
+      <c r="A773" s="131"/>
     </row>
     <row r="774">
-      <c r="A774" s="139"/>
+      <c r="A774" s="131"/>
     </row>
     <row r="775">
-      <c r="A775" s="139"/>
+      <c r="A775" s="131"/>
     </row>
     <row r="776">
-      <c r="A776" s="139"/>
+      <c r="A776" s="131"/>
     </row>
     <row r="777">
-      <c r="A777" s="139"/>
+      <c r="A777" s="131"/>
     </row>
     <row r="778">
-      <c r="A778" s="139"/>
+      <c r="A778" s="131"/>
     </row>
     <row r="779">
-      <c r="A779" s="139"/>
+      <c r="A779" s="131"/>
     </row>
     <row r="780">
-      <c r="A780" s="139"/>
+      <c r="A780" s="131"/>
     </row>
     <row r="781">
-      <c r="A781" s="139"/>
+      <c r="A781" s="131"/>
     </row>
     <row r="782">
-      <c r="A782" s="139"/>
+      <c r="A782" s="131"/>
     </row>
     <row r="783">
-      <c r="A783" s="139"/>
+      <c r="A783" s="131"/>
     </row>
     <row r="784">
-      <c r="A784" s="139"/>
+      <c r="A784" s="131"/>
     </row>
     <row r="785">
-      <c r="A785" s="139"/>
+      <c r="A785" s="131"/>
     </row>
     <row r="786">
-      <c r="A786" s="139"/>
+      <c r="A786" s="131"/>
     </row>
     <row r="787">
-      <c r="A787" s="139"/>
+      <c r="A787" s="131"/>
     </row>
     <row r="788">
-      <c r="A788" s="139"/>
+      <c r="A788" s="131"/>
     </row>
     <row r="789">
-      <c r="A789" s="139"/>
+      <c r="A789" s="131"/>
     </row>
     <row r="790">
-      <c r="A790" s="139"/>
+      <c r="A790" s="131"/>
     </row>
     <row r="791">
-      <c r="A791" s="139"/>
+      <c r="A791" s="131"/>
     </row>
     <row r="792">
-      <c r="A792" s="139"/>
+      <c r="A792" s="131"/>
     </row>
     <row r="793">
-      <c r="A793" s="139"/>
+      <c r="A793" s="131"/>
     </row>
     <row r="794">
-      <c r="A794" s="139"/>
+      <c r="A794" s="131"/>
     </row>
     <row r="795">
-      <c r="A795" s="139"/>
+      <c r="A795" s="131"/>
     </row>
     <row r="796">
-      <c r="A796" s="139"/>
+      <c r="A796" s="131"/>
     </row>
     <row r="797">
-      <c r="A797" s="139"/>
+      <c r="A797" s="131"/>
     </row>
     <row r="798">
-      <c r="A798" s="139"/>
+      <c r="A798" s="131"/>
     </row>
     <row r="799">
-      <c r="A799" s="139"/>
+      <c r="A799" s="131"/>
     </row>
     <row r="800">
-      <c r="A800" s="139"/>
+      <c r="A800" s="131"/>
     </row>
     <row r="801">
-      <c r="A801" s="139"/>
+      <c r="A801" s="131"/>
     </row>
     <row r="802">
-      <c r="A802" s="139"/>
+      <c r="A802" s="131"/>
     </row>
     <row r="803">
-      <c r="A803" s="139"/>
+      <c r="A803" s="131"/>
     </row>
     <row r="804">
-      <c r="A804" s="139"/>
+      <c r="A804" s="131"/>
     </row>
     <row r="805">
-      <c r="A805" s="139"/>
+      <c r="A805" s="131"/>
     </row>
     <row r="806">
-      <c r="A806" s="139"/>
+      <c r="A806" s="131"/>
     </row>
     <row r="807">
-      <c r="A807" s="139"/>
+      <c r="A807" s="131"/>
     </row>
     <row r="808">
-      <c r="A808" s="139"/>
+      <c r="A808" s="131"/>
     </row>
     <row r="809">
-      <c r="A809" s="139"/>
+      <c r="A809" s="131"/>
     </row>
     <row r="810">
-      <c r="A810" s="139"/>
+      <c r="A810" s="131"/>
     </row>
     <row r="811">
-      <c r="A811" s="139"/>
+      <c r="A811" s="131"/>
     </row>
     <row r="812">
-      <c r="A812" s="139"/>
+      <c r="A812" s="131"/>
     </row>
     <row r="813">
-      <c r="A813" s="139"/>
+      <c r="A813" s="131"/>
     </row>
     <row r="814">
-      <c r="A814" s="139"/>
+      <c r="A814" s="131"/>
     </row>
     <row r="815">
-      <c r="A815" s="139"/>
+      <c r="A815" s="131"/>
     </row>
     <row r="816">
-      <c r="A816" s="139"/>
+      <c r="A816" s="131"/>
     </row>
     <row r="817">
-      <c r="A817" s="139"/>
+      <c r="A817" s="131"/>
     </row>
     <row r="818">
-      <c r="A818" s="139"/>
+      <c r="A818" s="131"/>
     </row>
     <row r="819">
-      <c r="A819" s="139"/>
+      <c r="A819" s="131"/>
     </row>
     <row r="820">
-      <c r="A820" s="139"/>
+      <c r="A820" s="131"/>
     </row>
     <row r="821">
-      <c r="A821" s="139"/>
+      <c r="A821" s="131"/>
     </row>
     <row r="822">
-      <c r="A822" s="139"/>
+      <c r="A822" s="131"/>
     </row>
     <row r="823">
-      <c r="A823" s="139"/>
+      <c r="A823" s="131"/>
     </row>
     <row r="824">
-      <c r="A824" s="139"/>
+      <c r="A824" s="131"/>
     </row>
     <row r="825">
-      <c r="A825" s="139"/>
+      <c r="A825" s="131"/>
     </row>
     <row r="826">
-      <c r="A826" s="139"/>
+      <c r="A826" s="131"/>
     </row>
     <row r="827">
-      <c r="A827" s="139"/>
+      <c r="A827" s="131"/>
     </row>
     <row r="828">
-      <c r="A828" s="139"/>
+      <c r="A828" s="131"/>
     </row>
     <row r="829">
-      <c r="A829" s="139"/>
+      <c r="A829" s="131"/>
     </row>
     <row r="830">
-      <c r="A830" s="139"/>
+      <c r="A830" s="131"/>
     </row>
     <row r="831">
-      <c r="A831" s="139"/>
+      <c r="A831" s="131"/>
     </row>
     <row r="832">
-      <c r="A832" s="139"/>
+      <c r="A832" s="131"/>
     </row>
     <row r="833">
-      <c r="A833" s="139"/>
+      <c r="A833" s="131"/>
     </row>
     <row r="834">
-      <c r="A834" s="139"/>
+      <c r="A834" s="131"/>
     </row>
     <row r="835">
-      <c r="A835" s="139"/>
+      <c r="A835" s="131"/>
     </row>
     <row r="836">
-      <c r="A836" s="139"/>
+      <c r="A836" s="131"/>
     </row>
     <row r="837">
-      <c r="A837" s="139"/>
+      <c r="A837" s="131"/>
     </row>
     <row r="838">
-      <c r="A838" s="139"/>
+      <c r="A838" s="131"/>
     </row>
     <row r="839">
-      <c r="A839" s="139"/>
+      <c r="A839" s="131"/>
     </row>
     <row r="840">
-      <c r="A840" s="139"/>
+      <c r="A840" s="131"/>
     </row>
     <row r="841">
-      <c r="A841" s="139"/>
+      <c r="A841" s="131"/>
     </row>
     <row r="842">
-      <c r="A842" s="139"/>
+      <c r="A842" s="131"/>
     </row>
     <row r="843">
-      <c r="A843" s="139"/>
+      <c r="A843" s="131"/>
     </row>
     <row r="844">
-      <c r="A844" s="139"/>
+      <c r="A844" s="131"/>
     </row>
     <row r="845">
-      <c r="A845" s="139"/>
+      <c r="A845" s="131"/>
     </row>
     <row r="846">
-      <c r="A846" s="139"/>
+      <c r="A846" s="131"/>
     </row>
     <row r="847">
-      <c r="A847" s="139"/>
+      <c r="A847" s="131"/>
     </row>
     <row r="848">
-      <c r="A848" s="139"/>
+      <c r="A848" s="131"/>
     </row>
     <row r="849">
-      <c r="A849" s="139"/>
+      <c r="A849" s="131"/>
     </row>
     <row r="850">
-      <c r="A850" s="139"/>
+      <c r="A850" s="131"/>
     </row>
     <row r="851">
-      <c r="A851" s="139"/>
+      <c r="A851" s="131"/>
     </row>
     <row r="852">
-      <c r="A852" s="139"/>
+      <c r="A852" s="131"/>
     </row>
     <row r="853">
-      <c r="A853" s="139"/>
+      <c r="A853" s="131"/>
     </row>
     <row r="854">
-      <c r="A854" s="139"/>
+      <c r="A854" s="131"/>
     </row>
     <row r="855">
-      <c r="A855" s="139"/>
+      <c r="A855" s="131"/>
     </row>
     <row r="856">
-      <c r="A856" s="139"/>
+      <c r="A856" s="131"/>
     </row>
     <row r="857">
-      <c r="A857" s="139"/>
+      <c r="A857" s="131"/>
     </row>
     <row r="858">
-      <c r="A858" s="139"/>
+      <c r="A858" s="131"/>
     </row>
     <row r="859">
-      <c r="A859" s="139"/>
+      <c r="A859" s="131"/>
     </row>
     <row r="860">
-      <c r="A860" s="139"/>
+      <c r="A860" s="131"/>
     </row>
     <row r="861">
-      <c r="A861" s="139"/>
+      <c r="A861" s="131"/>
     </row>
     <row r="862">
-      <c r="A862" s="139"/>
+      <c r="A862" s="131"/>
     </row>
     <row r="863">
-      <c r="A863" s="139"/>
+      <c r="A863" s="131"/>
     </row>
     <row r="864">
-      <c r="A864" s="139"/>
+      <c r="A864" s="131"/>
     </row>
     <row r="865">
-      <c r="A865" s="139"/>
+      <c r="A865" s="131"/>
     </row>
     <row r="866">
-      <c r="A866" s="139"/>
+      <c r="A866" s="131"/>
     </row>
     <row r="867">
-      <c r="A867" s="139"/>
+      <c r="A867" s="131"/>
     </row>
     <row r="868">
-      <c r="A868" s="139"/>
+      <c r="A868" s="131"/>
     </row>
     <row r="869">
-      <c r="A869" s="139"/>
+      <c r="A869" s="131"/>
     </row>
     <row r="870">
-      <c r="A870" s="139"/>
+      <c r="A870" s="131"/>
     </row>
     <row r="871">
-      <c r="A871" s="139"/>
+      <c r="A871" s="131"/>
     </row>
     <row r="872">
-      <c r="A872" s="139"/>
+      <c r="A872" s="131"/>
     </row>
     <row r="873">
-      <c r="A873" s="139"/>
+      <c r="A873" s="131"/>
     </row>
     <row r="874">
-      <c r="A874" s="139"/>
+      <c r="A874" s="131"/>
     </row>
     <row r="875">
-      <c r="A875" s="139"/>
+      <c r="A875" s="131"/>
     </row>
     <row r="876">
-      <c r="A876" s="139"/>
+      <c r="A876" s="131"/>
     </row>
     <row r="877">
-      <c r="A877" s="139"/>
+      <c r="A877" s="131"/>
     </row>
     <row r="878">
-      <c r="A878" s="139"/>
+      <c r="A878" s="131"/>
     </row>
     <row r="879">
-      <c r="A879" s="139"/>
+      <c r="A879" s="131"/>
     </row>
     <row r="880">
-      <c r="A880" s="139"/>
+      <c r="A880" s="131"/>
     </row>
     <row r="881">
-      <c r="A881" s="139"/>
+      <c r="A881" s="131"/>
     </row>
     <row r="882">
-      <c r="A882" s="139"/>
+      <c r="A882" s="131"/>
     </row>
     <row r="883">
-      <c r="A883" s="139"/>
+      <c r="A883" s="131"/>
     </row>
     <row r="884">
-      <c r="A884" s="139"/>
+      <c r="A884" s="131"/>
     </row>
     <row r="885">
-      <c r="A885" s="139"/>
+      <c r="A885" s="131"/>
     </row>
     <row r="886">
-      <c r="A886" s="139"/>
+      <c r="A886" s="131"/>
     </row>
     <row r="887">
-      <c r="A887" s="139"/>
+      <c r="A887" s="131"/>
     </row>
     <row r="888">
-      <c r="A888" s="139"/>
+      <c r="A888" s="131"/>
     </row>
     <row r="889">
-      <c r="A889" s="139"/>
+      <c r="A889" s="131"/>
     </row>
     <row r="890">
-      <c r="A890" s="139"/>
+      <c r="A890" s="131"/>
     </row>
     <row r="891">
-      <c r="A891" s="139"/>
+      <c r="A891" s="131"/>
     </row>
     <row r="892">
-      <c r="A892" s="139"/>
+      <c r="A892" s="131"/>
     </row>
     <row r="893">
-      <c r="A893" s="139"/>
+      <c r="A893" s="131"/>
     </row>
     <row r="894">
-      <c r="A894" s="139"/>
+      <c r="A894" s="131"/>
     </row>
     <row r="895">
-      <c r="A895" s="139"/>
+      <c r="A895" s="131"/>
     </row>
     <row r="896">
-      <c r="A896" s="139"/>
+      <c r="A896" s="131"/>
     </row>
     <row r="897">
-      <c r="A897" s="139"/>
+      <c r="A897" s="131"/>
     </row>
     <row r="898">
-      <c r="A898" s="139"/>
+      <c r="A898" s="131"/>
     </row>
     <row r="899">
-      <c r="A899" s="139"/>
+      <c r="A899" s="131"/>
     </row>
     <row r="900">
-      <c r="A900" s="139"/>
+      <c r="A900" s="131"/>
     </row>
     <row r="901">
-      <c r="A901" s="139"/>
+      <c r="A901" s="131"/>
     </row>
     <row r="902">
-      <c r="A902" s="139"/>
+      <c r="A902" s="131"/>
     </row>
     <row r="903">
-      <c r="A903" s="139"/>
+      <c r="A903" s="131"/>
     </row>
     <row r="904">
-      <c r="A904" s="139"/>
+      <c r="A904" s="131"/>
     </row>
     <row r="905">
-      <c r="A905" s="139"/>
+      <c r="A905" s="131"/>
     </row>
     <row r="906">
-      <c r="A906" s="139"/>
+      <c r="A906" s="131"/>
     </row>
     <row r="907">
-      <c r="A907" s="139"/>
+      <c r="A907" s="131"/>
     </row>
     <row r="908">
-      <c r="A908" s="139"/>
+      <c r="A908" s="131"/>
     </row>
     <row r="909">
-      <c r="A909" s="139"/>
+      <c r="A909" s="131"/>
     </row>
     <row r="910">
-      <c r="A910" s="139"/>
+      <c r="A910" s="131"/>
     </row>
     <row r="911">
-      <c r="A911" s="139"/>
+      <c r="A911" s="131"/>
     </row>
     <row r="912">
-      <c r="A912" s="139"/>
+      <c r="A912" s="131"/>
     </row>
     <row r="913">
-      <c r="A913" s="139"/>
+      <c r="A913" s="131"/>
     </row>
     <row r="914">
-      <c r="A914" s="139"/>
+      <c r="A914" s="131"/>
     </row>
     <row r="915">
-      <c r="A915" s="139"/>
+      <c r="A915" s="131"/>
     </row>
     <row r="916">
-      <c r="A916" s="139"/>
+      <c r="A916" s="131"/>
     </row>
     <row r="917">
-      <c r="A917" s="139"/>
+      <c r="A917" s="131"/>
     </row>
     <row r="918">
-      <c r="A918" s="139"/>
+      <c r="A918" s="131"/>
     </row>
     <row r="919">
-      <c r="A919" s="139"/>
+      <c r="A919" s="131"/>
     </row>
     <row r="920">
-      <c r="A920" s="139"/>
+      <c r="A920" s="131"/>
     </row>
     <row r="921">
-      <c r="A921" s="139"/>
+      <c r="A921" s="131"/>
     </row>
     <row r="922">
-      <c r="A922" s="139"/>
+      <c r="A922" s="131"/>
     </row>
     <row r="923">
-      <c r="A923" s="139"/>
+      <c r="A923" s="131"/>
     </row>
     <row r="924">
-      <c r="A924" s="139"/>
+      <c r="A924" s="131"/>
     </row>
     <row r="925">
-      <c r="A925" s="139"/>
+      <c r="A925" s="131"/>
     </row>
     <row r="926">
-      <c r="A926" s="139"/>
+      <c r="A926" s="131"/>
     </row>
     <row r="927">
-      <c r="A927" s="139"/>
+      <c r="A927" s="131"/>
     </row>
     <row r="928">
-      <c r="A928" s="139"/>
+      <c r="A928" s="131"/>
     </row>
     <row r="929">
-      <c r="A929" s="139"/>
+      <c r="A929" s="131"/>
     </row>
     <row r="930">
-      <c r="A930" s="139"/>
+      <c r="A930" s="131"/>
     </row>
     <row r="931">
-      <c r="A931" s="139"/>
+      <c r="A931" s="131"/>
     </row>
     <row r="932">
-      <c r="A932" s="139"/>
+      <c r="A932" s="131"/>
     </row>
     <row r="933">
-      <c r="A933" s="139"/>
+      <c r="A933" s="131"/>
     </row>
     <row r="934">
-      <c r="A934" s="139"/>
+      <c r="A934" s="131"/>
     </row>
     <row r="935">
-      <c r="A935" s="139"/>
+      <c r="A935" s="131"/>
     </row>
     <row r="936">
-      <c r="A936" s="139"/>
+      <c r="A936" s="131"/>
     </row>
     <row r="937">
-      <c r="A937" s="139"/>
+      <c r="A937" s="131"/>
     </row>
     <row r="938">
-      <c r="A938" s="139"/>
+      <c r="A938" s="131"/>
     </row>
     <row r="939">
-      <c r="A939" s="139"/>
+      <c r="A939" s="131"/>
     </row>
     <row r="940">
-      <c r="A940" s="139"/>
+      <c r="A940" s="131"/>
     </row>
     <row r="941">
-      <c r="A941" s="139"/>
+      <c r="A941" s="131"/>
     </row>
     <row r="942">
-      <c r="A942" s="139"/>
+      <c r="A942" s="131"/>
     </row>
     <row r="943">
-      <c r="A943" s="139"/>
+      <c r="A943" s="131"/>
     </row>
     <row r="944">
-      <c r="A944" s="139"/>
+      <c r="A944" s="131"/>
     </row>
     <row r="945">
-      <c r="A945" s="139"/>
+      <c r="A945" s="131"/>
     </row>
     <row r="946">
-      <c r="A946" s="139"/>
+      <c r="A946" s="131"/>
     </row>
     <row r="947">
-      <c r="A947" s="139"/>
+      <c r="A947" s="131"/>
     </row>
     <row r="948">
-      <c r="A948" s="139"/>
+      <c r="A948" s="131"/>
     </row>
     <row r="949">
-      <c r="A949" s="139"/>
+      <c r="A949" s="131"/>
     </row>
     <row r="950">
-      <c r="A950" s="139"/>
+      <c r="A950" s="131"/>
     </row>
     <row r="951">
-      <c r="A951" s="139"/>
+      <c r="A951" s="131"/>
     </row>
     <row r="952">
-      <c r="A952" s="139"/>
+      <c r="A952" s="131"/>
     </row>
     <row r="953">
-      <c r="A953" s="139"/>
+      <c r="A953" s="131"/>
     </row>
     <row r="954">
-      <c r="A954" s="139"/>
+      <c r="A954" s="131"/>
     </row>
     <row r="955">
-      <c r="A955" s="139"/>
+      <c r="A955" s="131"/>
     </row>
     <row r="956">
-      <c r="A956" s="139"/>
+      <c r="A956" s="131"/>
     </row>
     <row r="957">
-      <c r="A957" s="139"/>
+      <c r="A957" s="131"/>
     </row>
     <row r="958">
-      <c r="A958" s="139"/>
+      <c r="A958" s="131"/>
     </row>
     <row r="959">
-      <c r="A959" s="139"/>
+      <c r="A959" s="131"/>
     </row>
     <row r="960">
-      <c r="A960" s="139"/>
+      <c r="A960" s="131"/>
     </row>
     <row r="961">
-      <c r="A961" s="139"/>
+      <c r="A961" s="131"/>
     </row>
     <row r="962">
-      <c r="A962" s="139"/>
+      <c r="A962" s="131"/>
     </row>
     <row r="963">
-      <c r="A963" s="139"/>
+      <c r="A963" s="131"/>
     </row>
     <row r="964">
-      <c r="A964" s="139"/>
+      <c r="A964" s="131"/>
     </row>
     <row r="965">
-      <c r="A965" s="139"/>
+      <c r="A965" s="131"/>
     </row>
     <row r="966">
-      <c r="A966" s="139"/>
+      <c r="A966" s="131"/>
     </row>
     <row r="967">
-      <c r="A967" s="139"/>
+      <c r="A967" s="131"/>
     </row>
     <row r="968">
-      <c r="A968" s="139"/>
+      <c r="A968" s="131"/>
     </row>
     <row r="969">
-      <c r="A969" s="139"/>
+      <c r="A969" s="131"/>
     </row>
     <row r="970">
-      <c r="A970" s="139"/>
+      <c r="A970" s="131"/>
     </row>
     <row r="971">
-      <c r="A971" s="139"/>
+      <c r="A971" s="131"/>
     </row>
     <row r="972">
-      <c r="A972" s="139"/>
+      <c r="A972" s="131"/>
     </row>
     <row r="973">
-      <c r="A973" s="139"/>
+      <c r="A973" s="131"/>
     </row>
     <row r="974">
-      <c r="A974" s="139"/>
+      <c r="A974" s="131"/>
     </row>
     <row r="975">
-      <c r="A975" s="139"/>
+      <c r="A975" s="131"/>
     </row>
     <row r="976">
-      <c r="A976" s="139"/>
+      <c r="A976" s="131"/>
     </row>
     <row r="977">
-      <c r="A977" s="139"/>
+      <c r="A977" s="131"/>
     </row>
     <row r="978">
-      <c r="A978" s="139"/>
+      <c r="A978" s="131"/>
     </row>
     <row r="979">
-      <c r="A979" s="139"/>
+      <c r="A979" s="131"/>
     </row>
     <row r="980">
-      <c r="A980" s="139"/>
+      <c r="A980" s="131"/>
     </row>
     <row r="981">
-      <c r="A981" s="139"/>
+      <c r="A981" s="131"/>
     </row>
     <row r="982">
-      <c r="A982" s="139"/>
+      <c r="A982" s="131"/>
     </row>
     <row r="983">
-      <c r="A983" s="139"/>
+      <c r="A983" s="131"/>
     </row>
     <row r="984">
-      <c r="A984" s="139"/>
+      <c r="A984" s="131"/>
     </row>
     <row r="985">
-      <c r="A985" s="139"/>
+      <c r="A985" s="131"/>
     </row>
     <row r="986">
-      <c r="A986" s="139"/>
+      <c r="A986" s="131"/>
     </row>
     <row r="987">
-      <c r="A987" s="139"/>
+      <c r="A987" s="131"/>
     </row>
     <row r="988">
-      <c r="A988" s="139"/>
+      <c r="A988" s="131"/>
     </row>
     <row r="989">
-      <c r="A989" s="139"/>
+      <c r="A989" s="131"/>
     </row>
     <row r="990">
-      <c r="A990" s="139"/>
+      <c r="A990" s="131"/>
     </row>
     <row r="991">
-      <c r="A991" s="139"/>
+      <c r="A991" s="131"/>
     </row>
     <row r="992">
-      <c r="A992" s="139"/>
+      <c r="A992" s="131"/>
     </row>
     <row r="993">
-      <c r="A993" s="139"/>
+      <c r="A993" s="131"/>
     </row>
     <row r="994">
-      <c r="A994" s="139"/>
+      <c r="A994" s="131"/>
     </row>
     <row r="995">
-      <c r="A995" s="139"/>
+      <c r="A995" s="131"/>
     </row>
     <row r="996">
-      <c r="A996" s="139"/>
+      <c r="A996" s="131"/>
     </row>
     <row r="997">
-      <c r="A997" s="139"/>
+      <c r="A997" s="131"/>
     </row>
     <row r="998">
-      <c r="A998" s="139"/>
+      <c r="A998" s="131"/>
     </row>
     <row r="999">
-      <c r="A999" s="139"/>
+      <c r="A999" s="131"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="139"/>
+      <c r="A1000" s="131"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7281,7 +7272,7 @@
         <v>161</v>
       </c>
       <c r="D45" s="15"/>
-      <c r="E45" s="35" t="b">
+      <c r="E45" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F45" s="11"/>
@@ -7311,7 +7302,7 @@
         <v>165</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="35" t="b">
+      <c r="E46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F46" s="11"/>
@@ -7341,7 +7332,7 @@
         <v>168</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="35" t="b">
+      <c r="E47" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F47" s="11"/>
@@ -7371,7 +7362,7 @@
         <v>171</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="35" t="b">
+      <c r="E48" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F48" s="11"/>
@@ -7407,7 +7398,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="36" t="s">
+      <c r="K49" s="35" t="s">
         <v>175</v>
       </c>
       <c r="L49" s="15"/>
@@ -7639,446 +7630,446 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>200</v>
       </c>
       <c r="D2" s="27"/>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>203</v>
       </c>
       <c r="D3" s="27"/>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>204</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>207</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>214</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>219</v>
       </c>
       <c r="D8" s="27"/>
     </row>
     <row r="9">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>222</v>
       </c>
       <c r="D9" s="27"/>
     </row>
     <row r="10">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>225</v>
       </c>
       <c r="D10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>228</v>
       </c>
       <c r="D11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>231</v>
       </c>
       <c r="D12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>234</v>
       </c>
       <c r="D13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>237</v>
       </c>
       <c r="D14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>240</v>
       </c>
       <c r="D15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>243</v>
       </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="40" t="s">
         <v>212</v>
       </c>
       <c r="D17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>248</v>
       </c>
       <c r="D18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>252</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>254</v>
       </c>
       <c r="D20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>255</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>257</v>
       </c>
       <c r="D21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>258</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>266</v>
       </c>
       <c r="D24" s="27"/>
     </row>
     <row r="25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>269</v>
       </c>
       <c r="D25" s="27"/>
     </row>
     <row r="26">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="43"/>
     </row>
     <row r="29">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="43"/>
     </row>
     <row r="30">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="43"/>
     </row>
     <row r="31">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="43"/>
     </row>
     <row r="34">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36">
-      <c r="A36" s="47">
+      <c r="A36" s="46">
         <v>54.0</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>300</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -8087,10 +8078,10 @@
       <c r="D36" s="27"/>
     </row>
     <row r="37">
-      <c r="A37" s="47">
+      <c r="A37" s="46">
         <v>55.0</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="47" t="s">
         <v>302</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -8099,10 +8090,10 @@
       <c r="D37" s="27"/>
     </row>
     <row r="38">
-      <c r="A38" s="47">
+      <c r="A38" s="46">
         <v>56.0</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C38" s="27" t="s">
@@ -8111,10 +8102,10 @@
       <c r="D38" s="27"/>
     </row>
     <row r="39">
-      <c r="A39" s="47">
+      <c r="A39" s="46">
         <v>116.0</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>202</v>
       </c>
       <c r="C39" s="26" t="s">
@@ -8126,7 +8117,7 @@
       <c r="A40" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>308</v>
       </c>
       <c r="C40" s="26" t="s">
@@ -8328,25 +8319,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8366,7 +8357,7 @@
       <c r="E2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
@@ -8385,7 +8376,7 @@
       <c r="E3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
@@ -8404,7 +8395,7 @@
       <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5">
@@ -8423,7 +8414,7 @@
       <c r="E5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
@@ -8442,7 +8433,7 @@
       <c r="E6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
@@ -8461,7 +8452,7 @@
       <c r="E7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
@@ -8480,7 +8471,7 @@
       <c r="E8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
@@ -8499,7 +8490,7 @@
       <c r="E9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
@@ -8518,7 +8509,7 @@
       <c r="E10" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="15"/>
     </row>
   </sheetData>
@@ -8559,49 +8550,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>383</v>
       </c>
       <c r="P1" s="23" t="s">
@@ -8618,7 +8609,7 @@
       <c r="B2" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="2" t="s">
         <v>387</v>
       </c>
@@ -8627,7 +8618,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="54"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="13"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -8678,18 +8669,18 @@
       <c r="A4" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="12" t="s">
         <v>392</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="12" t="s">
         <v>394</v>
       </c>
       <c r="H4" s="15"/>
@@ -8699,14 +8690,14 @@
       <c r="L4" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="12" t="s">
         <v>82</v>
       </c>
       <c r="N4" s="21"/>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="P4" s="35" t="b">
+      <c r="P4" s="12" t="b">
         <v>1</v>
       </c>
       <c r="Q4" s="15"/>
@@ -8722,13 +8713,13 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="12" t="s">
         <v>399</v>
       </c>
       <c r="H5" s="15"/>
@@ -8738,7 +8729,7 @@
       <c r="L5" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="N5" s="21"/>
@@ -8752,7 +8743,7 @@
       <c r="A6" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="12" t="s">
         <v>402</v>
       </c>
       <c r="C6" s="2"/>
@@ -8760,10 +8751,10 @@
       <c r="E6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="12" t="s">
         <v>403</v>
       </c>
       <c r="H6" s="15"/>
@@ -8773,7 +8764,7 @@
       <c r="L6" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="12" t="s">
         <v>74</v>
       </c>
       <c r="N6" s="21"/>
@@ -8787,758 +8778,758 @@
       <c r="A7" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="E7" s="55" t="s">
+      <c r="C7" s="52"/>
+      <c r="E7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="12" t="s">
         <v>403</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="55" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="E8" s="55" t="s">
+      <c r="C8" s="52"/>
+      <c r="E8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="12" t="s">
         <v>399</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="55" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="55" t="s">
         <v>413</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="57"/>
+      <c r="E9" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67">
+      <c r="G9" s="57"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62">
         <v>0.0</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
     </row>
     <row r="10">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="54" t="s">
         <v>415</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67">
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62">
         <v>0.0</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67">
+      <c r="G11" s="57"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62">
         <v>0.0</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
     </row>
     <row r="12">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="54" t="s">
         <v>421</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="55" t="s">
         <v>422</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67">
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62">
         <v>0.0</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
     </row>
     <row r="13">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="54" t="s">
         <v>423</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67">
+      <c r="G13" s="57"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62">
         <v>0.0</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
     </row>
     <row r="14">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="59" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67">
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62">
         <v>0.0</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
     </row>
     <row r="15">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67">
+      <c r="G15" s="57"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62">
         <v>0.0</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
     </row>
     <row r="16">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="54" t="s">
         <v>429</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="59" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67">
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62">
         <v>0.0</v>
       </c>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
     </row>
     <row r="17">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="55" t="s">
         <v>432</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67" t="s">
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="54" t="s">
         <v>434</v>
       </c>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
     </row>
     <row r="18">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="68" t="s">
         <v>358</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="68">
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="63">
         <v>0.0</v>
       </c>
-      <c r="L18" s="76" t="s">
+      <c r="L18" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
     </row>
     <row r="19">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="72" t="s">
         <v>437</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="68" t="s">
+      <c r="D19" s="66"/>
+      <c r="E19" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="68" t="s">
+      <c r="H19" s="73"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="76" t="s">
+      <c r="L19" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
     </row>
     <row r="20">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="72" t="s">
         <v>441</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="68" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="68" t="s">
         <v>443</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="68" t="s">
+      <c r="H20" s="73"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="76" t="s">
+      <c r="L20" s="71" t="s">
         <v>444</v>
       </c>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
     </row>
     <row r="21">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="72" t="s">
         <v>445</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="68" t="s">
+      <c r="D21" s="66"/>
+      <c r="E21" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="68" t="s">
         <v>447</v>
       </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="68" t="s">
+      <c r="H21" s="73"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="63" t="s">
         <v>448</v>
       </c>
-      <c r="L21" s="79" t="s">
+      <c r="L21" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
     </row>
     <row r="22">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="77" t="s">
         <v>417</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84" t="s">
+      <c r="D22" s="78"/>
+      <c r="E22" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="85" t="s">
+      <c r="F22" s="80" t="s">
         <v>369</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88">
+      <c r="G22" s="78"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83">
         <v>0.0</v>
       </c>
-      <c r="L22" s="89" t="s">
+      <c r="L22" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
     </row>
     <row r="23">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="75" t="s">
         <v>452</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="77" t="s">
         <v>417</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="88" t="s">
+      <c r="D23" s="78"/>
+      <c r="E23" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="85" t="s">
         <v>370</v>
       </c>
-      <c r="G23" s="90" t="s">
+      <c r="G23" s="85" t="s">
         <v>454</v>
       </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="88" t="s">
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="L23" s="91" t="s">
+      <c r="L23" s="86" t="s">
         <v>456</v>
       </c>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
     </row>
     <row r="24">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="87" t="s">
         <v>457</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="89" t="s">
         <v>414</v>
       </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96" t="s">
+      <c r="D24" s="90"/>
+      <c r="E24" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="97" t="s">
+      <c r="F24" s="92" t="s">
         <v>362</v>
       </c>
-      <c r="G24" s="95"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="100">
+      <c r="G24" s="90"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95">
         <v>0.0</v>
       </c>
-      <c r="L24" s="101" t="s">
+      <c r="L24" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
     </row>
     <row r="25">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="87" t="s">
         <v>459</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="88" t="s">
         <v>460</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="100" t="s">
+      <c r="D25" s="90"/>
+      <c r="E25" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="97" t="s">
+      <c r="F25" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="G25" s="97" t="s">
+      <c r="G25" s="92" t="s">
         <v>461</v>
       </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="103">
+      <c r="H25" s="97"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="98">
         <v>0.0</v>
       </c>
-      <c r="L25" s="101" t="s">
+      <c r="L25" s="96" t="s">
         <v>462</v>
       </c>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
     </row>
     <row r="26">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="99" t="s">
         <v>463</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="100" t="s">
         <v>464</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="101" t="s">
         <v>414</v>
       </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="109" t="s">
+      <c r="F26" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="G26" s="110" t="s">
+      <c r="G26" s="105" t="s">
         <v>465</v>
       </c>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="113" t="s">
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="114" t="s">
+      <c r="L26" s="109" t="s">
         <v>466</v>
       </c>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
     </row>
     <row r="27">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="110" t="s">
         <v>467</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="108" t="s">
+      <c r="D27" s="111"/>
+      <c r="E27" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="109" t="s">
+      <c r="F27" s="104" t="s">
         <v>367</v>
       </c>
-      <c r="G27" s="115" t="s">
+      <c r="G27" s="110" t="s">
         <v>469</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="113" t="s">
+      <c r="H27" s="111"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="114" t="s">
+      <c r="L27" s="109" t="s">
         <v>470</v>
       </c>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -9559,22 +9550,22 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>471</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -9583,16 +9574,16 @@
         <v>394</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="2" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="12" t="s">
         <v>410</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="2" t="s">
         <v>475</v>
       </c>
     </row>
@@ -9624,16 +9615,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="112" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="112" t="s">
         <v>476</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -9642,7 +9633,7 @@
       <c r="F1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="112" t="s">
         <v>339</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -9656,9 +9647,9 @@
       <c r="B2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="120"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="13"/>
-      <c r="G2" s="121"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -9667,9 +9658,9 @@
       <c r="B3" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="121"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="13"/>
-      <c r="G3" s="121"/>
+      <c r="G3" s="114"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -9678,10 +9669,10 @@
       <c r="B4" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="121"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="122"/>
-      <c r="G4" s="123"/>
+      <c r="E4" s="115"/>
+      <c r="G4" s="116"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -9690,11 +9681,11 @@
       <c r="B5" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C5" s="121"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -9704,8 +9695,8 @@
         <v>483</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="124"/>
-      <c r="G6" s="121"/>
+      <c r="E6" s="117"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -9718,8 +9709,8 @@
         <v>73</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="124"/>
-      <c r="G7" s="121"/>
+      <c r="E7" s="117"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -9732,8 +9723,8 @@
         <v>488</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="124"/>
-      <c r="G8" s="121"/>
+      <c r="E8" s="117"/>
+      <c r="G8" s="114"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9789,7 +9780,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -9803,22 +9794,44 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="126"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="120" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="128"/>
-      <c r="C3" s="127"/>
+      <c r="A3" s="121" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="120" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="129"/>
-      <c r="C4" s="127"/>
+      <c r="A4" s="122" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="129"/>
-      <c r="C5" s="127"/>
+      <c r="A5" s="122" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="120" t="s">
+        <v>502</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -7,8 +7,8 @@
     <sheet state="visible" name="lyphs" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="materials" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="links" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="chains" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="nodes" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="nodes" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="chains" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="groups" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="neurons" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="publications" sheetId="9" r:id="rId12"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="564">
   <si>
     <t>id</t>
   </si>
@@ -135,7 +135,7 @@
     <t>T5</t>
   </si>
   <si>
-    <t>T5 spinal segment (splen)</t>
+    <t>T5 spinal segment (spleen)</t>
   </si>
   <si>
     <t>UBERON:0006453</t>
@@ -153,7 +153,7 @@
     <t>T6</t>
   </si>
   <si>
-    <t>T6 spinal segment (splen)</t>
+    <t>T6 spinal segment (spleen)</t>
   </si>
   <si>
     <t>UBERON:0006454</t>
@@ -165,7 +165,7 @@
     <t>T7</t>
   </si>
   <si>
-    <t>T7 spinal segment (splen)</t>
+    <t>T7 spinal segment (spleen)</t>
   </si>
   <si>
     <t>UBERON:0006455</t>
@@ -177,7 +177,7 @@
     <t>T8</t>
   </si>
   <si>
-    <t>T8 spinal segment (splen)</t>
+    <t>T8 spinal segment (spleen)</t>
   </si>
   <si>
     <t>UBERON:0006456</t>
@@ -186,7 +186,7 @@
     <t>sn_t8</t>
   </si>
   <si>
-    <t>Segment of Spinal Cord (splen)</t>
+    <t>Segment of Spinal Cord (spleen)</t>
   </si>
   <si>
     <t>UBERON:0005844</t>
@@ -198,7 +198,7 @@
     <t>med</t>
   </si>
   <si>
-    <t>Medulla (splen)</t>
+    <t>Medulla (spleen)</t>
   </si>
   <si>
     <t>UBERON:0001896</t>
@@ -210,7 +210,7 @@
     <t>dmv</t>
   </si>
   <si>
-    <t>dorsal motor nucleus of the vagus (splen)</t>
+    <t>dorsal motor nucleus of the vagus (spleen)</t>
   </si>
   <si>
     <t>UBERON:0002870</t>
@@ -222,7 +222,7 @@
     <t>nts</t>
   </si>
   <si>
-    <t>nucleus tractus solitarius (splen)</t>
+    <t>nucleus tractus solitarius (spleen)</t>
   </si>
   <si>
     <t>UBERON:0009050</t>
@@ -234,7 +234,7 @@
     <t>n-vag</t>
   </si>
   <si>
-    <t>vagus nerve (splen)</t>
+    <t>vagus nerve (spleen)</t>
   </si>
   <si>
     <t>UBERON:0001759</t>
@@ -243,7 +243,7 @@
     <t>ndg</t>
   </si>
   <si>
-    <t>nodose ganglion (splen)</t>
+    <t>nodose ganglion (spleen)</t>
   </si>
   <si>
     <t>UBERON:0005363</t>
@@ -255,7 +255,7 @@
     <t>cg-smg</t>
   </si>
   <si>
-    <t>celiac ganglion and superior mesenteric ganglion complex (splen)</t>
+    <t>celiac ganglion and superior mesenteric ganglion complex (spleen)</t>
   </si>
   <si>
     <t>ILX:0793082</t>
@@ -267,7 +267,7 @@
     <t>spln</t>
   </si>
   <si>
-    <t>spleen (splen)</t>
+    <t>spleen (spleen)</t>
   </si>
   <si>
     <t>UBERON:0002106</t>
@@ -282,7 +282,7 @@
     <t>spln_cap</t>
   </si>
   <si>
-    <t>splenic capsule (splen)</t>
+    <t>splenic capsule (spleen)</t>
   </si>
   <si>
     <t>UBERON:0004641</t>
@@ -297,7 +297,7 @@
     <t>r_pulp</t>
   </si>
   <si>
-    <t>red pulp (splen)</t>
+    <t>red pulp (spleen)</t>
   </si>
   <si>
     <t>UBERON:0001250</t>
@@ -306,7 +306,7 @@
     <t>mar_zone</t>
   </si>
   <si>
-    <t>marginal zone (splen)</t>
+    <t>marginal zone (spleen)</t>
   </si>
   <si>
     <t>UBERON:0001251</t>
@@ -321,7 +321,7 @@
     <t>mar_sin</t>
   </si>
   <si>
-    <t>marginal sinus (splen)</t>
+    <t>marginal sinus (spleen)</t>
   </si>
   <si>
     <t>UBERON:0010398</t>
@@ -330,7 +330,7 @@
     <t>w_pulp</t>
   </si>
   <si>
-    <t>white pulp (splen)</t>
+    <t>white pulp (spleen)</t>
   </si>
   <si>
     <t>UBERON:0001959</t>
@@ -342,7 +342,7 @@
     <t>pals</t>
   </si>
   <si>
-    <t>periarterial lymphatic sheath (splen)</t>
+    <t>periarterial lymphatic sheath (spleen)</t>
   </si>
   <si>
     <t>UBERON:0001960</t>
@@ -435,7 +435,7 @@
     <t>blo_ves</t>
   </si>
   <si>
-    <t>Blood vessel (splen)</t>
+    <t>Blood vessel (spleen)</t>
   </si>
   <si>
     <t>UBERON:0001981</t>
@@ -447,7 +447,7 @@
     <t>seg_neu</t>
   </si>
   <si>
-    <t>Segment of neuron (splen)</t>
+    <t>Segment of neuron (spleen)</t>
   </si>
   <si>
     <t>CL:0000540</t>
@@ -459,7 +459,7 @@
     <t>n-gspl</t>
   </si>
   <si>
-    <t>greater splanchnic nerve (splen)</t>
+    <t>greater splanchnic nerve (spleen)</t>
   </si>
   <si>
     <t>UBERON:0018680</t>
@@ -468,13 +468,13 @@
     <t>n-splenic</t>
   </si>
   <si>
-    <t>splenic nerve (splen)</t>
+    <t>splenic nerve (spleen)</t>
   </si>
   <si>
     <t>axon-bag</t>
   </si>
   <si>
-    <t>Axon terminal (splen)</t>
+    <t>Axon terminal (spleen)</t>
   </si>
   <si>
     <t>SAO:280355188</t>
@@ -486,13 +486,13 @@
     <t>axon-tube</t>
   </si>
   <si>
-    <t>Axon segment (splen)</t>
+    <t>Axon segment (spleen)</t>
   </si>
   <si>
     <t>dend-bag</t>
   </si>
   <si>
-    <t>Dendrite terminal (splen)</t>
+    <t>Dendrite terminal (spleen)</t>
   </si>
   <si>
     <t>SAO:420754792</t>
@@ -501,10 +501,10 @@
     <t>dend-tube</t>
   </si>
   <si>
-    <t>Dendrite segment (splen)</t>
-  </si>
-  <si>
-    <t>soma in T8 spinal cord segment (splen)</t>
+    <t>Dendrite segment (spleen)</t>
+  </si>
+  <si>
+    <t>soma in T8 spinal cord segment (spleen)</t>
   </si>
   <si>
     <t>NLX:154731</t>
@@ -513,28 +513,28 @@
     <t>neuron1_spl</t>
   </si>
   <si>
-    <t>soma in T7 spinal cord segment (splen)</t>
-  </si>
-  <si>
-    <t>soma in T6 spinal cord segment (splen)</t>
-  </si>
-  <si>
-    <t>soma in T5 spinal cord segment (splen)</t>
-  </si>
-  <si>
-    <t>soma in dmv in medulla (splen)</t>
+    <t>soma in T7 spinal cord segment (spleen)</t>
+  </si>
+  <si>
+    <t>soma in T6 spinal cord segment (spleen)</t>
+  </si>
+  <si>
+    <t>soma in T5 spinal cord segment (spleen)</t>
+  </si>
+  <si>
+    <t>soma in dmv in medulla (spleen)</t>
   </si>
   <si>
     <t>neuron2_spl</t>
   </si>
   <si>
-    <t>soma in nts in medulla (splen)</t>
+    <t>soma in nts in medulla (spleen)</t>
   </si>
   <si>
     <t>neuron3_spl</t>
   </si>
   <si>
-    <t>soma in ndg in vagus nerve  (splen)</t>
+    <t>soma in ndg in vagus nerve  (spleen)</t>
   </si>
   <si>
     <t>neuron4_spl</t>
@@ -663,6 +663,9 @@
     <t>penicillary arteriole</t>
   </si>
   <si>
+    <t>UBERON:0013132</t>
+  </si>
+  <si>
     <t>SPL-M_2</t>
   </si>
   <si>
@@ -1194,6 +1197,27 @@
     <t>spl_art2</t>
   </si>
   <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>anchoredTo</t>
+  </si>
+  <si>
+    <t>bloodin_branch</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>blood_out</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>lyphs</t>
   </si>
   <si>
@@ -1251,9 +1275,6 @@
     <t>root_bloodin</t>
   </si>
   <si>
-    <t>bloodin_branch</t>
-  </si>
-  <si>
     <t>a-splen, a-trab, a-cent, art-rad</t>
   </si>
   <si>
@@ -1297,9 +1318,6 @@
   </si>
   <si>
     <t>example_blood flowout spleen</t>
-  </si>
-  <si>
-    <t>blood_out</t>
   </si>
   <si>
     <t>ven_sin, v-trab</t>
@@ -1381,6 +1399,9 @@
     <t>dendrite chain in dmv in medulla (splen)</t>
   </si>
   <si>
+    <t>ns_dmv-s_out</t>
+  </si>
+  <si>
     <t>ac-dmv</t>
   </si>
   <si>
@@ -1427,6 +1448,9 @@
     <t>dendrtite chain from CG/SMG fused to spleen</t>
   </si>
   <si>
+    <t>ns_cg-smg-s_out</t>
+  </si>
+  <si>
     <t>ac-pals</t>
   </si>
   <si>
@@ -1448,6 +1472,9 @@
     <t>dendrite chain  in nts in medulla (splen)</t>
   </si>
   <si>
+    <t>ns_nts-s_out</t>
+  </si>
+  <si>
     <t>ac-nts</t>
   </si>
   <si>
@@ -1484,21 +1511,6 @@
     <t>ndg, n-vag</t>
   </si>
   <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>anchoredTo</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>links</t>
   </si>
   <si>
@@ -1508,21 +1520,42 @@
     <t>groups</t>
   </si>
   <si>
+    <t>neuronTypes</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
     <t>Neuron population 1 with somas in t5-t8 spinal cord segments</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-splen-1</t>
+  </si>
+  <si>
     <t>Neuron population 2 with a soma in the dorsal motor nucleus of the vagus</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-splen-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neuron population 3 with a soma in the nucleus tractus solitarius </t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-splen-3</t>
+  </si>
+  <si>
     <t>Neuron population 4 with a soma in the nodose ganglion</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-splen-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neuron population 5 with a soma in the fused celiac ganglion and superior mesenteric ganglion </t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-splen-5</t>
+  </si>
+  <si>
     <t>col-spl</t>
   </si>
   <si>
@@ -1680,6 +1713,9 @@
   </si>
   <si>
     <t>Monique Surles-Zeigler</t>
+  </si>
+  <si>
+    <t>permission received</t>
   </si>
   <si>
     <t>https://orcid.org/0000-0002-7509-4801</t>
@@ -1844,7 +1880,7 @@
       <color rgb="FF1155CC"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1861,6 +1897,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1908,7 +1950,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2011,6 +2053,27 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -2069,31 +2132,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2118,19 +2156,10 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2144,25 +2173,25 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -2178,7 +2207,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -2190,12 +2219,46 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2250,6 +2313,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -2596,31 +2660,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="123" t="s">
-        <v>375</v>
-      </c>
-      <c r="E1" s="123" t="s">
+      <c r="D1" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="123" t="s">
-        <v>503</v>
+      <c r="F1" s="131" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>123</v>
@@ -2629,37 +2693,37 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -2683,98 +2747,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="124" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2" s="125" t="s">
-        <v>513</v>
+      <c r="A2" s="132" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="124" t="s">
-        <v>514</v>
-      </c>
-      <c r="B3" s="126" t="s">
-        <v>515</v>
+      <c r="A3" s="132" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="124" t="s">
-        <v>516</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>517</v>
+      <c r="A4" s="132" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="135" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="124" t="s">
-        <v>518</v>
-      </c>
-      <c r="B5" s="127" t="s">
-        <v>519</v>
+      <c r="A5" s="132" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="124" t="s">
-        <v>520</v>
-      </c>
-      <c r="B6" s="127" t="s">
-        <v>521</v>
+      <c r="A6" s="132" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6" s="135" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="124" t="s">
-        <v>522</v>
-      </c>
-      <c r="B7" s="127" t="s">
-        <v>523</v>
+      <c r="A7" s="132" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" s="135" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="124" t="s">
-        <v>524</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>525</v>
+      <c r="A8" s="132" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="135" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>527</v>
+      <c r="A9" s="132" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" s="135" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="124" t="s">
-        <v>528</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>529</v>
+      <c r="A10" s="132" t="s">
+        <v>539</v>
+      </c>
+      <c r="B10" s="135" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="124" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="127" t="s">
-        <v>531</v>
+      <c r="A11" s="132" t="s">
+        <v>541</v>
+      </c>
+      <c r="B11" s="135" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>533</v>
+        <v>543</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -2810,3057 +2874,3069 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="129" t="s">
-        <v>535</v>
+      <c r="A2" s="137" t="s">
+        <v>546</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="129" t="s">
-        <v>537</v>
+      <c r="A3" s="137" t="s">
+        <v>549</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>538</v>
+        <v>550</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="129" t="s">
-        <v>539</v>
+      <c r="A4" s="137" t="s">
+        <v>551</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>540</v>
+        <v>552</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="129" t="s">
-        <v>541</v>
-      </c>
-      <c r="B5" s="130" t="s">
-        <v>542</v>
+      <c r="A5" s="137" t="s">
+        <v>553</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="129" t="s">
-        <v>543</v>
-      </c>
-      <c r="B6" s="130" t="s">
-        <v>544</v>
+      <c r="A6" s="137" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="129" t="s">
-        <v>545</v>
-      </c>
-      <c r="B7" s="130" t="s">
-        <v>546</v>
+      <c r="A7" s="137" t="s">
+        <v>557</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="131"/>
-      <c r="B8" s="130" t="s">
-        <v>547</v>
+      <c r="A8" s="139"/>
+      <c r="B8" s="138" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="131"/>
-      <c r="B9" s="130" t="s">
-        <v>548</v>
+      <c r="A9" s="139"/>
+      <c r="B9" s="138" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="131"/>
-      <c r="B10" s="130" t="s">
-        <v>549</v>
+      <c r="A10" s="139"/>
+      <c r="B10" s="138" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="131"/>
-      <c r="B11" s="130" t="s">
-        <v>550</v>
+      <c r="A11" s="139"/>
+      <c r="B11" s="138" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="131"/>
-      <c r="B12" s="130" t="s">
-        <v>551</v>
+      <c r="A12" s="139"/>
+      <c r="B12" s="138" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="131"/>
+      <c r="A13" s="139"/>
     </row>
     <row r="14">
-      <c r="A14" s="131"/>
+      <c r="A14" s="139"/>
     </row>
     <row r="15">
-      <c r="A15" s="131"/>
+      <c r="A15" s="139"/>
     </row>
     <row r="16">
-      <c r="A16" s="131"/>
+      <c r="A16" s="139"/>
     </row>
     <row r="17">
-      <c r="A17" s="131"/>
+      <c r="A17" s="139"/>
     </row>
     <row r="18">
-      <c r="A18" s="131"/>
+      <c r="A18" s="139"/>
     </row>
     <row r="19">
-      <c r="A19" s="131"/>
+      <c r="A19" s="139"/>
     </row>
     <row r="20">
-      <c r="A20" s="131"/>
+      <c r="A20" s="139"/>
     </row>
     <row r="21">
-      <c r="A21" s="131"/>
+      <c r="A21" s="139"/>
     </row>
     <row r="22">
-      <c r="A22" s="131"/>
+      <c r="A22" s="139"/>
     </row>
     <row r="23">
-      <c r="A23" s="131"/>
+      <c r="A23" s="139"/>
     </row>
     <row r="24">
-      <c r="A24" s="131"/>
+      <c r="A24" s="139"/>
     </row>
     <row r="25">
-      <c r="A25" s="131"/>
+      <c r="A25" s="139"/>
     </row>
     <row r="26">
-      <c r="A26" s="131"/>
+      <c r="A26" s="139"/>
     </row>
     <row r="27">
-      <c r="A27" s="131"/>
+      <c r="A27" s="139"/>
     </row>
     <row r="28">
-      <c r="A28" s="131"/>
+      <c r="A28" s="139"/>
     </row>
     <row r="29">
-      <c r="A29" s="131"/>
+      <c r="A29" s="139"/>
     </row>
     <row r="30">
-      <c r="A30" s="131"/>
+      <c r="A30" s="139"/>
     </row>
     <row r="31">
-      <c r="A31" s="131"/>
+      <c r="A31" s="139"/>
     </row>
     <row r="32">
-      <c r="A32" s="131"/>
+      <c r="A32" s="139"/>
     </row>
     <row r="33">
-      <c r="A33" s="131"/>
+      <c r="A33" s="139"/>
     </row>
     <row r="34">
-      <c r="A34" s="131"/>
+      <c r="A34" s="139"/>
     </row>
     <row r="35">
-      <c r="A35" s="131"/>
+      <c r="A35" s="139"/>
     </row>
     <row r="36">
-      <c r="A36" s="131"/>
+      <c r="A36" s="139"/>
     </row>
     <row r="37">
-      <c r="A37" s="131"/>
+      <c r="A37" s="139"/>
     </row>
     <row r="38">
-      <c r="A38" s="131"/>
+      <c r="A38" s="139"/>
     </row>
     <row r="39">
-      <c r="A39" s="131"/>
+      <c r="A39" s="139"/>
     </row>
     <row r="40">
-      <c r="A40" s="131"/>
+      <c r="A40" s="139"/>
     </row>
     <row r="41">
-      <c r="A41" s="131"/>
+      <c r="A41" s="139"/>
     </row>
     <row r="42">
-      <c r="A42" s="131"/>
+      <c r="A42" s="139"/>
     </row>
     <row r="43">
-      <c r="A43" s="131"/>
+      <c r="A43" s="139"/>
     </row>
     <row r="44">
-      <c r="A44" s="131"/>
+      <c r="A44" s="139"/>
     </row>
     <row r="45">
-      <c r="A45" s="131"/>
+      <c r="A45" s="139"/>
     </row>
     <row r="46">
-      <c r="A46" s="131"/>
+      <c r="A46" s="139"/>
     </row>
     <row r="47">
-      <c r="A47" s="131"/>
+      <c r="A47" s="139"/>
     </row>
     <row r="48">
-      <c r="A48" s="131"/>
+      <c r="A48" s="139"/>
     </row>
     <row r="49">
-      <c r="A49" s="131"/>
+      <c r="A49" s="139"/>
     </row>
     <row r="50">
-      <c r="A50" s="131"/>
+      <c r="A50" s="139"/>
     </row>
     <row r="51">
-      <c r="A51" s="131"/>
+      <c r="A51" s="139"/>
     </row>
     <row r="52">
-      <c r="A52" s="131"/>
+      <c r="A52" s="139"/>
     </row>
     <row r="53">
-      <c r="A53" s="131"/>
+      <c r="A53" s="139"/>
     </row>
     <row r="54">
-      <c r="A54" s="131"/>
+      <c r="A54" s="139"/>
     </row>
     <row r="55">
-      <c r="A55" s="131"/>
+      <c r="A55" s="139"/>
     </row>
     <row r="56">
-      <c r="A56" s="131"/>
+      <c r="A56" s="139"/>
     </row>
     <row r="57">
-      <c r="A57" s="131"/>
+      <c r="A57" s="139"/>
     </row>
     <row r="58">
-      <c r="A58" s="131"/>
+      <c r="A58" s="139"/>
     </row>
     <row r="59">
-      <c r="A59" s="131"/>
+      <c r="A59" s="139"/>
     </row>
     <row r="60">
-      <c r="A60" s="131"/>
+      <c r="A60" s="139"/>
     </row>
     <row r="61">
-      <c r="A61" s="131"/>
+      <c r="A61" s="139"/>
     </row>
     <row r="62">
-      <c r="A62" s="131"/>
+      <c r="A62" s="139"/>
     </row>
     <row r="63">
-      <c r="A63" s="131"/>
+      <c r="A63" s="139"/>
     </row>
     <row r="64">
-      <c r="A64" s="131"/>
+      <c r="A64" s="139"/>
     </row>
     <row r="65">
-      <c r="A65" s="131"/>
+      <c r="A65" s="139"/>
     </row>
     <row r="66">
-      <c r="A66" s="131"/>
+      <c r="A66" s="139"/>
     </row>
     <row r="67">
-      <c r="A67" s="131"/>
+      <c r="A67" s="139"/>
     </row>
     <row r="68">
-      <c r="A68" s="131"/>
+      <c r="A68" s="139"/>
     </row>
     <row r="69">
-      <c r="A69" s="131"/>
+      <c r="A69" s="139"/>
     </row>
     <row r="70">
-      <c r="A70" s="131"/>
+      <c r="A70" s="139"/>
     </row>
     <row r="71">
-      <c r="A71" s="131"/>
+      <c r="A71" s="139"/>
     </row>
     <row r="72">
-      <c r="A72" s="131"/>
+      <c r="A72" s="139"/>
     </row>
     <row r="73">
-      <c r="A73" s="131"/>
+      <c r="A73" s="139"/>
     </row>
     <row r="74">
-      <c r="A74" s="131"/>
+      <c r="A74" s="139"/>
     </row>
     <row r="75">
-      <c r="A75" s="131"/>
+      <c r="A75" s="139"/>
     </row>
     <row r="76">
-      <c r="A76" s="131"/>
+      <c r="A76" s="139"/>
     </row>
     <row r="77">
-      <c r="A77" s="131"/>
+      <c r="A77" s="139"/>
     </row>
     <row r="78">
-      <c r="A78" s="131"/>
+      <c r="A78" s="139"/>
     </row>
     <row r="79">
-      <c r="A79" s="131"/>
+      <c r="A79" s="139"/>
     </row>
     <row r="80">
-      <c r="A80" s="131"/>
+      <c r="A80" s="139"/>
     </row>
     <row r="81">
-      <c r="A81" s="131"/>
+      <c r="A81" s="139"/>
     </row>
     <row r="82">
-      <c r="A82" s="131"/>
+      <c r="A82" s="139"/>
     </row>
     <row r="83">
-      <c r="A83" s="131"/>
+      <c r="A83" s="139"/>
     </row>
     <row r="84">
-      <c r="A84" s="131"/>
+      <c r="A84" s="139"/>
     </row>
     <row r="85">
-      <c r="A85" s="131"/>
+      <c r="A85" s="139"/>
     </row>
     <row r="86">
-      <c r="A86" s="131"/>
+      <c r="A86" s="139"/>
     </row>
     <row r="87">
-      <c r="A87" s="131"/>
+      <c r="A87" s="139"/>
     </row>
     <row r="88">
-      <c r="A88" s="131"/>
+      <c r="A88" s="139"/>
     </row>
     <row r="89">
-      <c r="A89" s="131"/>
+      <c r="A89" s="139"/>
     </row>
     <row r="90">
-      <c r="A90" s="131"/>
+      <c r="A90" s="139"/>
     </row>
     <row r="91">
-      <c r="A91" s="131"/>
+      <c r="A91" s="139"/>
     </row>
     <row r="92">
-      <c r="A92" s="131"/>
+      <c r="A92" s="139"/>
     </row>
     <row r="93">
-      <c r="A93" s="131"/>
+      <c r="A93" s="139"/>
     </row>
     <row r="94">
-      <c r="A94" s="131"/>
+      <c r="A94" s="139"/>
     </row>
     <row r="95">
-      <c r="A95" s="131"/>
+      <c r="A95" s="139"/>
     </row>
     <row r="96">
-      <c r="A96" s="131"/>
+      <c r="A96" s="139"/>
     </row>
     <row r="97">
-      <c r="A97" s="131"/>
+      <c r="A97" s="139"/>
     </row>
     <row r="98">
-      <c r="A98" s="131"/>
+      <c r="A98" s="139"/>
     </row>
     <row r="99">
-      <c r="A99" s="131"/>
+      <c r="A99" s="139"/>
     </row>
     <row r="100">
-      <c r="A100" s="131"/>
+      <c r="A100" s="139"/>
     </row>
     <row r="101">
-      <c r="A101" s="131"/>
+      <c r="A101" s="139"/>
     </row>
     <row r="102">
-      <c r="A102" s="131"/>
+      <c r="A102" s="139"/>
     </row>
     <row r="103">
-      <c r="A103" s="131"/>
+      <c r="A103" s="139"/>
     </row>
     <row r="104">
-      <c r="A104" s="131"/>
+      <c r="A104" s="139"/>
     </row>
     <row r="105">
-      <c r="A105" s="131"/>
+      <c r="A105" s="139"/>
     </row>
     <row r="106">
-      <c r="A106" s="131"/>
+      <c r="A106" s="139"/>
     </row>
     <row r="107">
-      <c r="A107" s="131"/>
+      <c r="A107" s="139"/>
     </row>
     <row r="108">
-      <c r="A108" s="131"/>
+      <c r="A108" s="139"/>
     </row>
     <row r="109">
-      <c r="A109" s="131"/>
+      <c r="A109" s="139"/>
     </row>
     <row r="110">
-      <c r="A110" s="131"/>
+      <c r="A110" s="139"/>
     </row>
     <row r="111">
-      <c r="A111" s="131"/>
+      <c r="A111" s="139"/>
     </row>
     <row r="112">
-      <c r="A112" s="131"/>
+      <c r="A112" s="139"/>
     </row>
     <row r="113">
-      <c r="A113" s="131"/>
+      <c r="A113" s="139"/>
     </row>
     <row r="114">
-      <c r="A114" s="131"/>
+      <c r="A114" s="139"/>
     </row>
     <row r="115">
-      <c r="A115" s="131"/>
+      <c r="A115" s="139"/>
     </row>
     <row r="116">
-      <c r="A116" s="131"/>
+      <c r="A116" s="139"/>
     </row>
     <row r="117">
-      <c r="A117" s="131"/>
+      <c r="A117" s="139"/>
     </row>
     <row r="118">
-      <c r="A118" s="131"/>
+      <c r="A118" s="139"/>
     </row>
     <row r="119">
-      <c r="A119" s="131"/>
+      <c r="A119" s="139"/>
     </row>
     <row r="120">
-      <c r="A120" s="131"/>
+      <c r="A120" s="139"/>
     </row>
     <row r="121">
-      <c r="A121" s="131"/>
+      <c r="A121" s="139"/>
     </row>
     <row r="122">
-      <c r="A122" s="131"/>
+      <c r="A122" s="139"/>
     </row>
     <row r="123">
-      <c r="A123" s="131"/>
+      <c r="A123" s="139"/>
     </row>
     <row r="124">
-      <c r="A124" s="131"/>
+      <c r="A124" s="139"/>
     </row>
     <row r="125">
-      <c r="A125" s="131"/>
+      <c r="A125" s="139"/>
     </row>
     <row r="126">
-      <c r="A126" s="131"/>
+      <c r="A126" s="139"/>
     </row>
     <row r="127">
-      <c r="A127" s="131"/>
+      <c r="A127" s="139"/>
     </row>
     <row r="128">
-      <c r="A128" s="131"/>
+      <c r="A128" s="139"/>
     </row>
     <row r="129">
-      <c r="A129" s="131"/>
+      <c r="A129" s="139"/>
     </row>
     <row r="130">
-      <c r="A130" s="131"/>
+      <c r="A130" s="139"/>
     </row>
     <row r="131">
-      <c r="A131" s="131"/>
+      <c r="A131" s="139"/>
     </row>
     <row r="132">
-      <c r="A132" s="131"/>
+      <c r="A132" s="139"/>
     </row>
     <row r="133">
-      <c r="A133" s="131"/>
+      <c r="A133" s="139"/>
     </row>
     <row r="134">
-      <c r="A134" s="131"/>
+      <c r="A134" s="139"/>
     </row>
     <row r="135">
-      <c r="A135" s="131"/>
+      <c r="A135" s="139"/>
     </row>
     <row r="136">
-      <c r="A136" s="131"/>
+      <c r="A136" s="139"/>
     </row>
     <row r="137">
-      <c r="A137" s="131"/>
+      <c r="A137" s="139"/>
     </row>
     <row r="138">
-      <c r="A138" s="131"/>
+      <c r="A138" s="139"/>
     </row>
     <row r="139">
-      <c r="A139" s="131"/>
+      <c r="A139" s="139"/>
     </row>
     <row r="140">
-      <c r="A140" s="131"/>
+      <c r="A140" s="139"/>
     </row>
     <row r="141">
-      <c r="A141" s="131"/>
+      <c r="A141" s="139"/>
     </row>
     <row r="142">
-      <c r="A142" s="131"/>
+      <c r="A142" s="139"/>
     </row>
     <row r="143">
-      <c r="A143" s="131"/>
+      <c r="A143" s="139"/>
     </row>
     <row r="144">
-      <c r="A144" s="131"/>
+      <c r="A144" s="139"/>
     </row>
     <row r="145">
-      <c r="A145" s="131"/>
+      <c r="A145" s="139"/>
     </row>
     <row r="146">
-      <c r="A146" s="131"/>
+      <c r="A146" s="139"/>
     </row>
     <row r="147">
-      <c r="A147" s="131"/>
+      <c r="A147" s="139"/>
     </row>
     <row r="148">
-      <c r="A148" s="131"/>
+      <c r="A148" s="139"/>
     </row>
     <row r="149">
-      <c r="A149" s="131"/>
+      <c r="A149" s="139"/>
     </row>
     <row r="150">
-      <c r="A150" s="131"/>
+      <c r="A150" s="139"/>
     </row>
     <row r="151">
-      <c r="A151" s="131"/>
+      <c r="A151" s="139"/>
     </row>
     <row r="152">
-      <c r="A152" s="131"/>
+      <c r="A152" s="139"/>
     </row>
     <row r="153">
-      <c r="A153" s="131"/>
+      <c r="A153" s="139"/>
     </row>
     <row r="154">
-      <c r="A154" s="131"/>
+      <c r="A154" s="139"/>
     </row>
     <row r="155">
-      <c r="A155" s="131"/>
+      <c r="A155" s="139"/>
     </row>
     <row r="156">
-      <c r="A156" s="131"/>
+      <c r="A156" s="139"/>
     </row>
     <row r="157">
-      <c r="A157" s="131"/>
+      <c r="A157" s="139"/>
     </row>
     <row r="158">
-      <c r="A158" s="131"/>
+      <c r="A158" s="139"/>
     </row>
     <row r="159">
-      <c r="A159" s="131"/>
+      <c r="A159" s="139"/>
     </row>
     <row r="160">
-      <c r="A160" s="131"/>
+      <c r="A160" s="139"/>
     </row>
     <row r="161">
-      <c r="A161" s="131"/>
+      <c r="A161" s="139"/>
     </row>
     <row r="162">
-      <c r="A162" s="131"/>
+      <c r="A162" s="139"/>
     </row>
     <row r="163">
-      <c r="A163" s="131"/>
+      <c r="A163" s="139"/>
     </row>
     <row r="164">
-      <c r="A164" s="131"/>
+      <c r="A164" s="139"/>
     </row>
     <row r="165">
-      <c r="A165" s="131"/>
+      <c r="A165" s="139"/>
     </row>
     <row r="166">
-      <c r="A166" s="131"/>
+      <c r="A166" s="139"/>
     </row>
     <row r="167">
-      <c r="A167" s="131"/>
+      <c r="A167" s="139"/>
     </row>
     <row r="168">
-      <c r="A168" s="131"/>
+      <c r="A168" s="139"/>
     </row>
     <row r="169">
-      <c r="A169" s="131"/>
+      <c r="A169" s="139"/>
     </row>
     <row r="170">
-      <c r="A170" s="131"/>
+      <c r="A170" s="139"/>
     </row>
     <row r="171">
-      <c r="A171" s="131"/>
+      <c r="A171" s="139"/>
     </row>
     <row r="172">
-      <c r="A172" s="131"/>
+      <c r="A172" s="139"/>
     </row>
     <row r="173">
-      <c r="A173" s="131"/>
+      <c r="A173" s="139"/>
     </row>
     <row r="174">
-      <c r="A174" s="131"/>
+      <c r="A174" s="139"/>
     </row>
     <row r="175">
-      <c r="A175" s="131"/>
+      <c r="A175" s="139"/>
     </row>
     <row r="176">
-      <c r="A176" s="131"/>
+      <c r="A176" s="139"/>
     </row>
     <row r="177">
-      <c r="A177" s="131"/>
+      <c r="A177" s="139"/>
     </row>
     <row r="178">
-      <c r="A178" s="131"/>
+      <c r="A178" s="139"/>
     </row>
     <row r="179">
-      <c r="A179" s="131"/>
+      <c r="A179" s="139"/>
     </row>
     <row r="180">
-      <c r="A180" s="131"/>
+      <c r="A180" s="139"/>
     </row>
     <row r="181">
-      <c r="A181" s="131"/>
+      <c r="A181" s="139"/>
     </row>
     <row r="182">
-      <c r="A182" s="131"/>
+      <c r="A182" s="139"/>
     </row>
     <row r="183">
-      <c r="A183" s="131"/>
+      <c r="A183" s="139"/>
     </row>
     <row r="184">
-      <c r="A184" s="131"/>
+      <c r="A184" s="139"/>
     </row>
     <row r="185">
-      <c r="A185" s="131"/>
+      <c r="A185" s="139"/>
     </row>
     <row r="186">
-      <c r="A186" s="131"/>
+      <c r="A186" s="139"/>
     </row>
     <row r="187">
-      <c r="A187" s="131"/>
+      <c r="A187" s="139"/>
     </row>
     <row r="188">
-      <c r="A188" s="131"/>
+      <c r="A188" s="139"/>
     </row>
     <row r="189">
-      <c r="A189" s="131"/>
+      <c r="A189" s="139"/>
     </row>
     <row r="190">
-      <c r="A190" s="131"/>
+      <c r="A190" s="139"/>
     </row>
     <row r="191">
-      <c r="A191" s="131"/>
+      <c r="A191" s="139"/>
     </row>
     <row r="192">
-      <c r="A192" s="131"/>
+      <c r="A192" s="139"/>
     </row>
     <row r="193">
-      <c r="A193" s="131"/>
+      <c r="A193" s="139"/>
     </row>
     <row r="194">
-      <c r="A194" s="131"/>
+      <c r="A194" s="139"/>
     </row>
     <row r="195">
-      <c r="A195" s="131"/>
+      <c r="A195" s="139"/>
     </row>
     <row r="196">
-      <c r="A196" s="131"/>
+      <c r="A196" s="139"/>
     </row>
     <row r="197">
-      <c r="A197" s="131"/>
+      <c r="A197" s="139"/>
     </row>
     <row r="198">
-      <c r="A198" s="131"/>
+      <c r="A198" s="139"/>
     </row>
     <row r="199">
-      <c r="A199" s="131"/>
+      <c r="A199" s="139"/>
     </row>
     <row r="200">
-      <c r="A200" s="131"/>
+      <c r="A200" s="139"/>
     </row>
     <row r="201">
-      <c r="A201" s="131"/>
+      <c r="A201" s="139"/>
     </row>
     <row r="202">
-      <c r="A202" s="131"/>
+      <c r="A202" s="139"/>
     </row>
     <row r="203">
-      <c r="A203" s="131"/>
+      <c r="A203" s="139"/>
     </row>
     <row r="204">
-      <c r="A204" s="131"/>
+      <c r="A204" s="139"/>
     </row>
     <row r="205">
-      <c r="A205" s="131"/>
+      <c r="A205" s="139"/>
     </row>
     <row r="206">
-      <c r="A206" s="131"/>
+      <c r="A206" s="139"/>
     </row>
     <row r="207">
-      <c r="A207" s="131"/>
+      <c r="A207" s="139"/>
     </row>
     <row r="208">
-      <c r="A208" s="131"/>
+      <c r="A208" s="139"/>
     </row>
     <row r="209">
-      <c r="A209" s="131"/>
+      <c r="A209" s="139"/>
     </row>
     <row r="210">
-      <c r="A210" s="131"/>
+      <c r="A210" s="139"/>
     </row>
     <row r="211">
-      <c r="A211" s="131"/>
+      <c r="A211" s="139"/>
     </row>
     <row r="212">
-      <c r="A212" s="131"/>
+      <c r="A212" s="139"/>
     </row>
     <row r="213">
-      <c r="A213" s="131"/>
+      <c r="A213" s="139"/>
     </row>
     <row r="214">
-      <c r="A214" s="131"/>
+      <c r="A214" s="139"/>
     </row>
     <row r="215">
-      <c r="A215" s="131"/>
+      <c r="A215" s="139"/>
     </row>
     <row r="216">
-      <c r="A216" s="131"/>
+      <c r="A216" s="139"/>
     </row>
     <row r="217">
-      <c r="A217" s="131"/>
+      <c r="A217" s="139"/>
     </row>
     <row r="218">
-      <c r="A218" s="131"/>
+      <c r="A218" s="139"/>
     </row>
     <row r="219">
-      <c r="A219" s="131"/>
+      <c r="A219" s="139"/>
     </row>
     <row r="220">
-      <c r="A220" s="131"/>
+      <c r="A220" s="139"/>
     </row>
     <row r="221">
-      <c r="A221" s="131"/>
+      <c r="A221" s="139"/>
     </row>
     <row r="222">
-      <c r="A222" s="131"/>
+      <c r="A222" s="139"/>
     </row>
     <row r="223">
-      <c r="A223" s="131"/>
+      <c r="A223" s="139"/>
     </row>
     <row r="224">
-      <c r="A224" s="131"/>
+      <c r="A224" s="139"/>
     </row>
     <row r="225">
-      <c r="A225" s="131"/>
+      <c r="A225" s="139"/>
     </row>
     <row r="226">
-      <c r="A226" s="131"/>
+      <c r="A226" s="139"/>
     </row>
     <row r="227">
-      <c r="A227" s="131"/>
+      <c r="A227" s="139"/>
     </row>
     <row r="228">
-      <c r="A228" s="131"/>
+      <c r="A228" s="139"/>
     </row>
     <row r="229">
-      <c r="A229" s="131"/>
+      <c r="A229" s="139"/>
     </row>
     <row r="230">
-      <c r="A230" s="131"/>
+      <c r="A230" s="139"/>
     </row>
     <row r="231">
-      <c r="A231" s="131"/>
+      <c r="A231" s="139"/>
     </row>
     <row r="232">
-      <c r="A232" s="131"/>
+      <c r="A232" s="139"/>
     </row>
     <row r="233">
-      <c r="A233" s="131"/>
+      <c r="A233" s="139"/>
     </row>
     <row r="234">
-      <c r="A234" s="131"/>
+      <c r="A234" s="139"/>
     </row>
     <row r="235">
-      <c r="A235" s="131"/>
+      <c r="A235" s="139"/>
     </row>
     <row r="236">
-      <c r="A236" s="131"/>
+      <c r="A236" s="139"/>
     </row>
     <row r="237">
-      <c r="A237" s="131"/>
+      <c r="A237" s="139"/>
     </row>
     <row r="238">
-      <c r="A238" s="131"/>
+      <c r="A238" s="139"/>
     </row>
     <row r="239">
-      <c r="A239" s="131"/>
+      <c r="A239" s="139"/>
     </row>
     <row r="240">
-      <c r="A240" s="131"/>
+      <c r="A240" s="139"/>
     </row>
     <row r="241">
-      <c r="A241" s="131"/>
+      <c r="A241" s="139"/>
     </row>
     <row r="242">
-      <c r="A242" s="131"/>
+      <c r="A242" s="139"/>
     </row>
     <row r="243">
-      <c r="A243" s="131"/>
+      <c r="A243" s="139"/>
     </row>
     <row r="244">
-      <c r="A244" s="131"/>
+      <c r="A244" s="139"/>
     </row>
     <row r="245">
-      <c r="A245" s="131"/>
+      <c r="A245" s="139"/>
     </row>
     <row r="246">
-      <c r="A246" s="131"/>
+      <c r="A246" s="139"/>
     </row>
     <row r="247">
-      <c r="A247" s="131"/>
+      <c r="A247" s="139"/>
     </row>
     <row r="248">
-      <c r="A248" s="131"/>
+      <c r="A248" s="139"/>
     </row>
     <row r="249">
-      <c r="A249" s="131"/>
+      <c r="A249" s="139"/>
     </row>
     <row r="250">
-      <c r="A250" s="131"/>
+      <c r="A250" s="139"/>
     </row>
     <row r="251">
-      <c r="A251" s="131"/>
+      <c r="A251" s="139"/>
     </row>
     <row r="252">
-      <c r="A252" s="131"/>
+      <c r="A252" s="139"/>
     </row>
     <row r="253">
-      <c r="A253" s="131"/>
+      <c r="A253" s="139"/>
     </row>
     <row r="254">
-      <c r="A254" s="131"/>
+      <c r="A254" s="139"/>
     </row>
     <row r="255">
-      <c r="A255" s="131"/>
+      <c r="A255" s="139"/>
     </row>
     <row r="256">
-      <c r="A256" s="131"/>
+      <c r="A256" s="139"/>
     </row>
     <row r="257">
-      <c r="A257" s="131"/>
+      <c r="A257" s="139"/>
     </row>
     <row r="258">
-      <c r="A258" s="131"/>
+      <c r="A258" s="139"/>
     </row>
     <row r="259">
-      <c r="A259" s="131"/>
+      <c r="A259" s="139"/>
     </row>
     <row r="260">
-      <c r="A260" s="131"/>
+      <c r="A260" s="139"/>
     </row>
     <row r="261">
-      <c r="A261" s="131"/>
+      <c r="A261" s="139"/>
     </row>
     <row r="262">
-      <c r="A262" s="131"/>
+      <c r="A262" s="139"/>
     </row>
     <row r="263">
-      <c r="A263" s="131"/>
+      <c r="A263" s="139"/>
     </row>
     <row r="264">
-      <c r="A264" s="131"/>
+      <c r="A264" s="139"/>
     </row>
     <row r="265">
-      <c r="A265" s="131"/>
+      <c r="A265" s="139"/>
     </row>
     <row r="266">
-      <c r="A266" s="131"/>
+      <c r="A266" s="139"/>
     </row>
     <row r="267">
-      <c r="A267" s="131"/>
+      <c r="A267" s="139"/>
     </row>
     <row r="268">
-      <c r="A268" s="131"/>
+      <c r="A268" s="139"/>
     </row>
     <row r="269">
-      <c r="A269" s="131"/>
+      <c r="A269" s="139"/>
     </row>
     <row r="270">
-      <c r="A270" s="131"/>
+      <c r="A270" s="139"/>
     </row>
     <row r="271">
-      <c r="A271" s="131"/>
+      <c r="A271" s="139"/>
     </row>
     <row r="272">
-      <c r="A272" s="131"/>
+      <c r="A272" s="139"/>
     </row>
     <row r="273">
-      <c r="A273" s="131"/>
+      <c r="A273" s="139"/>
     </row>
     <row r="274">
-      <c r="A274" s="131"/>
+      <c r="A274" s="139"/>
     </row>
     <row r="275">
-      <c r="A275" s="131"/>
+      <c r="A275" s="139"/>
     </row>
     <row r="276">
-      <c r="A276" s="131"/>
+      <c r="A276" s="139"/>
     </row>
     <row r="277">
-      <c r="A277" s="131"/>
+      <c r="A277" s="139"/>
     </row>
     <row r="278">
-      <c r="A278" s="131"/>
+      <c r="A278" s="139"/>
     </row>
     <row r="279">
-      <c r="A279" s="131"/>
+      <c r="A279" s="139"/>
     </row>
     <row r="280">
-      <c r="A280" s="131"/>
+      <c r="A280" s="139"/>
     </row>
     <row r="281">
-      <c r="A281" s="131"/>
+      <c r="A281" s="139"/>
     </row>
     <row r="282">
-      <c r="A282" s="131"/>
+      <c r="A282" s="139"/>
     </row>
     <row r="283">
-      <c r="A283" s="131"/>
+      <c r="A283" s="139"/>
     </row>
     <row r="284">
-      <c r="A284" s="131"/>
+      <c r="A284" s="139"/>
     </row>
     <row r="285">
-      <c r="A285" s="131"/>
+      <c r="A285" s="139"/>
     </row>
     <row r="286">
-      <c r="A286" s="131"/>
+      <c r="A286" s="139"/>
     </row>
     <row r="287">
-      <c r="A287" s="131"/>
+      <c r="A287" s="139"/>
     </row>
     <row r="288">
-      <c r="A288" s="131"/>
+      <c r="A288" s="139"/>
     </row>
     <row r="289">
-      <c r="A289" s="131"/>
+      <c r="A289" s="139"/>
     </row>
     <row r="290">
-      <c r="A290" s="131"/>
+      <c r="A290" s="139"/>
     </row>
     <row r="291">
-      <c r="A291" s="131"/>
+      <c r="A291" s="139"/>
     </row>
     <row r="292">
-      <c r="A292" s="131"/>
+      <c r="A292" s="139"/>
     </row>
     <row r="293">
-      <c r="A293" s="131"/>
+      <c r="A293" s="139"/>
     </row>
     <row r="294">
-      <c r="A294" s="131"/>
+      <c r="A294" s="139"/>
     </row>
     <row r="295">
-      <c r="A295" s="131"/>
+      <c r="A295" s="139"/>
     </row>
     <row r="296">
-      <c r="A296" s="131"/>
+      <c r="A296" s="139"/>
     </row>
     <row r="297">
-      <c r="A297" s="131"/>
+      <c r="A297" s="139"/>
     </row>
     <row r="298">
-      <c r="A298" s="131"/>
+      <c r="A298" s="139"/>
     </row>
     <row r="299">
-      <c r="A299" s="131"/>
+      <c r="A299" s="139"/>
     </row>
     <row r="300">
-      <c r="A300" s="131"/>
+      <c r="A300" s="139"/>
     </row>
     <row r="301">
-      <c r="A301" s="131"/>
+      <c r="A301" s="139"/>
     </row>
     <row r="302">
-      <c r="A302" s="131"/>
+      <c r="A302" s="139"/>
     </row>
     <row r="303">
-      <c r="A303" s="131"/>
+      <c r="A303" s="139"/>
     </row>
     <row r="304">
-      <c r="A304" s="131"/>
+      <c r="A304" s="139"/>
     </row>
     <row r="305">
-      <c r="A305" s="131"/>
+      <c r="A305" s="139"/>
     </row>
     <row r="306">
-      <c r="A306" s="131"/>
+      <c r="A306" s="139"/>
     </row>
     <row r="307">
-      <c r="A307" s="131"/>
+      <c r="A307" s="139"/>
     </row>
     <row r="308">
-      <c r="A308" s="131"/>
+      <c r="A308" s="139"/>
     </row>
     <row r="309">
-      <c r="A309" s="131"/>
+      <c r="A309" s="139"/>
     </row>
     <row r="310">
-      <c r="A310" s="131"/>
+      <c r="A310" s="139"/>
     </row>
     <row r="311">
-      <c r="A311" s="131"/>
+      <c r="A311" s="139"/>
     </row>
     <row r="312">
-      <c r="A312" s="131"/>
+      <c r="A312" s="139"/>
     </row>
     <row r="313">
-      <c r="A313" s="131"/>
+      <c r="A313" s="139"/>
     </row>
     <row r="314">
-      <c r="A314" s="131"/>
+      <c r="A314" s="139"/>
     </row>
     <row r="315">
-      <c r="A315" s="131"/>
+      <c r="A315" s="139"/>
     </row>
     <row r="316">
-      <c r="A316" s="131"/>
+      <c r="A316" s="139"/>
     </row>
     <row r="317">
-      <c r="A317" s="131"/>
+      <c r="A317" s="139"/>
     </row>
     <row r="318">
-      <c r="A318" s="131"/>
+      <c r="A318" s="139"/>
     </row>
     <row r="319">
-      <c r="A319" s="131"/>
+      <c r="A319" s="139"/>
     </row>
     <row r="320">
-      <c r="A320" s="131"/>
+      <c r="A320" s="139"/>
     </row>
     <row r="321">
-      <c r="A321" s="131"/>
+      <c r="A321" s="139"/>
     </row>
     <row r="322">
-      <c r="A322" s="131"/>
+      <c r="A322" s="139"/>
     </row>
     <row r="323">
-      <c r="A323" s="131"/>
+      <c r="A323" s="139"/>
     </row>
     <row r="324">
-      <c r="A324" s="131"/>
+      <c r="A324" s="139"/>
     </row>
     <row r="325">
-      <c r="A325" s="131"/>
+      <c r="A325" s="139"/>
     </row>
     <row r="326">
-      <c r="A326" s="131"/>
+      <c r="A326" s="139"/>
     </row>
     <row r="327">
-      <c r="A327" s="131"/>
+      <c r="A327" s="139"/>
     </row>
     <row r="328">
-      <c r="A328" s="131"/>
+      <c r="A328" s="139"/>
     </row>
     <row r="329">
-      <c r="A329" s="131"/>
+      <c r="A329" s="139"/>
     </row>
     <row r="330">
-      <c r="A330" s="131"/>
+      <c r="A330" s="139"/>
     </row>
     <row r="331">
-      <c r="A331" s="131"/>
+      <c r="A331" s="139"/>
     </row>
     <row r="332">
-      <c r="A332" s="131"/>
+      <c r="A332" s="139"/>
     </row>
     <row r="333">
-      <c r="A333" s="131"/>
+      <c r="A333" s="139"/>
     </row>
     <row r="334">
-      <c r="A334" s="131"/>
+      <c r="A334" s="139"/>
     </row>
     <row r="335">
-      <c r="A335" s="131"/>
+      <c r="A335" s="139"/>
     </row>
     <row r="336">
-      <c r="A336" s="131"/>
+      <c r="A336" s="139"/>
     </row>
     <row r="337">
-      <c r="A337" s="131"/>
+      <c r="A337" s="139"/>
     </row>
     <row r="338">
-      <c r="A338" s="131"/>
+      <c r="A338" s="139"/>
     </row>
     <row r="339">
-      <c r="A339" s="131"/>
+      <c r="A339" s="139"/>
     </row>
     <row r="340">
-      <c r="A340" s="131"/>
+      <c r="A340" s="139"/>
     </row>
     <row r="341">
-      <c r="A341" s="131"/>
+      <c r="A341" s="139"/>
     </row>
     <row r="342">
-      <c r="A342" s="131"/>
+      <c r="A342" s="139"/>
     </row>
     <row r="343">
-      <c r="A343" s="131"/>
+      <c r="A343" s="139"/>
     </row>
     <row r="344">
-      <c r="A344" s="131"/>
+      <c r="A344" s="139"/>
     </row>
     <row r="345">
-      <c r="A345" s="131"/>
+      <c r="A345" s="139"/>
     </row>
     <row r="346">
-      <c r="A346" s="131"/>
+      <c r="A346" s="139"/>
     </row>
     <row r="347">
-      <c r="A347" s="131"/>
+      <c r="A347" s="139"/>
     </row>
     <row r="348">
-      <c r="A348" s="131"/>
+      <c r="A348" s="139"/>
     </row>
     <row r="349">
-      <c r="A349" s="131"/>
+      <c r="A349" s="139"/>
     </row>
     <row r="350">
-      <c r="A350" s="131"/>
+      <c r="A350" s="139"/>
     </row>
     <row r="351">
-      <c r="A351" s="131"/>
+      <c r="A351" s="139"/>
     </row>
     <row r="352">
-      <c r="A352" s="131"/>
+      <c r="A352" s="139"/>
     </row>
     <row r="353">
-      <c r="A353" s="131"/>
+      <c r="A353" s="139"/>
     </row>
     <row r="354">
-      <c r="A354" s="131"/>
+      <c r="A354" s="139"/>
     </row>
     <row r="355">
-      <c r="A355" s="131"/>
+      <c r="A355" s="139"/>
     </row>
     <row r="356">
-      <c r="A356" s="131"/>
+      <c r="A356" s="139"/>
     </row>
     <row r="357">
-      <c r="A357" s="131"/>
+      <c r="A357" s="139"/>
     </row>
     <row r="358">
-      <c r="A358" s="131"/>
+      <c r="A358" s="139"/>
     </row>
     <row r="359">
-      <c r="A359" s="131"/>
+      <c r="A359" s="139"/>
     </row>
     <row r="360">
-      <c r="A360" s="131"/>
+      <c r="A360" s="139"/>
     </row>
     <row r="361">
-      <c r="A361" s="131"/>
+      <c r="A361" s="139"/>
     </row>
     <row r="362">
-      <c r="A362" s="131"/>
+      <c r="A362" s="139"/>
     </row>
     <row r="363">
-      <c r="A363" s="131"/>
+      <c r="A363" s="139"/>
     </row>
     <row r="364">
-      <c r="A364" s="131"/>
+      <c r="A364" s="139"/>
     </row>
     <row r="365">
-      <c r="A365" s="131"/>
+      <c r="A365" s="139"/>
     </row>
     <row r="366">
-      <c r="A366" s="131"/>
+      <c r="A366" s="139"/>
     </row>
     <row r="367">
-      <c r="A367" s="131"/>
+      <c r="A367" s="139"/>
     </row>
     <row r="368">
-      <c r="A368" s="131"/>
+      <c r="A368" s="139"/>
     </row>
     <row r="369">
-      <c r="A369" s="131"/>
+      <c r="A369" s="139"/>
     </row>
     <row r="370">
-      <c r="A370" s="131"/>
+      <c r="A370" s="139"/>
     </row>
     <row r="371">
-      <c r="A371" s="131"/>
+      <c r="A371" s="139"/>
     </row>
     <row r="372">
-      <c r="A372" s="131"/>
+      <c r="A372" s="139"/>
     </row>
     <row r="373">
-      <c r="A373" s="131"/>
+      <c r="A373" s="139"/>
     </row>
     <row r="374">
-      <c r="A374" s="131"/>
+      <c r="A374" s="139"/>
     </row>
     <row r="375">
-      <c r="A375" s="131"/>
+      <c r="A375" s="139"/>
     </row>
     <row r="376">
-      <c r="A376" s="131"/>
+      <c r="A376" s="139"/>
     </row>
     <row r="377">
-      <c r="A377" s="131"/>
+      <c r="A377" s="139"/>
     </row>
     <row r="378">
-      <c r="A378" s="131"/>
+      <c r="A378" s="139"/>
     </row>
     <row r="379">
-      <c r="A379" s="131"/>
+      <c r="A379" s="139"/>
     </row>
     <row r="380">
-      <c r="A380" s="131"/>
+      <c r="A380" s="139"/>
     </row>
     <row r="381">
-      <c r="A381" s="131"/>
+      <c r="A381" s="139"/>
     </row>
     <row r="382">
-      <c r="A382" s="131"/>
+      <c r="A382" s="139"/>
     </row>
     <row r="383">
-      <c r="A383" s="131"/>
+      <c r="A383" s="139"/>
     </row>
     <row r="384">
-      <c r="A384" s="131"/>
+      <c r="A384" s="139"/>
     </row>
     <row r="385">
-      <c r="A385" s="131"/>
+      <c r="A385" s="139"/>
     </row>
     <row r="386">
-      <c r="A386" s="131"/>
+      <c r="A386" s="139"/>
     </row>
     <row r="387">
-      <c r="A387" s="131"/>
+      <c r="A387" s="139"/>
     </row>
     <row r="388">
-      <c r="A388" s="131"/>
+      <c r="A388" s="139"/>
     </row>
     <row r="389">
-      <c r="A389" s="131"/>
+      <c r="A389" s="139"/>
     </row>
     <row r="390">
-      <c r="A390" s="131"/>
+      <c r="A390" s="139"/>
     </row>
     <row r="391">
-      <c r="A391" s="131"/>
+      <c r="A391" s="139"/>
     </row>
     <row r="392">
-      <c r="A392" s="131"/>
+      <c r="A392" s="139"/>
     </row>
     <row r="393">
-      <c r="A393" s="131"/>
+      <c r="A393" s="139"/>
     </row>
     <row r="394">
-      <c r="A394" s="131"/>
+      <c r="A394" s="139"/>
     </row>
     <row r="395">
-      <c r="A395" s="131"/>
+      <c r="A395" s="139"/>
     </row>
     <row r="396">
-      <c r="A396" s="131"/>
+      <c r="A396" s="139"/>
     </row>
     <row r="397">
-      <c r="A397" s="131"/>
+      <c r="A397" s="139"/>
     </row>
     <row r="398">
-      <c r="A398" s="131"/>
+      <c r="A398" s="139"/>
     </row>
     <row r="399">
-      <c r="A399" s="131"/>
+      <c r="A399" s="139"/>
     </row>
     <row r="400">
-      <c r="A400" s="131"/>
+      <c r="A400" s="139"/>
     </row>
     <row r="401">
-      <c r="A401" s="131"/>
+      <c r="A401" s="139"/>
     </row>
     <row r="402">
-      <c r="A402" s="131"/>
+      <c r="A402" s="139"/>
     </row>
     <row r="403">
-      <c r="A403" s="131"/>
+      <c r="A403" s="139"/>
     </row>
     <row r="404">
-      <c r="A404" s="131"/>
+      <c r="A404" s="139"/>
     </row>
     <row r="405">
-      <c r="A405" s="131"/>
+      <c r="A405" s="139"/>
     </row>
     <row r="406">
-      <c r="A406" s="131"/>
+      <c r="A406" s="139"/>
     </row>
     <row r="407">
-      <c r="A407" s="131"/>
+      <c r="A407" s="139"/>
     </row>
     <row r="408">
-      <c r="A408" s="131"/>
+      <c r="A408" s="139"/>
     </row>
     <row r="409">
-      <c r="A409" s="131"/>
+      <c r="A409" s="139"/>
     </row>
     <row r="410">
-      <c r="A410" s="131"/>
+      <c r="A410" s="139"/>
     </row>
     <row r="411">
-      <c r="A411" s="131"/>
+      <c r="A411" s="139"/>
     </row>
     <row r="412">
-      <c r="A412" s="131"/>
+      <c r="A412" s="139"/>
     </row>
     <row r="413">
-      <c r="A413" s="131"/>
+      <c r="A413" s="139"/>
     </row>
     <row r="414">
-      <c r="A414" s="131"/>
+      <c r="A414" s="139"/>
     </row>
     <row r="415">
-      <c r="A415" s="131"/>
+      <c r="A415" s="139"/>
     </row>
     <row r="416">
-      <c r="A416" s="131"/>
+      <c r="A416" s="139"/>
     </row>
     <row r="417">
-      <c r="A417" s="131"/>
+      <c r="A417" s="139"/>
     </row>
     <row r="418">
-      <c r="A418" s="131"/>
+      <c r="A418" s="139"/>
     </row>
     <row r="419">
-      <c r="A419" s="131"/>
+      <c r="A419" s="139"/>
     </row>
     <row r="420">
-      <c r="A420" s="131"/>
+      <c r="A420" s="139"/>
     </row>
     <row r="421">
-      <c r="A421" s="131"/>
+      <c r="A421" s="139"/>
     </row>
     <row r="422">
-      <c r="A422" s="131"/>
+      <c r="A422" s="139"/>
     </row>
     <row r="423">
-      <c r="A423" s="131"/>
+      <c r="A423" s="139"/>
     </row>
     <row r="424">
-      <c r="A424" s="131"/>
+      <c r="A424" s="139"/>
     </row>
     <row r="425">
-      <c r="A425" s="131"/>
+      <c r="A425" s="139"/>
     </row>
     <row r="426">
-      <c r="A426" s="131"/>
+      <c r="A426" s="139"/>
     </row>
     <row r="427">
-      <c r="A427" s="131"/>
+      <c r="A427" s="139"/>
     </row>
     <row r="428">
-      <c r="A428" s="131"/>
+      <c r="A428" s="139"/>
     </row>
     <row r="429">
-      <c r="A429" s="131"/>
+      <c r="A429" s="139"/>
     </row>
     <row r="430">
-      <c r="A430" s="131"/>
+      <c r="A430" s="139"/>
     </row>
     <row r="431">
-      <c r="A431" s="131"/>
+      <c r="A431" s="139"/>
     </row>
     <row r="432">
-      <c r="A432" s="131"/>
+      <c r="A432" s="139"/>
     </row>
     <row r="433">
-      <c r="A433" s="131"/>
+      <c r="A433" s="139"/>
     </row>
     <row r="434">
-      <c r="A434" s="131"/>
+      <c r="A434" s="139"/>
     </row>
     <row r="435">
-      <c r="A435" s="131"/>
+      <c r="A435" s="139"/>
     </row>
     <row r="436">
-      <c r="A436" s="131"/>
+      <c r="A436" s="139"/>
     </row>
     <row r="437">
-      <c r="A437" s="131"/>
+      <c r="A437" s="139"/>
     </row>
     <row r="438">
-      <c r="A438" s="131"/>
+      <c r="A438" s="139"/>
     </row>
     <row r="439">
-      <c r="A439" s="131"/>
+      <c r="A439" s="139"/>
     </row>
     <row r="440">
-      <c r="A440" s="131"/>
+      <c r="A440" s="139"/>
     </row>
     <row r="441">
-      <c r="A441" s="131"/>
+      <c r="A441" s="139"/>
     </row>
     <row r="442">
-      <c r="A442" s="131"/>
+      <c r="A442" s="139"/>
     </row>
     <row r="443">
-      <c r="A443" s="131"/>
+      <c r="A443" s="139"/>
     </row>
     <row r="444">
-      <c r="A444" s="131"/>
+      <c r="A444" s="139"/>
     </row>
     <row r="445">
-      <c r="A445" s="131"/>
+      <c r="A445" s="139"/>
     </row>
     <row r="446">
-      <c r="A446" s="131"/>
+      <c r="A446" s="139"/>
     </row>
     <row r="447">
-      <c r="A447" s="131"/>
+      <c r="A447" s="139"/>
     </row>
     <row r="448">
-      <c r="A448" s="131"/>
+      <c r="A448" s="139"/>
     </row>
     <row r="449">
-      <c r="A449" s="131"/>
+      <c r="A449" s="139"/>
     </row>
     <row r="450">
-      <c r="A450" s="131"/>
+      <c r="A450" s="139"/>
     </row>
     <row r="451">
-      <c r="A451" s="131"/>
+      <c r="A451" s="139"/>
     </row>
     <row r="452">
-      <c r="A452" s="131"/>
+      <c r="A452" s="139"/>
     </row>
     <row r="453">
-      <c r="A453" s="131"/>
+      <c r="A453" s="139"/>
     </row>
     <row r="454">
-      <c r="A454" s="131"/>
+      <c r="A454" s="139"/>
     </row>
     <row r="455">
-      <c r="A455" s="131"/>
+      <c r="A455" s="139"/>
     </row>
     <row r="456">
-      <c r="A456" s="131"/>
+      <c r="A456" s="139"/>
     </row>
     <row r="457">
-      <c r="A457" s="131"/>
+      <c r="A457" s="139"/>
     </row>
     <row r="458">
-      <c r="A458" s="131"/>
+      <c r="A458" s="139"/>
     </row>
     <row r="459">
-      <c r="A459" s="131"/>
+      <c r="A459" s="139"/>
     </row>
     <row r="460">
-      <c r="A460" s="131"/>
+      <c r="A460" s="139"/>
     </row>
     <row r="461">
-      <c r="A461" s="131"/>
+      <c r="A461" s="139"/>
     </row>
     <row r="462">
-      <c r="A462" s="131"/>
+      <c r="A462" s="139"/>
     </row>
     <row r="463">
-      <c r="A463" s="131"/>
+      <c r="A463" s="139"/>
     </row>
     <row r="464">
-      <c r="A464" s="131"/>
+      <c r="A464" s="139"/>
     </row>
     <row r="465">
-      <c r="A465" s="131"/>
+      <c r="A465" s="139"/>
     </row>
     <row r="466">
-      <c r="A466" s="131"/>
+      <c r="A466" s="139"/>
     </row>
     <row r="467">
-      <c r="A467" s="131"/>
+      <c r="A467" s="139"/>
     </row>
     <row r="468">
-      <c r="A468" s="131"/>
+      <c r="A468" s="139"/>
     </row>
     <row r="469">
-      <c r="A469" s="131"/>
+      <c r="A469" s="139"/>
     </row>
     <row r="470">
-      <c r="A470" s="131"/>
+      <c r="A470" s="139"/>
     </row>
     <row r="471">
-      <c r="A471" s="131"/>
+      <c r="A471" s="139"/>
     </row>
     <row r="472">
-      <c r="A472" s="131"/>
+      <c r="A472" s="139"/>
     </row>
     <row r="473">
-      <c r="A473" s="131"/>
+      <c r="A473" s="139"/>
     </row>
     <row r="474">
-      <c r="A474" s="131"/>
+      <c r="A474" s="139"/>
     </row>
     <row r="475">
-      <c r="A475" s="131"/>
+      <c r="A475" s="139"/>
     </row>
     <row r="476">
-      <c r="A476" s="131"/>
+      <c r="A476" s="139"/>
     </row>
     <row r="477">
-      <c r="A477" s="131"/>
+      <c r="A477" s="139"/>
     </row>
     <row r="478">
-      <c r="A478" s="131"/>
+      <c r="A478" s="139"/>
     </row>
     <row r="479">
-      <c r="A479" s="131"/>
+      <c r="A479" s="139"/>
     </row>
     <row r="480">
-      <c r="A480" s="131"/>
+      <c r="A480" s="139"/>
     </row>
     <row r="481">
-      <c r="A481" s="131"/>
+      <c r="A481" s="139"/>
     </row>
     <row r="482">
-      <c r="A482" s="131"/>
+      <c r="A482" s="139"/>
     </row>
     <row r="483">
-      <c r="A483" s="131"/>
+      <c r="A483" s="139"/>
     </row>
     <row r="484">
-      <c r="A484" s="131"/>
+      <c r="A484" s="139"/>
     </row>
     <row r="485">
-      <c r="A485" s="131"/>
+      <c r="A485" s="139"/>
     </row>
     <row r="486">
-      <c r="A486" s="131"/>
+      <c r="A486" s="139"/>
     </row>
     <row r="487">
-      <c r="A487" s="131"/>
+      <c r="A487" s="139"/>
     </row>
     <row r="488">
-      <c r="A488" s="131"/>
+      <c r="A488" s="139"/>
     </row>
     <row r="489">
-      <c r="A489" s="131"/>
+      <c r="A489" s="139"/>
     </row>
     <row r="490">
-      <c r="A490" s="131"/>
+      <c r="A490" s="139"/>
     </row>
     <row r="491">
-      <c r="A491" s="131"/>
+      <c r="A491" s="139"/>
     </row>
     <row r="492">
-      <c r="A492" s="131"/>
+      <c r="A492" s="139"/>
     </row>
     <row r="493">
-      <c r="A493" s="131"/>
+      <c r="A493" s="139"/>
     </row>
     <row r="494">
-      <c r="A494" s="131"/>
+      <c r="A494" s="139"/>
     </row>
     <row r="495">
-      <c r="A495" s="131"/>
+      <c r="A495" s="139"/>
     </row>
     <row r="496">
-      <c r="A496" s="131"/>
+      <c r="A496" s="139"/>
     </row>
     <row r="497">
-      <c r="A497" s="131"/>
+      <c r="A497" s="139"/>
     </row>
     <row r="498">
-      <c r="A498" s="131"/>
+      <c r="A498" s="139"/>
     </row>
     <row r="499">
-      <c r="A499" s="131"/>
+      <c r="A499" s="139"/>
     </row>
     <row r="500">
-      <c r="A500" s="131"/>
+      <c r="A500" s="139"/>
     </row>
     <row r="501">
-      <c r="A501" s="131"/>
+      <c r="A501" s="139"/>
     </row>
     <row r="502">
-      <c r="A502" s="131"/>
+      <c r="A502" s="139"/>
     </row>
     <row r="503">
-      <c r="A503" s="131"/>
+      <c r="A503" s="139"/>
     </row>
     <row r="504">
-      <c r="A504" s="131"/>
+      <c r="A504" s="139"/>
     </row>
     <row r="505">
-      <c r="A505" s="131"/>
+      <c r="A505" s="139"/>
     </row>
     <row r="506">
-      <c r="A506" s="131"/>
+      <c r="A506" s="139"/>
     </row>
     <row r="507">
-      <c r="A507" s="131"/>
+      <c r="A507" s="139"/>
     </row>
     <row r="508">
-      <c r="A508" s="131"/>
+      <c r="A508" s="139"/>
     </row>
     <row r="509">
-      <c r="A509" s="131"/>
+      <c r="A509" s="139"/>
     </row>
     <row r="510">
-      <c r="A510" s="131"/>
+      <c r="A510" s="139"/>
     </row>
     <row r="511">
-      <c r="A511" s="131"/>
+      <c r="A511" s="139"/>
     </row>
     <row r="512">
-      <c r="A512" s="131"/>
+      <c r="A512" s="139"/>
     </row>
     <row r="513">
-      <c r="A513" s="131"/>
+      <c r="A513" s="139"/>
     </row>
     <row r="514">
-      <c r="A514" s="131"/>
+      <c r="A514" s="139"/>
     </row>
     <row r="515">
-      <c r="A515" s="131"/>
+      <c r="A515" s="139"/>
     </row>
     <row r="516">
-      <c r="A516" s="131"/>
+      <c r="A516" s="139"/>
     </row>
     <row r="517">
-      <c r="A517" s="131"/>
+      <c r="A517" s="139"/>
     </row>
     <row r="518">
-      <c r="A518" s="131"/>
+      <c r="A518" s="139"/>
     </row>
     <row r="519">
-      <c r="A519" s="131"/>
+      <c r="A519" s="139"/>
     </row>
     <row r="520">
-      <c r="A520" s="131"/>
+      <c r="A520" s="139"/>
     </row>
     <row r="521">
-      <c r="A521" s="131"/>
+      <c r="A521" s="139"/>
     </row>
     <row r="522">
-      <c r="A522" s="131"/>
+      <c r="A522" s="139"/>
     </row>
     <row r="523">
-      <c r="A523" s="131"/>
+      <c r="A523" s="139"/>
     </row>
     <row r="524">
-      <c r="A524" s="131"/>
+      <c r="A524" s="139"/>
     </row>
     <row r="525">
-      <c r="A525" s="131"/>
+      <c r="A525" s="139"/>
     </row>
     <row r="526">
-      <c r="A526" s="131"/>
+      <c r="A526" s="139"/>
     </row>
     <row r="527">
-      <c r="A527" s="131"/>
+      <c r="A527" s="139"/>
     </row>
     <row r="528">
-      <c r="A528" s="131"/>
+      <c r="A528" s="139"/>
     </row>
     <row r="529">
-      <c r="A529" s="131"/>
+      <c r="A529" s="139"/>
     </row>
     <row r="530">
-      <c r="A530" s="131"/>
+      <c r="A530" s="139"/>
     </row>
     <row r="531">
-      <c r="A531" s="131"/>
+      <c r="A531" s="139"/>
     </row>
     <row r="532">
-      <c r="A532" s="131"/>
+      <c r="A532" s="139"/>
     </row>
     <row r="533">
-      <c r="A533" s="131"/>
+      <c r="A533" s="139"/>
     </row>
     <row r="534">
-      <c r="A534" s="131"/>
+      <c r="A534" s="139"/>
     </row>
     <row r="535">
-      <c r="A535" s="131"/>
+      <c r="A535" s="139"/>
     </row>
     <row r="536">
-      <c r="A536" s="131"/>
+      <c r="A536" s="139"/>
     </row>
     <row r="537">
-      <c r="A537" s="131"/>
+      <c r="A537" s="139"/>
     </row>
     <row r="538">
-      <c r="A538" s="131"/>
+      <c r="A538" s="139"/>
     </row>
     <row r="539">
-      <c r="A539" s="131"/>
+      <c r="A539" s="139"/>
     </row>
     <row r="540">
-      <c r="A540" s="131"/>
+      <c r="A540" s="139"/>
     </row>
     <row r="541">
-      <c r="A541" s="131"/>
+      <c r="A541" s="139"/>
     </row>
     <row r="542">
-      <c r="A542" s="131"/>
+      <c r="A542" s="139"/>
     </row>
     <row r="543">
-      <c r="A543" s="131"/>
+      <c r="A543" s="139"/>
     </row>
     <row r="544">
-      <c r="A544" s="131"/>
+      <c r="A544" s="139"/>
     </row>
     <row r="545">
-      <c r="A545" s="131"/>
+      <c r="A545" s="139"/>
     </row>
     <row r="546">
-      <c r="A546" s="131"/>
+      <c r="A546" s="139"/>
     </row>
     <row r="547">
-      <c r="A547" s="131"/>
+      <c r="A547" s="139"/>
     </row>
     <row r="548">
-      <c r="A548" s="131"/>
+      <c r="A548" s="139"/>
     </row>
     <row r="549">
-      <c r="A549" s="131"/>
+      <c r="A549" s="139"/>
     </row>
     <row r="550">
-      <c r="A550" s="131"/>
+      <c r="A550" s="139"/>
     </row>
     <row r="551">
-      <c r="A551" s="131"/>
+      <c r="A551" s="139"/>
     </row>
     <row r="552">
-      <c r="A552" s="131"/>
+      <c r="A552" s="139"/>
     </row>
     <row r="553">
-      <c r="A553" s="131"/>
+      <c r="A553" s="139"/>
     </row>
     <row r="554">
-      <c r="A554" s="131"/>
+      <c r="A554" s="139"/>
     </row>
     <row r="555">
-      <c r="A555" s="131"/>
+      <c r="A555" s="139"/>
     </row>
     <row r="556">
-      <c r="A556" s="131"/>
+      <c r="A556" s="139"/>
     </row>
     <row r="557">
-      <c r="A557" s="131"/>
+      <c r="A557" s="139"/>
     </row>
     <row r="558">
-      <c r="A558" s="131"/>
+      <c r="A558" s="139"/>
     </row>
     <row r="559">
-      <c r="A559" s="131"/>
+      <c r="A559" s="139"/>
     </row>
     <row r="560">
-      <c r="A560" s="131"/>
+      <c r="A560" s="139"/>
     </row>
     <row r="561">
-      <c r="A561" s="131"/>
+      <c r="A561" s="139"/>
     </row>
     <row r="562">
-      <c r="A562" s="131"/>
+      <c r="A562" s="139"/>
     </row>
     <row r="563">
-      <c r="A563" s="131"/>
+      <c r="A563" s="139"/>
     </row>
     <row r="564">
-      <c r="A564" s="131"/>
+      <c r="A564" s="139"/>
     </row>
     <row r="565">
-      <c r="A565" s="131"/>
+      <c r="A565" s="139"/>
     </row>
     <row r="566">
-      <c r="A566" s="131"/>
+      <c r="A566" s="139"/>
     </row>
     <row r="567">
-      <c r="A567" s="131"/>
+      <c r="A567" s="139"/>
     </row>
     <row r="568">
-      <c r="A568" s="131"/>
+      <c r="A568" s="139"/>
     </row>
     <row r="569">
-      <c r="A569" s="131"/>
+      <c r="A569" s="139"/>
     </row>
     <row r="570">
-      <c r="A570" s="131"/>
+      <c r="A570" s="139"/>
     </row>
     <row r="571">
-      <c r="A571" s="131"/>
+      <c r="A571" s="139"/>
     </row>
     <row r="572">
-      <c r="A572" s="131"/>
+      <c r="A572" s="139"/>
     </row>
     <row r="573">
-      <c r="A573" s="131"/>
+      <c r="A573" s="139"/>
     </row>
     <row r="574">
-      <c r="A574" s="131"/>
+      <c r="A574" s="139"/>
     </row>
     <row r="575">
-      <c r="A575" s="131"/>
+      <c r="A575" s="139"/>
     </row>
     <row r="576">
-      <c r="A576" s="131"/>
+      <c r="A576" s="139"/>
     </row>
     <row r="577">
-      <c r="A577" s="131"/>
+      <c r="A577" s="139"/>
     </row>
     <row r="578">
-      <c r="A578" s="131"/>
+      <c r="A578" s="139"/>
     </row>
     <row r="579">
-      <c r="A579" s="131"/>
+      <c r="A579" s="139"/>
     </row>
     <row r="580">
-      <c r="A580" s="131"/>
+      <c r="A580" s="139"/>
     </row>
     <row r="581">
-      <c r="A581" s="131"/>
+      <c r="A581" s="139"/>
     </row>
     <row r="582">
-      <c r="A582" s="131"/>
+      <c r="A582" s="139"/>
     </row>
     <row r="583">
-      <c r="A583" s="131"/>
+      <c r="A583" s="139"/>
     </row>
     <row r="584">
-      <c r="A584" s="131"/>
+      <c r="A584" s="139"/>
     </row>
     <row r="585">
-      <c r="A585" s="131"/>
+      <c r="A585" s="139"/>
     </row>
     <row r="586">
-      <c r="A586" s="131"/>
+      <c r="A586" s="139"/>
     </row>
     <row r="587">
-      <c r="A587" s="131"/>
+      <c r="A587" s="139"/>
     </row>
     <row r="588">
-      <c r="A588" s="131"/>
+      <c r="A588" s="139"/>
     </row>
     <row r="589">
-      <c r="A589" s="131"/>
+      <c r="A589" s="139"/>
     </row>
     <row r="590">
-      <c r="A590" s="131"/>
+      <c r="A590" s="139"/>
     </row>
     <row r="591">
-      <c r="A591" s="131"/>
+      <c r="A591" s="139"/>
     </row>
     <row r="592">
-      <c r="A592" s="131"/>
+      <c r="A592" s="139"/>
     </row>
     <row r="593">
-      <c r="A593" s="131"/>
+      <c r="A593" s="139"/>
     </row>
     <row r="594">
-      <c r="A594" s="131"/>
+      <c r="A594" s="139"/>
     </row>
     <row r="595">
-      <c r="A595" s="131"/>
+      <c r="A595" s="139"/>
     </row>
     <row r="596">
-      <c r="A596" s="131"/>
+      <c r="A596" s="139"/>
     </row>
     <row r="597">
-      <c r="A597" s="131"/>
+      <c r="A597" s="139"/>
     </row>
     <row r="598">
-      <c r="A598" s="131"/>
+      <c r="A598" s="139"/>
     </row>
     <row r="599">
-      <c r="A599" s="131"/>
+      <c r="A599" s="139"/>
     </row>
     <row r="600">
-      <c r="A600" s="131"/>
+      <c r="A600" s="139"/>
     </row>
     <row r="601">
-      <c r="A601" s="131"/>
+      <c r="A601" s="139"/>
     </row>
     <row r="602">
-      <c r="A602" s="131"/>
+      <c r="A602" s="139"/>
     </row>
     <row r="603">
-      <c r="A603" s="131"/>
+      <c r="A603" s="139"/>
     </row>
     <row r="604">
-      <c r="A604" s="131"/>
+      <c r="A604" s="139"/>
     </row>
     <row r="605">
-      <c r="A605" s="131"/>
+      <c r="A605" s="139"/>
     </row>
     <row r="606">
-      <c r="A606" s="131"/>
+      <c r="A606" s="139"/>
     </row>
     <row r="607">
-      <c r="A607" s="131"/>
+      <c r="A607" s="139"/>
     </row>
     <row r="608">
-      <c r="A608" s="131"/>
+      <c r="A608" s="139"/>
     </row>
     <row r="609">
-      <c r="A609" s="131"/>
+      <c r="A609" s="139"/>
     </row>
     <row r="610">
-      <c r="A610" s="131"/>
+      <c r="A610" s="139"/>
     </row>
     <row r="611">
-      <c r="A611" s="131"/>
+      <c r="A611" s="139"/>
     </row>
     <row r="612">
-      <c r="A612" s="131"/>
+      <c r="A612" s="139"/>
     </row>
     <row r="613">
-      <c r="A613" s="131"/>
+      <c r="A613" s="139"/>
     </row>
     <row r="614">
-      <c r="A614" s="131"/>
+      <c r="A614" s="139"/>
     </row>
     <row r="615">
-      <c r="A615" s="131"/>
+      <c r="A615" s="139"/>
     </row>
     <row r="616">
-      <c r="A616" s="131"/>
+      <c r="A616" s="139"/>
     </row>
     <row r="617">
-      <c r="A617" s="131"/>
+      <c r="A617" s="139"/>
     </row>
     <row r="618">
-      <c r="A618" s="131"/>
+      <c r="A618" s="139"/>
     </row>
     <row r="619">
-      <c r="A619" s="131"/>
+      <c r="A619" s="139"/>
     </row>
     <row r="620">
-      <c r="A620" s="131"/>
+      <c r="A620" s="139"/>
     </row>
     <row r="621">
-      <c r="A621" s="131"/>
+      <c r="A621" s="139"/>
     </row>
     <row r="622">
-      <c r="A622" s="131"/>
+      <c r="A622" s="139"/>
     </row>
     <row r="623">
-      <c r="A623" s="131"/>
+      <c r="A623" s="139"/>
     </row>
     <row r="624">
-      <c r="A624" s="131"/>
+      <c r="A624" s="139"/>
     </row>
     <row r="625">
-      <c r="A625" s="131"/>
+      <c r="A625" s="139"/>
     </row>
     <row r="626">
-      <c r="A626" s="131"/>
+      <c r="A626" s="139"/>
     </row>
     <row r="627">
-      <c r="A627" s="131"/>
+      <c r="A627" s="139"/>
     </row>
     <row r="628">
-      <c r="A628" s="131"/>
+      <c r="A628" s="139"/>
     </row>
     <row r="629">
-      <c r="A629" s="131"/>
+      <c r="A629" s="139"/>
     </row>
     <row r="630">
-      <c r="A630" s="131"/>
+      <c r="A630" s="139"/>
     </row>
     <row r="631">
-      <c r="A631" s="131"/>
+      <c r="A631" s="139"/>
     </row>
     <row r="632">
-      <c r="A632" s="131"/>
+      <c r="A632" s="139"/>
     </row>
     <row r="633">
-      <c r="A633" s="131"/>
+      <c r="A633" s="139"/>
     </row>
     <row r="634">
-      <c r="A634" s="131"/>
+      <c r="A634" s="139"/>
     </row>
     <row r="635">
-      <c r="A635" s="131"/>
+      <c r="A635" s="139"/>
     </row>
     <row r="636">
-      <c r="A636" s="131"/>
+      <c r="A636" s="139"/>
     </row>
     <row r="637">
-      <c r="A637" s="131"/>
+      <c r="A637" s="139"/>
     </row>
     <row r="638">
-      <c r="A638" s="131"/>
+      <c r="A638" s="139"/>
     </row>
     <row r="639">
-      <c r="A639" s="131"/>
+      <c r="A639" s="139"/>
     </row>
     <row r="640">
-      <c r="A640" s="131"/>
+      <c r="A640" s="139"/>
     </row>
     <row r="641">
-      <c r="A641" s="131"/>
+      <c r="A641" s="139"/>
     </row>
     <row r="642">
-      <c r="A642" s="131"/>
+      <c r="A642" s="139"/>
     </row>
     <row r="643">
-      <c r="A643" s="131"/>
+      <c r="A643" s="139"/>
     </row>
     <row r="644">
-      <c r="A644" s="131"/>
+      <c r="A644" s="139"/>
     </row>
     <row r="645">
-      <c r="A645" s="131"/>
+      <c r="A645" s="139"/>
     </row>
     <row r="646">
-      <c r="A646" s="131"/>
+      <c r="A646" s="139"/>
     </row>
     <row r="647">
-      <c r="A647" s="131"/>
+      <c r="A647" s="139"/>
     </row>
     <row r="648">
-      <c r="A648" s="131"/>
+      <c r="A648" s="139"/>
     </row>
     <row r="649">
-      <c r="A649" s="131"/>
+      <c r="A649" s="139"/>
     </row>
     <row r="650">
-      <c r="A650" s="131"/>
+      <c r="A650" s="139"/>
     </row>
     <row r="651">
-      <c r="A651" s="131"/>
+      <c r="A651" s="139"/>
     </row>
     <row r="652">
-      <c r="A652" s="131"/>
+      <c r="A652" s="139"/>
     </row>
     <row r="653">
-      <c r="A653" s="131"/>
+      <c r="A653" s="139"/>
     </row>
     <row r="654">
-      <c r="A654" s="131"/>
+      <c r="A654" s="139"/>
     </row>
     <row r="655">
-      <c r="A655" s="131"/>
+      <c r="A655" s="139"/>
     </row>
     <row r="656">
-      <c r="A656" s="131"/>
+      <c r="A656" s="139"/>
     </row>
     <row r="657">
-      <c r="A657" s="131"/>
+      <c r="A657" s="139"/>
     </row>
     <row r="658">
-      <c r="A658" s="131"/>
+      <c r="A658" s="139"/>
     </row>
     <row r="659">
-      <c r="A659" s="131"/>
+      <c r="A659" s="139"/>
     </row>
     <row r="660">
-      <c r="A660" s="131"/>
+      <c r="A660" s="139"/>
     </row>
     <row r="661">
-      <c r="A661" s="131"/>
+      <c r="A661" s="139"/>
     </row>
     <row r="662">
-      <c r="A662" s="131"/>
+      <c r="A662" s="139"/>
     </row>
     <row r="663">
-      <c r="A663" s="131"/>
+      <c r="A663" s="139"/>
     </row>
     <row r="664">
-      <c r="A664" s="131"/>
+      <c r="A664" s="139"/>
     </row>
     <row r="665">
-      <c r="A665" s="131"/>
+      <c r="A665" s="139"/>
     </row>
     <row r="666">
-      <c r="A666" s="131"/>
+      <c r="A666" s="139"/>
     </row>
     <row r="667">
-      <c r="A667" s="131"/>
+      <c r="A667" s="139"/>
     </row>
     <row r="668">
-      <c r="A668" s="131"/>
+      <c r="A668" s="139"/>
     </row>
     <row r="669">
-      <c r="A669" s="131"/>
+      <c r="A669" s="139"/>
     </row>
     <row r="670">
-      <c r="A670" s="131"/>
+      <c r="A670" s="139"/>
     </row>
     <row r="671">
-      <c r="A671" s="131"/>
+      <c r="A671" s="139"/>
     </row>
     <row r="672">
-      <c r="A672" s="131"/>
+      <c r="A672" s="139"/>
     </row>
     <row r="673">
-      <c r="A673" s="131"/>
+      <c r="A673" s="139"/>
     </row>
     <row r="674">
-      <c r="A674" s="131"/>
+      <c r="A674" s="139"/>
     </row>
     <row r="675">
-      <c r="A675" s="131"/>
+      <c r="A675" s="139"/>
     </row>
     <row r="676">
-      <c r="A676" s="131"/>
+      <c r="A676" s="139"/>
     </row>
     <row r="677">
-      <c r="A677" s="131"/>
+      <c r="A677" s="139"/>
     </row>
     <row r="678">
-      <c r="A678" s="131"/>
+      <c r="A678" s="139"/>
     </row>
     <row r="679">
-      <c r="A679" s="131"/>
+      <c r="A679" s="139"/>
     </row>
     <row r="680">
-      <c r="A680" s="131"/>
+      <c r="A680" s="139"/>
     </row>
     <row r="681">
-      <c r="A681" s="131"/>
+      <c r="A681" s="139"/>
     </row>
     <row r="682">
-      <c r="A682" s="131"/>
+      <c r="A682" s="139"/>
     </row>
     <row r="683">
-      <c r="A683" s="131"/>
+      <c r="A683" s="139"/>
     </row>
     <row r="684">
-      <c r="A684" s="131"/>
+      <c r="A684" s="139"/>
     </row>
     <row r="685">
-      <c r="A685" s="131"/>
+      <c r="A685" s="139"/>
     </row>
     <row r="686">
-      <c r="A686" s="131"/>
+      <c r="A686" s="139"/>
     </row>
     <row r="687">
-      <c r="A687" s="131"/>
+      <c r="A687" s="139"/>
     </row>
     <row r="688">
-      <c r="A688" s="131"/>
+      <c r="A688" s="139"/>
     </row>
     <row r="689">
-      <c r="A689" s="131"/>
+      <c r="A689" s="139"/>
     </row>
     <row r="690">
-      <c r="A690" s="131"/>
+      <c r="A690" s="139"/>
     </row>
     <row r="691">
-      <c r="A691" s="131"/>
+      <c r="A691" s="139"/>
     </row>
     <row r="692">
-      <c r="A692" s="131"/>
+      <c r="A692" s="139"/>
     </row>
     <row r="693">
-      <c r="A693" s="131"/>
+      <c r="A693" s="139"/>
     </row>
     <row r="694">
-      <c r="A694" s="131"/>
+      <c r="A694" s="139"/>
     </row>
     <row r="695">
-      <c r="A695" s="131"/>
+      <c r="A695" s="139"/>
     </row>
     <row r="696">
-      <c r="A696" s="131"/>
+      <c r="A696" s="139"/>
     </row>
     <row r="697">
-      <c r="A697" s="131"/>
+      <c r="A697" s="139"/>
     </row>
     <row r="698">
-      <c r="A698" s="131"/>
+      <c r="A698" s="139"/>
     </row>
     <row r="699">
-      <c r="A699" s="131"/>
+      <c r="A699" s="139"/>
     </row>
     <row r="700">
-      <c r="A700" s="131"/>
+      <c r="A700" s="139"/>
     </row>
     <row r="701">
-      <c r="A701" s="131"/>
+      <c r="A701" s="139"/>
     </row>
     <row r="702">
-      <c r="A702" s="131"/>
+      <c r="A702" s="139"/>
     </row>
     <row r="703">
-      <c r="A703" s="131"/>
+      <c r="A703" s="139"/>
     </row>
     <row r="704">
-      <c r="A704" s="131"/>
+      <c r="A704" s="139"/>
     </row>
     <row r="705">
-      <c r="A705" s="131"/>
+      <c r="A705" s="139"/>
     </row>
     <row r="706">
-      <c r="A706" s="131"/>
+      <c r="A706" s="139"/>
     </row>
     <row r="707">
-      <c r="A707" s="131"/>
+      <c r="A707" s="139"/>
     </row>
     <row r="708">
-      <c r="A708" s="131"/>
+      <c r="A708" s="139"/>
     </row>
     <row r="709">
-      <c r="A709" s="131"/>
+      <c r="A709" s="139"/>
     </row>
     <row r="710">
-      <c r="A710" s="131"/>
+      <c r="A710" s="139"/>
     </row>
     <row r="711">
-      <c r="A711" s="131"/>
+      <c r="A711" s="139"/>
     </row>
     <row r="712">
-      <c r="A712" s="131"/>
+      <c r="A712" s="139"/>
     </row>
     <row r="713">
-      <c r="A713" s="131"/>
+      <c r="A713" s="139"/>
     </row>
     <row r="714">
-      <c r="A714" s="131"/>
+      <c r="A714" s="139"/>
     </row>
     <row r="715">
-      <c r="A715" s="131"/>
+      <c r="A715" s="139"/>
     </row>
     <row r="716">
-      <c r="A716" s="131"/>
+      <c r="A716" s="139"/>
     </row>
     <row r="717">
-      <c r="A717" s="131"/>
+      <c r="A717" s="139"/>
     </row>
     <row r="718">
-      <c r="A718" s="131"/>
+      <c r="A718" s="139"/>
     </row>
     <row r="719">
-      <c r="A719" s="131"/>
+      <c r="A719" s="139"/>
     </row>
     <row r="720">
-      <c r="A720" s="131"/>
+      <c r="A720" s="139"/>
     </row>
     <row r="721">
-      <c r="A721" s="131"/>
+      <c r="A721" s="139"/>
     </row>
     <row r="722">
-      <c r="A722" s="131"/>
+      <c r="A722" s="139"/>
     </row>
     <row r="723">
-      <c r="A723" s="131"/>
+      <c r="A723" s="139"/>
     </row>
     <row r="724">
-      <c r="A724" s="131"/>
+      <c r="A724" s="139"/>
     </row>
     <row r="725">
-      <c r="A725" s="131"/>
+      <c r="A725" s="139"/>
     </row>
     <row r="726">
-      <c r="A726" s="131"/>
+      <c r="A726" s="139"/>
     </row>
     <row r="727">
-      <c r="A727" s="131"/>
+      <c r="A727" s="139"/>
     </row>
     <row r="728">
-      <c r="A728" s="131"/>
+      <c r="A728" s="139"/>
     </row>
     <row r="729">
-      <c r="A729" s="131"/>
+      <c r="A729" s="139"/>
     </row>
     <row r="730">
-      <c r="A730" s="131"/>
+      <c r="A730" s="139"/>
     </row>
     <row r="731">
-      <c r="A731" s="131"/>
+      <c r="A731" s="139"/>
     </row>
     <row r="732">
-      <c r="A732" s="131"/>
+      <c r="A732" s="139"/>
     </row>
     <row r="733">
-      <c r="A733" s="131"/>
+      <c r="A733" s="139"/>
     </row>
     <row r="734">
-      <c r="A734" s="131"/>
+      <c r="A734" s="139"/>
     </row>
     <row r="735">
-      <c r="A735" s="131"/>
+      <c r="A735" s="139"/>
     </row>
     <row r="736">
-      <c r="A736" s="131"/>
+      <c r="A736" s="139"/>
     </row>
     <row r="737">
-      <c r="A737" s="131"/>
+      <c r="A737" s="139"/>
     </row>
     <row r="738">
-      <c r="A738" s="131"/>
+      <c r="A738" s="139"/>
     </row>
     <row r="739">
-      <c r="A739" s="131"/>
+      <c r="A739" s="139"/>
     </row>
     <row r="740">
-      <c r="A740" s="131"/>
+      <c r="A740" s="139"/>
     </row>
     <row r="741">
-      <c r="A741" s="131"/>
+      <c r="A741" s="139"/>
     </row>
     <row r="742">
-      <c r="A742" s="131"/>
+      <c r="A742" s="139"/>
     </row>
     <row r="743">
-      <c r="A743" s="131"/>
+      <c r="A743" s="139"/>
     </row>
     <row r="744">
-      <c r="A744" s="131"/>
+      <c r="A744" s="139"/>
     </row>
     <row r="745">
-      <c r="A745" s="131"/>
+      <c r="A745" s="139"/>
     </row>
     <row r="746">
-      <c r="A746" s="131"/>
+      <c r="A746" s="139"/>
     </row>
     <row r="747">
-      <c r="A747" s="131"/>
+      <c r="A747" s="139"/>
     </row>
     <row r="748">
-      <c r="A748" s="131"/>
+      <c r="A748" s="139"/>
     </row>
     <row r="749">
-      <c r="A749" s="131"/>
+      <c r="A749" s="139"/>
     </row>
     <row r="750">
-      <c r="A750" s="131"/>
+      <c r="A750" s="139"/>
     </row>
     <row r="751">
-      <c r="A751" s="131"/>
+      <c r="A751" s="139"/>
     </row>
     <row r="752">
-      <c r="A752" s="131"/>
+      <c r="A752" s="139"/>
     </row>
     <row r="753">
-      <c r="A753" s="131"/>
+      <c r="A753" s="139"/>
     </row>
     <row r="754">
-      <c r="A754" s="131"/>
+      <c r="A754" s="139"/>
     </row>
     <row r="755">
-      <c r="A755" s="131"/>
+      <c r="A755" s="139"/>
     </row>
     <row r="756">
-      <c r="A756" s="131"/>
+      <c r="A756" s="139"/>
     </row>
     <row r="757">
-      <c r="A757" s="131"/>
+      <c r="A757" s="139"/>
     </row>
     <row r="758">
-      <c r="A758" s="131"/>
+      <c r="A758" s="139"/>
     </row>
     <row r="759">
-      <c r="A759" s="131"/>
+      <c r="A759" s="139"/>
     </row>
     <row r="760">
-      <c r="A760" s="131"/>
+      <c r="A760" s="139"/>
     </row>
     <row r="761">
-      <c r="A761" s="131"/>
+      <c r="A761" s="139"/>
     </row>
     <row r="762">
-      <c r="A762" s="131"/>
+      <c r="A762" s="139"/>
     </row>
     <row r="763">
-      <c r="A763" s="131"/>
+      <c r="A763" s="139"/>
     </row>
     <row r="764">
-      <c r="A764" s="131"/>
+      <c r="A764" s="139"/>
     </row>
     <row r="765">
-      <c r="A765" s="131"/>
+      <c r="A765" s="139"/>
     </row>
     <row r="766">
-      <c r="A766" s="131"/>
+      <c r="A766" s="139"/>
     </row>
     <row r="767">
-      <c r="A767" s="131"/>
+      <c r="A767" s="139"/>
     </row>
     <row r="768">
-      <c r="A768" s="131"/>
+      <c r="A768" s="139"/>
     </row>
     <row r="769">
-      <c r="A769" s="131"/>
+      <c r="A769" s="139"/>
     </row>
     <row r="770">
-      <c r="A770" s="131"/>
+      <c r="A770" s="139"/>
     </row>
     <row r="771">
-      <c r="A771" s="131"/>
+      <c r="A771" s="139"/>
     </row>
     <row r="772">
-      <c r="A772" s="131"/>
+      <c r="A772" s="139"/>
     </row>
     <row r="773">
-      <c r="A773" s="131"/>
+      <c r="A773" s="139"/>
     </row>
     <row r="774">
-      <c r="A774" s="131"/>
+      <c r="A774" s="139"/>
     </row>
     <row r="775">
-      <c r="A775" s="131"/>
+      <c r="A775" s="139"/>
     </row>
     <row r="776">
-      <c r="A776" s="131"/>
+      <c r="A776" s="139"/>
     </row>
     <row r="777">
-      <c r="A777" s="131"/>
+      <c r="A777" s="139"/>
     </row>
     <row r="778">
-      <c r="A778" s="131"/>
+      <c r="A778" s="139"/>
     </row>
     <row r="779">
-      <c r="A779" s="131"/>
+      <c r="A779" s="139"/>
     </row>
     <row r="780">
-      <c r="A780" s="131"/>
+      <c r="A780" s="139"/>
     </row>
     <row r="781">
-      <c r="A781" s="131"/>
+      <c r="A781" s="139"/>
     </row>
     <row r="782">
-      <c r="A782" s="131"/>
+      <c r="A782" s="139"/>
     </row>
     <row r="783">
-      <c r="A783" s="131"/>
+      <c r="A783" s="139"/>
     </row>
     <row r="784">
-      <c r="A784" s="131"/>
+      <c r="A784" s="139"/>
     </row>
     <row r="785">
-      <c r="A785" s="131"/>
+      <c r="A785" s="139"/>
     </row>
     <row r="786">
-      <c r="A786" s="131"/>
+      <c r="A786" s="139"/>
     </row>
     <row r="787">
-      <c r="A787" s="131"/>
+      <c r="A787" s="139"/>
     </row>
     <row r="788">
-      <c r="A788" s="131"/>
+      <c r="A788" s="139"/>
     </row>
     <row r="789">
-      <c r="A789" s="131"/>
+      <c r="A789" s="139"/>
     </row>
     <row r="790">
-      <c r="A790" s="131"/>
+      <c r="A790" s="139"/>
     </row>
     <row r="791">
-      <c r="A791" s="131"/>
+      <c r="A791" s="139"/>
     </row>
     <row r="792">
-      <c r="A792" s="131"/>
+      <c r="A792" s="139"/>
     </row>
     <row r="793">
-      <c r="A793" s="131"/>
+      <c r="A793" s="139"/>
     </row>
     <row r="794">
-      <c r="A794" s="131"/>
+      <c r="A794" s="139"/>
     </row>
     <row r="795">
-      <c r="A795" s="131"/>
+      <c r="A795" s="139"/>
     </row>
     <row r="796">
-      <c r="A796" s="131"/>
+      <c r="A796" s="139"/>
     </row>
     <row r="797">
-      <c r="A797" s="131"/>
+      <c r="A797" s="139"/>
     </row>
     <row r="798">
-      <c r="A798" s="131"/>
+      <c r="A798" s="139"/>
     </row>
     <row r="799">
-      <c r="A799" s="131"/>
+      <c r="A799" s="139"/>
     </row>
     <row r="800">
-      <c r="A800" s="131"/>
+      <c r="A800" s="139"/>
     </row>
     <row r="801">
-      <c r="A801" s="131"/>
+      <c r="A801" s="139"/>
     </row>
     <row r="802">
-      <c r="A802" s="131"/>
+      <c r="A802" s="139"/>
     </row>
     <row r="803">
-      <c r="A803" s="131"/>
+      <c r="A803" s="139"/>
     </row>
     <row r="804">
-      <c r="A804" s="131"/>
+      <c r="A804" s="139"/>
     </row>
     <row r="805">
-      <c r="A805" s="131"/>
+      <c r="A805" s="139"/>
     </row>
     <row r="806">
-      <c r="A806" s="131"/>
+      <c r="A806" s="139"/>
     </row>
     <row r="807">
-      <c r="A807" s="131"/>
+      <c r="A807" s="139"/>
     </row>
     <row r="808">
-      <c r="A808" s="131"/>
+      <c r="A808" s="139"/>
     </row>
     <row r="809">
-      <c r="A809" s="131"/>
+      <c r="A809" s="139"/>
     </row>
     <row r="810">
-      <c r="A810" s="131"/>
+      <c r="A810" s="139"/>
     </row>
     <row r="811">
-      <c r="A811" s="131"/>
+      <c r="A811" s="139"/>
     </row>
     <row r="812">
-      <c r="A812" s="131"/>
+      <c r="A812" s="139"/>
     </row>
     <row r="813">
-      <c r="A813" s="131"/>
+      <c r="A813" s="139"/>
     </row>
     <row r="814">
-      <c r="A814" s="131"/>
+      <c r="A814" s="139"/>
     </row>
     <row r="815">
-      <c r="A815" s="131"/>
+      <c r="A815" s="139"/>
     </row>
     <row r="816">
-      <c r="A816" s="131"/>
+      <c r="A816" s="139"/>
     </row>
     <row r="817">
-      <c r="A817" s="131"/>
+      <c r="A817" s="139"/>
     </row>
     <row r="818">
-      <c r="A818" s="131"/>
+      <c r="A818" s="139"/>
     </row>
     <row r="819">
-      <c r="A819" s="131"/>
+      <c r="A819" s="139"/>
     </row>
     <row r="820">
-      <c r="A820" s="131"/>
+      <c r="A820" s="139"/>
     </row>
     <row r="821">
-      <c r="A821" s="131"/>
+      <c r="A821" s="139"/>
     </row>
     <row r="822">
-      <c r="A822" s="131"/>
+      <c r="A822" s="139"/>
     </row>
     <row r="823">
-      <c r="A823" s="131"/>
+      <c r="A823" s="139"/>
     </row>
     <row r="824">
-      <c r="A824" s="131"/>
+      <c r="A824" s="139"/>
     </row>
     <row r="825">
-      <c r="A825" s="131"/>
+      <c r="A825" s="139"/>
     </row>
     <row r="826">
-      <c r="A826" s="131"/>
+      <c r="A826" s="139"/>
     </row>
     <row r="827">
-      <c r="A827" s="131"/>
+      <c r="A827" s="139"/>
     </row>
     <row r="828">
-      <c r="A828" s="131"/>
+      <c r="A828" s="139"/>
     </row>
     <row r="829">
-      <c r="A829" s="131"/>
+      <c r="A829" s="139"/>
     </row>
     <row r="830">
-      <c r="A830" s="131"/>
+      <c r="A830" s="139"/>
     </row>
     <row r="831">
-      <c r="A831" s="131"/>
+      <c r="A831" s="139"/>
     </row>
     <row r="832">
-      <c r="A832" s="131"/>
+      <c r="A832" s="139"/>
     </row>
     <row r="833">
-      <c r="A833" s="131"/>
+      <c r="A833" s="139"/>
     </row>
     <row r="834">
-      <c r="A834" s="131"/>
+      <c r="A834" s="139"/>
     </row>
     <row r="835">
-      <c r="A835" s="131"/>
+      <c r="A835" s="139"/>
     </row>
     <row r="836">
-      <c r="A836" s="131"/>
+      <c r="A836" s="139"/>
     </row>
     <row r="837">
-      <c r="A837" s="131"/>
+      <c r="A837" s="139"/>
     </row>
     <row r="838">
-      <c r="A838" s="131"/>
+      <c r="A838" s="139"/>
     </row>
     <row r="839">
-      <c r="A839" s="131"/>
+      <c r="A839" s="139"/>
     </row>
     <row r="840">
-      <c r="A840" s="131"/>
+      <c r="A840" s="139"/>
     </row>
     <row r="841">
-      <c r="A841" s="131"/>
+      <c r="A841" s="139"/>
     </row>
     <row r="842">
-      <c r="A842" s="131"/>
+      <c r="A842" s="139"/>
     </row>
     <row r="843">
-      <c r="A843" s="131"/>
+      <c r="A843" s="139"/>
     </row>
     <row r="844">
-      <c r="A844" s="131"/>
+      <c r="A844" s="139"/>
     </row>
     <row r="845">
-      <c r="A845" s="131"/>
+      <c r="A845" s="139"/>
     </row>
     <row r="846">
-      <c r="A846" s="131"/>
+      <c r="A846" s="139"/>
     </row>
     <row r="847">
-      <c r="A847" s="131"/>
+      <c r="A847" s="139"/>
     </row>
     <row r="848">
-      <c r="A848" s="131"/>
+      <c r="A848" s="139"/>
     </row>
     <row r="849">
-      <c r="A849" s="131"/>
+      <c r="A849" s="139"/>
     </row>
     <row r="850">
-      <c r="A850" s="131"/>
+      <c r="A850" s="139"/>
     </row>
     <row r="851">
-      <c r="A851" s="131"/>
+      <c r="A851" s="139"/>
     </row>
     <row r="852">
-      <c r="A852" s="131"/>
+      <c r="A852" s="139"/>
     </row>
     <row r="853">
-      <c r="A853" s="131"/>
+      <c r="A853" s="139"/>
     </row>
     <row r="854">
-      <c r="A854" s="131"/>
+      <c r="A854" s="139"/>
     </row>
     <row r="855">
-      <c r="A855" s="131"/>
+      <c r="A855" s="139"/>
     </row>
     <row r="856">
-      <c r="A856" s="131"/>
+      <c r="A856" s="139"/>
     </row>
     <row r="857">
-      <c r="A857" s="131"/>
+      <c r="A857" s="139"/>
     </row>
     <row r="858">
-      <c r="A858" s="131"/>
+      <c r="A858" s="139"/>
     </row>
     <row r="859">
-      <c r="A859" s="131"/>
+      <c r="A859" s="139"/>
     </row>
     <row r="860">
-      <c r="A860" s="131"/>
+      <c r="A860" s="139"/>
     </row>
     <row r="861">
-      <c r="A861" s="131"/>
+      <c r="A861" s="139"/>
     </row>
     <row r="862">
-      <c r="A862" s="131"/>
+      <c r="A862" s="139"/>
     </row>
     <row r="863">
-      <c r="A863" s="131"/>
+      <c r="A863" s="139"/>
     </row>
     <row r="864">
-      <c r="A864" s="131"/>
+      <c r="A864" s="139"/>
     </row>
     <row r="865">
-      <c r="A865" s="131"/>
+      <c r="A865" s="139"/>
     </row>
     <row r="866">
-      <c r="A866" s="131"/>
+      <c r="A866" s="139"/>
     </row>
     <row r="867">
-      <c r="A867" s="131"/>
+      <c r="A867" s="139"/>
     </row>
     <row r="868">
-      <c r="A868" s="131"/>
+      <c r="A868" s="139"/>
     </row>
     <row r="869">
-      <c r="A869" s="131"/>
+      <c r="A869" s="139"/>
     </row>
     <row r="870">
-      <c r="A870" s="131"/>
+      <c r="A870" s="139"/>
     </row>
     <row r="871">
-      <c r="A871" s="131"/>
+      <c r="A871" s="139"/>
     </row>
     <row r="872">
-      <c r="A872" s="131"/>
+      <c r="A872" s="139"/>
     </row>
     <row r="873">
-      <c r="A873" s="131"/>
+      <c r="A873" s="139"/>
     </row>
     <row r="874">
-      <c r="A874" s="131"/>
+      <c r="A874" s="139"/>
     </row>
     <row r="875">
-      <c r="A875" s="131"/>
+      <c r="A875" s="139"/>
     </row>
     <row r="876">
-      <c r="A876" s="131"/>
+      <c r="A876" s="139"/>
     </row>
     <row r="877">
-      <c r="A877" s="131"/>
+      <c r="A877" s="139"/>
     </row>
     <row r="878">
-      <c r="A878" s="131"/>
+      <c r="A878" s="139"/>
     </row>
     <row r="879">
-      <c r="A879" s="131"/>
+      <c r="A879" s="139"/>
     </row>
     <row r="880">
-      <c r="A880" s="131"/>
+      <c r="A880" s="139"/>
     </row>
     <row r="881">
-      <c r="A881" s="131"/>
+      <c r="A881" s="139"/>
     </row>
     <row r="882">
-      <c r="A882" s="131"/>
+      <c r="A882" s="139"/>
     </row>
     <row r="883">
-      <c r="A883" s="131"/>
+      <c r="A883" s="139"/>
     </row>
     <row r="884">
-      <c r="A884" s="131"/>
+      <c r="A884" s="139"/>
     </row>
     <row r="885">
-      <c r="A885" s="131"/>
+      <c r="A885" s="139"/>
     </row>
     <row r="886">
-      <c r="A886" s="131"/>
+      <c r="A886" s="139"/>
     </row>
     <row r="887">
-      <c r="A887" s="131"/>
+      <c r="A887" s="139"/>
     </row>
     <row r="888">
-      <c r="A888" s="131"/>
+      <c r="A888" s="139"/>
     </row>
     <row r="889">
-      <c r="A889" s="131"/>
+      <c r="A889" s="139"/>
     </row>
     <row r="890">
-      <c r="A890" s="131"/>
+      <c r="A890" s="139"/>
     </row>
     <row r="891">
-      <c r="A891" s="131"/>
+      <c r="A891" s="139"/>
     </row>
     <row r="892">
-      <c r="A892" s="131"/>
+      <c r="A892" s="139"/>
     </row>
     <row r="893">
-      <c r="A893" s="131"/>
+      <c r="A893" s="139"/>
     </row>
     <row r="894">
-      <c r="A894" s="131"/>
+      <c r="A894" s="139"/>
     </row>
     <row r="895">
-      <c r="A895" s="131"/>
+      <c r="A895" s="139"/>
     </row>
     <row r="896">
-      <c r="A896" s="131"/>
+      <c r="A896" s="139"/>
     </row>
     <row r="897">
-      <c r="A897" s="131"/>
+      <c r="A897" s="139"/>
     </row>
     <row r="898">
-      <c r="A898" s="131"/>
+      <c r="A898" s="139"/>
     </row>
     <row r="899">
-      <c r="A899" s="131"/>
+      <c r="A899" s="139"/>
     </row>
     <row r="900">
-      <c r="A900" s="131"/>
+      <c r="A900" s="139"/>
     </row>
     <row r="901">
-      <c r="A901" s="131"/>
+      <c r="A901" s="139"/>
     </row>
     <row r="902">
-      <c r="A902" s="131"/>
+      <c r="A902" s="139"/>
     </row>
     <row r="903">
-      <c r="A903" s="131"/>
+      <c r="A903" s="139"/>
     </row>
     <row r="904">
-      <c r="A904" s="131"/>
+      <c r="A904" s="139"/>
     </row>
     <row r="905">
-      <c r="A905" s="131"/>
+      <c r="A905" s="139"/>
     </row>
     <row r="906">
-      <c r="A906" s="131"/>
+      <c r="A906" s="139"/>
     </row>
     <row r="907">
-      <c r="A907" s="131"/>
+      <c r="A907" s="139"/>
     </row>
     <row r="908">
-      <c r="A908" s="131"/>
+      <c r="A908" s="139"/>
     </row>
     <row r="909">
-      <c r="A909" s="131"/>
+      <c r="A909" s="139"/>
     </row>
     <row r="910">
-      <c r="A910" s="131"/>
+      <c r="A910" s="139"/>
     </row>
     <row r="911">
-      <c r="A911" s="131"/>
+      <c r="A911" s="139"/>
     </row>
     <row r="912">
-      <c r="A912" s="131"/>
+      <c r="A912" s="139"/>
     </row>
     <row r="913">
-      <c r="A913" s="131"/>
+      <c r="A913" s="139"/>
     </row>
     <row r="914">
-      <c r="A914" s="131"/>
+      <c r="A914" s="139"/>
     </row>
     <row r="915">
-      <c r="A915" s="131"/>
+      <c r="A915" s="139"/>
     </row>
     <row r="916">
-      <c r="A916" s="131"/>
+      <c r="A916" s="139"/>
     </row>
     <row r="917">
-      <c r="A917" s="131"/>
+      <c r="A917" s="139"/>
     </row>
     <row r="918">
-      <c r="A918" s="131"/>
+      <c r="A918" s="139"/>
     </row>
     <row r="919">
-      <c r="A919" s="131"/>
+      <c r="A919" s="139"/>
     </row>
     <row r="920">
-      <c r="A920" s="131"/>
+      <c r="A920" s="139"/>
     </row>
     <row r="921">
-      <c r="A921" s="131"/>
+      <c r="A921" s="139"/>
     </row>
     <row r="922">
-      <c r="A922" s="131"/>
+      <c r="A922" s="139"/>
     </row>
     <row r="923">
-      <c r="A923" s="131"/>
+      <c r="A923" s="139"/>
     </row>
     <row r="924">
-      <c r="A924" s="131"/>
+      <c r="A924" s="139"/>
     </row>
     <row r="925">
-      <c r="A925" s="131"/>
+      <c r="A925" s="139"/>
     </row>
     <row r="926">
-      <c r="A926" s="131"/>
+      <c r="A926" s="139"/>
     </row>
     <row r="927">
-      <c r="A927" s="131"/>
+      <c r="A927" s="139"/>
     </row>
     <row r="928">
-      <c r="A928" s="131"/>
+      <c r="A928" s="139"/>
     </row>
     <row r="929">
-      <c r="A929" s="131"/>
+      <c r="A929" s="139"/>
     </row>
     <row r="930">
-      <c r="A930" s="131"/>
+      <c r="A930" s="139"/>
     </row>
     <row r="931">
-      <c r="A931" s="131"/>
+      <c r="A931" s="139"/>
     </row>
     <row r="932">
-      <c r="A932" s="131"/>
+      <c r="A932" s="139"/>
     </row>
     <row r="933">
-      <c r="A933" s="131"/>
+      <c r="A933" s="139"/>
     </row>
     <row r="934">
-      <c r="A934" s="131"/>
+      <c r="A934" s="139"/>
     </row>
     <row r="935">
-      <c r="A935" s="131"/>
+      <c r="A935" s="139"/>
     </row>
     <row r="936">
-      <c r="A936" s="131"/>
+      <c r="A936" s="139"/>
     </row>
     <row r="937">
-      <c r="A937" s="131"/>
+      <c r="A937" s="139"/>
     </row>
     <row r="938">
-      <c r="A938" s="131"/>
+      <c r="A938" s="139"/>
     </row>
     <row r="939">
-      <c r="A939" s="131"/>
+      <c r="A939" s="139"/>
     </row>
     <row r="940">
-      <c r="A940" s="131"/>
+      <c r="A940" s="139"/>
     </row>
     <row r="941">
-      <c r="A941" s="131"/>
+      <c r="A941" s="139"/>
     </row>
     <row r="942">
-      <c r="A942" s="131"/>
+      <c r="A942" s="139"/>
     </row>
     <row r="943">
-      <c r="A943" s="131"/>
+      <c r="A943" s="139"/>
     </row>
     <row r="944">
-      <c r="A944" s="131"/>
+      <c r="A944" s="139"/>
     </row>
     <row r="945">
-      <c r="A945" s="131"/>
+      <c r="A945" s="139"/>
     </row>
     <row r="946">
-      <c r="A946" s="131"/>
+      <c r="A946" s="139"/>
     </row>
     <row r="947">
-      <c r="A947" s="131"/>
+      <c r="A947" s="139"/>
     </row>
     <row r="948">
-      <c r="A948" s="131"/>
+      <c r="A948" s="139"/>
     </row>
     <row r="949">
-      <c r="A949" s="131"/>
+      <c r="A949" s="139"/>
     </row>
     <row r="950">
-      <c r="A950" s="131"/>
+      <c r="A950" s="139"/>
     </row>
     <row r="951">
-      <c r="A951" s="131"/>
+      <c r="A951" s="139"/>
     </row>
     <row r="952">
-      <c r="A952" s="131"/>
+      <c r="A952" s="139"/>
     </row>
     <row r="953">
-      <c r="A953" s="131"/>
+      <c r="A953" s="139"/>
     </row>
     <row r="954">
-      <c r="A954" s="131"/>
+      <c r="A954" s="139"/>
     </row>
     <row r="955">
-      <c r="A955" s="131"/>
+      <c r="A955" s="139"/>
     </row>
     <row r="956">
-      <c r="A956" s="131"/>
+      <c r="A956" s="139"/>
     </row>
     <row r="957">
-      <c r="A957" s="131"/>
+      <c r="A957" s="139"/>
     </row>
     <row r="958">
-      <c r="A958" s="131"/>
+      <c r="A958" s="139"/>
     </row>
     <row r="959">
-      <c r="A959" s="131"/>
+      <c r="A959" s="139"/>
     </row>
     <row r="960">
-      <c r="A960" s="131"/>
+      <c r="A960" s="139"/>
     </row>
     <row r="961">
-      <c r="A961" s="131"/>
+      <c r="A961" s="139"/>
     </row>
     <row r="962">
-      <c r="A962" s="131"/>
+      <c r="A962" s="139"/>
     </row>
     <row r="963">
-      <c r="A963" s="131"/>
+      <c r="A963" s="139"/>
     </row>
     <row r="964">
-      <c r="A964" s="131"/>
+      <c r="A964" s="139"/>
     </row>
     <row r="965">
-      <c r="A965" s="131"/>
+      <c r="A965" s="139"/>
     </row>
     <row r="966">
-      <c r="A966" s="131"/>
+      <c r="A966" s="139"/>
     </row>
     <row r="967">
-      <c r="A967" s="131"/>
+      <c r="A967" s="139"/>
     </row>
     <row r="968">
-      <c r="A968" s="131"/>
+      <c r="A968" s="139"/>
     </row>
     <row r="969">
-      <c r="A969" s="131"/>
+      <c r="A969" s="139"/>
     </row>
     <row r="970">
-      <c r="A970" s="131"/>
+      <c r="A970" s="139"/>
     </row>
     <row r="971">
-      <c r="A971" s="131"/>
+      <c r="A971" s="139"/>
     </row>
     <row r="972">
-      <c r="A972" s="131"/>
+      <c r="A972" s="139"/>
     </row>
     <row r="973">
-      <c r="A973" s="131"/>
+      <c r="A973" s="139"/>
     </row>
     <row r="974">
-      <c r="A974" s="131"/>
+      <c r="A974" s="139"/>
     </row>
     <row r="975">
-      <c r="A975" s="131"/>
+      <c r="A975" s="139"/>
     </row>
     <row r="976">
-      <c r="A976" s="131"/>
+      <c r="A976" s="139"/>
     </row>
     <row r="977">
-      <c r="A977" s="131"/>
+      <c r="A977" s="139"/>
     </row>
     <row r="978">
-      <c r="A978" s="131"/>
+      <c r="A978" s="139"/>
     </row>
     <row r="979">
-      <c r="A979" s="131"/>
+      <c r="A979" s="139"/>
     </row>
     <row r="980">
-      <c r="A980" s="131"/>
+      <c r="A980" s="139"/>
     </row>
     <row r="981">
-      <c r="A981" s="131"/>
+      <c r="A981" s="139"/>
     </row>
     <row r="982">
-      <c r="A982" s="131"/>
+      <c r="A982" s="139"/>
     </row>
     <row r="983">
-      <c r="A983" s="131"/>
+      <c r="A983" s="139"/>
     </row>
     <row r="984">
-      <c r="A984" s="131"/>
+      <c r="A984" s="139"/>
     </row>
     <row r="985">
-      <c r="A985" s="131"/>
+      <c r="A985" s="139"/>
     </row>
     <row r="986">
-      <c r="A986" s="131"/>
+      <c r="A986" s="139"/>
     </row>
     <row r="987">
-      <c r="A987" s="131"/>
+      <c r="A987" s="139"/>
     </row>
     <row r="988">
-      <c r="A988" s="131"/>
+      <c r="A988" s="139"/>
     </row>
     <row r="989">
-      <c r="A989" s="131"/>
+      <c r="A989" s="139"/>
     </row>
     <row r="990">
-      <c r="A990" s="131"/>
+      <c r="A990" s="139"/>
     </row>
     <row r="991">
-      <c r="A991" s="131"/>
+      <c r="A991" s="139"/>
     </row>
     <row r="992">
-      <c r="A992" s="131"/>
+      <c r="A992" s="139"/>
     </row>
     <row r="993">
-      <c r="A993" s="131"/>
+      <c r="A993" s="139"/>
     </row>
     <row r="994">
-      <c r="A994" s="131"/>
+      <c r="A994" s="139"/>
     </row>
     <row r="995">
-      <c r="A995" s="131"/>
+      <c r="A995" s="139"/>
     </row>
     <row r="996">
-      <c r="A996" s="131"/>
+      <c r="A996" s="139"/>
     </row>
     <row r="997">
-      <c r="A997" s="131"/>
+      <c r="A997" s="139"/>
     </row>
     <row r="998">
-      <c r="A998" s="131"/>
+      <c r="A998" s="139"/>
     </row>
     <row r="999">
-      <c r="A999" s="131"/>
+      <c r="A999" s="139"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="131"/>
+      <c r="A1000" s="139"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5896,7 +5972,7 @@
     <col customWidth="1" min="4" max="4" width="14.43"/>
     <col customWidth="1" min="5" max="5" width="13.29"/>
     <col customWidth="1" min="6" max="6" width="10.14"/>
-    <col customWidth="1" min="8" max="8" width="10.86"/>
+    <col customWidth="1" min="8" max="8" width="14.14"/>
     <col customWidth="1" min="9" max="9" width="18.14"/>
     <col customWidth="1" min="10" max="10" width="10.86"/>
     <col customWidth="1" min="11" max="11" width="12.29"/>
@@ -7169,64 +7245,64 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="13" t="s">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="2" t="s">
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="13" t="s">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="2" t="s">
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="40" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7268,7 +7344,7 @@
       <c r="B45" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="41" t="s">
         <v>161</v>
       </c>
       <c r="D45" s="15"/>
@@ -7298,7 +7374,7 @@
       <c r="B46" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="41" t="s">
         <v>165</v>
       </c>
       <c r="D46" s="15"/>
@@ -7328,7 +7404,7 @@
       <c r="B47" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="41" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="15"/>
@@ -7358,7 +7434,7 @@
       <c r="B48" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D48" s="15"/>
@@ -7388,7 +7464,7 @@
       <c r="B49" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D49" s="15"/>
@@ -7398,7 +7474,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="35" t="s">
+      <c r="K49" s="42" t="s">
         <v>175</v>
       </c>
       <c r="L49" s="15"/>
@@ -7417,7 +7493,7 @@
       <c r="B50" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="41" t="s">
         <v>178</v>
       </c>
       <c r="D50" s="15"/>
@@ -7447,7 +7523,7 @@
       <c r="B51" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="41" t="s">
         <v>181</v>
       </c>
       <c r="D51" s="15"/>
@@ -7475,7 +7551,7 @@
       <c r="B52" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="41" t="s">
         <v>184</v>
       </c>
       <c r="D52" s="15"/>
@@ -7503,7 +7579,7 @@
       <c r="B53" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="41" t="s">
         <v>188</v>
       </c>
       <c r="D53" s="15"/>
@@ -7531,7 +7607,7 @@
       <c r="B54" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="41" t="s">
         <v>192</v>
       </c>
       <c r="D54" s="15"/>
@@ -7561,7 +7637,7 @@
       <c r="B55" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="41" t="s">
         <v>195</v>
       </c>
       <c r="D55" s="15"/>
@@ -7589,7 +7665,9 @@
       <c r="B56" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="34"/>
+      <c r="C56" s="41" t="s">
+        <v>198</v>
+      </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="11"/>
@@ -7630,495 +7708,495 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="47" t="s">
         <v>200</v>
       </c>
+      <c r="C2" s="47" t="s">
+        <v>201</v>
+      </c>
       <c r="D2" s="27"/>
     </row>
     <row r="3">
-      <c r="A3" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="47" t="s">
         <v>203</v>
       </c>
+      <c r="C3" s="47" t="s">
+        <v>204</v>
+      </c>
       <c r="D3" s="27"/>
     </row>
     <row r="4">
-      <c r="A4" s="39" t="s">
-        <v>204</v>
+      <c r="A4" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="47" t="s">
         <v>207</v>
       </c>
+      <c r="D4" s="48" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="39" t="s">
-        <v>207</v>
+      <c r="A6" s="46" t="s">
+        <v>208</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="47" t="s">
         <v>213</v>
       </c>
+      <c r="D6" s="49" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="39" t="s">
-        <v>214</v>
+      <c r="A7" s="46" t="s">
+        <v>215</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>207</v>
+      <c r="C7" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="47" t="s">
         <v>219</v>
       </c>
+      <c r="C8" s="47" t="s">
+        <v>220</v>
+      </c>
       <c r="D8" s="27"/>
     </row>
     <row r="9">
-      <c r="A9" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="47" t="s">
         <v>222</v>
       </c>
+      <c r="C9" s="47" t="s">
+        <v>223</v>
+      </c>
       <c r="D9" s="27"/>
     </row>
     <row r="10">
-      <c r="A10" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>225</v>
       </c>
+      <c r="C10" s="47" t="s">
+        <v>226</v>
+      </c>
       <c r="D10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="50" t="s">
         <v>228</v>
       </c>
+      <c r="C11" s="47" t="s">
+        <v>229</v>
+      </c>
       <c r="D11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="50" t="s">
         <v>231</v>
       </c>
+      <c r="C12" s="47" t="s">
+        <v>232</v>
+      </c>
       <c r="D12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="50" t="s">
         <v>234</v>
       </c>
+      <c r="C13" s="47" t="s">
+        <v>235</v>
+      </c>
       <c r="D13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="50" t="s">
         <v>237</v>
       </c>
+      <c r="C14" s="47" t="s">
+        <v>238</v>
+      </c>
       <c r="D14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="50" t="s">
         <v>240</v>
       </c>
+      <c r="C15" s="47" t="s">
+        <v>241</v>
+      </c>
       <c r="D15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="50" t="s">
         <v>243</v>
       </c>
+      <c r="C16" s="47" t="s">
+        <v>244</v>
+      </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>212</v>
+      <c r="B17" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>213</v>
       </c>
       <c r="D17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>248</v>
       </c>
+      <c r="C18" s="47" t="s">
+        <v>249</v>
+      </c>
       <c r="D18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>201</v>
+      <c r="C19" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="39" t="s">
-        <v>252</v>
+      <c r="A20" s="46" t="s">
+        <v>253</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="45" t="s">
         <v>254</v>
       </c>
+      <c r="C20" s="52" t="s">
+        <v>255</v>
+      </c>
       <c r="D20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="39" t="s">
-        <v>255</v>
+      <c r="A21" s="46" t="s">
+        <v>256</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="45" t="s">
         <v>257</v>
       </c>
+      <c r="C21" s="52" t="s">
+        <v>258</v>
+      </c>
       <c r="D21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="39" t="s">
-        <v>258</v>
+      <c r="A22" s="46" t="s">
+        <v>259</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>201</v>
+      <c r="C22" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>220</v>
+      <c r="C23" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="47" t="s">
         <v>266</v>
       </c>
+      <c r="C24" s="47" t="s">
+        <v>267</v>
+      </c>
       <c r="D24" s="27"/>
     </row>
     <row r="25">
-      <c r="A25" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="B25" s="47" t="s">
         <v>269</v>
       </c>
+      <c r="C25" s="47" t="s">
+        <v>270</v>
+      </c>
       <c r="D25" s="27"/>
     </row>
     <row r="26">
-      <c r="A26" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="B26" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="C26" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="50"/>
     </row>
     <row r="27">
-      <c r="A27" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="C27" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="50"/>
     </row>
     <row r="28">
-      <c r="A28" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="B28" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="C28" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="50"/>
     </row>
     <row r="29">
-      <c r="A29" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="B29" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="C29" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="50"/>
     </row>
     <row r="30">
-      <c r="A30" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="C30" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="50"/>
     </row>
     <row r="31">
-      <c r="A31" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="B31" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="43"/>
+      <c r="C31" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="50"/>
     </row>
     <row r="32">
-      <c r="A32" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="B32" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="C32" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="50"/>
     </row>
     <row r="33">
-      <c r="A33" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="B33" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="C33" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="50"/>
     </row>
     <row r="34">
-      <c r="A34" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="B34" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="C34" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="50"/>
     </row>
     <row r="35">
-      <c r="A35" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="B35" s="40" t="s">
+      <c r="A35" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="B35" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="C35" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="50"/>
     </row>
     <row r="36">
-      <c r="A36" s="46">
+      <c r="A36" s="53">
         <v>54.0</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>300</v>
+      <c r="B36" s="54" t="s">
+        <v>301</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D36" s="27"/>
     </row>
     <row r="37">
-      <c r="A37" s="46">
+      <c r="A37" s="53">
         <v>55.0</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>302</v>
+      <c r="B37" s="54" t="s">
+        <v>303</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D37" s="27"/>
     </row>
     <row r="38">
-      <c r="A38" s="46">
+      <c r="A38" s="53">
         <v>56.0</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>304</v>
+      <c r="B38" s="54" t="s">
+        <v>305</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D38" s="27"/>
     </row>
     <row r="39">
-      <c r="A39" s="46">
+      <c r="A39" s="53">
         <v>116.0</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>202</v>
+      <c r="B39" s="54" t="s">
+        <v>203</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D39" s="27"/>
     </row>
     <row r="40">
       <c r="A40" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="B40" s="47" t="s">
         <v>308</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>309</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>99</v>
@@ -8127,7 +8205,7 @@
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>101</v>
@@ -8139,7 +8217,7 @@
     </row>
     <row r="42">
       <c r="A42" s="29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>104</v>
@@ -8151,7 +8229,7 @@
     </row>
     <row r="43">
       <c r="A43" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>107</v>
@@ -8163,7 +8241,7 @@
     </row>
     <row r="44">
       <c r="A44" s="29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>110</v>
@@ -8175,7 +8253,7 @@
     </row>
     <row r="45">
       <c r="A45" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>113</v>
@@ -8187,7 +8265,7 @@
     </row>
     <row r="46">
       <c r="A46" s="29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>116</v>
@@ -8199,66 +8277,66 @@
     </row>
     <row r="47">
       <c r="A47" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D47" s="27"/>
     </row>
     <row r="48">
       <c r="A48" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D48" s="27"/>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D49" s="27"/>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="27"/>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27"/>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
@@ -8268,30 +8346,30 @@
         <v>175</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
     </row>
     <row r="54">
       <c r="A54" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
     </row>
     <row r="55">
       <c r="A55" s="29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C55" s="34" t="s">
         <v>335</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>336</v>
       </c>
       <c r="D55" s="27"/>
     </row>
@@ -8319,197 +8397,197 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>339</v>
+      <c r="G1" s="55" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="15"/>
     </row>
   </sheetData>
@@ -8521,6 +8599,59 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="F2" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="F3" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8550,53 +8681,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" s="48" t="s">
+      <c r="I1" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="48" t="s">
-        <v>383</v>
+      <c r="O1" s="55" t="s">
+        <v>391</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
@@ -8604,26 +8735,26 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="C2" s="52"/>
+        <v>394</v>
+      </c>
+      <c r="C2" s="59"/>
       <c r="D2" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="12"/>
       <c r="H2" s="11"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="13"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="12" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P2" s="22" t="b">
         <v>1</v>
@@ -8634,7 +8765,7 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>94</v>
@@ -8656,7 +8787,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="21"/>
       <c r="O3" s="12" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P3" s="12" t="b">
         <v>1</v>
@@ -8667,10 +8798,10 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="12"/>
@@ -8678,24 +8809,24 @@
         <v>121</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="20"/>
       <c r="K4" s="15"/>
       <c r="L4" s="12" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>82</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="12" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="P4" s="12" t="b">
         <v>1</v>
@@ -8706,10 +8837,10 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="12"/>
@@ -8717,17 +8848,17 @@
         <v>121</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="20"/>
       <c r="K5" s="15"/>
       <c r="L5" s="12" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>74</v>
@@ -8741,10 +8872,10 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="12"/>
@@ -8752,17 +8883,17 @@
         <v>121</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="12"/>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="12" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>74</v>
@@ -8776,27 +8907,27 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="52"/>
+        <v>413</v>
+      </c>
+      <c r="C7" s="59"/>
       <c r="E7" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="53"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="13" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>82</v>
@@ -8810,27 +8941,27 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="52"/>
+        <v>416</v>
+      </c>
+      <c r="C8" s="59"/>
       <c r="E8" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="53"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="13" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>74</v>
@@ -8843,751 +8974,704 @@
       <c r="S8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58" t="s">
+      <c r="A9" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62">
+      <c r="F9" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69">
         <v>0.0</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="54" t="s">
+      <c r="A10" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62">
+      <c r="F10" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69">
         <v>0.0</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
     </row>
     <row r="11">
-      <c r="A11" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62">
+      <c r="F11" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69">
         <v>0.0</v>
       </c>
-      <c r="L11" s="54" t="s">
+      <c r="L11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="54" t="s">
+      <c r="A12" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62">
+      <c r="F12" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69">
         <v>0.0</v>
       </c>
-      <c r="L12" s="54" t="s">
+      <c r="L12" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" s="66" t="s">
         <v>424</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>350</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62">
+      <c r="F15" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69">
         <v>0.0</v>
       </c>
-      <c r="L13" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="54" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="54" t="s">
+      <c r="L15" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62">
+      <c r="F16" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69">
         <v>0.0</v>
       </c>
-      <c r="L14" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="54" t="s">
-        <v>427</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58" t="s">
+      <c r="L16" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="70" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62">
+      <c r="F18" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>443</v>
+      </c>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="70">
         <v>0.0</v>
       </c>
-      <c r="L15" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="54" t="s">
+      <c r="L18" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62">
+      <c r="F19" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="78" t="s">
+        <v>447</v>
+      </c>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>450</v>
+      </c>
+      <c r="H20" s="80"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>454</v>
+      </c>
+      <c r="H21" s="80"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="70" t="s">
+        <v>455</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>459</v>
+      </c>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90">
         <v>0.0</v>
       </c>
-      <c r="L16" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="54" t="s">
+      <c r="L22" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="82" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>461</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>433</v>
-      </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62" t="s">
+      <c r="F23" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>462</v>
+      </c>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90" t="s">
+        <v>463</v>
+      </c>
+      <c r="L23" s="93" t="s">
+        <v>464</v>
+      </c>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="94" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="99" t="s">
+        <v>363</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="94" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>469</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="97"/>
+      <c r="E25" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>470</v>
+      </c>
+      <c r="H25" s="104"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="103" t="s">
+        <v>471</v>
+      </c>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="106" t="s">
+        <v>472</v>
+      </c>
+      <c r="B26" s="107" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" s="108" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="111" t="s">
+        <v>367</v>
+      </c>
+      <c r="G26" s="112" t="s">
+        <v>474</v>
+      </c>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="116" t="s">
+        <v>475</v>
+      </c>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="117" t="s">
+        <v>476</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="C27" s="108" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="118"/>
+      <c r="E27" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="111" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" s="117" t="s">
+        <v>478</v>
+      </c>
+      <c r="H27" s="118"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="54" t="s">
-        <v>434</v>
-      </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="63" t="s">
-        <v>435</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>436</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>358</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="63">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="72" t="s">
-        <v>437</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>438</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>359</v>
-      </c>
-      <c r="G19" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="71" t="s">
-        <v>440</v>
-      </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="72" t="s">
-        <v>441</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>442</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>443</v>
-      </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="72" t="s">
-        <v>445</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>447</v>
-      </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="63" t="s">
-        <v>448</v>
-      </c>
-      <c r="L21" s="74" t="s">
-        <v>449</v>
-      </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="75" t="s">
-        <v>450</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>451</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="75" t="s">
-        <v>452</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>453</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="85" t="s">
-        <v>370</v>
-      </c>
-      <c r="G23" s="85" t="s">
-        <v>454</v>
-      </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83" t="s">
-        <v>455</v>
-      </c>
-      <c r="L23" s="86" t="s">
-        <v>456</v>
-      </c>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="87" t="s">
-        <v>457</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>458</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>414</v>
-      </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="87" t="s">
-        <v>459</v>
-      </c>
-      <c r="B25" s="88" t="s">
-        <v>460</v>
-      </c>
-      <c r="C25" s="89" t="s">
-        <v>417</v>
-      </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="G25" s="92" t="s">
-        <v>461</v>
-      </c>
-      <c r="H25" s="97"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="98">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="99" t="s">
-        <v>463</v>
-      </c>
-      <c r="B26" s="100" t="s">
-        <v>464</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>414</v>
-      </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="104" t="s">
-        <v>366</v>
-      </c>
-      <c r="G26" s="105" t="s">
-        <v>465</v>
-      </c>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="109" t="s">
-        <v>466</v>
-      </c>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="110" t="s">
-        <v>467</v>
-      </c>
-      <c r="B27" s="100" t="s">
-        <v>468</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>417</v>
-      </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="G27" s="110" t="s">
-        <v>469</v>
-      </c>
-      <c r="H27" s="111"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="109" t="s">
-        <v>470</v>
-      </c>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
+      <c r="L27" s="116" t="s">
+        <v>479</v>
+      </c>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="114"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.6" footer="0.0" header="0.0" left="0.1" right="0.1" top="0.25"/>
   <pageSetup scale="90" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="F2" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="F3" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -9607,37 +9691,48 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="79.57"/>
     <col customWidth="1" min="3" max="3" width="29.14"/>
-    <col customWidth="1" min="4" max="4" width="62.71"/>
-    <col customWidth="1" min="5" max="5" width="28.0"/>
-    <col customWidth="1" min="6" max="6" width="16.71"/>
-    <col customWidth="1" min="7" max="7" width="23.71"/>
+    <col customWidth="1" min="4" max="4" width="10.0"/>
+    <col customWidth="1" min="5" max="5" width="9.57"/>
+    <col customWidth="1" min="6" max="6" width="8.57"/>
+    <col customWidth="1" min="7" max="7" width="14.14"/>
+    <col customWidth="1" min="9" max="9" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" s="112" t="s">
-        <v>476</v>
+      <c r="C1" s="119" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>480</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G1" s="112" t="s">
-        <v>339</v>
+        <v>482</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>340</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="2">
@@ -9645,86 +9740,103 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C2" s="113"/>
+        <v>485</v>
+      </c>
+      <c r="C2" s="120"/>
       <c r="D2" s="13"/>
-      <c r="G2" s="114"/>
+      <c r="G2" s="121"/>
+      <c r="I2" s="2" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" s="114"/>
+        <v>487</v>
+      </c>
+      <c r="C3" s="121"/>
       <c r="D3" s="13"/>
-      <c r="G3" s="114"/>
+      <c r="G3" s="121"/>
+      <c r="I3" s="2" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C4" s="114"/>
+        <v>489</v>
+      </c>
+      <c r="C4" s="121"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="115"/>
-      <c r="G4" s="116"/>
+      <c r="E4" s="122"/>
+      <c r="G4" s="123"/>
+      <c r="I4" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K4" s="124"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="114"/>
+        <v>491</v>
+      </c>
+      <c r="C5" s="121"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="I5" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K5" s="124"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="117"/>
-      <c r="G6" s="114"/>
+      <c r="E6" s="125"/>
+      <c r="G6" s="121"/>
+      <c r="I6" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="117"/>
-      <c r="G7" s="114"/>
+      <c r="E7" s="125"/>
+      <c r="G7" s="121"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="117"/>
-      <c r="G8" s="114"/>
+      <c r="E8" s="125"/>
+      <c r="G8" s="121"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9748,16 +9860,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -9780,49 +9892,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="119" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="120" t="s">
-        <v>496</v>
+      <c r="A2" s="127" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="121" t="s">
-        <v>497</v>
-      </c>
-      <c r="C3" s="120" t="s">
-        <v>498</v>
+      <c r="A3" s="129" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="122" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" s="120" t="s">
-        <v>500</v>
+      <c r="A4" s="130" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="122" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" s="120" t="s">
-        <v>502</v>
+      <c r="A5" s="130" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="565">
   <si>
     <t>id</t>
   </si>
@@ -1460,7 +1460,7 @@
     <t>ns_pals</t>
   </si>
   <si>
-    <t>0, 0, 0, 1, 2, 3, 4, 5, 6, 0</t>
+    <t>0, 0, 1, 2, 3, 4, 5, 6, 0</t>
   </si>
   <si>
     <t>cg-smg, n-splenic, spln, spln, spln, spln, spln, spln, pals</t>
@@ -1482,6 +1482,9 @@
   </si>
   <si>
     <t>ns_nts-dmv</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
   </si>
   <si>
     <t>nts, med, dmv</t>
@@ -2676,15 +2679,15 @@
         <v>7</v>
       </c>
       <c r="F1" s="131" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>123</v>
@@ -2693,37 +2696,37 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -2747,98 +2750,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="132" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="132" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B3" s="134" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="132" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="132" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B5" s="135" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="132" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B6" s="135" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="132" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B7" s="135" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="132" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B9" s="135" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="132" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B10" s="135" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="132" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B11" s="135" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B12" s="128" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -2881,97 +2884,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="137" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="137" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="137" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="137" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="137" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="137" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="139"/>
       <c r="B8" s="138" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="139"/>
       <c r="B9" s="138" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="139"/>
       <c r="B10" s="138" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="139"/>
       <c r="B11" s="138" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="139"/>
       <c r="B12" s="138" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13">
@@ -9580,11 +9583,11 @@
       <c r="H25" s="104"/>
       <c r="I25" s="101"/>
       <c r="J25" s="101"/>
-      <c r="K25" s="105">
-        <v>0.0</v>
+      <c r="K25" s="105" t="s">
+        <v>471</v>
       </c>
       <c r="L25" s="103" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M25" s="101"/>
       <c r="N25" s="101"/>
@@ -9596,10 +9599,10 @@
     </row>
     <row r="26">
       <c r="A26" s="106" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C26" s="108" t="s">
         <v>420</v>
@@ -9612,7 +9615,7 @@
         <v>367</v>
       </c>
       <c r="G26" s="112" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H26" s="113"/>
       <c r="I26" s="114"/>
@@ -9621,7 +9624,7 @@
         <v>82</v>
       </c>
       <c r="L26" s="116" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M26" s="114"/>
       <c r="N26" s="114"/>
@@ -9633,10 +9636,10 @@
     </row>
     <row r="27">
       <c r="A27" s="117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C27" s="108" t="s">
         <v>423</v>
@@ -9649,7 +9652,7 @@
         <v>368</v>
       </c>
       <c r="G27" s="117" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H27" s="118"/>
       <c r="I27" s="114"/>
@@ -9658,7 +9661,7 @@
         <v>74</v>
       </c>
       <c r="L27" s="116" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M27" s="114"/>
       <c r="N27" s="114"/>
@@ -9711,13 +9714,13 @@
         <v>383</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G1" s="119" t="s">
         <v>340</v>
@@ -9729,10 +9732,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2">
@@ -9740,13 +9743,13 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C2" s="120"/>
       <c r="D2" s="13"/>
       <c r="G2" s="121"/>
       <c r="I2" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3">
@@ -9754,13 +9757,13 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C3" s="121"/>
       <c r="D3" s="13"/>
       <c r="G3" s="121"/>
       <c r="I3" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
@@ -9768,14 +9771,14 @@
         <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C4" s="121"/>
       <c r="D4" s="13"/>
       <c r="E4" s="122"/>
       <c r="G4" s="123"/>
       <c r="I4" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K4" s="124"/>
     </row>
@@ -9784,7 +9787,7 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C5" s="121"/>
       <c r="D5" s="13"/>
@@ -9792,7 +9795,7 @@
       <c r="F5" s="123"/>
       <c r="G5" s="123"/>
       <c r="I5" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K5" s="124"/>
     </row>
@@ -9801,21 +9804,21 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="125"/>
       <c r="G6" s="121"/>
       <c r="I6" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
@@ -9826,13 +9829,13 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="125"/>
@@ -9860,16 +9863,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -9899,42 +9902,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="127" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="129" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="130" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C4" s="128" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="130" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -11,7 +11,7 @@
     <sheet state="visible" name="chains" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="groups" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="neurons" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="publications" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="references" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="coalescences" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="localConventions" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="contributors" sheetId="12" r:id="rId15"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="592">
   <si>
     <t>id</t>
   </si>
@@ -81,7 +81,7 @@
     <t>spleen model</t>
   </si>
   <si>
-    <t>external</t>
+    <t>ontologyTerms</t>
   </si>
   <si>
     <t>subtypes</t>
@@ -504,7 +504,7 @@
     <t>Dendrite segment (spleen)</t>
   </si>
   <si>
-    <t>soma in T8 spinal cord segment (spleen)</t>
+    <t>soma in T8 spinal cord segment_Neuron 1 (spleen)</t>
   </si>
   <si>
     <t>NLX:154731</t>
@@ -513,670 +513,673 @@
     <t>neuron1_spl</t>
   </si>
   <si>
-    <t>soma in T7 spinal cord segment (spleen)</t>
-  </si>
-  <si>
-    <t>soma in T6 spinal cord segment (spleen)</t>
-  </si>
-  <si>
-    <t>soma in T5 spinal cord segment (spleen)</t>
-  </si>
-  <si>
-    <t>soma in dmv in medulla (spleen)</t>
+    <t>soma in T7 spinal cord segment_Neuron 1  (spleen)</t>
+  </si>
+  <si>
+    <t>soma in T6 spinal cord segment_Neuron 1  (spleen)</t>
+  </si>
+  <si>
+    <t>soma in T5 spinal cord segment_Neuron 1  (spleen)</t>
+  </si>
+  <si>
+    <t>soma in dmv in medulla_Neuron 2  (spleen)</t>
   </si>
   <si>
     <t>neuron2_spl</t>
   </si>
   <si>
-    <t>soma in nts in medulla (spleen)</t>
+    <t>soma in nts in medulla_Neuron 3 (spleen)</t>
   </si>
   <si>
     <t>neuron3_spl</t>
   </si>
   <si>
-    <t>soma in ndg in vagus nerve  (spleen)</t>
+    <t>soma in ndg in vagus nerve_Neuron 4  (spleen)</t>
   </si>
   <si>
     <t>neuron4_spl</t>
   </si>
   <si>
+    <t>soma in CG/SMG fused_Neuron 5 (spleen)</t>
+  </si>
+  <si>
+    <t>neuron5_spl</t>
+  </si>
+  <si>
+    <t>a-splen</t>
+  </si>
+  <si>
+    <t>splenic artery</t>
+  </si>
+  <si>
+    <t>UBERON:0001194</t>
+  </si>
+  <si>
+    <t>SPL-M_7, SPL-M_6, SPL-M_bm, SPL-M_tm, SPL-M_ta</t>
+  </si>
+  <si>
+    <t>v-splen</t>
+  </si>
+  <si>
+    <t>splenic vein</t>
+  </si>
+  <si>
+    <t>UBERON:0003713</t>
+  </si>
+  <si>
+    <t>a-trab</t>
+  </si>
+  <si>
+    <t>spleen trabecular artery</t>
+  </si>
+  <si>
+    <t>UBERON:0010399</t>
+  </si>
+  <si>
+    <t>v-trab</t>
+  </si>
+  <si>
+    <t>spleen trabecular vein</t>
+  </si>
+  <si>
+    <t>UBERON:0010400</t>
+  </si>
+  <si>
+    <t>trab</t>
+  </si>
+  <si>
+    <t>trabecula</t>
+  </si>
+  <si>
+    <t>UBERON:0000440</t>
+  </si>
+  <si>
+    <t>SPL-M_tct</t>
+  </si>
+  <si>
+    <t>a-cent</t>
+  </si>
+  <si>
+    <t>central artery</t>
+  </si>
+  <si>
+    <t>UBERON:2005020</t>
+  </si>
+  <si>
+    <t>ven_sin</t>
+  </si>
+  <si>
+    <t>venous sinus</t>
+  </si>
+  <si>
+    <t>UBERON:0006615</t>
+  </si>
+  <si>
+    <t>spl_cord</t>
+  </si>
+  <si>
+    <t>splenic cord</t>
+  </si>
+  <si>
+    <t>UBERON:0001266</t>
+  </si>
+  <si>
+    <t>SPL-M_7, SPL-M_rpm, SPL-M_ta</t>
+  </si>
+  <si>
+    <t>cap-shea</t>
+  </si>
+  <si>
+    <t>(sheathed) capillary</t>
+  </si>
+  <si>
+    <t>UBERON:0001982</t>
+  </si>
+  <si>
+    <t>SPL-M_7, SPL-M_6, SPL-M_bm,  SPL-M_ta</t>
+  </si>
+  <si>
+    <t>art-rad</t>
+  </si>
+  <si>
+    <t>(radial) arteriole</t>
+  </si>
+  <si>
+    <t>UBERON:0001980</t>
+  </si>
+  <si>
+    <t>ven-conn</t>
+  </si>
+  <si>
+    <t>(connecting) venule</t>
+  </si>
+  <si>
+    <t>UBERON:0001979</t>
+  </si>
+  <si>
+    <t>art-pen</t>
+  </si>
+  <si>
+    <t>penicillary arteriole</t>
+  </si>
+  <si>
+    <t>UBERON:0013132</t>
+  </si>
+  <si>
+    <t>SPL-M_2</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>CHEBI:15377</t>
+  </si>
+  <si>
+    <t>SPL-M_5</t>
+  </si>
+  <si>
+    <t>Extracellular fluid</t>
+  </si>
+  <si>
+    <t>CHEBI:24839</t>
+  </si>
+  <si>
+    <t>SPL-M_6</t>
+  </si>
+  <si>
+    <t>Endothelium</t>
+  </si>
+  <si>
+    <t>UBERON:0001986</t>
+  </si>
+  <si>
+    <t>SPL-M_8</t>
+  </si>
+  <si>
+    <t>SPL-M_7</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>UBERON:0000178</t>
+  </si>
+  <si>
+    <t>Aqueous solution</t>
+  </si>
+  <si>
+    <t>FMA:85815</t>
+  </si>
+  <si>
+    <t>SPL-M_2, SPL-M_13, SPL-M_14, SPL-M_15, SPL-M_16, SPL-M_17, SPL-M_18, SPL-M_19, SPL-M_20, SPL-M_21</t>
+  </si>
+  <si>
+    <t>SPL-M_9</t>
+  </si>
+  <si>
+    <t>Cerebrospinal fluid</t>
+  </si>
+  <si>
+    <t>UBERON:0001359</t>
+  </si>
+  <si>
+    <t>SPL-M_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smooth muscle </t>
+  </si>
+  <si>
+    <t>UBERON:0001135</t>
+  </si>
+  <si>
+    <t>SPL-M_11</t>
+  </si>
+  <si>
+    <t>Connective Tissue</t>
+  </si>
+  <si>
+    <t>UBERON:0002384</t>
+  </si>
+  <si>
+    <t>SPL-M_13</t>
+  </si>
+  <si>
+    <t>Sodium ion</t>
+  </si>
+  <si>
+    <t>CHEBI:29101</t>
+  </si>
+  <si>
+    <t>SPL-M_14</t>
+  </si>
+  <si>
+    <t>Potassium ion</t>
+  </si>
+  <si>
+    <t>CHEBI:29103</t>
+  </si>
+  <si>
+    <t>SPL-M_15</t>
+  </si>
+  <si>
+    <t>Calcium ion</t>
+  </si>
+  <si>
+    <t>CHEBI:29108</t>
+  </si>
+  <si>
+    <t>SPL-M_16</t>
+  </si>
+  <si>
+    <t>Chloride ion</t>
+  </si>
+  <si>
+    <t>CHEBI:17996</t>
+  </si>
+  <si>
+    <t>SPL-M_17</t>
+  </si>
+  <si>
+    <t>Hydrogen ion</t>
+  </si>
+  <si>
+    <t>CHEBI:24636</t>
+  </si>
+  <si>
+    <t>SPL-M_18</t>
+  </si>
+  <si>
+    <t>Hydroxide ion</t>
+  </si>
+  <si>
+    <t>CHEBI:16234</t>
+  </si>
+  <si>
+    <t>SPL-M_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicarbonate ion </t>
+  </si>
+  <si>
+    <t>CHEBI:17544</t>
+  </si>
+  <si>
+    <t>SPL-M_20</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>SPL-M_21</t>
+  </si>
+  <si>
+    <t>Fluid</t>
+  </si>
+  <si>
+    <t>UBERON:0006314</t>
+  </si>
+  <si>
+    <t>SPL-M_22</t>
+  </si>
+  <si>
+    <t>Peripheral nervous system tissue</t>
+  </si>
+  <si>
+    <t>UBERON:0000010</t>
+  </si>
+  <si>
+    <t>SPL-M_23</t>
+  </si>
+  <si>
+    <t>Ependyma</t>
+  </si>
+  <si>
+    <t>UBERON:0004670</t>
+  </si>
+  <si>
+    <t>SPL-M_24</t>
+  </si>
+  <si>
+    <t>Pia mater</t>
+  </si>
+  <si>
+    <t>UBERON:0002361</t>
+  </si>
+  <si>
+    <t>SPL-M_25</t>
+  </si>
+  <si>
+    <t>Central nervous system tissue</t>
+  </si>
+  <si>
+    <t>UBERON:0001017</t>
+  </si>
+  <si>
+    <t>SPL-M_26</t>
+  </si>
+  <si>
+    <t>Wall of vessel</t>
+  </si>
+  <si>
+    <t>UBERON:0035965</t>
+  </si>
+  <si>
+    <t>SPL-M_27</t>
+  </si>
+  <si>
+    <t>White matter of CNS</t>
+  </si>
+  <si>
+    <t>UBERON:0016549</t>
+  </si>
+  <si>
+    <t>SPL-M_28</t>
+  </si>
+  <si>
+    <t>Gray matter of CNS</t>
+  </si>
+  <si>
+    <t>UBERON:0016548</t>
+  </si>
+  <si>
+    <t>SPL-M_77</t>
+  </si>
+  <si>
+    <t>lamina I of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0006118</t>
+  </si>
+  <si>
+    <t>SPL-M_78</t>
+  </si>
+  <si>
+    <t>lamina II of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0002181</t>
+  </si>
+  <si>
+    <t>SPL-M_79</t>
+  </si>
+  <si>
+    <t>lamina III of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016574</t>
+  </si>
+  <si>
+    <t>SPL-M_80</t>
+  </si>
+  <si>
+    <t>lamina IV of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016575</t>
+  </si>
+  <si>
+    <t>SPL-M_81</t>
+  </si>
+  <si>
+    <t>lamina V of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016576</t>
+  </si>
+  <si>
+    <t>SPL-M_82</t>
+  </si>
+  <si>
+    <t>lamina VI of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016577</t>
+  </si>
+  <si>
+    <t>SPL-M_83</t>
+  </si>
+  <si>
+    <t>lamina VII of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016578</t>
+  </si>
+  <si>
+    <t>SPL-M_84</t>
+  </si>
+  <si>
+    <t>lamina VIII of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016579</t>
+  </si>
+  <si>
+    <t>SPL-M_85</t>
+  </si>
+  <si>
+    <t>lamina IX of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0016580</t>
+  </si>
+  <si>
+    <t>SPL-M_86</t>
+  </si>
+  <si>
+    <t>lamina X of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>UBERON:0004677</t>
+  </si>
+  <si>
+    <t>Cytosol</t>
+  </si>
+  <si>
+    <t>GO:0005829</t>
+  </si>
+  <si>
+    <t>Membrane</t>
+  </si>
+  <si>
+    <t>GO:0016020</t>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0005886</t>
+  </si>
+  <si>
+    <t>GO:0005615</t>
+  </si>
+  <si>
+    <t>SPL-M_87</t>
+  </si>
+  <si>
+    <t>Epithelium</t>
+  </si>
+  <si>
+    <t>SPL-M_Lum</t>
+  </si>
+  <si>
+    <t>SPL-M_LN</t>
+  </si>
+  <si>
+    <t>SPL-M_SubP</t>
+  </si>
+  <si>
+    <t>SPL-M_CirM</t>
+  </si>
+  <si>
+    <t>SPL-M_MyeP</t>
+  </si>
+  <si>
+    <t>SPL-M_Ser</t>
+  </si>
+  <si>
+    <t>SPL-M_Lym</t>
+  </si>
+  <si>
+    <t>lymph</t>
+  </si>
+  <si>
+    <t>UBERON:0002391</t>
+  </si>
+  <si>
+    <t>SPL-M_WMB</t>
+  </si>
+  <si>
+    <t>leukocyte</t>
+  </si>
+  <si>
+    <t>FMA:62852</t>
+  </si>
+  <si>
+    <t>SPL-M_chy</t>
+  </si>
+  <si>
+    <t>chyle</t>
+  </si>
+  <si>
+    <t>FMA:61403</t>
+  </si>
+  <si>
+    <t>SPL-M_bm</t>
+  </si>
+  <si>
+    <t>basement membrane</t>
+  </si>
+  <si>
+    <t>SPL-M_tm</t>
+  </si>
+  <si>
+    <t>tunica media</t>
+  </si>
+  <si>
+    <t>SPL-M_ta</t>
+  </si>
+  <si>
+    <t>tunica adventitia</t>
+  </si>
+  <si>
+    <t>trabecular connective tissue</t>
+  </si>
+  <si>
+    <t>SPL-M_rct</t>
+  </si>
+  <si>
+    <t>reticular connective tissue</t>
+  </si>
+  <si>
+    <t>SPL-M_rpm</t>
+  </si>
+  <si>
+    <t>splenic red pulp macrophage</t>
+  </si>
+  <si>
+    <t>CL:0000874</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>conveyingLyph</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>lnk-sn_t8</t>
+  </si>
+  <si>
+    <t>link for soma in T8 spinal cord segment (splen)</t>
+  </si>
+  <si>
+    <t>ns_t8s</t>
+  </si>
+  <si>
+    <t>ns_t8t</t>
+  </si>
+  <si>
+    <t>lnk-sn_t7</t>
+  </si>
+  <si>
+    <t>link for soma in T7 spinal cord segment (splen)</t>
+  </si>
+  <si>
+    <t>ns_t7s</t>
+  </si>
+  <si>
+    <t>ns_t7t</t>
+  </si>
+  <si>
+    <t>lnk-sn_t6</t>
+  </si>
+  <si>
+    <t>link for soma in T6 spinal cord segment (splen)</t>
+  </si>
+  <si>
+    <t>ns_t6s</t>
+  </si>
+  <si>
+    <t>ns_t6t</t>
+  </si>
+  <si>
+    <t>lnk-sn_t5</t>
+  </si>
+  <si>
+    <t>link for soma in T5 spinal cord segment (splen)</t>
+  </si>
+  <si>
+    <t>ns_t5s</t>
+  </si>
+  <si>
+    <t>ns_t5t</t>
+  </si>
+  <si>
+    <t>lnk-sn_dmv</t>
+  </si>
+  <si>
+    <t>link for soma in dmv in medulla (splen)</t>
+  </si>
+  <si>
+    <t>ns_dmv-s</t>
+  </si>
+  <si>
+    <t>ns_dmv-t</t>
+  </si>
+  <si>
+    <t>lnk-sn_nts</t>
+  </si>
+  <si>
+    <t>link for soma in nts in medulla (splen)</t>
+  </si>
+  <si>
+    <t>ns_nts-s</t>
+  </si>
+  <si>
+    <t>ns_nts-t</t>
+  </si>
+  <si>
+    <t>lnk-sn_ndg</t>
+  </si>
+  <si>
+    <t>link for soma in ndg in vagus nerve  (splen)</t>
+  </si>
+  <si>
+    <t>ns_ndg-s</t>
+  </si>
+  <si>
+    <t>ns_ndg-t</t>
+  </si>
+  <si>
+    <t>lnk-cg-smg</t>
+  </si>
+  <si>
     <t>soma in CG/SMG fused</t>
-  </si>
-  <si>
-    <t>neuron5_spl</t>
-  </si>
-  <si>
-    <t>a-splen</t>
-  </si>
-  <si>
-    <t>splenic artery</t>
-  </si>
-  <si>
-    <t>UBERON:0001194</t>
-  </si>
-  <si>
-    <t>SPL-M_7, SPL-M_6, SPL-M_bm, SPL-M_tm, SPL-M_ta</t>
-  </si>
-  <si>
-    <t>v-splen</t>
-  </si>
-  <si>
-    <t>splenic vein</t>
-  </si>
-  <si>
-    <t>UBERON:0003713</t>
-  </si>
-  <si>
-    <t>a-trab</t>
-  </si>
-  <si>
-    <t>spleen trabecular artery</t>
-  </si>
-  <si>
-    <t>UBERON:0010399</t>
-  </si>
-  <si>
-    <t>v-trab</t>
-  </si>
-  <si>
-    <t>spleen trabecular vein</t>
-  </si>
-  <si>
-    <t>UBERON:0010400</t>
-  </si>
-  <si>
-    <t>trab</t>
-  </si>
-  <si>
-    <t>trabecula</t>
-  </si>
-  <si>
-    <t>UBERON:0000440</t>
-  </si>
-  <si>
-    <t>SPL-M_tct</t>
-  </si>
-  <si>
-    <t>a-cent</t>
-  </si>
-  <si>
-    <t>central artery</t>
-  </si>
-  <si>
-    <t>UBERON:2005020</t>
-  </si>
-  <si>
-    <t>ven_sin</t>
-  </si>
-  <si>
-    <t>venous sinus</t>
-  </si>
-  <si>
-    <t>UBERON:0006615</t>
-  </si>
-  <si>
-    <t>spl_cord</t>
-  </si>
-  <si>
-    <t>splenic cord</t>
-  </si>
-  <si>
-    <t>UBERON:0001266</t>
-  </si>
-  <si>
-    <t>SPL-M_7, SPL-M_rpm, SPL-M_ta</t>
-  </si>
-  <si>
-    <t>cap-shea</t>
-  </si>
-  <si>
-    <t>(sheathed) capillary</t>
-  </si>
-  <si>
-    <t>UBERON:0001982</t>
-  </si>
-  <si>
-    <t>SPL-M_7, SPL-M_6, SPL-M_bm,  SPL-M_ta</t>
-  </si>
-  <si>
-    <t>art-rad</t>
-  </si>
-  <si>
-    <t>(radial) arteriole</t>
-  </si>
-  <si>
-    <t>UBERON:0001980</t>
-  </si>
-  <si>
-    <t>ven-conn</t>
-  </si>
-  <si>
-    <t>(connecting) venule</t>
-  </si>
-  <si>
-    <t>UBERON:0001979</t>
-  </si>
-  <si>
-    <t>art-pen</t>
-  </si>
-  <si>
-    <t>penicillary arteriole</t>
-  </si>
-  <si>
-    <t>UBERON:0013132</t>
-  </si>
-  <si>
-    <t>SPL-M_2</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>CHEBI:15377</t>
-  </si>
-  <si>
-    <t>SPL-M_5</t>
-  </si>
-  <si>
-    <t>Extracellular fluid</t>
-  </si>
-  <si>
-    <t>CHEBI:24839</t>
-  </si>
-  <si>
-    <t>SPL-M_6</t>
-  </si>
-  <si>
-    <t>Endothelium</t>
-  </si>
-  <si>
-    <t>UBERON:0001986</t>
-  </si>
-  <si>
-    <t>SPL-M_8</t>
-  </si>
-  <si>
-    <t>SPL-M_7</t>
-  </si>
-  <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>UBERON:0000178</t>
-  </si>
-  <si>
-    <t>Aqueous solution</t>
-  </si>
-  <si>
-    <t>FMA:85815</t>
-  </si>
-  <si>
-    <t>SPL-M_2, SPL-M_13, SPL-M_14, SPL-M_15, SPL-M_16, SPL-M_17, SPL-M_18, SPL-M_19, SPL-M_20, SPL-M_21</t>
-  </si>
-  <si>
-    <t>SPL-M_9</t>
-  </si>
-  <si>
-    <t>Cerebrospinal fluid</t>
-  </si>
-  <si>
-    <t>UBERON:0001359</t>
-  </si>
-  <si>
-    <t>SPL-M_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth muscle </t>
-  </si>
-  <si>
-    <t>UBERON:0001135</t>
-  </si>
-  <si>
-    <t>SPL-M_11</t>
-  </si>
-  <si>
-    <t>Connective Tissue</t>
-  </si>
-  <si>
-    <t>UBERON:0002384</t>
-  </si>
-  <si>
-    <t>SPL-M_13</t>
-  </si>
-  <si>
-    <t>Sodium ion</t>
-  </si>
-  <si>
-    <t>CHEBI:29101</t>
-  </si>
-  <si>
-    <t>SPL-M_14</t>
-  </si>
-  <si>
-    <t>Potassium ion</t>
-  </si>
-  <si>
-    <t>CHEBI:29103</t>
-  </si>
-  <si>
-    <t>SPL-M_15</t>
-  </si>
-  <si>
-    <t>Calcium ion</t>
-  </si>
-  <si>
-    <t>CHEBI:29108</t>
-  </si>
-  <si>
-    <t>SPL-M_16</t>
-  </si>
-  <si>
-    <t>Chloride ion</t>
-  </si>
-  <si>
-    <t>CHEBI:17996</t>
-  </si>
-  <si>
-    <t>SPL-M_17</t>
-  </si>
-  <si>
-    <t>Hydrogen ion</t>
-  </si>
-  <si>
-    <t>CHEBI:24636</t>
-  </si>
-  <si>
-    <t>SPL-M_18</t>
-  </si>
-  <si>
-    <t>Hydroxide ion</t>
-  </si>
-  <si>
-    <t>CHEBI:16234</t>
-  </si>
-  <si>
-    <t>SPL-M_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicarbonate ion </t>
-  </si>
-  <si>
-    <t>CHEBI:17544</t>
-  </si>
-  <si>
-    <t>SPL-M_20</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>SPL-M_21</t>
-  </si>
-  <si>
-    <t>Fluid</t>
-  </si>
-  <si>
-    <t>UBERON:0006314</t>
-  </si>
-  <si>
-    <t>SPL-M_22</t>
-  </si>
-  <si>
-    <t>Peripheral nervous system tissue</t>
-  </si>
-  <si>
-    <t>UBERON:0000010</t>
-  </si>
-  <si>
-    <t>SPL-M_23</t>
-  </si>
-  <si>
-    <t>Ependyma</t>
-  </si>
-  <si>
-    <t>UBERON:0004670</t>
-  </si>
-  <si>
-    <t>SPL-M_24</t>
-  </si>
-  <si>
-    <t>Pia mater</t>
-  </si>
-  <si>
-    <t>UBERON:0002361</t>
-  </si>
-  <si>
-    <t>SPL-M_25</t>
-  </si>
-  <si>
-    <t>Central nervous system tissue</t>
-  </si>
-  <si>
-    <t>UBERON:0001017</t>
-  </si>
-  <si>
-    <t>SPL-M_26</t>
-  </si>
-  <si>
-    <t>Wall of vessel</t>
-  </si>
-  <si>
-    <t>UBERON:0035965</t>
-  </si>
-  <si>
-    <t>SPL-M_27</t>
-  </si>
-  <si>
-    <t>White matter of CNS</t>
-  </si>
-  <si>
-    <t>UBERON:0016549</t>
-  </si>
-  <si>
-    <t>SPL-M_28</t>
-  </si>
-  <si>
-    <t>Gray matter of CNS</t>
-  </si>
-  <si>
-    <t>UBERON:0016548</t>
-  </si>
-  <si>
-    <t>SPL-M_77</t>
-  </si>
-  <si>
-    <t>lamina I of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0006118</t>
-  </si>
-  <si>
-    <t>SPL-M_78</t>
-  </si>
-  <si>
-    <t>lamina II of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0002181</t>
-  </si>
-  <si>
-    <t>SPL-M_79</t>
-  </si>
-  <si>
-    <t>lamina III of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016574</t>
-  </si>
-  <si>
-    <t>SPL-M_80</t>
-  </si>
-  <si>
-    <t>lamina IV of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016575</t>
-  </si>
-  <si>
-    <t>SPL-M_81</t>
-  </si>
-  <si>
-    <t>lamina V of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016576</t>
-  </si>
-  <si>
-    <t>SPL-M_82</t>
-  </si>
-  <si>
-    <t>lamina VI of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016577</t>
-  </si>
-  <si>
-    <t>SPL-M_83</t>
-  </si>
-  <si>
-    <t>lamina VII of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016578</t>
-  </si>
-  <si>
-    <t>SPL-M_84</t>
-  </si>
-  <si>
-    <t>lamina VIII of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016579</t>
-  </si>
-  <si>
-    <t>SPL-M_85</t>
-  </si>
-  <si>
-    <t>lamina IX of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0016580</t>
-  </si>
-  <si>
-    <t>SPL-M_86</t>
-  </si>
-  <si>
-    <t>lamina X of gray matter of spinal cord</t>
-  </si>
-  <si>
-    <t>UBERON:0004677</t>
-  </si>
-  <si>
-    <t>Cytosol</t>
-  </si>
-  <si>
-    <t>GO:0005829</t>
-  </si>
-  <si>
-    <t>Membrane</t>
-  </si>
-  <si>
-    <t>GO:0016020</t>
-  </si>
-  <si>
-    <t>Plasma membrane</t>
-  </si>
-  <si>
-    <t>GO:0005886</t>
-  </si>
-  <si>
-    <t>GO:0005615</t>
-  </si>
-  <si>
-    <t>SPL-M_87</t>
-  </si>
-  <si>
-    <t>Epithelium</t>
-  </si>
-  <si>
-    <t>SPL-M_Lum</t>
-  </si>
-  <si>
-    <t>SPL-M_LN</t>
-  </si>
-  <si>
-    <t>SPL-M_SubP</t>
-  </si>
-  <si>
-    <t>SPL-M_CirM</t>
-  </si>
-  <si>
-    <t>SPL-M_MyeP</t>
-  </si>
-  <si>
-    <t>SPL-M_Ser</t>
-  </si>
-  <si>
-    <t>SPL-M_Lym</t>
-  </si>
-  <si>
-    <t>lymph</t>
-  </si>
-  <si>
-    <t>UBERON:0002391</t>
-  </si>
-  <si>
-    <t>SPL-M_WMB</t>
-  </si>
-  <si>
-    <t>leukocyte</t>
-  </si>
-  <si>
-    <t>FMA:62852</t>
-  </si>
-  <si>
-    <t>SPL-M_chy</t>
-  </si>
-  <si>
-    <t>chyle</t>
-  </si>
-  <si>
-    <t>FMA:61403</t>
-  </si>
-  <si>
-    <t>SPL-M_bm</t>
-  </si>
-  <si>
-    <t>basement membrane</t>
-  </si>
-  <si>
-    <t>SPL-M_tm</t>
-  </si>
-  <si>
-    <t>tunica media</t>
-  </si>
-  <si>
-    <t>SPL-M_ta</t>
-  </si>
-  <si>
-    <t>tunica adventitia</t>
-  </si>
-  <si>
-    <t>trabecular connective tissue</t>
-  </si>
-  <si>
-    <t>SPL-M_rct</t>
-  </si>
-  <si>
-    <t>reticular connective tissue</t>
-  </si>
-  <si>
-    <t>SPL-M_rpm</t>
-  </si>
-  <si>
-    <t>splenic red pulp macrophage</t>
-  </si>
-  <si>
-    <t>CL:0000874</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>conveyingLyph</t>
-  </si>
-  <si>
-    <t>publications</t>
-  </si>
-  <si>
-    <t>lnk-sn_t8</t>
-  </si>
-  <si>
-    <t>link for soma in T8 spinal cord segment (splen)</t>
-  </si>
-  <si>
-    <t>ns_t8s</t>
-  </si>
-  <si>
-    <t>ns_t8t</t>
-  </si>
-  <si>
-    <t>lnk-sn_t7</t>
-  </si>
-  <si>
-    <t>link for soma in T7 spinal cord segment (splen)</t>
-  </si>
-  <si>
-    <t>ns_t7s</t>
-  </si>
-  <si>
-    <t>ns_t7t</t>
-  </si>
-  <si>
-    <t>lnk-sn_t6</t>
-  </si>
-  <si>
-    <t>link for soma in T6 spinal cord segment (splen)</t>
-  </si>
-  <si>
-    <t>ns_t6s</t>
-  </si>
-  <si>
-    <t>ns_t6t</t>
-  </si>
-  <si>
-    <t>lnk-sn_t5</t>
-  </si>
-  <si>
-    <t>link for soma in T5 spinal cord segment (splen)</t>
-  </si>
-  <si>
-    <t>ns_t5s</t>
-  </si>
-  <si>
-    <t>ns_t5t</t>
-  </si>
-  <si>
-    <t>lnk-sn_dmv</t>
-  </si>
-  <si>
-    <t>link for soma in dmv in medulla (splen)</t>
-  </si>
-  <si>
-    <t>ns_dmv-s</t>
-  </si>
-  <si>
-    <t>ns_dmv-t</t>
-  </si>
-  <si>
-    <t>lnk-sn_nts</t>
-  </si>
-  <si>
-    <t>link for soma in nts in medulla (splen)</t>
-  </si>
-  <si>
-    <t>ns_nts-s</t>
-  </si>
-  <si>
-    <t>ns_nts-t</t>
-  </si>
-  <si>
-    <t>lnk-sn_ndg</t>
-  </si>
-  <si>
-    <t>link for soma in ndg in vagus nerve  (splen)</t>
-  </si>
-  <si>
-    <t>ns_ndg-s</t>
-  </si>
-  <si>
-    <t>ns_ndg-t</t>
-  </si>
-  <si>
-    <t>lnk-cg-smg</t>
   </si>
   <si>
     <t>ns_cg-smg-s</t>
@@ -1535,18 +1538,27 @@
     <t>ilxtr:neuron-type-splen-1</t>
   </si>
   <si>
+    <t>preganglionic sympathetic neruon</t>
+  </si>
+  <si>
     <t>Neuron population 2 with a soma in the dorsal motor nucleus of the vagus</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-splen-2</t>
   </si>
   <si>
+    <t xml:space="preserve">preganglionic parasympathetic neuron </t>
+  </si>
+  <si>
     <t xml:space="preserve">Neuron population 3 with a soma in the nucleus tractus solitarius </t>
   </si>
   <si>
     <t>ilxtr:neuron-type-splen-3</t>
   </si>
   <si>
+    <t>parasympathetic motor neuron</t>
+  </si>
+  <si>
     <t>Neuron population 4 with a soma in the nodose ganglion</t>
   </si>
   <si>
@@ -1584,6 +1596,75 @@
   </si>
   <si>
     <t>chain ordering</t>
+  </si>
+  <si>
+    <t>id list</t>
+  </si>
+  <si>
+    <t>list of id lists</t>
+  </si>
+  <si>
+    <t>list of chains?</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>predicate</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>housing lyph or ontologyTerms id</t>
+  </si>
+  <si>
+    <t>axon</t>
+  </si>
+  <si>
+    <t>dendrite</t>
+  </si>
+  <si>
+    <t>axon terminal</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>ApiNATOMY model of the spleen</t>
+  </si>
+  <si>
+    <t>Model short name</t>
+  </si>
+  <si>
+    <t>Model Decription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This digital record documents the ApiNATOMY representation of neural circuits innervating the spleen. ApiNATOMY is a set of tools that produces simple, consistent anatomy schematics overlaid with ontological information. These tools are used to build routing and connectivity graphs (or wiring diagrams). This record contains a docs folder, a source folder, and a README text file. The Docs folder contains 2 PDF documents, with a schematic image of the ApiNATOMY model and a slide presentation documenting the anatomical structures each neuron population travels through in the schematic image. The Source folder contains the ApiNATOMY representation of the model in JSON and .xlsx formats. Lastly, the README .md document includes a brief description, keywords, and reference references to construct the knowledge within the model. </t>
+  </si>
+  <si>
+    <t>Link to annotated map in Google Slides</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/18Sbf5v9Qov6WCzqork2pJlTxL1W5VkvGZ-RqHsXIVhI/edit#slide=id.p</t>
+  </si>
+  <si>
+    <t>Link to model in Github</t>
+  </si>
+  <si>
+    <t>https://github.com/open-physiology/apinatomy-models/tree/master/models/spleen</t>
+  </si>
+  <si>
+    <t>Link to model in Zenodo</t>
+  </si>
+  <si>
+    <t>Lnk to reference statements</t>
+  </si>
+  <si>
+    <t>Link to papers (internal)</t>
   </si>
   <si>
     <t>uri</t>
@@ -1770,7 +1851,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1845,6 +1926,16 @@
       <sz val="9.0"/>
       <color rgb="FF008000"/>
       <name val="&quot;Courier New&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -1953,7 +2044,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1967,6 +2058,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1975,9 +2069,6 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2121,6 +2212,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -2320,40 +2414,58 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2663,31 +2775,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="131" t="s">
-        <v>383</v>
-      </c>
-      <c r="E1" s="131" t="s">
+      <c r="D1" s="137" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="131" t="s">
-        <v>515</v>
+      <c r="F1" s="137" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>123</v>
@@ -2696,37 +2808,37 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -2750,98 +2862,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="132" t="s">
-        <v>524</v>
-      </c>
-      <c r="B2" s="133" t="s">
-        <v>525</v>
+      <c r="A2" s="139" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="132" t="s">
-        <v>526</v>
-      </c>
-      <c r="B3" s="134" t="s">
-        <v>527</v>
+      <c r="A3" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="132" t="s">
-        <v>528</v>
-      </c>
-      <c r="B4" s="135" t="s">
-        <v>529</v>
+      <c r="A4" s="139" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="132" t="s">
-        <v>530</v>
-      </c>
-      <c r="B5" s="135" t="s">
-        <v>531</v>
+      <c r="A5" s="139" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" s="142" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="132" t="s">
-        <v>532</v>
-      </c>
-      <c r="B6" s="135" t="s">
-        <v>533</v>
+      <c r="A6" s="139" t="s">
+        <v>559</v>
+      </c>
+      <c r="B6" s="142" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="132" t="s">
-        <v>534</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>535</v>
+      <c r="A7" s="139" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="142" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="132" t="s">
-        <v>536</v>
-      </c>
-      <c r="B8" s="135" t="s">
-        <v>537</v>
+      <c r="A8" s="139" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="142" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="132" t="s">
-        <v>538</v>
-      </c>
-      <c r="B9" s="135" t="s">
-        <v>539</v>
+      <c r="A9" s="139" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="142" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="132" t="s">
-        <v>540</v>
-      </c>
-      <c r="B10" s="135" t="s">
-        <v>541</v>
+      <c r="A10" s="139" t="s">
+        <v>567</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="132" t="s">
-        <v>542</v>
-      </c>
-      <c r="B11" s="135" t="s">
-        <v>543</v>
+      <c r="A11" s="139" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" s="142" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B12" s="128" t="s">
-        <v>545</v>
+        <v>571</v>
+      </c>
+      <c r="B12" s="134" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -2877,3069 +2989,3069 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="143" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="137" t="s">
-        <v>547</v>
+      <c r="A2" s="144" t="s">
+        <v>574</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="137" t="s">
-        <v>550</v>
+      <c r="A3" s="144" t="s">
+        <v>577</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="137" t="s">
-        <v>552</v>
+      <c r="A4" s="144" t="s">
+        <v>579</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="137" t="s">
-        <v>554</v>
-      </c>
-      <c r="B5" s="138" t="s">
-        <v>555</v>
+      <c r="A5" s="144" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="145" t="s">
+        <v>582</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="137" t="s">
-        <v>556</v>
-      </c>
-      <c r="B6" s="138" t="s">
-        <v>557</v>
+      <c r="A6" s="144" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="145" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="137" t="s">
-        <v>558</v>
-      </c>
-      <c r="B7" s="138" t="s">
-        <v>559</v>
+      <c r="A7" s="144" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" s="145" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="139"/>
-      <c r="B8" s="138" t="s">
-        <v>560</v>
+      <c r="A8" s="146"/>
+      <c r="B8" s="145" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="139"/>
-      <c r="B9" s="138" t="s">
-        <v>561</v>
+      <c r="A9" s="146"/>
+      <c r="B9" s="145" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="139"/>
-      <c r="B10" s="138" t="s">
-        <v>562</v>
+      <c r="A10" s="146"/>
+      <c r="B10" s="145" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="139"/>
-      <c r="B11" s="138" t="s">
-        <v>563</v>
+      <c r="A11" s="146"/>
+      <c r="B11" s="145" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="139"/>
-      <c r="B12" s="138" t="s">
-        <v>564</v>
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="139"/>
+      <c r="A13" s="146"/>
     </row>
     <row r="14">
-      <c r="A14" s="139"/>
+      <c r="A14" s="146"/>
     </row>
     <row r="15">
-      <c r="A15" s="139"/>
+      <c r="A15" s="146"/>
     </row>
     <row r="16">
-      <c r="A16" s="139"/>
+      <c r="A16" s="146"/>
     </row>
     <row r="17">
-      <c r="A17" s="139"/>
+      <c r="A17" s="146"/>
     </row>
     <row r="18">
-      <c r="A18" s="139"/>
+      <c r="A18" s="146"/>
     </row>
     <row r="19">
-      <c r="A19" s="139"/>
+      <c r="A19" s="146"/>
     </row>
     <row r="20">
-      <c r="A20" s="139"/>
+      <c r="A20" s="146"/>
     </row>
     <row r="21">
-      <c r="A21" s="139"/>
+      <c r="A21" s="146"/>
     </row>
     <row r="22">
-      <c r="A22" s="139"/>
+      <c r="A22" s="146"/>
     </row>
     <row r="23">
-      <c r="A23" s="139"/>
+      <c r="A23" s="146"/>
     </row>
     <row r="24">
-      <c r="A24" s="139"/>
+      <c r="A24" s="146"/>
     </row>
     <row r="25">
-      <c r="A25" s="139"/>
+      <c r="A25" s="146"/>
     </row>
     <row r="26">
-      <c r="A26" s="139"/>
+      <c r="A26" s="146"/>
     </row>
     <row r="27">
-      <c r="A27" s="139"/>
+      <c r="A27" s="146"/>
     </row>
     <row r="28">
-      <c r="A28" s="139"/>
+      <c r="A28" s="146"/>
     </row>
     <row r="29">
-      <c r="A29" s="139"/>
+      <c r="A29" s="146"/>
     </row>
     <row r="30">
-      <c r="A30" s="139"/>
+      <c r="A30" s="146"/>
     </row>
     <row r="31">
-      <c r="A31" s="139"/>
+      <c r="A31" s="146"/>
     </row>
     <row r="32">
-      <c r="A32" s="139"/>
+      <c r="A32" s="146"/>
     </row>
     <row r="33">
-      <c r="A33" s="139"/>
+      <c r="A33" s="146"/>
     </row>
     <row r="34">
-      <c r="A34" s="139"/>
+      <c r="A34" s="146"/>
     </row>
     <row r="35">
-      <c r="A35" s="139"/>
+      <c r="A35" s="146"/>
     </row>
     <row r="36">
-      <c r="A36" s="139"/>
+      <c r="A36" s="146"/>
     </row>
     <row r="37">
-      <c r="A37" s="139"/>
+      <c r="A37" s="146"/>
     </row>
     <row r="38">
-      <c r="A38" s="139"/>
+      <c r="A38" s="146"/>
     </row>
     <row r="39">
-      <c r="A39" s="139"/>
+      <c r="A39" s="146"/>
     </row>
     <row r="40">
-      <c r="A40" s="139"/>
+      <c r="A40" s="146"/>
     </row>
     <row r="41">
-      <c r="A41" s="139"/>
+      <c r="A41" s="146"/>
     </row>
     <row r="42">
-      <c r="A42" s="139"/>
+      <c r="A42" s="146"/>
     </row>
     <row r="43">
-      <c r="A43" s="139"/>
+      <c r="A43" s="146"/>
     </row>
     <row r="44">
-      <c r="A44" s="139"/>
+      <c r="A44" s="146"/>
     </row>
     <row r="45">
-      <c r="A45" s="139"/>
+      <c r="A45" s="146"/>
     </row>
     <row r="46">
-      <c r="A46" s="139"/>
+      <c r="A46" s="146"/>
     </row>
     <row r="47">
-      <c r="A47" s="139"/>
+      <c r="A47" s="146"/>
     </row>
     <row r="48">
-      <c r="A48" s="139"/>
+      <c r="A48" s="146"/>
     </row>
     <row r="49">
-      <c r="A49" s="139"/>
+      <c r="A49" s="146"/>
     </row>
     <row r="50">
-      <c r="A50" s="139"/>
+      <c r="A50" s="146"/>
     </row>
     <row r="51">
-      <c r="A51" s="139"/>
+      <c r="A51" s="146"/>
     </row>
     <row r="52">
-      <c r="A52" s="139"/>
+      <c r="A52" s="146"/>
     </row>
     <row r="53">
-      <c r="A53" s="139"/>
+      <c r="A53" s="146"/>
     </row>
     <row r="54">
-      <c r="A54" s="139"/>
+      <c r="A54" s="146"/>
     </row>
     <row r="55">
-      <c r="A55" s="139"/>
+      <c r="A55" s="146"/>
     </row>
     <row r="56">
-      <c r="A56" s="139"/>
+      <c r="A56" s="146"/>
     </row>
     <row r="57">
-      <c r="A57" s="139"/>
+      <c r="A57" s="146"/>
     </row>
     <row r="58">
-      <c r="A58" s="139"/>
+      <c r="A58" s="146"/>
     </row>
     <row r="59">
-      <c r="A59" s="139"/>
+      <c r="A59" s="146"/>
     </row>
     <row r="60">
-      <c r="A60" s="139"/>
+      <c r="A60" s="146"/>
     </row>
     <row r="61">
-      <c r="A61" s="139"/>
+      <c r="A61" s="146"/>
     </row>
     <row r="62">
-      <c r="A62" s="139"/>
+      <c r="A62" s="146"/>
     </row>
     <row r="63">
-      <c r="A63" s="139"/>
+      <c r="A63" s="146"/>
     </row>
     <row r="64">
-      <c r="A64" s="139"/>
+      <c r="A64" s="146"/>
     </row>
     <row r="65">
-      <c r="A65" s="139"/>
+      <c r="A65" s="146"/>
     </row>
     <row r="66">
-      <c r="A66" s="139"/>
+      <c r="A66" s="146"/>
     </row>
     <row r="67">
-      <c r="A67" s="139"/>
+      <c r="A67" s="146"/>
     </row>
     <row r="68">
-      <c r="A68" s="139"/>
+      <c r="A68" s="146"/>
     </row>
     <row r="69">
-      <c r="A69" s="139"/>
+      <c r="A69" s="146"/>
     </row>
     <row r="70">
-      <c r="A70" s="139"/>
+      <c r="A70" s="146"/>
     </row>
     <row r="71">
-      <c r="A71" s="139"/>
+      <c r="A71" s="146"/>
     </row>
     <row r="72">
-      <c r="A72" s="139"/>
+      <c r="A72" s="146"/>
     </row>
     <row r="73">
-      <c r="A73" s="139"/>
+      <c r="A73" s="146"/>
     </row>
     <row r="74">
-      <c r="A74" s="139"/>
+      <c r="A74" s="146"/>
     </row>
     <row r="75">
-      <c r="A75" s="139"/>
+      <c r="A75" s="146"/>
     </row>
     <row r="76">
-      <c r="A76" s="139"/>
+      <c r="A76" s="146"/>
     </row>
     <row r="77">
-      <c r="A77" s="139"/>
+      <c r="A77" s="146"/>
     </row>
     <row r="78">
-      <c r="A78" s="139"/>
+      <c r="A78" s="146"/>
     </row>
     <row r="79">
-      <c r="A79" s="139"/>
+      <c r="A79" s="146"/>
     </row>
     <row r="80">
-      <c r="A80" s="139"/>
+      <c r="A80" s="146"/>
     </row>
     <row r="81">
-      <c r="A81" s="139"/>
+      <c r="A81" s="146"/>
     </row>
     <row r="82">
-      <c r="A82" s="139"/>
+      <c r="A82" s="146"/>
     </row>
     <row r="83">
-      <c r="A83" s="139"/>
+      <c r="A83" s="146"/>
     </row>
     <row r="84">
-      <c r="A84" s="139"/>
+      <c r="A84" s="146"/>
     </row>
     <row r="85">
-      <c r="A85" s="139"/>
+      <c r="A85" s="146"/>
     </row>
     <row r="86">
-      <c r="A86" s="139"/>
+      <c r="A86" s="146"/>
     </row>
     <row r="87">
-      <c r="A87" s="139"/>
+      <c r="A87" s="146"/>
     </row>
     <row r="88">
-      <c r="A88" s="139"/>
+      <c r="A88" s="146"/>
     </row>
     <row r="89">
-      <c r="A89" s="139"/>
+      <c r="A89" s="146"/>
     </row>
     <row r="90">
-      <c r="A90" s="139"/>
+      <c r="A90" s="146"/>
     </row>
     <row r="91">
-      <c r="A91" s="139"/>
+      <c r="A91" s="146"/>
     </row>
     <row r="92">
-      <c r="A92" s="139"/>
+      <c r="A92" s="146"/>
     </row>
     <row r="93">
-      <c r="A93" s="139"/>
+      <c r="A93" s="146"/>
     </row>
     <row r="94">
-      <c r="A94" s="139"/>
+      <c r="A94" s="146"/>
     </row>
     <row r="95">
-      <c r="A95" s="139"/>
+      <c r="A95" s="146"/>
     </row>
     <row r="96">
-      <c r="A96" s="139"/>
+      <c r="A96" s="146"/>
     </row>
     <row r="97">
-      <c r="A97" s="139"/>
+      <c r="A97" s="146"/>
     </row>
     <row r="98">
-      <c r="A98" s="139"/>
+      <c r="A98" s="146"/>
     </row>
     <row r="99">
-      <c r="A99" s="139"/>
+      <c r="A99" s="146"/>
     </row>
     <row r="100">
-      <c r="A100" s="139"/>
+      <c r="A100" s="146"/>
     </row>
     <row r="101">
-      <c r="A101" s="139"/>
+      <c r="A101" s="146"/>
     </row>
     <row r="102">
-      <c r="A102" s="139"/>
+      <c r="A102" s="146"/>
     </row>
     <row r="103">
-      <c r="A103" s="139"/>
+      <c r="A103" s="146"/>
     </row>
     <row r="104">
-      <c r="A104" s="139"/>
+      <c r="A104" s="146"/>
     </row>
     <row r="105">
-      <c r="A105" s="139"/>
+      <c r="A105" s="146"/>
     </row>
     <row r="106">
-      <c r="A106" s="139"/>
+      <c r="A106" s="146"/>
     </row>
     <row r="107">
-      <c r="A107" s="139"/>
+      <c r="A107" s="146"/>
     </row>
     <row r="108">
-      <c r="A108" s="139"/>
+      <c r="A108" s="146"/>
     </row>
     <row r="109">
-      <c r="A109" s="139"/>
+      <c r="A109" s="146"/>
     </row>
     <row r="110">
-      <c r="A110" s="139"/>
+      <c r="A110" s="146"/>
     </row>
     <row r="111">
-      <c r="A111" s="139"/>
+      <c r="A111" s="146"/>
     </row>
     <row r="112">
-      <c r="A112" s="139"/>
+      <c r="A112" s="146"/>
     </row>
     <row r="113">
-      <c r="A113" s="139"/>
+      <c r="A113" s="146"/>
     </row>
     <row r="114">
-      <c r="A114" s="139"/>
+      <c r="A114" s="146"/>
     </row>
     <row r="115">
-      <c r="A115" s="139"/>
+      <c r="A115" s="146"/>
     </row>
     <row r="116">
-      <c r="A116" s="139"/>
+      <c r="A116" s="146"/>
     </row>
     <row r="117">
-      <c r="A117" s="139"/>
+      <c r="A117" s="146"/>
     </row>
     <row r="118">
-      <c r="A118" s="139"/>
+      <c r="A118" s="146"/>
     </row>
     <row r="119">
-      <c r="A119" s="139"/>
+      <c r="A119" s="146"/>
     </row>
     <row r="120">
-      <c r="A120" s="139"/>
+      <c r="A120" s="146"/>
     </row>
     <row r="121">
-      <c r="A121" s="139"/>
+      <c r="A121" s="146"/>
     </row>
     <row r="122">
-      <c r="A122" s="139"/>
+      <c r="A122" s="146"/>
     </row>
     <row r="123">
-      <c r="A123" s="139"/>
+      <c r="A123" s="146"/>
     </row>
     <row r="124">
-      <c r="A124" s="139"/>
+      <c r="A124" s="146"/>
     </row>
     <row r="125">
-      <c r="A125" s="139"/>
+      <c r="A125" s="146"/>
     </row>
     <row r="126">
-      <c r="A126" s="139"/>
+      <c r="A126" s="146"/>
     </row>
     <row r="127">
-      <c r="A127" s="139"/>
+      <c r="A127" s="146"/>
     </row>
     <row r="128">
-      <c r="A128" s="139"/>
+      <c r="A128" s="146"/>
     </row>
     <row r="129">
-      <c r="A129" s="139"/>
+      <c r="A129" s="146"/>
     </row>
     <row r="130">
-      <c r="A130" s="139"/>
+      <c r="A130" s="146"/>
     </row>
     <row r="131">
-      <c r="A131" s="139"/>
+      <c r="A131" s="146"/>
     </row>
     <row r="132">
-      <c r="A132" s="139"/>
+      <c r="A132" s="146"/>
     </row>
     <row r="133">
-      <c r="A133" s="139"/>
+      <c r="A133" s="146"/>
     </row>
     <row r="134">
-      <c r="A134" s="139"/>
+      <c r="A134" s="146"/>
     </row>
     <row r="135">
-      <c r="A135" s="139"/>
+      <c r="A135" s="146"/>
     </row>
     <row r="136">
-      <c r="A136" s="139"/>
+      <c r="A136" s="146"/>
     </row>
     <row r="137">
-      <c r="A137" s="139"/>
+      <c r="A137" s="146"/>
     </row>
     <row r="138">
-      <c r="A138" s="139"/>
+      <c r="A138" s="146"/>
     </row>
     <row r="139">
-      <c r="A139" s="139"/>
+      <c r="A139" s="146"/>
     </row>
     <row r="140">
-      <c r="A140" s="139"/>
+      <c r="A140" s="146"/>
     </row>
     <row r="141">
-      <c r="A141" s="139"/>
+      <c r="A141" s="146"/>
     </row>
     <row r="142">
-      <c r="A142" s="139"/>
+      <c r="A142" s="146"/>
     </row>
     <row r="143">
-      <c r="A143" s="139"/>
+      <c r="A143" s="146"/>
     </row>
     <row r="144">
-      <c r="A144" s="139"/>
+      <c r="A144" s="146"/>
     </row>
     <row r="145">
-      <c r="A145" s="139"/>
+      <c r="A145" s="146"/>
     </row>
     <row r="146">
-      <c r="A146" s="139"/>
+      <c r="A146" s="146"/>
     </row>
     <row r="147">
-      <c r="A147" s="139"/>
+      <c r="A147" s="146"/>
     </row>
     <row r="148">
-      <c r="A148" s="139"/>
+      <c r="A148" s="146"/>
     </row>
     <row r="149">
-      <c r="A149" s="139"/>
+      <c r="A149" s="146"/>
     </row>
     <row r="150">
-      <c r="A150" s="139"/>
+      <c r="A150" s="146"/>
     </row>
     <row r="151">
-      <c r="A151" s="139"/>
+      <c r="A151" s="146"/>
     </row>
     <row r="152">
-      <c r="A152" s="139"/>
+      <c r="A152" s="146"/>
     </row>
     <row r="153">
-      <c r="A153" s="139"/>
+      <c r="A153" s="146"/>
     </row>
     <row r="154">
-      <c r="A154" s="139"/>
+      <c r="A154" s="146"/>
     </row>
     <row r="155">
-      <c r="A155" s="139"/>
+      <c r="A155" s="146"/>
     </row>
     <row r="156">
-      <c r="A156" s="139"/>
+      <c r="A156" s="146"/>
     </row>
     <row r="157">
-      <c r="A157" s="139"/>
+      <c r="A157" s="146"/>
     </row>
     <row r="158">
-      <c r="A158" s="139"/>
+      <c r="A158" s="146"/>
     </row>
     <row r="159">
-      <c r="A159" s="139"/>
+      <c r="A159" s="146"/>
     </row>
     <row r="160">
-      <c r="A160" s="139"/>
+      <c r="A160" s="146"/>
     </row>
     <row r="161">
-      <c r="A161" s="139"/>
+      <c r="A161" s="146"/>
     </row>
     <row r="162">
-      <c r="A162" s="139"/>
+      <c r="A162" s="146"/>
     </row>
     <row r="163">
-      <c r="A163" s="139"/>
+      <c r="A163" s="146"/>
     </row>
     <row r="164">
-      <c r="A164" s="139"/>
+      <c r="A164" s="146"/>
     </row>
     <row r="165">
-      <c r="A165" s="139"/>
+      <c r="A165" s="146"/>
     </row>
     <row r="166">
-      <c r="A166" s="139"/>
+      <c r="A166" s="146"/>
     </row>
     <row r="167">
-      <c r="A167" s="139"/>
+      <c r="A167" s="146"/>
     </row>
     <row r="168">
-      <c r="A168" s="139"/>
+      <c r="A168" s="146"/>
     </row>
     <row r="169">
-      <c r="A169" s="139"/>
+      <c r="A169" s="146"/>
     </row>
     <row r="170">
-      <c r="A170" s="139"/>
+      <c r="A170" s="146"/>
     </row>
     <row r="171">
-      <c r="A171" s="139"/>
+      <c r="A171" s="146"/>
     </row>
     <row r="172">
-      <c r="A172" s="139"/>
+      <c r="A172" s="146"/>
     </row>
     <row r="173">
-      <c r="A173" s="139"/>
+      <c r="A173" s="146"/>
     </row>
     <row r="174">
-      <c r="A174" s="139"/>
+      <c r="A174" s="146"/>
     </row>
     <row r="175">
-      <c r="A175" s="139"/>
+      <c r="A175" s="146"/>
     </row>
     <row r="176">
-      <c r="A176" s="139"/>
+      <c r="A176" s="146"/>
     </row>
     <row r="177">
-      <c r="A177" s="139"/>
+      <c r="A177" s="146"/>
     </row>
     <row r="178">
-      <c r="A178" s="139"/>
+      <c r="A178" s="146"/>
     </row>
     <row r="179">
-      <c r="A179" s="139"/>
+      <c r="A179" s="146"/>
     </row>
     <row r="180">
-      <c r="A180" s="139"/>
+      <c r="A180" s="146"/>
     </row>
     <row r="181">
-      <c r="A181" s="139"/>
+      <c r="A181" s="146"/>
     </row>
     <row r="182">
-      <c r="A182" s="139"/>
+      <c r="A182" s="146"/>
     </row>
     <row r="183">
-      <c r="A183" s="139"/>
+      <c r="A183" s="146"/>
     </row>
     <row r="184">
-      <c r="A184" s="139"/>
+      <c r="A184" s="146"/>
     </row>
     <row r="185">
-      <c r="A185" s="139"/>
+      <c r="A185" s="146"/>
     </row>
     <row r="186">
-      <c r="A186" s="139"/>
+      <c r="A186" s="146"/>
     </row>
     <row r="187">
-      <c r="A187" s="139"/>
+      <c r="A187" s="146"/>
     </row>
     <row r="188">
-      <c r="A188" s="139"/>
+      <c r="A188" s="146"/>
     </row>
     <row r="189">
-      <c r="A189" s="139"/>
+      <c r="A189" s="146"/>
     </row>
     <row r="190">
-      <c r="A190" s="139"/>
+      <c r="A190" s="146"/>
     </row>
     <row r="191">
-      <c r="A191" s="139"/>
+      <c r="A191" s="146"/>
     </row>
     <row r="192">
-      <c r="A192" s="139"/>
+      <c r="A192" s="146"/>
     </row>
     <row r="193">
-      <c r="A193" s="139"/>
+      <c r="A193" s="146"/>
     </row>
     <row r="194">
-      <c r="A194" s="139"/>
+      <c r="A194" s="146"/>
     </row>
     <row r="195">
-      <c r="A195" s="139"/>
+      <c r="A195" s="146"/>
     </row>
     <row r="196">
-      <c r="A196" s="139"/>
+      <c r="A196" s="146"/>
     </row>
     <row r="197">
-      <c r="A197" s="139"/>
+      <c r="A197" s="146"/>
     </row>
     <row r="198">
-      <c r="A198" s="139"/>
+      <c r="A198" s="146"/>
     </row>
     <row r="199">
-      <c r="A199" s="139"/>
+      <c r="A199" s="146"/>
     </row>
     <row r="200">
-      <c r="A200" s="139"/>
+      <c r="A200" s="146"/>
     </row>
     <row r="201">
-      <c r="A201" s="139"/>
+      <c r="A201" s="146"/>
     </row>
     <row r="202">
-      <c r="A202" s="139"/>
+      <c r="A202" s="146"/>
     </row>
     <row r="203">
-      <c r="A203" s="139"/>
+      <c r="A203" s="146"/>
     </row>
     <row r="204">
-      <c r="A204" s="139"/>
+      <c r="A204" s="146"/>
     </row>
     <row r="205">
-      <c r="A205" s="139"/>
+      <c r="A205" s="146"/>
     </row>
     <row r="206">
-      <c r="A206" s="139"/>
+      <c r="A206" s="146"/>
     </row>
     <row r="207">
-      <c r="A207" s="139"/>
+      <c r="A207" s="146"/>
     </row>
     <row r="208">
-      <c r="A208" s="139"/>
+      <c r="A208" s="146"/>
     </row>
     <row r="209">
-      <c r="A209" s="139"/>
+      <c r="A209" s="146"/>
     </row>
     <row r="210">
-      <c r="A210" s="139"/>
+      <c r="A210" s="146"/>
     </row>
     <row r="211">
-      <c r="A211" s="139"/>
+      <c r="A211" s="146"/>
     </row>
     <row r="212">
-      <c r="A212" s="139"/>
+      <c r="A212" s="146"/>
     </row>
     <row r="213">
-      <c r="A213" s="139"/>
+      <c r="A213" s="146"/>
     </row>
     <row r="214">
-      <c r="A214" s="139"/>
+      <c r="A214" s="146"/>
     </row>
     <row r="215">
-      <c r="A215" s="139"/>
+      <c r="A215" s="146"/>
     </row>
     <row r="216">
-      <c r="A216" s="139"/>
+      <c r="A216" s="146"/>
     </row>
     <row r="217">
-      <c r="A217" s="139"/>
+      <c r="A217" s="146"/>
     </row>
     <row r="218">
-      <c r="A218" s="139"/>
+      <c r="A218" s="146"/>
     </row>
     <row r="219">
-      <c r="A219" s="139"/>
+      <c r="A219" s="146"/>
     </row>
     <row r="220">
-      <c r="A220" s="139"/>
+      <c r="A220" s="146"/>
     </row>
     <row r="221">
-      <c r="A221" s="139"/>
+      <c r="A221" s="146"/>
     </row>
     <row r="222">
-      <c r="A222" s="139"/>
+      <c r="A222" s="146"/>
     </row>
     <row r="223">
-      <c r="A223" s="139"/>
+      <c r="A223" s="146"/>
     </row>
     <row r="224">
-      <c r="A224" s="139"/>
+      <c r="A224" s="146"/>
     </row>
     <row r="225">
-      <c r="A225" s="139"/>
+      <c r="A225" s="146"/>
     </row>
     <row r="226">
-      <c r="A226" s="139"/>
+      <c r="A226" s="146"/>
     </row>
     <row r="227">
-      <c r="A227" s="139"/>
+      <c r="A227" s="146"/>
     </row>
     <row r="228">
-      <c r="A228" s="139"/>
+      <c r="A228" s="146"/>
     </row>
     <row r="229">
-      <c r="A229" s="139"/>
+      <c r="A229" s="146"/>
     </row>
     <row r="230">
-      <c r="A230" s="139"/>
+      <c r="A230" s="146"/>
     </row>
     <row r="231">
-      <c r="A231" s="139"/>
+      <c r="A231" s="146"/>
     </row>
     <row r="232">
-      <c r="A232" s="139"/>
+      <c r="A232" s="146"/>
     </row>
     <row r="233">
-      <c r="A233" s="139"/>
+      <c r="A233" s="146"/>
     </row>
     <row r="234">
-      <c r="A234" s="139"/>
+      <c r="A234" s="146"/>
     </row>
     <row r="235">
-      <c r="A235" s="139"/>
+      <c r="A235" s="146"/>
     </row>
     <row r="236">
-      <c r="A236" s="139"/>
+      <c r="A236" s="146"/>
     </row>
     <row r="237">
-      <c r="A237" s="139"/>
+      <c r="A237" s="146"/>
     </row>
     <row r="238">
-      <c r="A238" s="139"/>
+      <c r="A238" s="146"/>
     </row>
     <row r="239">
-      <c r="A239" s="139"/>
+      <c r="A239" s="146"/>
     </row>
     <row r="240">
-      <c r="A240" s="139"/>
+      <c r="A240" s="146"/>
     </row>
     <row r="241">
-      <c r="A241" s="139"/>
+      <c r="A241" s="146"/>
     </row>
     <row r="242">
-      <c r="A242" s="139"/>
+      <c r="A242" s="146"/>
     </row>
     <row r="243">
-      <c r="A243" s="139"/>
+      <c r="A243" s="146"/>
     </row>
     <row r="244">
-      <c r="A244" s="139"/>
+      <c r="A244" s="146"/>
     </row>
     <row r="245">
-      <c r="A245" s="139"/>
+      <c r="A245" s="146"/>
     </row>
     <row r="246">
-      <c r="A246" s="139"/>
+      <c r="A246" s="146"/>
     </row>
     <row r="247">
-      <c r="A247" s="139"/>
+      <c r="A247" s="146"/>
     </row>
     <row r="248">
-      <c r="A248" s="139"/>
+      <c r="A248" s="146"/>
     </row>
     <row r="249">
-      <c r="A249" s="139"/>
+      <c r="A249" s="146"/>
     </row>
     <row r="250">
-      <c r="A250" s="139"/>
+      <c r="A250" s="146"/>
     </row>
     <row r="251">
-      <c r="A251" s="139"/>
+      <c r="A251" s="146"/>
     </row>
     <row r="252">
-      <c r="A252" s="139"/>
+      <c r="A252" s="146"/>
     </row>
     <row r="253">
-      <c r="A253" s="139"/>
+      <c r="A253" s="146"/>
     </row>
     <row r="254">
-      <c r="A254" s="139"/>
+      <c r="A254" s="146"/>
     </row>
     <row r="255">
-      <c r="A255" s="139"/>
+      <c r="A255" s="146"/>
     </row>
     <row r="256">
-      <c r="A256" s="139"/>
+      <c r="A256" s="146"/>
     </row>
     <row r="257">
-      <c r="A257" s="139"/>
+      <c r="A257" s="146"/>
     </row>
     <row r="258">
-      <c r="A258" s="139"/>
+      <c r="A258" s="146"/>
     </row>
     <row r="259">
-      <c r="A259" s="139"/>
+      <c r="A259" s="146"/>
     </row>
     <row r="260">
-      <c r="A260" s="139"/>
+      <c r="A260" s="146"/>
     </row>
     <row r="261">
-      <c r="A261" s="139"/>
+      <c r="A261" s="146"/>
     </row>
     <row r="262">
-      <c r="A262" s="139"/>
+      <c r="A262" s="146"/>
     </row>
     <row r="263">
-      <c r="A263" s="139"/>
+      <c r="A263" s="146"/>
     </row>
     <row r="264">
-      <c r="A264" s="139"/>
+      <c r="A264" s="146"/>
     </row>
     <row r="265">
-      <c r="A265" s="139"/>
+      <c r="A265" s="146"/>
     </row>
     <row r="266">
-      <c r="A266" s="139"/>
+      <c r="A266" s="146"/>
     </row>
     <row r="267">
-      <c r="A267" s="139"/>
+      <c r="A267" s="146"/>
     </row>
     <row r="268">
-      <c r="A268" s="139"/>
+      <c r="A268" s="146"/>
     </row>
     <row r="269">
-      <c r="A269" s="139"/>
+      <c r="A269" s="146"/>
     </row>
     <row r="270">
-      <c r="A270" s="139"/>
+      <c r="A270" s="146"/>
     </row>
     <row r="271">
-      <c r="A271" s="139"/>
+      <c r="A271" s="146"/>
     </row>
     <row r="272">
-      <c r="A272" s="139"/>
+      <c r="A272" s="146"/>
     </row>
     <row r="273">
-      <c r="A273" s="139"/>
+      <c r="A273" s="146"/>
     </row>
     <row r="274">
-      <c r="A274" s="139"/>
+      <c r="A274" s="146"/>
     </row>
     <row r="275">
-      <c r="A275" s="139"/>
+      <c r="A275" s="146"/>
     </row>
     <row r="276">
-      <c r="A276" s="139"/>
+      <c r="A276" s="146"/>
     </row>
     <row r="277">
-      <c r="A277" s="139"/>
+      <c r="A277" s="146"/>
     </row>
     <row r="278">
-      <c r="A278" s="139"/>
+      <c r="A278" s="146"/>
     </row>
     <row r="279">
-      <c r="A279" s="139"/>
+      <c r="A279" s="146"/>
     </row>
     <row r="280">
-      <c r="A280" s="139"/>
+      <c r="A280" s="146"/>
     </row>
     <row r="281">
-      <c r="A281" s="139"/>
+      <c r="A281" s="146"/>
     </row>
     <row r="282">
-      <c r="A282" s="139"/>
+      <c r="A282" s="146"/>
     </row>
     <row r="283">
-      <c r="A283" s="139"/>
+      <c r="A283" s="146"/>
     </row>
     <row r="284">
-      <c r="A284" s="139"/>
+      <c r="A284" s="146"/>
     </row>
     <row r="285">
-      <c r="A285" s="139"/>
+      <c r="A285" s="146"/>
     </row>
     <row r="286">
-      <c r="A286" s="139"/>
+      <c r="A286" s="146"/>
     </row>
     <row r="287">
-      <c r="A287" s="139"/>
+      <c r="A287" s="146"/>
     </row>
     <row r="288">
-      <c r="A288" s="139"/>
+      <c r="A288" s="146"/>
     </row>
     <row r="289">
-      <c r="A289" s="139"/>
+      <c r="A289" s="146"/>
     </row>
     <row r="290">
-      <c r="A290" s="139"/>
+      <c r="A290" s="146"/>
     </row>
     <row r="291">
-      <c r="A291" s="139"/>
+      <c r="A291" s="146"/>
     </row>
     <row r="292">
-      <c r="A292" s="139"/>
+      <c r="A292" s="146"/>
     </row>
     <row r="293">
-      <c r="A293" s="139"/>
+      <c r="A293" s="146"/>
     </row>
     <row r="294">
-      <c r="A294" s="139"/>
+      <c r="A294" s="146"/>
     </row>
     <row r="295">
-      <c r="A295" s="139"/>
+      <c r="A295" s="146"/>
     </row>
     <row r="296">
-      <c r="A296" s="139"/>
+      <c r="A296" s="146"/>
     </row>
     <row r="297">
-      <c r="A297" s="139"/>
+      <c r="A297" s="146"/>
     </row>
     <row r="298">
-      <c r="A298" s="139"/>
+      <c r="A298" s="146"/>
     </row>
     <row r="299">
-      <c r="A299" s="139"/>
+      <c r="A299" s="146"/>
     </row>
     <row r="300">
-      <c r="A300" s="139"/>
+      <c r="A300" s="146"/>
     </row>
     <row r="301">
-      <c r="A301" s="139"/>
+      <c r="A301" s="146"/>
     </row>
     <row r="302">
-      <c r="A302" s="139"/>
+      <c r="A302" s="146"/>
     </row>
     <row r="303">
-      <c r="A303" s="139"/>
+      <c r="A303" s="146"/>
     </row>
     <row r="304">
-      <c r="A304" s="139"/>
+      <c r="A304" s="146"/>
     </row>
     <row r="305">
-      <c r="A305" s="139"/>
+      <c r="A305" s="146"/>
     </row>
     <row r="306">
-      <c r="A306" s="139"/>
+      <c r="A306" s="146"/>
     </row>
     <row r="307">
-      <c r="A307" s="139"/>
+      <c r="A307" s="146"/>
     </row>
     <row r="308">
-      <c r="A308" s="139"/>
+      <c r="A308" s="146"/>
     </row>
     <row r="309">
-      <c r="A309" s="139"/>
+      <c r="A309" s="146"/>
     </row>
     <row r="310">
-      <c r="A310" s="139"/>
+      <c r="A310" s="146"/>
     </row>
     <row r="311">
-      <c r="A311" s="139"/>
+      <c r="A311" s="146"/>
     </row>
     <row r="312">
-      <c r="A312" s="139"/>
+      <c r="A312" s="146"/>
     </row>
     <row r="313">
-      <c r="A313" s="139"/>
+      <c r="A313" s="146"/>
     </row>
     <row r="314">
-      <c r="A314" s="139"/>
+      <c r="A314" s="146"/>
     </row>
     <row r="315">
-      <c r="A315" s="139"/>
+      <c r="A315" s="146"/>
     </row>
     <row r="316">
-      <c r="A316" s="139"/>
+      <c r="A316" s="146"/>
     </row>
     <row r="317">
-      <c r="A317" s="139"/>
+      <c r="A317" s="146"/>
     </row>
     <row r="318">
-      <c r="A318" s="139"/>
+      <c r="A318" s="146"/>
     </row>
     <row r="319">
-      <c r="A319" s="139"/>
+      <c r="A319" s="146"/>
     </row>
     <row r="320">
-      <c r="A320" s="139"/>
+      <c r="A320" s="146"/>
     </row>
     <row r="321">
-      <c r="A321" s="139"/>
+      <c r="A321" s="146"/>
     </row>
     <row r="322">
-      <c r="A322" s="139"/>
+      <c r="A322" s="146"/>
     </row>
     <row r="323">
-      <c r="A323" s="139"/>
+      <c r="A323" s="146"/>
     </row>
     <row r="324">
-      <c r="A324" s="139"/>
+      <c r="A324" s="146"/>
     </row>
     <row r="325">
-      <c r="A325" s="139"/>
+      <c r="A325" s="146"/>
     </row>
     <row r="326">
-      <c r="A326" s="139"/>
+      <c r="A326" s="146"/>
     </row>
     <row r="327">
-      <c r="A327" s="139"/>
+      <c r="A327" s="146"/>
     </row>
     <row r="328">
-      <c r="A328" s="139"/>
+      <c r="A328" s="146"/>
     </row>
     <row r="329">
-      <c r="A329" s="139"/>
+      <c r="A329" s="146"/>
     </row>
     <row r="330">
-      <c r="A330" s="139"/>
+      <c r="A330" s="146"/>
     </row>
     <row r="331">
-      <c r="A331" s="139"/>
+      <c r="A331" s="146"/>
     </row>
     <row r="332">
-      <c r="A332" s="139"/>
+      <c r="A332" s="146"/>
     </row>
     <row r="333">
-      <c r="A333" s="139"/>
+      <c r="A333" s="146"/>
     </row>
     <row r="334">
-      <c r="A334" s="139"/>
+      <c r="A334" s="146"/>
     </row>
     <row r="335">
-      <c r="A335" s="139"/>
+      <c r="A335" s="146"/>
     </row>
     <row r="336">
-      <c r="A336" s="139"/>
+      <c r="A336" s="146"/>
     </row>
     <row r="337">
-      <c r="A337" s="139"/>
+      <c r="A337" s="146"/>
     </row>
     <row r="338">
-      <c r="A338" s="139"/>
+      <c r="A338" s="146"/>
     </row>
     <row r="339">
-      <c r="A339" s="139"/>
+      <c r="A339" s="146"/>
     </row>
     <row r="340">
-      <c r="A340" s="139"/>
+      <c r="A340" s="146"/>
     </row>
     <row r="341">
-      <c r="A341" s="139"/>
+      <c r="A341" s="146"/>
     </row>
     <row r="342">
-      <c r="A342" s="139"/>
+      <c r="A342" s="146"/>
     </row>
     <row r="343">
-      <c r="A343" s="139"/>
+      <c r="A343" s="146"/>
     </row>
     <row r="344">
-      <c r="A344" s="139"/>
+      <c r="A344" s="146"/>
     </row>
     <row r="345">
-      <c r="A345" s="139"/>
+      <c r="A345" s="146"/>
     </row>
     <row r="346">
-      <c r="A346" s="139"/>
+      <c r="A346" s="146"/>
     </row>
     <row r="347">
-      <c r="A347" s="139"/>
+      <c r="A347" s="146"/>
     </row>
     <row r="348">
-      <c r="A348" s="139"/>
+      <c r="A348" s="146"/>
     </row>
     <row r="349">
-      <c r="A349" s="139"/>
+      <c r="A349" s="146"/>
     </row>
     <row r="350">
-      <c r="A350" s="139"/>
+      <c r="A350" s="146"/>
     </row>
     <row r="351">
-      <c r="A351" s="139"/>
+      <c r="A351" s="146"/>
     </row>
     <row r="352">
-      <c r="A352" s="139"/>
+      <c r="A352" s="146"/>
     </row>
     <row r="353">
-      <c r="A353" s="139"/>
+      <c r="A353" s="146"/>
     </row>
     <row r="354">
-      <c r="A354" s="139"/>
+      <c r="A354" s="146"/>
     </row>
     <row r="355">
-      <c r="A355" s="139"/>
+      <c r="A355" s="146"/>
     </row>
     <row r="356">
-      <c r="A356" s="139"/>
+      <c r="A356" s="146"/>
     </row>
     <row r="357">
-      <c r="A357" s="139"/>
+      <c r="A357" s="146"/>
     </row>
     <row r="358">
-      <c r="A358" s="139"/>
+      <c r="A358" s="146"/>
     </row>
     <row r="359">
-      <c r="A359" s="139"/>
+      <c r="A359" s="146"/>
     </row>
     <row r="360">
-      <c r="A360" s="139"/>
+      <c r="A360" s="146"/>
     </row>
     <row r="361">
-      <c r="A361" s="139"/>
+      <c r="A361" s="146"/>
     </row>
     <row r="362">
-      <c r="A362" s="139"/>
+      <c r="A362" s="146"/>
     </row>
     <row r="363">
-      <c r="A363" s="139"/>
+      <c r="A363" s="146"/>
     </row>
     <row r="364">
-      <c r="A364" s="139"/>
+      <c r="A364" s="146"/>
     </row>
     <row r="365">
-      <c r="A365" s="139"/>
+      <c r="A365" s="146"/>
     </row>
     <row r="366">
-      <c r="A366" s="139"/>
+      <c r="A366" s="146"/>
     </row>
     <row r="367">
-      <c r="A367" s="139"/>
+      <c r="A367" s="146"/>
     </row>
     <row r="368">
-      <c r="A368" s="139"/>
+      <c r="A368" s="146"/>
     </row>
     <row r="369">
-      <c r="A369" s="139"/>
+      <c r="A369" s="146"/>
     </row>
     <row r="370">
-      <c r="A370" s="139"/>
+      <c r="A370" s="146"/>
     </row>
     <row r="371">
-      <c r="A371" s="139"/>
+      <c r="A371" s="146"/>
     </row>
     <row r="372">
-      <c r="A372" s="139"/>
+      <c r="A372" s="146"/>
     </row>
     <row r="373">
-      <c r="A373" s="139"/>
+      <c r="A373" s="146"/>
     </row>
     <row r="374">
-      <c r="A374" s="139"/>
+      <c r="A374" s="146"/>
     </row>
     <row r="375">
-      <c r="A375" s="139"/>
+      <c r="A375" s="146"/>
     </row>
     <row r="376">
-      <c r="A376" s="139"/>
+      <c r="A376" s="146"/>
     </row>
     <row r="377">
-      <c r="A377" s="139"/>
+      <c r="A377" s="146"/>
     </row>
     <row r="378">
-      <c r="A378" s="139"/>
+      <c r="A378" s="146"/>
     </row>
     <row r="379">
-      <c r="A379" s="139"/>
+      <c r="A379" s="146"/>
     </row>
     <row r="380">
-      <c r="A380" s="139"/>
+      <c r="A380" s="146"/>
     </row>
     <row r="381">
-      <c r="A381" s="139"/>
+      <c r="A381" s="146"/>
     </row>
     <row r="382">
-      <c r="A382" s="139"/>
+      <c r="A382" s="146"/>
     </row>
     <row r="383">
-      <c r="A383" s="139"/>
+      <c r="A383" s="146"/>
     </row>
     <row r="384">
-      <c r="A384" s="139"/>
+      <c r="A384" s="146"/>
     </row>
     <row r="385">
-      <c r="A385" s="139"/>
+      <c r="A385" s="146"/>
     </row>
     <row r="386">
-      <c r="A386" s="139"/>
+      <c r="A386" s="146"/>
     </row>
     <row r="387">
-      <c r="A387" s="139"/>
+      <c r="A387" s="146"/>
     </row>
     <row r="388">
-      <c r="A388" s="139"/>
+      <c r="A388" s="146"/>
     </row>
     <row r="389">
-      <c r="A389" s="139"/>
+      <c r="A389" s="146"/>
     </row>
     <row r="390">
-      <c r="A390" s="139"/>
+      <c r="A390" s="146"/>
     </row>
     <row r="391">
-      <c r="A391" s="139"/>
+      <c r="A391" s="146"/>
     </row>
     <row r="392">
-      <c r="A392" s="139"/>
+      <c r="A392" s="146"/>
     </row>
     <row r="393">
-      <c r="A393" s="139"/>
+      <c r="A393" s="146"/>
     </row>
     <row r="394">
-      <c r="A394" s="139"/>
+      <c r="A394" s="146"/>
     </row>
     <row r="395">
-      <c r="A395" s="139"/>
+      <c r="A395" s="146"/>
     </row>
     <row r="396">
-      <c r="A396" s="139"/>
+      <c r="A396" s="146"/>
     </row>
     <row r="397">
-      <c r="A397" s="139"/>
+      <c r="A397" s="146"/>
     </row>
     <row r="398">
-      <c r="A398" s="139"/>
+      <c r="A398" s="146"/>
     </row>
     <row r="399">
-      <c r="A399" s="139"/>
+      <c r="A399" s="146"/>
     </row>
     <row r="400">
-      <c r="A400" s="139"/>
+      <c r="A400" s="146"/>
     </row>
     <row r="401">
-      <c r="A401" s="139"/>
+      <c r="A401" s="146"/>
     </row>
     <row r="402">
-      <c r="A402" s="139"/>
+      <c r="A402" s="146"/>
     </row>
     <row r="403">
-      <c r="A403" s="139"/>
+      <c r="A403" s="146"/>
     </row>
     <row r="404">
-      <c r="A404" s="139"/>
+      <c r="A404" s="146"/>
     </row>
     <row r="405">
-      <c r="A405" s="139"/>
+      <c r="A405" s="146"/>
     </row>
     <row r="406">
-      <c r="A406" s="139"/>
+      <c r="A406" s="146"/>
     </row>
     <row r="407">
-      <c r="A407" s="139"/>
+      <c r="A407" s="146"/>
     </row>
     <row r="408">
-      <c r="A408" s="139"/>
+      <c r="A408" s="146"/>
     </row>
     <row r="409">
-      <c r="A409" s="139"/>
+      <c r="A409" s="146"/>
     </row>
     <row r="410">
-      <c r="A410" s="139"/>
+      <c r="A410" s="146"/>
     </row>
     <row r="411">
-      <c r="A411" s="139"/>
+      <c r="A411" s="146"/>
     </row>
     <row r="412">
-      <c r="A412" s="139"/>
+      <c r="A412" s="146"/>
     </row>
     <row r="413">
-      <c r="A413" s="139"/>
+      <c r="A413" s="146"/>
     </row>
     <row r="414">
-      <c r="A414" s="139"/>
+      <c r="A414" s="146"/>
     </row>
     <row r="415">
-      <c r="A415" s="139"/>
+      <c r="A415" s="146"/>
     </row>
     <row r="416">
-      <c r="A416" s="139"/>
+      <c r="A416" s="146"/>
     </row>
     <row r="417">
-      <c r="A417" s="139"/>
+      <c r="A417" s="146"/>
     </row>
     <row r="418">
-      <c r="A418" s="139"/>
+      <c r="A418" s="146"/>
     </row>
     <row r="419">
-      <c r="A419" s="139"/>
+      <c r="A419" s="146"/>
     </row>
     <row r="420">
-      <c r="A420" s="139"/>
+      <c r="A420" s="146"/>
     </row>
     <row r="421">
-      <c r="A421" s="139"/>
+      <c r="A421" s="146"/>
     </row>
     <row r="422">
-      <c r="A422" s="139"/>
+      <c r="A422" s="146"/>
     </row>
     <row r="423">
-      <c r="A423" s="139"/>
+      <c r="A423" s="146"/>
     </row>
     <row r="424">
-      <c r="A424" s="139"/>
+      <c r="A424" s="146"/>
     </row>
     <row r="425">
-      <c r="A425" s="139"/>
+      <c r="A425" s="146"/>
     </row>
     <row r="426">
-      <c r="A426" s="139"/>
+      <c r="A426" s="146"/>
     </row>
     <row r="427">
-      <c r="A427" s="139"/>
+      <c r="A427" s="146"/>
     </row>
     <row r="428">
-      <c r="A428" s="139"/>
+      <c r="A428" s="146"/>
     </row>
     <row r="429">
-      <c r="A429" s="139"/>
+      <c r="A429" s="146"/>
     </row>
     <row r="430">
-      <c r="A430" s="139"/>
+      <c r="A430" s="146"/>
     </row>
     <row r="431">
-      <c r="A431" s="139"/>
+      <c r="A431" s="146"/>
     </row>
     <row r="432">
-      <c r="A432" s="139"/>
+      <c r="A432" s="146"/>
     </row>
     <row r="433">
-      <c r="A433" s="139"/>
+      <c r="A433" s="146"/>
     </row>
     <row r="434">
-      <c r="A434" s="139"/>
+      <c r="A434" s="146"/>
     </row>
     <row r="435">
-      <c r="A435" s="139"/>
+      <c r="A435" s="146"/>
     </row>
     <row r="436">
-      <c r="A436" s="139"/>
+      <c r="A436" s="146"/>
     </row>
     <row r="437">
-      <c r="A437" s="139"/>
+      <c r="A437" s="146"/>
     </row>
     <row r="438">
-      <c r="A438" s="139"/>
+      <c r="A438" s="146"/>
     </row>
     <row r="439">
-      <c r="A439" s="139"/>
+      <c r="A439" s="146"/>
     </row>
     <row r="440">
-      <c r="A440" s="139"/>
+      <c r="A440" s="146"/>
     </row>
     <row r="441">
-      <c r="A441" s="139"/>
+      <c r="A441" s="146"/>
     </row>
     <row r="442">
-      <c r="A442" s="139"/>
+      <c r="A442" s="146"/>
     </row>
     <row r="443">
-      <c r="A443" s="139"/>
+      <c r="A443" s="146"/>
     </row>
     <row r="444">
-      <c r="A444" s="139"/>
+      <c r="A444" s="146"/>
     </row>
     <row r="445">
-      <c r="A445" s="139"/>
+      <c r="A445" s="146"/>
     </row>
     <row r="446">
-      <c r="A446" s="139"/>
+      <c r="A446" s="146"/>
     </row>
     <row r="447">
-      <c r="A447" s="139"/>
+      <c r="A447" s="146"/>
     </row>
     <row r="448">
-      <c r="A448" s="139"/>
+      <c r="A448" s="146"/>
     </row>
     <row r="449">
-      <c r="A449" s="139"/>
+      <c r="A449" s="146"/>
     </row>
     <row r="450">
-      <c r="A450" s="139"/>
+      <c r="A450" s="146"/>
     </row>
     <row r="451">
-      <c r="A451" s="139"/>
+      <c r="A451" s="146"/>
     </row>
     <row r="452">
-      <c r="A452" s="139"/>
+      <c r="A452" s="146"/>
     </row>
     <row r="453">
-      <c r="A453" s="139"/>
+      <c r="A453" s="146"/>
     </row>
     <row r="454">
-      <c r="A454" s="139"/>
+      <c r="A454" s="146"/>
     </row>
     <row r="455">
-      <c r="A455" s="139"/>
+      <c r="A455" s="146"/>
     </row>
     <row r="456">
-      <c r="A456" s="139"/>
+      <c r="A456" s="146"/>
     </row>
     <row r="457">
-      <c r="A457" s="139"/>
+      <c r="A457" s="146"/>
     </row>
     <row r="458">
-      <c r="A458" s="139"/>
+      <c r="A458" s="146"/>
     </row>
     <row r="459">
-      <c r="A459" s="139"/>
+      <c r="A459" s="146"/>
     </row>
     <row r="460">
-      <c r="A460" s="139"/>
+      <c r="A460" s="146"/>
     </row>
     <row r="461">
-      <c r="A461" s="139"/>
+      <c r="A461" s="146"/>
     </row>
     <row r="462">
-      <c r="A462" s="139"/>
+      <c r="A462" s="146"/>
     </row>
     <row r="463">
-      <c r="A463" s="139"/>
+      <c r="A463" s="146"/>
     </row>
     <row r="464">
-      <c r="A464" s="139"/>
+      <c r="A464" s="146"/>
     </row>
     <row r="465">
-      <c r="A465" s="139"/>
+      <c r="A465" s="146"/>
     </row>
     <row r="466">
-      <c r="A466" s="139"/>
+      <c r="A466" s="146"/>
     </row>
     <row r="467">
-      <c r="A467" s="139"/>
+      <c r="A467" s="146"/>
     </row>
     <row r="468">
-      <c r="A468" s="139"/>
+      <c r="A468" s="146"/>
     </row>
     <row r="469">
-      <c r="A469" s="139"/>
+      <c r="A469" s="146"/>
     </row>
     <row r="470">
-      <c r="A470" s="139"/>
+      <c r="A470" s="146"/>
     </row>
     <row r="471">
-      <c r="A471" s="139"/>
+      <c r="A471" s="146"/>
     </row>
     <row r="472">
-      <c r="A472" s="139"/>
+      <c r="A472" s="146"/>
     </row>
     <row r="473">
-      <c r="A473" s="139"/>
+      <c r="A473" s="146"/>
     </row>
     <row r="474">
-      <c r="A474" s="139"/>
+      <c r="A474" s="146"/>
     </row>
     <row r="475">
-      <c r="A475" s="139"/>
+      <c r="A475" s="146"/>
     </row>
     <row r="476">
-      <c r="A476" s="139"/>
+      <c r="A476" s="146"/>
     </row>
     <row r="477">
-      <c r="A477" s="139"/>
+      <c r="A477" s="146"/>
     </row>
     <row r="478">
-      <c r="A478" s="139"/>
+      <c r="A478" s="146"/>
     </row>
     <row r="479">
-      <c r="A479" s="139"/>
+      <c r="A479" s="146"/>
     </row>
     <row r="480">
-      <c r="A480" s="139"/>
+      <c r="A480" s="146"/>
     </row>
     <row r="481">
-      <c r="A481" s="139"/>
+      <c r="A481" s="146"/>
     </row>
     <row r="482">
-      <c r="A482" s="139"/>
+      <c r="A482" s="146"/>
     </row>
     <row r="483">
-      <c r="A483" s="139"/>
+      <c r="A483" s="146"/>
     </row>
     <row r="484">
-      <c r="A484" s="139"/>
+      <c r="A484" s="146"/>
     </row>
     <row r="485">
-      <c r="A485" s="139"/>
+      <c r="A485" s="146"/>
     </row>
     <row r="486">
-      <c r="A486" s="139"/>
+      <c r="A486" s="146"/>
     </row>
     <row r="487">
-      <c r="A487" s="139"/>
+      <c r="A487" s="146"/>
     </row>
     <row r="488">
-      <c r="A488" s="139"/>
+      <c r="A488" s="146"/>
     </row>
     <row r="489">
-      <c r="A489" s="139"/>
+      <c r="A489" s="146"/>
     </row>
     <row r="490">
-      <c r="A490" s="139"/>
+      <c r="A490" s="146"/>
     </row>
     <row r="491">
-      <c r="A491" s="139"/>
+      <c r="A491" s="146"/>
     </row>
     <row r="492">
-      <c r="A492" s="139"/>
+      <c r="A492" s="146"/>
     </row>
     <row r="493">
-      <c r="A493" s="139"/>
+      <c r="A493" s="146"/>
     </row>
     <row r="494">
-      <c r="A494" s="139"/>
+      <c r="A494" s="146"/>
     </row>
     <row r="495">
-      <c r="A495" s="139"/>
+      <c r="A495" s="146"/>
     </row>
     <row r="496">
-      <c r="A496" s="139"/>
+      <c r="A496" s="146"/>
     </row>
     <row r="497">
-      <c r="A497" s="139"/>
+      <c r="A497" s="146"/>
     </row>
     <row r="498">
-      <c r="A498" s="139"/>
+      <c r="A498" s="146"/>
     </row>
     <row r="499">
-      <c r="A499" s="139"/>
+      <c r="A499" s="146"/>
     </row>
     <row r="500">
-      <c r="A500" s="139"/>
+      <c r="A500" s="146"/>
     </row>
     <row r="501">
-      <c r="A501" s="139"/>
+      <c r="A501" s="146"/>
     </row>
     <row r="502">
-      <c r="A502" s="139"/>
+      <c r="A502" s="146"/>
     </row>
     <row r="503">
-      <c r="A503" s="139"/>
+      <c r="A503" s="146"/>
     </row>
     <row r="504">
-      <c r="A504" s="139"/>
+      <c r="A504" s="146"/>
     </row>
     <row r="505">
-      <c r="A505" s="139"/>
+      <c r="A505" s="146"/>
     </row>
     <row r="506">
-      <c r="A506" s="139"/>
+      <c r="A506" s="146"/>
     </row>
     <row r="507">
-      <c r="A507" s="139"/>
+      <c r="A507" s="146"/>
     </row>
     <row r="508">
-      <c r="A508" s="139"/>
+      <c r="A508" s="146"/>
     </row>
     <row r="509">
-      <c r="A509" s="139"/>
+      <c r="A509" s="146"/>
     </row>
     <row r="510">
-      <c r="A510" s="139"/>
+      <c r="A510" s="146"/>
     </row>
     <row r="511">
-      <c r="A511" s="139"/>
+      <c r="A511" s="146"/>
     </row>
     <row r="512">
-      <c r="A512" s="139"/>
+      <c r="A512" s="146"/>
     </row>
     <row r="513">
-      <c r="A513" s="139"/>
+      <c r="A513" s="146"/>
     </row>
     <row r="514">
-      <c r="A514" s="139"/>
+      <c r="A514" s="146"/>
     </row>
     <row r="515">
-      <c r="A515" s="139"/>
+      <c r="A515" s="146"/>
     </row>
     <row r="516">
-      <c r="A516" s="139"/>
+      <c r="A516" s="146"/>
     </row>
     <row r="517">
-      <c r="A517" s="139"/>
+      <c r="A517" s="146"/>
     </row>
     <row r="518">
-      <c r="A518" s="139"/>
+      <c r="A518" s="146"/>
     </row>
     <row r="519">
-      <c r="A519" s="139"/>
+      <c r="A519" s="146"/>
     </row>
     <row r="520">
-      <c r="A520" s="139"/>
+      <c r="A520" s="146"/>
     </row>
     <row r="521">
-      <c r="A521" s="139"/>
+      <c r="A521" s="146"/>
     </row>
     <row r="522">
-      <c r="A522" s="139"/>
+      <c r="A522" s="146"/>
     </row>
     <row r="523">
-      <c r="A523" s="139"/>
+      <c r="A523" s="146"/>
     </row>
     <row r="524">
-      <c r="A524" s="139"/>
+      <c r="A524" s="146"/>
     </row>
     <row r="525">
-      <c r="A525" s="139"/>
+      <c r="A525" s="146"/>
     </row>
     <row r="526">
-      <c r="A526" s="139"/>
+      <c r="A526" s="146"/>
     </row>
     <row r="527">
-      <c r="A527" s="139"/>
+      <c r="A527" s="146"/>
     </row>
     <row r="528">
-      <c r="A528" s="139"/>
+      <c r="A528" s="146"/>
     </row>
     <row r="529">
-      <c r="A529" s="139"/>
+      <c r="A529" s="146"/>
     </row>
     <row r="530">
-      <c r="A530" s="139"/>
+      <c r="A530" s="146"/>
     </row>
     <row r="531">
-      <c r="A531" s="139"/>
+      <c r="A531" s="146"/>
     </row>
     <row r="532">
-      <c r="A532" s="139"/>
+      <c r="A532" s="146"/>
     </row>
     <row r="533">
-      <c r="A533" s="139"/>
+      <c r="A533" s="146"/>
     </row>
     <row r="534">
-      <c r="A534" s="139"/>
+      <c r="A534" s="146"/>
     </row>
     <row r="535">
-      <c r="A535" s="139"/>
+      <c r="A535" s="146"/>
     </row>
     <row r="536">
-      <c r="A536" s="139"/>
+      <c r="A536" s="146"/>
     </row>
     <row r="537">
-      <c r="A537" s="139"/>
+      <c r="A537" s="146"/>
     </row>
     <row r="538">
-      <c r="A538" s="139"/>
+      <c r="A538" s="146"/>
     </row>
     <row r="539">
-      <c r="A539" s="139"/>
+      <c r="A539" s="146"/>
     </row>
     <row r="540">
-      <c r="A540" s="139"/>
+      <c r="A540" s="146"/>
     </row>
     <row r="541">
-      <c r="A541" s="139"/>
+      <c r="A541" s="146"/>
     </row>
     <row r="542">
-      <c r="A542" s="139"/>
+      <c r="A542" s="146"/>
     </row>
     <row r="543">
-      <c r="A543" s="139"/>
+      <c r="A543" s="146"/>
     </row>
     <row r="544">
-      <c r="A544" s="139"/>
+      <c r="A544" s="146"/>
     </row>
     <row r="545">
-      <c r="A545" s="139"/>
+      <c r="A545" s="146"/>
     </row>
     <row r="546">
-      <c r="A546" s="139"/>
+      <c r="A546" s="146"/>
     </row>
     <row r="547">
-      <c r="A547" s="139"/>
+      <c r="A547" s="146"/>
     </row>
     <row r="548">
-      <c r="A548" s="139"/>
+      <c r="A548" s="146"/>
     </row>
     <row r="549">
-      <c r="A549" s="139"/>
+      <c r="A549" s="146"/>
     </row>
     <row r="550">
-      <c r="A550" s="139"/>
+      <c r="A550" s="146"/>
     </row>
     <row r="551">
-      <c r="A551" s="139"/>
+      <c r="A551" s="146"/>
     </row>
     <row r="552">
-      <c r="A552" s="139"/>
+      <c r="A552" s="146"/>
     </row>
     <row r="553">
-      <c r="A553" s="139"/>
+      <c r="A553" s="146"/>
     </row>
     <row r="554">
-      <c r="A554" s="139"/>
+      <c r="A554" s="146"/>
     </row>
     <row r="555">
-      <c r="A555" s="139"/>
+      <c r="A555" s="146"/>
     </row>
     <row r="556">
-      <c r="A556" s="139"/>
+      <c r="A556" s="146"/>
     </row>
     <row r="557">
-      <c r="A557" s="139"/>
+      <c r="A557" s="146"/>
     </row>
     <row r="558">
-      <c r="A558" s="139"/>
+      <c r="A558" s="146"/>
     </row>
     <row r="559">
-      <c r="A559" s="139"/>
+      <c r="A559" s="146"/>
     </row>
     <row r="560">
-      <c r="A560" s="139"/>
+      <c r="A560" s="146"/>
     </row>
     <row r="561">
-      <c r="A561" s="139"/>
+      <c r="A561" s="146"/>
     </row>
     <row r="562">
-      <c r="A562" s="139"/>
+      <c r="A562" s="146"/>
     </row>
     <row r="563">
-      <c r="A563" s="139"/>
+      <c r="A563" s="146"/>
     </row>
     <row r="564">
-      <c r="A564" s="139"/>
+      <c r="A564" s="146"/>
     </row>
     <row r="565">
-      <c r="A565" s="139"/>
+      <c r="A565" s="146"/>
     </row>
     <row r="566">
-      <c r="A566" s="139"/>
+      <c r="A566" s="146"/>
     </row>
     <row r="567">
-      <c r="A567" s="139"/>
+      <c r="A567" s="146"/>
     </row>
     <row r="568">
-      <c r="A568" s="139"/>
+      <c r="A568" s="146"/>
     </row>
     <row r="569">
-      <c r="A569" s="139"/>
+      <c r="A569" s="146"/>
     </row>
     <row r="570">
-      <c r="A570" s="139"/>
+      <c r="A570" s="146"/>
     </row>
     <row r="571">
-      <c r="A571" s="139"/>
+      <c r="A571" s="146"/>
     </row>
     <row r="572">
-      <c r="A572" s="139"/>
+      <c r="A572" s="146"/>
     </row>
     <row r="573">
-      <c r="A573" s="139"/>
+      <c r="A573" s="146"/>
     </row>
     <row r="574">
-      <c r="A574" s="139"/>
+      <c r="A574" s="146"/>
     </row>
     <row r="575">
-      <c r="A575" s="139"/>
+      <c r="A575" s="146"/>
     </row>
     <row r="576">
-      <c r="A576" s="139"/>
+      <c r="A576" s="146"/>
     </row>
     <row r="577">
-      <c r="A577" s="139"/>
+      <c r="A577" s="146"/>
     </row>
     <row r="578">
-      <c r="A578" s="139"/>
+      <c r="A578" s="146"/>
     </row>
     <row r="579">
-      <c r="A579" s="139"/>
+      <c r="A579" s="146"/>
     </row>
     <row r="580">
-      <c r="A580" s="139"/>
+      <c r="A580" s="146"/>
     </row>
     <row r="581">
-      <c r="A581" s="139"/>
+      <c r="A581" s="146"/>
     </row>
     <row r="582">
-      <c r="A582" s="139"/>
+      <c r="A582" s="146"/>
     </row>
     <row r="583">
-      <c r="A583" s="139"/>
+      <c r="A583" s="146"/>
     </row>
     <row r="584">
-      <c r="A584" s="139"/>
+      <c r="A584" s="146"/>
     </row>
     <row r="585">
-      <c r="A585" s="139"/>
+      <c r="A585" s="146"/>
     </row>
     <row r="586">
-      <c r="A586" s="139"/>
+      <c r="A586" s="146"/>
     </row>
     <row r="587">
-      <c r="A587" s="139"/>
+      <c r="A587" s="146"/>
     </row>
     <row r="588">
-      <c r="A588" s="139"/>
+      <c r="A588" s="146"/>
     </row>
     <row r="589">
-      <c r="A589" s="139"/>
+      <c r="A589" s="146"/>
     </row>
     <row r="590">
-      <c r="A590" s="139"/>
+      <c r="A590" s="146"/>
     </row>
     <row r="591">
-      <c r="A591" s="139"/>
+      <c r="A591" s="146"/>
     </row>
     <row r="592">
-      <c r="A592" s="139"/>
+      <c r="A592" s="146"/>
     </row>
     <row r="593">
-      <c r="A593" s="139"/>
+      <c r="A593" s="146"/>
     </row>
     <row r="594">
-      <c r="A594" s="139"/>
+      <c r="A594" s="146"/>
     </row>
     <row r="595">
-      <c r="A595" s="139"/>
+      <c r="A595" s="146"/>
     </row>
     <row r="596">
-      <c r="A596" s="139"/>
+      <c r="A596" s="146"/>
     </row>
     <row r="597">
-      <c r="A597" s="139"/>
+      <c r="A597" s="146"/>
     </row>
     <row r="598">
-      <c r="A598" s="139"/>
+      <c r="A598" s="146"/>
     </row>
     <row r="599">
-      <c r="A599" s="139"/>
+      <c r="A599" s="146"/>
     </row>
     <row r="600">
-      <c r="A600" s="139"/>
+      <c r="A600" s="146"/>
     </row>
     <row r="601">
-      <c r="A601" s="139"/>
+      <c r="A601" s="146"/>
     </row>
     <row r="602">
-      <c r="A602" s="139"/>
+      <c r="A602" s="146"/>
     </row>
     <row r="603">
-      <c r="A603" s="139"/>
+      <c r="A603" s="146"/>
     </row>
     <row r="604">
-      <c r="A604" s="139"/>
+      <c r="A604" s="146"/>
     </row>
     <row r="605">
-      <c r="A605" s="139"/>
+      <c r="A605" s="146"/>
     </row>
     <row r="606">
-      <c r="A606" s="139"/>
+      <c r="A606" s="146"/>
     </row>
     <row r="607">
-      <c r="A607" s="139"/>
+      <c r="A607" s="146"/>
     </row>
     <row r="608">
-      <c r="A608" s="139"/>
+      <c r="A608" s="146"/>
     </row>
     <row r="609">
-      <c r="A609" s="139"/>
+      <c r="A609" s="146"/>
     </row>
     <row r="610">
-      <c r="A610" s="139"/>
+      <c r="A610" s="146"/>
     </row>
     <row r="611">
-      <c r="A611" s="139"/>
+      <c r="A611" s="146"/>
     </row>
     <row r="612">
-      <c r="A612" s="139"/>
+      <c r="A612" s="146"/>
     </row>
     <row r="613">
-      <c r="A613" s="139"/>
+      <c r="A613" s="146"/>
     </row>
     <row r="614">
-      <c r="A614" s="139"/>
+      <c r="A614" s="146"/>
     </row>
     <row r="615">
-      <c r="A615" s="139"/>
+      <c r="A615" s="146"/>
     </row>
     <row r="616">
-      <c r="A616" s="139"/>
+      <c r="A616" s="146"/>
     </row>
     <row r="617">
-      <c r="A617" s="139"/>
+      <c r="A617" s="146"/>
     </row>
     <row r="618">
-      <c r="A618" s="139"/>
+      <c r="A618" s="146"/>
     </row>
     <row r="619">
-      <c r="A619" s="139"/>
+      <c r="A619" s="146"/>
     </row>
     <row r="620">
-      <c r="A620" s="139"/>
+      <c r="A620" s="146"/>
     </row>
     <row r="621">
-      <c r="A621" s="139"/>
+      <c r="A621" s="146"/>
     </row>
     <row r="622">
-      <c r="A622" s="139"/>
+      <c r="A622" s="146"/>
     </row>
     <row r="623">
-      <c r="A623" s="139"/>
+      <c r="A623" s="146"/>
     </row>
     <row r="624">
-      <c r="A624" s="139"/>
+      <c r="A624" s="146"/>
     </row>
     <row r="625">
-      <c r="A625" s="139"/>
+      <c r="A625" s="146"/>
     </row>
     <row r="626">
-      <c r="A626" s="139"/>
+      <c r="A626" s="146"/>
     </row>
     <row r="627">
-      <c r="A627" s="139"/>
+      <c r="A627" s="146"/>
     </row>
     <row r="628">
-      <c r="A628" s="139"/>
+      <c r="A628" s="146"/>
     </row>
     <row r="629">
-      <c r="A629" s="139"/>
+      <c r="A629" s="146"/>
     </row>
     <row r="630">
-      <c r="A630" s="139"/>
+      <c r="A630" s="146"/>
     </row>
     <row r="631">
-      <c r="A631" s="139"/>
+      <c r="A631" s="146"/>
     </row>
     <row r="632">
-      <c r="A632" s="139"/>
+      <c r="A632" s="146"/>
     </row>
     <row r="633">
-      <c r="A633" s="139"/>
+      <c r="A633" s="146"/>
     </row>
     <row r="634">
-      <c r="A634" s="139"/>
+      <c r="A634" s="146"/>
     </row>
     <row r="635">
-      <c r="A635" s="139"/>
+      <c r="A635" s="146"/>
     </row>
     <row r="636">
-      <c r="A636" s="139"/>
+      <c r="A636" s="146"/>
     </row>
     <row r="637">
-      <c r="A637" s="139"/>
+      <c r="A637" s="146"/>
     </row>
     <row r="638">
-      <c r="A638" s="139"/>
+      <c r="A638" s="146"/>
     </row>
     <row r="639">
-      <c r="A639" s="139"/>
+      <c r="A639" s="146"/>
     </row>
     <row r="640">
-      <c r="A640" s="139"/>
+      <c r="A640" s="146"/>
     </row>
     <row r="641">
-      <c r="A641" s="139"/>
+      <c r="A641" s="146"/>
     </row>
     <row r="642">
-      <c r="A642" s="139"/>
+      <c r="A642" s="146"/>
     </row>
     <row r="643">
-      <c r="A643" s="139"/>
+      <c r="A643" s="146"/>
     </row>
     <row r="644">
-      <c r="A644" s="139"/>
+      <c r="A644" s="146"/>
     </row>
     <row r="645">
-      <c r="A645" s="139"/>
+      <c r="A645" s="146"/>
     </row>
     <row r="646">
-      <c r="A646" s="139"/>
+      <c r="A646" s="146"/>
     </row>
     <row r="647">
-      <c r="A647" s="139"/>
+      <c r="A647" s="146"/>
     </row>
     <row r="648">
-      <c r="A648" s="139"/>
+      <c r="A648" s="146"/>
     </row>
     <row r="649">
-      <c r="A649" s="139"/>
+      <c r="A649" s="146"/>
     </row>
     <row r="650">
-      <c r="A650" s="139"/>
+      <c r="A650" s="146"/>
     </row>
     <row r="651">
-      <c r="A651" s="139"/>
+      <c r="A651" s="146"/>
     </row>
     <row r="652">
-      <c r="A652" s="139"/>
+      <c r="A652" s="146"/>
     </row>
     <row r="653">
-      <c r="A653" s="139"/>
+      <c r="A653" s="146"/>
     </row>
     <row r="654">
-      <c r="A654" s="139"/>
+      <c r="A654" s="146"/>
     </row>
     <row r="655">
-      <c r="A655" s="139"/>
+      <c r="A655" s="146"/>
     </row>
     <row r="656">
-      <c r="A656" s="139"/>
+      <c r="A656" s="146"/>
     </row>
     <row r="657">
-      <c r="A657" s="139"/>
+      <c r="A657" s="146"/>
     </row>
     <row r="658">
-      <c r="A658" s="139"/>
+      <c r="A658" s="146"/>
     </row>
     <row r="659">
-      <c r="A659" s="139"/>
+      <c r="A659" s="146"/>
     </row>
     <row r="660">
-      <c r="A660" s="139"/>
+      <c r="A660" s="146"/>
     </row>
     <row r="661">
-      <c r="A661" s="139"/>
+      <c r="A661" s="146"/>
     </row>
     <row r="662">
-      <c r="A662" s="139"/>
+      <c r="A662" s="146"/>
     </row>
     <row r="663">
-      <c r="A663" s="139"/>
+      <c r="A663" s="146"/>
     </row>
     <row r="664">
-      <c r="A664" s="139"/>
+      <c r="A664" s="146"/>
     </row>
     <row r="665">
-      <c r="A665" s="139"/>
+      <c r="A665" s="146"/>
     </row>
     <row r="666">
-      <c r="A666" s="139"/>
+      <c r="A666" s="146"/>
     </row>
     <row r="667">
-      <c r="A667" s="139"/>
+      <c r="A667" s="146"/>
     </row>
     <row r="668">
-      <c r="A668" s="139"/>
+      <c r="A668" s="146"/>
     </row>
     <row r="669">
-      <c r="A669" s="139"/>
+      <c r="A669" s="146"/>
     </row>
     <row r="670">
-      <c r="A670" s="139"/>
+      <c r="A670" s="146"/>
     </row>
     <row r="671">
-      <c r="A671" s="139"/>
+      <c r="A671" s="146"/>
     </row>
     <row r="672">
-      <c r="A672" s="139"/>
+      <c r="A672" s="146"/>
     </row>
     <row r="673">
-      <c r="A673" s="139"/>
+      <c r="A673" s="146"/>
     </row>
     <row r="674">
-      <c r="A674" s="139"/>
+      <c r="A674" s="146"/>
     </row>
     <row r="675">
-      <c r="A675" s="139"/>
+      <c r="A675" s="146"/>
     </row>
     <row r="676">
-      <c r="A676" s="139"/>
+      <c r="A676" s="146"/>
     </row>
     <row r="677">
-      <c r="A677" s="139"/>
+      <c r="A677" s="146"/>
     </row>
     <row r="678">
-      <c r="A678" s="139"/>
+      <c r="A678" s="146"/>
     </row>
     <row r="679">
-      <c r="A679" s="139"/>
+      <c r="A679" s="146"/>
     </row>
     <row r="680">
-      <c r="A680" s="139"/>
+      <c r="A680" s="146"/>
     </row>
     <row r="681">
-      <c r="A681" s="139"/>
+      <c r="A681" s="146"/>
     </row>
     <row r="682">
-      <c r="A682" s="139"/>
+      <c r="A682" s="146"/>
     </row>
     <row r="683">
-      <c r="A683" s="139"/>
+      <c r="A683" s="146"/>
     </row>
     <row r="684">
-      <c r="A684" s="139"/>
+      <c r="A684" s="146"/>
     </row>
     <row r="685">
-      <c r="A685" s="139"/>
+      <c r="A685" s="146"/>
     </row>
     <row r="686">
-      <c r="A686" s="139"/>
+      <c r="A686" s="146"/>
     </row>
     <row r="687">
-      <c r="A687" s="139"/>
+      <c r="A687" s="146"/>
     </row>
     <row r="688">
-      <c r="A688" s="139"/>
+      <c r="A688" s="146"/>
     </row>
     <row r="689">
-      <c r="A689" s="139"/>
+      <c r="A689" s="146"/>
     </row>
     <row r="690">
-      <c r="A690" s="139"/>
+      <c r="A690" s="146"/>
     </row>
     <row r="691">
-      <c r="A691" s="139"/>
+      <c r="A691" s="146"/>
     </row>
     <row r="692">
-      <c r="A692" s="139"/>
+      <c r="A692" s="146"/>
     </row>
     <row r="693">
-      <c r="A693" s="139"/>
+      <c r="A693" s="146"/>
     </row>
     <row r="694">
-      <c r="A694" s="139"/>
+      <c r="A694" s="146"/>
     </row>
     <row r="695">
-      <c r="A695" s="139"/>
+      <c r="A695" s="146"/>
     </row>
     <row r="696">
-      <c r="A696" s="139"/>
+      <c r="A696" s="146"/>
     </row>
     <row r="697">
-      <c r="A697" s="139"/>
+      <c r="A697" s="146"/>
     </row>
     <row r="698">
-      <c r="A698" s="139"/>
+      <c r="A698" s="146"/>
     </row>
     <row r="699">
-      <c r="A699" s="139"/>
+      <c r="A699" s="146"/>
     </row>
     <row r="700">
-      <c r="A700" s="139"/>
+      <c r="A700" s="146"/>
     </row>
     <row r="701">
-      <c r="A701" s="139"/>
+      <c r="A701" s="146"/>
     </row>
     <row r="702">
-      <c r="A702" s="139"/>
+      <c r="A702" s="146"/>
     </row>
     <row r="703">
-      <c r="A703" s="139"/>
+      <c r="A703" s="146"/>
     </row>
     <row r="704">
-      <c r="A704" s="139"/>
+      <c r="A704" s="146"/>
     </row>
     <row r="705">
-      <c r="A705" s="139"/>
+      <c r="A705" s="146"/>
     </row>
     <row r="706">
-      <c r="A706" s="139"/>
+      <c r="A706" s="146"/>
     </row>
     <row r="707">
-      <c r="A707" s="139"/>
+      <c r="A707" s="146"/>
     </row>
     <row r="708">
-      <c r="A708" s="139"/>
+      <c r="A708" s="146"/>
     </row>
     <row r="709">
-      <c r="A709" s="139"/>
+      <c r="A709" s="146"/>
     </row>
     <row r="710">
-      <c r="A710" s="139"/>
+      <c r="A710" s="146"/>
     </row>
     <row r="711">
-      <c r="A711" s="139"/>
+      <c r="A711" s="146"/>
     </row>
     <row r="712">
-      <c r="A712" s="139"/>
+      <c r="A712" s="146"/>
     </row>
     <row r="713">
-      <c r="A713" s="139"/>
+      <c r="A713" s="146"/>
     </row>
     <row r="714">
-      <c r="A714" s="139"/>
+      <c r="A714" s="146"/>
     </row>
     <row r="715">
-      <c r="A715" s="139"/>
+      <c r="A715" s="146"/>
     </row>
     <row r="716">
-      <c r="A716" s="139"/>
+      <c r="A716" s="146"/>
     </row>
     <row r="717">
-      <c r="A717" s="139"/>
+      <c r="A717" s="146"/>
     </row>
     <row r="718">
-      <c r="A718" s="139"/>
+      <c r="A718" s="146"/>
     </row>
     <row r="719">
-      <c r="A719" s="139"/>
+      <c r="A719" s="146"/>
     </row>
     <row r="720">
-      <c r="A720" s="139"/>
+      <c r="A720" s="146"/>
     </row>
     <row r="721">
-      <c r="A721" s="139"/>
+      <c r="A721" s="146"/>
     </row>
     <row r="722">
-      <c r="A722" s="139"/>
+      <c r="A722" s="146"/>
     </row>
     <row r="723">
-      <c r="A723" s="139"/>
+      <c r="A723" s="146"/>
     </row>
     <row r="724">
-      <c r="A724" s="139"/>
+      <c r="A724" s="146"/>
     </row>
     <row r="725">
-      <c r="A725" s="139"/>
+      <c r="A725" s="146"/>
     </row>
     <row r="726">
-      <c r="A726" s="139"/>
+      <c r="A726" s="146"/>
     </row>
     <row r="727">
-      <c r="A727" s="139"/>
+      <c r="A727" s="146"/>
     </row>
     <row r="728">
-      <c r="A728" s="139"/>
+      <c r="A728" s="146"/>
     </row>
     <row r="729">
-      <c r="A729" s="139"/>
+      <c r="A729" s="146"/>
     </row>
     <row r="730">
-      <c r="A730" s="139"/>
+      <c r="A730" s="146"/>
     </row>
     <row r="731">
-      <c r="A731" s="139"/>
+      <c r="A731" s="146"/>
     </row>
     <row r="732">
-      <c r="A732" s="139"/>
+      <c r="A732" s="146"/>
     </row>
     <row r="733">
-      <c r="A733" s="139"/>
+      <c r="A733" s="146"/>
     </row>
     <row r="734">
-      <c r="A734" s="139"/>
+      <c r="A734" s="146"/>
     </row>
     <row r="735">
-      <c r="A735" s="139"/>
+      <c r="A735" s="146"/>
     </row>
     <row r="736">
-      <c r="A736" s="139"/>
+      <c r="A736" s="146"/>
     </row>
     <row r="737">
-      <c r="A737" s="139"/>
+      <c r="A737" s="146"/>
     </row>
     <row r="738">
-      <c r="A738" s="139"/>
+      <c r="A738" s="146"/>
     </row>
     <row r="739">
-      <c r="A739" s="139"/>
+      <c r="A739" s="146"/>
     </row>
     <row r="740">
-      <c r="A740" s="139"/>
+      <c r="A740" s="146"/>
     </row>
     <row r="741">
-      <c r="A741" s="139"/>
+      <c r="A741" s="146"/>
     </row>
     <row r="742">
-      <c r="A742" s="139"/>
+      <c r="A742" s="146"/>
     </row>
     <row r="743">
-      <c r="A743" s="139"/>
+      <c r="A743" s="146"/>
     </row>
     <row r="744">
-      <c r="A744" s="139"/>
+      <c r="A744" s="146"/>
     </row>
     <row r="745">
-      <c r="A745" s="139"/>
+      <c r="A745" s="146"/>
     </row>
     <row r="746">
-      <c r="A746" s="139"/>
+      <c r="A746" s="146"/>
     </row>
     <row r="747">
-      <c r="A747" s="139"/>
+      <c r="A747" s="146"/>
     </row>
     <row r="748">
-      <c r="A748" s="139"/>
+      <c r="A748" s="146"/>
     </row>
     <row r="749">
-      <c r="A749" s="139"/>
+      <c r="A749" s="146"/>
     </row>
     <row r="750">
-      <c r="A750" s="139"/>
+      <c r="A750" s="146"/>
     </row>
     <row r="751">
-      <c r="A751" s="139"/>
+      <c r="A751" s="146"/>
     </row>
     <row r="752">
-      <c r="A752" s="139"/>
+      <c r="A752" s="146"/>
     </row>
     <row r="753">
-      <c r="A753" s="139"/>
+      <c r="A753" s="146"/>
     </row>
     <row r="754">
-      <c r="A754" s="139"/>
+      <c r="A754" s="146"/>
     </row>
     <row r="755">
-      <c r="A755" s="139"/>
+      <c r="A755" s="146"/>
     </row>
     <row r="756">
-      <c r="A756" s="139"/>
+      <c r="A756" s="146"/>
     </row>
     <row r="757">
-      <c r="A757" s="139"/>
+      <c r="A757" s="146"/>
     </row>
     <row r="758">
-      <c r="A758" s="139"/>
+      <c r="A758" s="146"/>
     </row>
     <row r="759">
-      <c r="A759" s="139"/>
+      <c r="A759" s="146"/>
     </row>
     <row r="760">
-      <c r="A760" s="139"/>
+      <c r="A760" s="146"/>
     </row>
     <row r="761">
-      <c r="A761" s="139"/>
+      <c r="A761" s="146"/>
     </row>
     <row r="762">
-      <c r="A762" s="139"/>
+      <c r="A762" s="146"/>
     </row>
     <row r="763">
-      <c r="A763" s="139"/>
+      <c r="A763" s="146"/>
     </row>
     <row r="764">
-      <c r="A764" s="139"/>
+      <c r="A764" s="146"/>
     </row>
     <row r="765">
-      <c r="A765" s="139"/>
+      <c r="A765" s="146"/>
     </row>
     <row r="766">
-      <c r="A766" s="139"/>
+      <c r="A766" s="146"/>
     </row>
     <row r="767">
-      <c r="A767" s="139"/>
+      <c r="A767" s="146"/>
     </row>
     <row r="768">
-      <c r="A768" s="139"/>
+      <c r="A768" s="146"/>
     </row>
     <row r="769">
-      <c r="A769" s="139"/>
+      <c r="A769" s="146"/>
     </row>
     <row r="770">
-      <c r="A770" s="139"/>
+      <c r="A770" s="146"/>
     </row>
     <row r="771">
-      <c r="A771" s="139"/>
+      <c r="A771" s="146"/>
     </row>
     <row r="772">
-      <c r="A772" s="139"/>
+      <c r="A772" s="146"/>
     </row>
     <row r="773">
-      <c r="A773" s="139"/>
+      <c r="A773" s="146"/>
     </row>
     <row r="774">
-      <c r="A774" s="139"/>
+      <c r="A774" s="146"/>
     </row>
     <row r="775">
-      <c r="A775" s="139"/>
+      <c r="A775" s="146"/>
     </row>
     <row r="776">
-      <c r="A776" s="139"/>
+      <c r="A776" s="146"/>
     </row>
     <row r="777">
-      <c r="A777" s="139"/>
+      <c r="A777" s="146"/>
     </row>
     <row r="778">
-      <c r="A778" s="139"/>
+      <c r="A778" s="146"/>
     </row>
     <row r="779">
-      <c r="A779" s="139"/>
+      <c r="A779" s="146"/>
     </row>
     <row r="780">
-      <c r="A780" s="139"/>
+      <c r="A780" s="146"/>
     </row>
     <row r="781">
-      <c r="A781" s="139"/>
+      <c r="A781" s="146"/>
     </row>
     <row r="782">
-      <c r="A782" s="139"/>
+      <c r="A782" s="146"/>
     </row>
     <row r="783">
-      <c r="A783" s="139"/>
+      <c r="A783" s="146"/>
     </row>
     <row r="784">
-      <c r="A784" s="139"/>
+      <c r="A784" s="146"/>
     </row>
     <row r="785">
-      <c r="A785" s="139"/>
+      <c r="A785" s="146"/>
     </row>
     <row r="786">
-      <c r="A786" s="139"/>
+      <c r="A786" s="146"/>
     </row>
     <row r="787">
-      <c r="A787" s="139"/>
+      <c r="A787" s="146"/>
     </row>
     <row r="788">
-      <c r="A788" s="139"/>
+      <c r="A788" s="146"/>
     </row>
     <row r="789">
-      <c r="A789" s="139"/>
+      <c r="A789" s="146"/>
     </row>
     <row r="790">
-      <c r="A790" s="139"/>
+      <c r="A790" s="146"/>
     </row>
     <row r="791">
-      <c r="A791" s="139"/>
+      <c r="A791" s="146"/>
     </row>
     <row r="792">
-      <c r="A792" s="139"/>
+      <c r="A792" s="146"/>
     </row>
     <row r="793">
-      <c r="A793" s="139"/>
+      <c r="A793" s="146"/>
     </row>
     <row r="794">
-      <c r="A794" s="139"/>
+      <c r="A794" s="146"/>
     </row>
     <row r="795">
-      <c r="A795" s="139"/>
+      <c r="A795" s="146"/>
     </row>
     <row r="796">
-      <c r="A796" s="139"/>
+      <c r="A796" s="146"/>
     </row>
     <row r="797">
-      <c r="A797" s="139"/>
+      <c r="A797" s="146"/>
     </row>
     <row r="798">
-      <c r="A798" s="139"/>
+      <c r="A798" s="146"/>
     </row>
     <row r="799">
-      <c r="A799" s="139"/>
+      <c r="A799" s="146"/>
     </row>
     <row r="800">
-      <c r="A800" s="139"/>
+      <c r="A800" s="146"/>
     </row>
     <row r="801">
-      <c r="A801" s="139"/>
+      <c r="A801" s="146"/>
     </row>
     <row r="802">
-      <c r="A802" s="139"/>
+      <c r="A802" s="146"/>
     </row>
     <row r="803">
-      <c r="A803" s="139"/>
+      <c r="A803" s="146"/>
     </row>
     <row r="804">
-      <c r="A804" s="139"/>
+      <c r="A804" s="146"/>
     </row>
     <row r="805">
-      <c r="A805" s="139"/>
+      <c r="A805" s="146"/>
     </row>
     <row r="806">
-      <c r="A806" s="139"/>
+      <c r="A806" s="146"/>
     </row>
     <row r="807">
-      <c r="A807" s="139"/>
+      <c r="A807" s="146"/>
     </row>
     <row r="808">
-      <c r="A808" s="139"/>
+      <c r="A808" s="146"/>
     </row>
     <row r="809">
-      <c r="A809" s="139"/>
+      <c r="A809" s="146"/>
     </row>
     <row r="810">
-      <c r="A810" s="139"/>
+      <c r="A810" s="146"/>
     </row>
     <row r="811">
-      <c r="A811" s="139"/>
+      <c r="A811" s="146"/>
     </row>
     <row r="812">
-      <c r="A812" s="139"/>
+      <c r="A812" s="146"/>
     </row>
     <row r="813">
-      <c r="A813" s="139"/>
+      <c r="A813" s="146"/>
     </row>
     <row r="814">
-      <c r="A814" s="139"/>
+      <c r="A814" s="146"/>
     </row>
     <row r="815">
-      <c r="A815" s="139"/>
+      <c r="A815" s="146"/>
     </row>
     <row r="816">
-      <c r="A816" s="139"/>
+      <c r="A816" s="146"/>
     </row>
     <row r="817">
-      <c r="A817" s="139"/>
+      <c r="A817" s="146"/>
     </row>
     <row r="818">
-      <c r="A818" s="139"/>
+      <c r="A818" s="146"/>
     </row>
     <row r="819">
-      <c r="A819" s="139"/>
+      <c r="A819" s="146"/>
     </row>
     <row r="820">
-      <c r="A820" s="139"/>
+      <c r="A820" s="146"/>
     </row>
     <row r="821">
-      <c r="A821" s="139"/>
+      <c r="A821" s="146"/>
     </row>
     <row r="822">
-      <c r="A822" s="139"/>
+      <c r="A822" s="146"/>
     </row>
     <row r="823">
-      <c r="A823" s="139"/>
+      <c r="A823" s="146"/>
     </row>
     <row r="824">
-      <c r="A824" s="139"/>
+      <c r="A824" s="146"/>
     </row>
     <row r="825">
-      <c r="A825" s="139"/>
+      <c r="A825" s="146"/>
     </row>
     <row r="826">
-      <c r="A826" s="139"/>
+      <c r="A826" s="146"/>
     </row>
     <row r="827">
-      <c r="A827" s="139"/>
+      <c r="A827" s="146"/>
     </row>
     <row r="828">
-      <c r="A828" s="139"/>
+      <c r="A828" s="146"/>
     </row>
     <row r="829">
-      <c r="A829" s="139"/>
+      <c r="A829" s="146"/>
     </row>
     <row r="830">
-      <c r="A830" s="139"/>
+      <c r="A830" s="146"/>
     </row>
     <row r="831">
-      <c r="A831" s="139"/>
+      <c r="A831" s="146"/>
     </row>
     <row r="832">
-      <c r="A832" s="139"/>
+      <c r="A832" s="146"/>
     </row>
     <row r="833">
-      <c r="A833" s="139"/>
+      <c r="A833" s="146"/>
     </row>
     <row r="834">
-      <c r="A834" s="139"/>
+      <c r="A834" s="146"/>
     </row>
     <row r="835">
-      <c r="A835" s="139"/>
+      <c r="A835" s="146"/>
     </row>
     <row r="836">
-      <c r="A836" s="139"/>
+      <c r="A836" s="146"/>
     </row>
     <row r="837">
-      <c r="A837" s="139"/>
+      <c r="A837" s="146"/>
     </row>
     <row r="838">
-      <c r="A838" s="139"/>
+      <c r="A838" s="146"/>
     </row>
     <row r="839">
-      <c r="A839" s="139"/>
+      <c r="A839" s="146"/>
     </row>
     <row r="840">
-      <c r="A840" s="139"/>
+      <c r="A840" s="146"/>
     </row>
     <row r="841">
-      <c r="A841" s="139"/>
+      <c r="A841" s="146"/>
     </row>
     <row r="842">
-      <c r="A842" s="139"/>
+      <c r="A842" s="146"/>
     </row>
     <row r="843">
-      <c r="A843" s="139"/>
+      <c r="A843" s="146"/>
     </row>
     <row r="844">
-      <c r="A844" s="139"/>
+      <c r="A844" s="146"/>
     </row>
     <row r="845">
-      <c r="A845" s="139"/>
+      <c r="A845" s="146"/>
     </row>
     <row r="846">
-      <c r="A846" s="139"/>
+      <c r="A846" s="146"/>
     </row>
     <row r="847">
-      <c r="A847" s="139"/>
+      <c r="A847" s="146"/>
     </row>
     <row r="848">
-      <c r="A848" s="139"/>
+      <c r="A848" s="146"/>
     </row>
     <row r="849">
-      <c r="A849" s="139"/>
+      <c r="A849" s="146"/>
     </row>
     <row r="850">
-      <c r="A850" s="139"/>
+      <c r="A850" s="146"/>
     </row>
     <row r="851">
-      <c r="A851" s="139"/>
+      <c r="A851" s="146"/>
     </row>
     <row r="852">
-      <c r="A852" s="139"/>
+      <c r="A852" s="146"/>
     </row>
     <row r="853">
-      <c r="A853" s="139"/>
+      <c r="A853" s="146"/>
     </row>
     <row r="854">
-      <c r="A854" s="139"/>
+      <c r="A854" s="146"/>
     </row>
     <row r="855">
-      <c r="A855" s="139"/>
+      <c r="A855" s="146"/>
     </row>
     <row r="856">
-      <c r="A856" s="139"/>
+      <c r="A856" s="146"/>
     </row>
     <row r="857">
-      <c r="A857" s="139"/>
+      <c r="A857" s="146"/>
     </row>
     <row r="858">
-      <c r="A858" s="139"/>
+      <c r="A858" s="146"/>
     </row>
     <row r="859">
-      <c r="A859" s="139"/>
+      <c r="A859" s="146"/>
     </row>
     <row r="860">
-      <c r="A860" s="139"/>
+      <c r="A860" s="146"/>
     </row>
     <row r="861">
-      <c r="A861" s="139"/>
+      <c r="A861" s="146"/>
     </row>
     <row r="862">
-      <c r="A862" s="139"/>
+      <c r="A862" s="146"/>
     </row>
     <row r="863">
-      <c r="A863" s="139"/>
+      <c r="A863" s="146"/>
     </row>
     <row r="864">
-      <c r="A864" s="139"/>
+      <c r="A864" s="146"/>
     </row>
     <row r="865">
-      <c r="A865" s="139"/>
+      <c r="A865" s="146"/>
     </row>
     <row r="866">
-      <c r="A866" s="139"/>
+      <c r="A866" s="146"/>
     </row>
     <row r="867">
-      <c r="A867" s="139"/>
+      <c r="A867" s="146"/>
     </row>
     <row r="868">
-      <c r="A868" s="139"/>
+      <c r="A868" s="146"/>
     </row>
     <row r="869">
-      <c r="A869" s="139"/>
+      <c r="A869" s="146"/>
     </row>
     <row r="870">
-      <c r="A870" s="139"/>
+      <c r="A870" s="146"/>
     </row>
     <row r="871">
-      <c r="A871" s="139"/>
+      <c r="A871" s="146"/>
     </row>
     <row r="872">
-      <c r="A872" s="139"/>
+      <c r="A872" s="146"/>
     </row>
     <row r="873">
-      <c r="A873" s="139"/>
+      <c r="A873" s="146"/>
     </row>
     <row r="874">
-      <c r="A874" s="139"/>
+      <c r="A874" s="146"/>
     </row>
     <row r="875">
-      <c r="A875" s="139"/>
+      <c r="A875" s="146"/>
     </row>
     <row r="876">
-      <c r="A876" s="139"/>
+      <c r="A876" s="146"/>
     </row>
     <row r="877">
-      <c r="A877" s="139"/>
+      <c r="A877" s="146"/>
     </row>
     <row r="878">
-      <c r="A878" s="139"/>
+      <c r="A878" s="146"/>
     </row>
     <row r="879">
-      <c r="A879" s="139"/>
+      <c r="A879" s="146"/>
     </row>
     <row r="880">
-      <c r="A880" s="139"/>
+      <c r="A880" s="146"/>
     </row>
     <row r="881">
-      <c r="A881" s="139"/>
+      <c r="A881" s="146"/>
     </row>
     <row r="882">
-      <c r="A882" s="139"/>
+      <c r="A882" s="146"/>
     </row>
     <row r="883">
-      <c r="A883" s="139"/>
+      <c r="A883" s="146"/>
     </row>
     <row r="884">
-      <c r="A884" s="139"/>
+      <c r="A884" s="146"/>
     </row>
     <row r="885">
-      <c r="A885" s="139"/>
+      <c r="A885" s="146"/>
     </row>
     <row r="886">
-      <c r="A886" s="139"/>
+      <c r="A886" s="146"/>
     </row>
     <row r="887">
-      <c r="A887" s="139"/>
+      <c r="A887" s="146"/>
     </row>
     <row r="888">
-      <c r="A888" s="139"/>
+      <c r="A888" s="146"/>
     </row>
     <row r="889">
-      <c r="A889" s="139"/>
+      <c r="A889" s="146"/>
     </row>
     <row r="890">
-      <c r="A890" s="139"/>
+      <c r="A890" s="146"/>
     </row>
     <row r="891">
-      <c r="A891" s="139"/>
+      <c r="A891" s="146"/>
     </row>
     <row r="892">
-      <c r="A892" s="139"/>
+      <c r="A892" s="146"/>
     </row>
     <row r="893">
-      <c r="A893" s="139"/>
+      <c r="A893" s="146"/>
     </row>
     <row r="894">
-      <c r="A894" s="139"/>
+      <c r="A894" s="146"/>
     </row>
     <row r="895">
-      <c r="A895" s="139"/>
+      <c r="A895" s="146"/>
     </row>
     <row r="896">
-      <c r="A896" s="139"/>
+      <c r="A896" s="146"/>
     </row>
     <row r="897">
-      <c r="A897" s="139"/>
+      <c r="A897" s="146"/>
     </row>
     <row r="898">
-      <c r="A898" s="139"/>
+      <c r="A898" s="146"/>
     </row>
     <row r="899">
-      <c r="A899" s="139"/>
+      <c r="A899" s="146"/>
     </row>
     <row r="900">
-      <c r="A900" s="139"/>
+      <c r="A900" s="146"/>
     </row>
     <row r="901">
-      <c r="A901" s="139"/>
+      <c r="A901" s="146"/>
     </row>
     <row r="902">
-      <c r="A902" s="139"/>
+      <c r="A902" s="146"/>
     </row>
     <row r="903">
-      <c r="A903" s="139"/>
+      <c r="A903" s="146"/>
     </row>
     <row r="904">
-      <c r="A904" s="139"/>
+      <c r="A904" s="146"/>
     </row>
     <row r="905">
-      <c r="A905" s="139"/>
+      <c r="A905" s="146"/>
     </row>
     <row r="906">
-      <c r="A906" s="139"/>
+      <c r="A906" s="146"/>
     </row>
     <row r="907">
-      <c r="A907" s="139"/>
+      <c r="A907" s="146"/>
     </row>
     <row r="908">
-      <c r="A908" s="139"/>
+      <c r="A908" s="146"/>
     </row>
     <row r="909">
-      <c r="A909" s="139"/>
+      <c r="A909" s="146"/>
     </row>
     <row r="910">
-      <c r="A910" s="139"/>
+      <c r="A910" s="146"/>
     </row>
     <row r="911">
-      <c r="A911" s="139"/>
+      <c r="A911" s="146"/>
     </row>
     <row r="912">
-      <c r="A912" s="139"/>
+      <c r="A912" s="146"/>
     </row>
     <row r="913">
-      <c r="A913" s="139"/>
+      <c r="A913" s="146"/>
     </row>
     <row r="914">
-      <c r="A914" s="139"/>
+      <c r="A914" s="146"/>
     </row>
     <row r="915">
-      <c r="A915" s="139"/>
+      <c r="A915" s="146"/>
     </row>
     <row r="916">
-      <c r="A916" s="139"/>
+      <c r="A916" s="146"/>
     </row>
     <row r="917">
-      <c r="A917" s="139"/>
+      <c r="A917" s="146"/>
     </row>
     <row r="918">
-      <c r="A918" s="139"/>
+      <c r="A918" s="146"/>
     </row>
     <row r="919">
-      <c r="A919" s="139"/>
+      <c r="A919" s="146"/>
     </row>
     <row r="920">
-      <c r="A920" s="139"/>
+      <c r="A920" s="146"/>
     </row>
     <row r="921">
-      <c r="A921" s="139"/>
+      <c r="A921" s="146"/>
     </row>
     <row r="922">
-      <c r="A922" s="139"/>
+      <c r="A922" s="146"/>
     </row>
     <row r="923">
-      <c r="A923" s="139"/>
+      <c r="A923" s="146"/>
     </row>
     <row r="924">
-      <c r="A924" s="139"/>
+      <c r="A924" s="146"/>
     </row>
     <row r="925">
-      <c r="A925" s="139"/>
+      <c r="A925" s="146"/>
     </row>
     <row r="926">
-      <c r="A926" s="139"/>
+      <c r="A926" s="146"/>
     </row>
     <row r="927">
-      <c r="A927" s="139"/>
+      <c r="A927" s="146"/>
     </row>
     <row r="928">
-      <c r="A928" s="139"/>
+      <c r="A928" s="146"/>
     </row>
     <row r="929">
-      <c r="A929" s="139"/>
+      <c r="A929" s="146"/>
     </row>
     <row r="930">
-      <c r="A930" s="139"/>
+      <c r="A930" s="146"/>
     </row>
     <row r="931">
-      <c r="A931" s="139"/>
+      <c r="A931" s="146"/>
     </row>
     <row r="932">
-      <c r="A932" s="139"/>
+      <c r="A932" s="146"/>
     </row>
     <row r="933">
-      <c r="A933" s="139"/>
+      <c r="A933" s="146"/>
     </row>
     <row r="934">
-      <c r="A934" s="139"/>
+      <c r="A934" s="146"/>
     </row>
     <row r="935">
-      <c r="A935" s="139"/>
+      <c r="A935" s="146"/>
     </row>
     <row r="936">
-      <c r="A936" s="139"/>
+      <c r="A936" s="146"/>
     </row>
     <row r="937">
-      <c r="A937" s="139"/>
+      <c r="A937" s="146"/>
     </row>
     <row r="938">
-      <c r="A938" s="139"/>
+      <c r="A938" s="146"/>
     </row>
     <row r="939">
-      <c r="A939" s="139"/>
+      <c r="A939" s="146"/>
     </row>
     <row r="940">
-      <c r="A940" s="139"/>
+      <c r="A940" s="146"/>
     </row>
     <row r="941">
-      <c r="A941" s="139"/>
+      <c r="A941" s="146"/>
     </row>
     <row r="942">
-      <c r="A942" s="139"/>
+      <c r="A942" s="146"/>
     </row>
     <row r="943">
-      <c r="A943" s="139"/>
+      <c r="A943" s="146"/>
     </row>
     <row r="944">
-      <c r="A944" s="139"/>
+      <c r="A944" s="146"/>
     </row>
     <row r="945">
-      <c r="A945" s="139"/>
+      <c r="A945" s="146"/>
     </row>
     <row r="946">
-      <c r="A946" s="139"/>
+      <c r="A946" s="146"/>
     </row>
     <row r="947">
-      <c r="A947" s="139"/>
+      <c r="A947" s="146"/>
     </row>
     <row r="948">
-      <c r="A948" s="139"/>
+      <c r="A948" s="146"/>
     </row>
     <row r="949">
-      <c r="A949" s="139"/>
+      <c r="A949" s="146"/>
     </row>
     <row r="950">
-      <c r="A950" s="139"/>
+      <c r="A950" s="146"/>
     </row>
     <row r="951">
-      <c r="A951" s="139"/>
+      <c r="A951" s="146"/>
     </row>
     <row r="952">
-      <c r="A952" s="139"/>
+      <c r="A952" s="146"/>
     </row>
     <row r="953">
-      <c r="A953" s="139"/>
+      <c r="A953" s="146"/>
     </row>
     <row r="954">
-      <c r="A954" s="139"/>
+      <c r="A954" s="146"/>
     </row>
     <row r="955">
-      <c r="A955" s="139"/>
+      <c r="A955" s="146"/>
     </row>
     <row r="956">
-      <c r="A956" s="139"/>
+      <c r="A956" s="146"/>
     </row>
     <row r="957">
-      <c r="A957" s="139"/>
+      <c r="A957" s="146"/>
     </row>
     <row r="958">
-      <c r="A958" s="139"/>
+      <c r="A958" s="146"/>
     </row>
     <row r="959">
-      <c r="A959" s="139"/>
+      <c r="A959" s="146"/>
     </row>
     <row r="960">
-      <c r="A960" s="139"/>
+      <c r="A960" s="146"/>
     </row>
     <row r="961">
-      <c r="A961" s="139"/>
+      <c r="A961" s="146"/>
     </row>
     <row r="962">
-      <c r="A962" s="139"/>
+      <c r="A962" s="146"/>
     </row>
     <row r="963">
-      <c r="A963" s="139"/>
+      <c r="A963" s="146"/>
     </row>
     <row r="964">
-      <c r="A964" s="139"/>
+      <c r="A964" s="146"/>
     </row>
     <row r="965">
-      <c r="A965" s="139"/>
+      <c r="A965" s="146"/>
     </row>
     <row r="966">
-      <c r="A966" s="139"/>
+      <c r="A966" s="146"/>
     </row>
     <row r="967">
-      <c r="A967" s="139"/>
+      <c r="A967" s="146"/>
     </row>
     <row r="968">
-      <c r="A968" s="139"/>
+      <c r="A968" s="146"/>
     </row>
     <row r="969">
-      <c r="A969" s="139"/>
+      <c r="A969" s="146"/>
     </row>
     <row r="970">
-      <c r="A970" s="139"/>
+      <c r="A970" s="146"/>
     </row>
     <row r="971">
-      <c r="A971" s="139"/>
+      <c r="A971" s="146"/>
     </row>
     <row r="972">
-      <c r="A972" s="139"/>
+      <c r="A972" s="146"/>
     </row>
     <row r="973">
-      <c r="A973" s="139"/>
+      <c r="A973" s="146"/>
     </row>
     <row r="974">
-      <c r="A974" s="139"/>
+      <c r="A974" s="146"/>
     </row>
     <row r="975">
-      <c r="A975" s="139"/>
+      <c r="A975" s="146"/>
     </row>
     <row r="976">
-      <c r="A976" s="139"/>
+      <c r="A976" s="146"/>
     </row>
     <row r="977">
-      <c r="A977" s="139"/>
+      <c r="A977" s="146"/>
     </row>
     <row r="978">
-      <c r="A978" s="139"/>
+      <c r="A978" s="146"/>
     </row>
     <row r="979">
-      <c r="A979" s="139"/>
+      <c r="A979" s="146"/>
     </row>
     <row r="980">
-      <c r="A980" s="139"/>
+      <c r="A980" s="146"/>
     </row>
     <row r="981">
-      <c r="A981" s="139"/>
+      <c r="A981" s="146"/>
     </row>
     <row r="982">
-      <c r="A982" s="139"/>
+      <c r="A982" s="146"/>
     </row>
     <row r="983">
-      <c r="A983" s="139"/>
+      <c r="A983" s="146"/>
     </row>
     <row r="984">
-      <c r="A984" s="139"/>
+      <c r="A984" s="146"/>
     </row>
     <row r="985">
-      <c r="A985" s="139"/>
+      <c r="A985" s="146"/>
     </row>
     <row r="986">
-      <c r="A986" s="139"/>
+      <c r="A986" s="146"/>
     </row>
     <row r="987">
-      <c r="A987" s="139"/>
+      <c r="A987" s="146"/>
     </row>
     <row r="988">
-      <c r="A988" s="139"/>
+      <c r="A988" s="146"/>
     </row>
     <row r="989">
-      <c r="A989" s="139"/>
+      <c r="A989" s="146"/>
     </row>
     <row r="990">
-      <c r="A990" s="139"/>
+      <c r="A990" s="146"/>
     </row>
     <row r="991">
-      <c r="A991" s="139"/>
+      <c r="A991" s="146"/>
     </row>
     <row r="992">
-      <c r="A992" s="139"/>
+      <c r="A992" s="146"/>
     </row>
     <row r="993">
-      <c r="A993" s="139"/>
+      <c r="A993" s="146"/>
     </row>
     <row r="994">
-      <c r="A994" s="139"/>
+      <c r="A994" s="146"/>
     </row>
     <row r="995">
-      <c r="A995" s="139"/>
+      <c r="A995" s="146"/>
     </row>
     <row r="996">
-      <c r="A996" s="139"/>
+      <c r="A996" s="146"/>
     </row>
     <row r="997">
-      <c r="A997" s="139"/>
+      <c r="A997" s="146"/>
     </row>
     <row r="998">
-      <c r="A998" s="139"/>
+      <c r="A998" s="146"/>
     </row>
     <row r="999">
-      <c r="A999" s="139"/>
+      <c r="A999" s="146"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="139"/>
+      <c r="A1000" s="146"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5991,37 +6103,37 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="8" t="s">
@@ -8418,7 +8530,7 @@
       <c r="F1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8438,7 +8550,7 @@
       <c r="E2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
@@ -8457,7 +8569,7 @@
       <c r="E3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
@@ -8476,7 +8588,7 @@
       <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5">
@@ -8495,7 +8607,7 @@
       <c r="E5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
@@ -8514,7 +8626,7 @@
       <c r="E6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
@@ -8533,7 +8645,7 @@
       <c r="E7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
@@ -8552,7 +8664,7 @@
       <c r="E8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
@@ -8560,37 +8672,37 @@
         <v>369</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>157</v>
+        <v>370</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="15"/>
     </row>
   </sheetData>
@@ -8618,35 +8730,35 @@
       <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D2" s="15"/>
       <c r="F2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D3" s="15"/>
       <c r="F3" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -8690,47 +8802,47 @@
       <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1" s="55" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>387</v>
-      </c>
-      <c r="J1" s="57" t="s">
         <v>388</v>
       </c>
+      <c r="J1" s="58" t="s">
+        <v>389</v>
+      </c>
       <c r="K1" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="L1" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>340</v>
       </c>
       <c r="N1" s="55" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
@@ -8738,26 +8850,26 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="59"/>
+        <v>395</v>
+      </c>
+      <c r="C2" s="60"/>
       <c r="D2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="12"/>
       <c r="H2" s="11"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="60"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="13"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P2" s="22" t="b">
         <v>1</v>
@@ -8768,7 +8880,7 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>94</v>
@@ -8790,7 +8902,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="21"/>
       <c r="O3" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P3" s="12" t="b">
         <v>1</v>
@@ -8801,10 +8913,10 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="12"/>
@@ -8812,24 +8924,24 @@
         <v>121</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="20"/>
       <c r="K4" s="15"/>
       <c r="L4" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>82</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P4" s="12" t="b">
         <v>1</v>
@@ -8840,10 +8952,10 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="12"/>
@@ -8851,17 +8963,17 @@
         <v>121</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="20"/>
       <c r="K5" s="15"/>
       <c r="L5" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>74</v>
@@ -8875,10 +8987,10 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="12"/>
@@ -8886,17 +8998,17 @@
         <v>121</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="12"/>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>74</v>
@@ -8910,27 +9022,27 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C7" s="59"/>
+        <v>414</v>
+      </c>
+      <c r="C7" s="60"/>
       <c r="E7" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="60"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>82</v>
@@ -8944,27 +9056,27 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="C8" s="59"/>
+        <v>417</v>
+      </c>
+      <c r="C8" s="60"/>
       <c r="E8" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>74</v>
@@ -8977,699 +9089,699 @@
       <c r="S8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="61" t="s">
-        <v>418</v>
-      </c>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="62" t="s">
         <v>419</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65" t="s">
+      <c r="C9" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69">
+      <c r="G9" s="65"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70">
         <v>0.0</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
     </row>
     <row r="10">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>422</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="61" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="66" t="s">
+      <c r="F12" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69">
+      <c r="D14" s="65"/>
+      <c r="E14" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70">
         <v>0.0</v>
       </c>
-      <c r="L10" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="61" t="s">
+      <c r="L14" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>426</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65" t="s">
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="71" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69">
+      <c r="F18" s="76" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>444</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="71">
         <v>0.0</v>
       </c>
-      <c r="L11" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="61" t="s">
-        <v>427</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="61" t="s">
+      <c r="L18" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="80" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="G12" s="66" t="s">
+      <c r="F19" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="81"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" s="73" t="s">
         <v>424</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69">
+      <c r="D20" s="74"/>
+      <c r="E20" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>447</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>451</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="74"/>
+      <c r="E21" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>447</v>
+      </c>
+      <c r="G21" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="H21" s="81"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="L21" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>424</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>460</v>
+      </c>
+      <c r="H22" s="89"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91">
         <v>0.0</v>
       </c>
-      <c r="L12" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="61" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>430</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65" t="s">
+      <c r="L22" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="83" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="93" t="s">
+        <v>372</v>
+      </c>
+      <c r="G23" s="93" t="s">
+        <v>463</v>
+      </c>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91" t="s">
+        <v>464</v>
+      </c>
+      <c r="L23" s="94" t="s">
+        <v>465</v>
+      </c>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="95" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69">
+      <c r="F24" s="100" t="s">
+        <v>363</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>468</v>
+      </c>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="103">
         <v>0.0</v>
       </c>
-      <c r="L13" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="61" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>432</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" s="66" t="s">
+      <c r="L24" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="95" t="s">
+        <v>469</v>
+      </c>
+      <c r="B25" s="96" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" s="97" t="s">
         <v>424</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>434</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65" t="s">
+      <c r="D25" s="98"/>
+      <c r="E25" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>364</v>
+      </c>
+      <c r="G25" s="100" t="s">
+        <v>471</v>
+      </c>
+      <c r="H25" s="105"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="106" t="s">
+        <v>472</v>
+      </c>
+      <c r="L25" s="104" t="s">
+        <v>473</v>
+      </c>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="107" t="s">
+        <v>474</v>
+      </c>
+      <c r="B26" s="108" t="s">
+        <v>475</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" s="110"/>
+      <c r="E26" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="61" t="s">
-        <v>435</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" s="66" t="s">
+      <c r="F26" s="112" t="s">
+        <v>367</v>
+      </c>
+      <c r="G26" s="113" t="s">
+        <v>476</v>
+      </c>
+      <c r="H26" s="114"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="117" t="s">
+        <v>477</v>
+      </c>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="118" t="s">
+        <v>478</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>479</v>
+      </c>
+      <c r="C27" s="109" t="s">
         <v>424</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="61" t="s">
-        <v>437</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="61" t="s">
+      <c r="D27" s="119"/>
+      <c r="E27" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="66" t="s">
-        <v>424</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69" t="s">
+      <c r="F27" s="112" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" s="118" t="s">
+        <v>480</v>
+      </c>
+      <c r="H27" s="119"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="61" t="s">
-        <v>440</v>
-      </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="70" t="s">
-        <v>441</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>442</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>423</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>443</v>
-      </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="70">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="79" t="s">
-        <v>444</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>423</v>
-      </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>446</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="78" t="s">
-        <v>447</v>
-      </c>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="79" t="s">
-        <v>448</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>449</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>423</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>450</v>
-      </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="78" t="s">
-        <v>451</v>
-      </c>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="79" t="s">
-        <v>452</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>453</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>423</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="75" t="s">
-        <v>454</v>
-      </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="70" t="s">
-        <v>455</v>
-      </c>
-      <c r="L21" s="81" t="s">
-        <v>456</v>
-      </c>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="82" t="s">
-        <v>457</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>458</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>423</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>459</v>
-      </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="82" t="s">
-        <v>460</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>461</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>423</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="92" t="s">
-        <v>371</v>
-      </c>
-      <c r="G23" s="92" t="s">
-        <v>462</v>
-      </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90" t="s">
-        <v>463</v>
-      </c>
-      <c r="L23" s="93" t="s">
-        <v>464</v>
-      </c>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="94" t="s">
-        <v>465</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>466</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>420</v>
-      </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="99" t="s">
-        <v>363</v>
-      </c>
-      <c r="G24" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="B25" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>423</v>
-      </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="99" t="s">
-        <v>364</v>
-      </c>
-      <c r="G25" s="99" t="s">
-        <v>470</v>
-      </c>
-      <c r="H25" s="104"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="105" t="s">
-        <v>471</v>
-      </c>
-      <c r="L25" s="103" t="s">
-        <v>472</v>
-      </c>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="106" t="s">
-        <v>473</v>
-      </c>
-      <c r="B26" s="107" t="s">
-        <v>474</v>
-      </c>
-      <c r="C26" s="108" t="s">
-        <v>420</v>
-      </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="111" t="s">
-        <v>367</v>
-      </c>
-      <c r="G26" s="112" t="s">
-        <v>475</v>
-      </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="116" t="s">
-        <v>476</v>
-      </c>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="117" t="s">
-        <v>477</v>
-      </c>
-      <c r="B27" s="107" t="s">
-        <v>478</v>
-      </c>
-      <c r="C27" s="108" t="s">
-        <v>423</v>
-      </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="111" t="s">
-        <v>368</v>
-      </c>
-      <c r="G27" s="117" t="s">
-        <v>479</v>
-      </c>
-      <c r="H27" s="118"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="116" t="s">
-        <v>480</v>
-      </c>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
+      <c r="L27" s="117" t="s">
+        <v>481</v>
+      </c>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="115"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -9704,37 +9816,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>481</v>
+      <c r="C1" s="120" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>482</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G1" s="119" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" s="120" t="s">
         <v>340</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>485</v>
       </c>
     </row>
@@ -9743,13 +9858,16 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C2" s="120"/>
+        <v>487</v>
+      </c>
+      <c r="C2" s="121"/>
       <c r="D2" s="13"/>
-      <c r="G2" s="121"/>
+      <c r="G2" s="122"/>
       <c r="I2" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="3">
@@ -9757,13 +9875,16 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C3" s="121"/>
+        <v>490</v>
+      </c>
+      <c r="C3" s="122"/>
       <c r="D3" s="13"/>
-      <c r="G3" s="121"/>
+      <c r="G3" s="122"/>
       <c r="I3" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
@@ -9771,75 +9892,79 @@
         <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C4" s="121"/>
+        <v>493</v>
+      </c>
+      <c r="C4" s="122"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="122"/>
-      <c r="G4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="G4" s="124"/>
       <c r="I4" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="K4" s="124"/>
+        <v>494</v>
+      </c>
+      <c r="K4" s="125"/>
+      <c r="L4" s="2" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C5" s="121"/>
+        <v>496</v>
+      </c>
+      <c r="C5" s="122"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
       <c r="I5" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="K5" s="124"/>
+        <v>497</v>
+      </c>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="125"/>
-      <c r="G6" s="121"/>
+      <c r="E6" s="126"/>
+      <c r="G6" s="122"/>
       <c r="I6" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="125"/>
-      <c r="G7" s="121"/>
+      <c r="E7" s="126"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="125"/>
-      <c r="G8" s="121"/>
+      <c r="E8" s="126"/>
+      <c r="G8" s="122"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9862,21 +9987,319 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>504</v>
-      </c>
+      <c r="A1" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B13" s="128" t="s">
+        <v>524</v>
+      </c>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="129" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>526</v>
+      </c>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="129" t="s">
+        <v>527</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>528</v>
+      </c>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="129" t="s">
+        <v>529</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" hidden="1">
+      <c r="A23" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" hidden="1">
+      <c r="A24" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="15"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B13:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="slide=id.p" ref="B20"/>
+    <hyperlink r:id="rId2" ref="B21"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9895,49 +10318,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="C2" s="128" t="s">
-        <v>508</v>
+      <c r="A2" s="133" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="129" t="s">
-        <v>509</v>
-      </c>
-      <c r="C3" s="128" t="s">
-        <v>510</v>
+      <c r="A3" s="135" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="130" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="128" t="s">
-        <v>512</v>
+      <c r="A4" s="136" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="134" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="130" t="s">
-        <v>513</v>
-      </c>
-      <c r="C5" s="128" t="s">
-        <v>514</v>
+      <c r="A5" s="136" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="594">
   <si>
     <t>id</t>
   </si>
@@ -1788,6 +1788,12 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_</t>
+  </si>
+  <si>
+    <t>ilxtr</t>
+  </si>
+  <si>
+    <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
   </si>
   <si>
     <t>notes</t>
@@ -1851,7 +1857,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1896,6 +1902,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -1917,9 +1927,16 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9.0"/>
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
     </font>
     <font>
       <b/>
@@ -1967,6 +1984,11 @@
     <font>
       <u/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2044,7 +2066,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2147,7 +2169,7 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2156,31 +2178,31 @@
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2198,10 +2220,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2213,13 +2235,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2272,13 +2294,16 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2306,6 +2331,9 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -2315,13 +2343,16 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -2340,6 +2371,9 @@
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -2349,13 +2383,13 @@
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2386,7 +2420,7 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2398,7 +2432,16 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2414,8 +2457,20 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2423,49 +2478,52 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2775,22 +2833,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="148" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="148" t="s">
         <v>542</v>
       </c>
     </row>
@@ -2869,82 +2927,82 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="150" t="s">
         <v>551</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="151" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="150" t="s">
         <v>553</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="152" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="150" t="s">
         <v>555</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="153" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="150" t="s">
         <v>557</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="153" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="150" t="s">
         <v>559</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="153" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="150" t="s">
         <v>561</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="153" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="150" t="s">
         <v>563</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="153" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="150" t="s">
         <v>565</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="153" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="150" t="s">
         <v>567</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="153" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="150" t="s">
         <v>569</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="153" t="s">
         <v>570</v>
       </c>
     </row>
@@ -2952,8 +3010,16 @@
       <c r="A12" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="145" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="134" t="s">
+        <v>573</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -2969,8 +3035,9 @@
     <hyperlink r:id="rId9" ref="B10"/>
     <hyperlink r:id="rId10" ref="B11"/>
     <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2989,3069 +3056,3069 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="155" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="144" t="s">
-        <v>574</v>
+      <c r="A2" s="156" t="s">
+        <v>576</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="144" t="s">
-        <v>577</v>
+      <c r="A3" s="156" t="s">
+        <v>579</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="144" t="s">
-        <v>579</v>
+      <c r="A4" s="156" t="s">
+        <v>581</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="144" t="s">
-        <v>581</v>
-      </c>
-      <c r="B5" s="145" t="s">
-        <v>582</v>
+      <c r="A5" s="156" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="157" t="s">
+        <v>584</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="144" t="s">
-        <v>583</v>
-      </c>
-      <c r="B6" s="145" t="s">
-        <v>584</v>
+      <c r="A6" s="156" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" s="157" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="144" t="s">
-        <v>585</v>
-      </c>
-      <c r="B7" s="145" t="s">
-        <v>586</v>
+      <c r="A7" s="156" t="s">
+        <v>587</v>
+      </c>
+      <c r="B7" s="157" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="146"/>
-      <c r="B8" s="145" t="s">
-        <v>587</v>
+      <c r="A8" s="158"/>
+      <c r="B8" s="157" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="146"/>
-      <c r="B9" s="145" t="s">
-        <v>588</v>
+      <c r="A9" s="158"/>
+      <c r="B9" s="157" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="146"/>
-      <c r="B10" s="145" t="s">
-        <v>589</v>
+      <c r="A10" s="158"/>
+      <c r="B10" s="157" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="146"/>
-      <c r="B11" s="145" t="s">
-        <v>590</v>
+      <c r="A11" s="158"/>
+      <c r="B11" s="157" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="146"/>
-      <c r="B12" s="145" t="s">
-        <v>591</v>
+      <c r="A12" s="158"/>
+      <c r="B12" s="157" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="146"/>
+      <c r="A13" s="158"/>
     </row>
     <row r="14">
-      <c r="A14" s="146"/>
+      <c r="A14" s="158"/>
     </row>
     <row r="15">
-      <c r="A15" s="146"/>
+      <c r="A15" s="158"/>
     </row>
     <row r="16">
-      <c r="A16" s="146"/>
+      <c r="A16" s="158"/>
     </row>
     <row r="17">
-      <c r="A17" s="146"/>
+      <c r="A17" s="158"/>
     </row>
     <row r="18">
-      <c r="A18" s="146"/>
+      <c r="A18" s="158"/>
     </row>
     <row r="19">
-      <c r="A19" s="146"/>
+      <c r="A19" s="158"/>
     </row>
     <row r="20">
-      <c r="A20" s="146"/>
+      <c r="A20" s="158"/>
     </row>
     <row r="21">
-      <c r="A21" s="146"/>
+      <c r="A21" s="158"/>
     </row>
     <row r="22">
-      <c r="A22" s="146"/>
+      <c r="A22" s="158"/>
     </row>
     <row r="23">
-      <c r="A23" s="146"/>
+      <c r="A23" s="158"/>
     </row>
     <row r="24">
-      <c r="A24" s="146"/>
+      <c r="A24" s="158"/>
     </row>
     <row r="25">
-      <c r="A25" s="146"/>
+      <c r="A25" s="158"/>
     </row>
     <row r="26">
-      <c r="A26" s="146"/>
+      <c r="A26" s="158"/>
     </row>
     <row r="27">
-      <c r="A27" s="146"/>
+      <c r="A27" s="158"/>
     </row>
     <row r="28">
-      <c r="A28" s="146"/>
+      <c r="A28" s="158"/>
     </row>
     <row r="29">
-      <c r="A29" s="146"/>
+      <c r="A29" s="158"/>
     </row>
     <row r="30">
-      <c r="A30" s="146"/>
+      <c r="A30" s="158"/>
     </row>
     <row r="31">
-      <c r="A31" s="146"/>
+      <c r="A31" s="158"/>
     </row>
     <row r="32">
-      <c r="A32" s="146"/>
+      <c r="A32" s="158"/>
     </row>
     <row r="33">
-      <c r="A33" s="146"/>
+      <c r="A33" s="158"/>
     </row>
     <row r="34">
-      <c r="A34" s="146"/>
+      <c r="A34" s="158"/>
     </row>
     <row r="35">
-      <c r="A35" s="146"/>
+      <c r="A35" s="158"/>
     </row>
     <row r="36">
-      <c r="A36" s="146"/>
+      <c r="A36" s="158"/>
     </row>
     <row r="37">
-      <c r="A37" s="146"/>
+      <c r="A37" s="158"/>
     </row>
     <row r="38">
-      <c r="A38" s="146"/>
+      <c r="A38" s="158"/>
     </row>
     <row r="39">
-      <c r="A39" s="146"/>
+      <c r="A39" s="158"/>
     </row>
     <row r="40">
-      <c r="A40" s="146"/>
+      <c r="A40" s="158"/>
     </row>
     <row r="41">
-      <c r="A41" s="146"/>
+      <c r="A41" s="158"/>
     </row>
     <row r="42">
-      <c r="A42" s="146"/>
+      <c r="A42" s="158"/>
     </row>
     <row r="43">
-      <c r="A43" s="146"/>
+      <c r="A43" s="158"/>
     </row>
     <row r="44">
-      <c r="A44" s="146"/>
+      <c r="A44" s="158"/>
     </row>
     <row r="45">
-      <c r="A45" s="146"/>
+      <c r="A45" s="158"/>
     </row>
     <row r="46">
-      <c r="A46" s="146"/>
+      <c r="A46" s="158"/>
     </row>
     <row r="47">
-      <c r="A47" s="146"/>
+      <c r="A47" s="158"/>
     </row>
     <row r="48">
-      <c r="A48" s="146"/>
+      <c r="A48" s="158"/>
     </row>
     <row r="49">
-      <c r="A49" s="146"/>
+      <c r="A49" s="158"/>
     </row>
     <row r="50">
-      <c r="A50" s="146"/>
+      <c r="A50" s="158"/>
     </row>
     <row r="51">
-      <c r="A51" s="146"/>
+      <c r="A51" s="158"/>
     </row>
     <row r="52">
-      <c r="A52" s="146"/>
+      <c r="A52" s="158"/>
     </row>
     <row r="53">
-      <c r="A53" s="146"/>
+      <c r="A53" s="158"/>
     </row>
     <row r="54">
-      <c r="A54" s="146"/>
+      <c r="A54" s="158"/>
     </row>
     <row r="55">
-      <c r="A55" s="146"/>
+      <c r="A55" s="158"/>
     </row>
     <row r="56">
-      <c r="A56" s="146"/>
+      <c r="A56" s="158"/>
     </row>
     <row r="57">
-      <c r="A57" s="146"/>
+      <c r="A57" s="158"/>
     </row>
     <row r="58">
-      <c r="A58" s="146"/>
+      <c r="A58" s="158"/>
     </row>
     <row r="59">
-      <c r="A59" s="146"/>
+      <c r="A59" s="158"/>
     </row>
     <row r="60">
-      <c r="A60" s="146"/>
+      <c r="A60" s="158"/>
     </row>
     <row r="61">
-      <c r="A61" s="146"/>
+      <c r="A61" s="158"/>
     </row>
     <row r="62">
-      <c r="A62" s="146"/>
+      <c r="A62" s="158"/>
     </row>
     <row r="63">
-      <c r="A63" s="146"/>
+      <c r="A63" s="158"/>
     </row>
     <row r="64">
-      <c r="A64" s="146"/>
+      <c r="A64" s="158"/>
     </row>
     <row r="65">
-      <c r="A65" s="146"/>
+      <c r="A65" s="158"/>
     </row>
     <row r="66">
-      <c r="A66" s="146"/>
+      <c r="A66" s="158"/>
     </row>
     <row r="67">
-      <c r="A67" s="146"/>
+      <c r="A67" s="158"/>
     </row>
     <row r="68">
-      <c r="A68" s="146"/>
+      <c r="A68" s="158"/>
     </row>
     <row r="69">
-      <c r="A69" s="146"/>
+      <c r="A69" s="158"/>
     </row>
     <row r="70">
-      <c r="A70" s="146"/>
+      <c r="A70" s="158"/>
     </row>
     <row r="71">
-      <c r="A71" s="146"/>
+      <c r="A71" s="158"/>
     </row>
     <row r="72">
-      <c r="A72" s="146"/>
+      <c r="A72" s="158"/>
     </row>
     <row r="73">
-      <c r="A73" s="146"/>
+      <c r="A73" s="158"/>
     </row>
     <row r="74">
-      <c r="A74" s="146"/>
+      <c r="A74" s="158"/>
     </row>
     <row r="75">
-      <c r="A75" s="146"/>
+      <c r="A75" s="158"/>
     </row>
     <row r="76">
-      <c r="A76" s="146"/>
+      <c r="A76" s="158"/>
     </row>
     <row r="77">
-      <c r="A77" s="146"/>
+      <c r="A77" s="158"/>
     </row>
     <row r="78">
-      <c r="A78" s="146"/>
+      <c r="A78" s="158"/>
     </row>
     <row r="79">
-      <c r="A79" s="146"/>
+      <c r="A79" s="158"/>
     </row>
     <row r="80">
-      <c r="A80" s="146"/>
+      <c r="A80" s="158"/>
     </row>
     <row r="81">
-      <c r="A81" s="146"/>
+      <c r="A81" s="158"/>
     </row>
     <row r="82">
-      <c r="A82" s="146"/>
+      <c r="A82" s="158"/>
     </row>
     <row r="83">
-      <c r="A83" s="146"/>
+      <c r="A83" s="158"/>
     </row>
     <row r="84">
-      <c r="A84" s="146"/>
+      <c r="A84" s="158"/>
     </row>
     <row r="85">
-      <c r="A85" s="146"/>
+      <c r="A85" s="158"/>
     </row>
     <row r="86">
-      <c r="A86" s="146"/>
+      <c r="A86" s="158"/>
     </row>
     <row r="87">
-      <c r="A87" s="146"/>
+      <c r="A87" s="158"/>
     </row>
     <row r="88">
-      <c r="A88" s="146"/>
+      <c r="A88" s="158"/>
     </row>
     <row r="89">
-      <c r="A89" s="146"/>
+      <c r="A89" s="158"/>
     </row>
     <row r="90">
-      <c r="A90" s="146"/>
+      <c r="A90" s="158"/>
     </row>
     <row r="91">
-      <c r="A91" s="146"/>
+      <c r="A91" s="158"/>
     </row>
     <row r="92">
-      <c r="A92" s="146"/>
+      <c r="A92" s="158"/>
     </row>
     <row r="93">
-      <c r="A93" s="146"/>
+      <c r="A93" s="158"/>
     </row>
     <row r="94">
-      <c r="A94" s="146"/>
+      <c r="A94" s="158"/>
     </row>
     <row r="95">
-      <c r="A95" s="146"/>
+      <c r="A95" s="158"/>
     </row>
     <row r="96">
-      <c r="A96" s="146"/>
+      <c r="A96" s="158"/>
     </row>
     <row r="97">
-      <c r="A97" s="146"/>
+      <c r="A97" s="158"/>
     </row>
     <row r="98">
-      <c r="A98" s="146"/>
+      <c r="A98" s="158"/>
     </row>
     <row r="99">
-      <c r="A99" s="146"/>
+      <c r="A99" s="158"/>
     </row>
     <row r="100">
-      <c r="A100" s="146"/>
+      <c r="A100" s="158"/>
     </row>
     <row r="101">
-      <c r="A101" s="146"/>
+      <c r="A101" s="158"/>
     </row>
     <row r="102">
-      <c r="A102" s="146"/>
+      <c r="A102" s="158"/>
     </row>
     <row r="103">
-      <c r="A103" s="146"/>
+      <c r="A103" s="158"/>
     </row>
     <row r="104">
-      <c r="A104" s="146"/>
+      <c r="A104" s="158"/>
     </row>
     <row r="105">
-      <c r="A105" s="146"/>
+      <c r="A105" s="158"/>
     </row>
     <row r="106">
-      <c r="A106" s="146"/>
+      <c r="A106" s="158"/>
     </row>
     <row r="107">
-      <c r="A107" s="146"/>
+      <c r="A107" s="158"/>
     </row>
     <row r="108">
-      <c r="A108" s="146"/>
+      <c r="A108" s="158"/>
     </row>
     <row r="109">
-      <c r="A109" s="146"/>
+      <c r="A109" s="158"/>
     </row>
     <row r="110">
-      <c r="A110" s="146"/>
+      <c r="A110" s="158"/>
     </row>
     <row r="111">
-      <c r="A111" s="146"/>
+      <c r="A111" s="158"/>
     </row>
     <row r="112">
-      <c r="A112" s="146"/>
+      <c r="A112" s="158"/>
     </row>
     <row r="113">
-      <c r="A113" s="146"/>
+      <c r="A113" s="158"/>
     </row>
     <row r="114">
-      <c r="A114" s="146"/>
+      <c r="A114" s="158"/>
     </row>
     <row r="115">
-      <c r="A115" s="146"/>
+      <c r="A115" s="158"/>
     </row>
     <row r="116">
-      <c r="A116" s="146"/>
+      <c r="A116" s="158"/>
     </row>
     <row r="117">
-      <c r="A117" s="146"/>
+      <c r="A117" s="158"/>
     </row>
     <row r="118">
-      <c r="A118" s="146"/>
+      <c r="A118" s="158"/>
     </row>
     <row r="119">
-      <c r="A119" s="146"/>
+      <c r="A119" s="158"/>
     </row>
     <row r="120">
-      <c r="A120" s="146"/>
+      <c r="A120" s="158"/>
     </row>
     <row r="121">
-      <c r="A121" s="146"/>
+      <c r="A121" s="158"/>
     </row>
     <row r="122">
-      <c r="A122" s="146"/>
+      <c r="A122" s="158"/>
     </row>
     <row r="123">
-      <c r="A123" s="146"/>
+      <c r="A123" s="158"/>
     </row>
     <row r="124">
-      <c r="A124" s="146"/>
+      <c r="A124" s="158"/>
     </row>
     <row r="125">
-      <c r="A125" s="146"/>
+      <c r="A125" s="158"/>
     </row>
     <row r="126">
-      <c r="A126" s="146"/>
+      <c r="A126" s="158"/>
     </row>
     <row r="127">
-      <c r="A127" s="146"/>
+      <c r="A127" s="158"/>
     </row>
     <row r="128">
-      <c r="A128" s="146"/>
+      <c r="A128" s="158"/>
     </row>
     <row r="129">
-      <c r="A129" s="146"/>
+      <c r="A129" s="158"/>
     </row>
     <row r="130">
-      <c r="A130" s="146"/>
+      <c r="A130" s="158"/>
     </row>
     <row r="131">
-      <c r="A131" s="146"/>
+      <c r="A131" s="158"/>
     </row>
     <row r="132">
-      <c r="A132" s="146"/>
+      <c r="A132" s="158"/>
     </row>
     <row r="133">
-      <c r="A133" s="146"/>
+      <c r="A133" s="158"/>
     </row>
     <row r="134">
-      <c r="A134" s="146"/>
+      <c r="A134" s="158"/>
     </row>
     <row r="135">
-      <c r="A135" s="146"/>
+      <c r="A135" s="158"/>
     </row>
     <row r="136">
-      <c r="A136" s="146"/>
+      <c r="A136" s="158"/>
     </row>
     <row r="137">
-      <c r="A137" s="146"/>
+      <c r="A137" s="158"/>
     </row>
     <row r="138">
-      <c r="A138" s="146"/>
+      <c r="A138" s="158"/>
     </row>
     <row r="139">
-      <c r="A139" s="146"/>
+      <c r="A139" s="158"/>
     </row>
     <row r="140">
-      <c r="A140" s="146"/>
+      <c r="A140" s="158"/>
     </row>
     <row r="141">
-      <c r="A141" s="146"/>
+      <c r="A141" s="158"/>
     </row>
     <row r="142">
-      <c r="A142" s="146"/>
+      <c r="A142" s="158"/>
     </row>
     <row r="143">
-      <c r="A143" s="146"/>
+      <c r="A143" s="158"/>
     </row>
     <row r="144">
-      <c r="A144" s="146"/>
+      <c r="A144" s="158"/>
     </row>
     <row r="145">
-      <c r="A145" s="146"/>
+      <c r="A145" s="158"/>
     </row>
     <row r="146">
-      <c r="A146" s="146"/>
+      <c r="A146" s="158"/>
     </row>
     <row r="147">
-      <c r="A147" s="146"/>
+      <c r="A147" s="158"/>
     </row>
     <row r="148">
-      <c r="A148" s="146"/>
+      <c r="A148" s="158"/>
     </row>
     <row r="149">
-      <c r="A149" s="146"/>
+      <c r="A149" s="158"/>
     </row>
     <row r="150">
-      <c r="A150" s="146"/>
+      <c r="A150" s="158"/>
     </row>
     <row r="151">
-      <c r="A151" s="146"/>
+      <c r="A151" s="158"/>
     </row>
     <row r="152">
-      <c r="A152" s="146"/>
+      <c r="A152" s="158"/>
     </row>
     <row r="153">
-      <c r="A153" s="146"/>
+      <c r="A153" s="158"/>
     </row>
     <row r="154">
-      <c r="A154" s="146"/>
+      <c r="A154" s="158"/>
     </row>
     <row r="155">
-      <c r="A155" s="146"/>
+      <c r="A155" s="158"/>
     </row>
     <row r="156">
-      <c r="A156" s="146"/>
+      <c r="A156" s="158"/>
     </row>
     <row r="157">
-      <c r="A157" s="146"/>
+      <c r="A157" s="158"/>
     </row>
     <row r="158">
-      <c r="A158" s="146"/>
+      <c r="A158" s="158"/>
     </row>
     <row r="159">
-      <c r="A159" s="146"/>
+      <c r="A159" s="158"/>
     </row>
     <row r="160">
-      <c r="A160" s="146"/>
+      <c r="A160" s="158"/>
     </row>
     <row r="161">
-      <c r="A161" s="146"/>
+      <c r="A161" s="158"/>
     </row>
     <row r="162">
-      <c r="A162" s="146"/>
+      <c r="A162" s="158"/>
     </row>
     <row r="163">
-      <c r="A163" s="146"/>
+      <c r="A163" s="158"/>
     </row>
     <row r="164">
-      <c r="A164" s="146"/>
+      <c r="A164" s="158"/>
     </row>
     <row r="165">
-      <c r="A165" s="146"/>
+      <c r="A165" s="158"/>
     </row>
     <row r="166">
-      <c r="A166" s="146"/>
+      <c r="A166" s="158"/>
     </row>
     <row r="167">
-      <c r="A167" s="146"/>
+      <c r="A167" s="158"/>
     </row>
     <row r="168">
-      <c r="A168" s="146"/>
+      <c r="A168" s="158"/>
     </row>
     <row r="169">
-      <c r="A169" s="146"/>
+      <c r="A169" s="158"/>
     </row>
     <row r="170">
-      <c r="A170" s="146"/>
+      <c r="A170" s="158"/>
     </row>
     <row r="171">
-      <c r="A171" s="146"/>
+      <c r="A171" s="158"/>
     </row>
     <row r="172">
-      <c r="A172" s="146"/>
+      <c r="A172" s="158"/>
     </row>
     <row r="173">
-      <c r="A173" s="146"/>
+      <c r="A173" s="158"/>
     </row>
     <row r="174">
-      <c r="A174" s="146"/>
+      <c r="A174" s="158"/>
     </row>
     <row r="175">
-      <c r="A175" s="146"/>
+      <c r="A175" s="158"/>
     </row>
     <row r="176">
-      <c r="A176" s="146"/>
+      <c r="A176" s="158"/>
     </row>
     <row r="177">
-      <c r="A177" s="146"/>
+      <c r="A177" s="158"/>
     </row>
     <row r="178">
-      <c r="A178" s="146"/>
+      <c r="A178" s="158"/>
     </row>
     <row r="179">
-      <c r="A179" s="146"/>
+      <c r="A179" s="158"/>
     </row>
     <row r="180">
-      <c r="A180" s="146"/>
+      <c r="A180" s="158"/>
     </row>
     <row r="181">
-      <c r="A181" s="146"/>
+      <c r="A181" s="158"/>
     </row>
     <row r="182">
-      <c r="A182" s="146"/>
+      <c r="A182" s="158"/>
     </row>
     <row r="183">
-      <c r="A183" s="146"/>
+      <c r="A183" s="158"/>
     </row>
     <row r="184">
-      <c r="A184" s="146"/>
+      <c r="A184" s="158"/>
     </row>
     <row r="185">
-      <c r="A185" s="146"/>
+      <c r="A185" s="158"/>
     </row>
     <row r="186">
-      <c r="A186" s="146"/>
+      <c r="A186" s="158"/>
     </row>
     <row r="187">
-      <c r="A187" s="146"/>
+      <c r="A187" s="158"/>
     </row>
     <row r="188">
-      <c r="A188" s="146"/>
+      <c r="A188" s="158"/>
     </row>
     <row r="189">
-      <c r="A189" s="146"/>
+      <c r="A189" s="158"/>
     </row>
     <row r="190">
-      <c r="A190" s="146"/>
+      <c r="A190" s="158"/>
     </row>
     <row r="191">
-      <c r="A191" s="146"/>
+      <c r="A191" s="158"/>
     </row>
     <row r="192">
-      <c r="A192" s="146"/>
+      <c r="A192" s="158"/>
     </row>
     <row r="193">
-      <c r="A193" s="146"/>
+      <c r="A193" s="158"/>
     </row>
     <row r="194">
-      <c r="A194" s="146"/>
+      <c r="A194" s="158"/>
     </row>
     <row r="195">
-      <c r="A195" s="146"/>
+      <c r="A195" s="158"/>
     </row>
     <row r="196">
-      <c r="A196" s="146"/>
+      <c r="A196" s="158"/>
     </row>
     <row r="197">
-      <c r="A197" s="146"/>
+      <c r="A197" s="158"/>
     </row>
     <row r="198">
-      <c r="A198" s="146"/>
+      <c r="A198" s="158"/>
     </row>
     <row r="199">
-      <c r="A199" s="146"/>
+      <c r="A199" s="158"/>
     </row>
     <row r="200">
-      <c r="A200" s="146"/>
+      <c r="A200" s="158"/>
     </row>
     <row r="201">
-      <c r="A201" s="146"/>
+      <c r="A201" s="158"/>
     </row>
     <row r="202">
-      <c r="A202" s="146"/>
+      <c r="A202" s="158"/>
     </row>
     <row r="203">
-      <c r="A203" s="146"/>
+      <c r="A203" s="158"/>
     </row>
     <row r="204">
-      <c r="A204" s="146"/>
+      <c r="A204" s="158"/>
     </row>
     <row r="205">
-      <c r="A205" s="146"/>
+      <c r="A205" s="158"/>
     </row>
     <row r="206">
-      <c r="A206" s="146"/>
+      <c r="A206" s="158"/>
     </row>
     <row r="207">
-      <c r="A207" s="146"/>
+      <c r="A207" s="158"/>
     </row>
     <row r="208">
-      <c r="A208" s="146"/>
+      <c r="A208" s="158"/>
     </row>
     <row r="209">
-      <c r="A209" s="146"/>
+      <c r="A209" s="158"/>
     </row>
     <row r="210">
-      <c r="A210" s="146"/>
+      <c r="A210" s="158"/>
     </row>
     <row r="211">
-      <c r="A211" s="146"/>
+      <c r="A211" s="158"/>
     </row>
     <row r="212">
-      <c r="A212" s="146"/>
+      <c r="A212" s="158"/>
     </row>
     <row r="213">
-      <c r="A213" s="146"/>
+      <c r="A213" s="158"/>
     </row>
     <row r="214">
-      <c r="A214" s="146"/>
+      <c r="A214" s="158"/>
     </row>
     <row r="215">
-      <c r="A215" s="146"/>
+      <c r="A215" s="158"/>
     </row>
     <row r="216">
-      <c r="A216" s="146"/>
+      <c r="A216" s="158"/>
     </row>
     <row r="217">
-      <c r="A217" s="146"/>
+      <c r="A217" s="158"/>
     </row>
     <row r="218">
-      <c r="A218" s="146"/>
+      <c r="A218" s="158"/>
     </row>
     <row r="219">
-      <c r="A219" s="146"/>
+      <c r="A219" s="158"/>
     </row>
     <row r="220">
-      <c r="A220" s="146"/>
+      <c r="A220" s="158"/>
     </row>
     <row r="221">
-      <c r="A221" s="146"/>
+      <c r="A221" s="158"/>
     </row>
     <row r="222">
-      <c r="A222" s="146"/>
+      <c r="A222" s="158"/>
     </row>
     <row r="223">
-      <c r="A223" s="146"/>
+      <c r="A223" s="158"/>
     </row>
     <row r="224">
-      <c r="A224" s="146"/>
+      <c r="A224" s="158"/>
     </row>
     <row r="225">
-      <c r="A225" s="146"/>
+      <c r="A225" s="158"/>
     </row>
     <row r="226">
-      <c r="A226" s="146"/>
+      <c r="A226" s="158"/>
     </row>
     <row r="227">
-      <c r="A227" s="146"/>
+      <c r="A227" s="158"/>
     </row>
     <row r="228">
-      <c r="A228" s="146"/>
+      <c r="A228" s="158"/>
     </row>
     <row r="229">
-      <c r="A229" s="146"/>
+      <c r="A229" s="158"/>
     </row>
     <row r="230">
-      <c r="A230" s="146"/>
+      <c r="A230" s="158"/>
     </row>
     <row r="231">
-      <c r="A231" s="146"/>
+      <c r="A231" s="158"/>
     </row>
     <row r="232">
-      <c r="A232" s="146"/>
+      <c r="A232" s="158"/>
     </row>
     <row r="233">
-      <c r="A233" s="146"/>
+      <c r="A233" s="158"/>
     </row>
     <row r="234">
-      <c r="A234" s="146"/>
+      <c r="A234" s="158"/>
     </row>
     <row r="235">
-      <c r="A235" s="146"/>
+      <c r="A235" s="158"/>
     </row>
     <row r="236">
-      <c r="A236" s="146"/>
+      <c r="A236" s="158"/>
     </row>
     <row r="237">
-      <c r="A237" s="146"/>
+      <c r="A237" s="158"/>
     </row>
     <row r="238">
-      <c r="A238" s="146"/>
+      <c r="A238" s="158"/>
     </row>
     <row r="239">
-      <c r="A239" s="146"/>
+      <c r="A239" s="158"/>
     </row>
     <row r="240">
-      <c r="A240" s="146"/>
+      <c r="A240" s="158"/>
     </row>
     <row r="241">
-      <c r="A241" s="146"/>
+      <c r="A241" s="158"/>
     </row>
     <row r="242">
-      <c r="A242" s="146"/>
+      <c r="A242" s="158"/>
     </row>
     <row r="243">
-      <c r="A243" s="146"/>
+      <c r="A243" s="158"/>
     </row>
     <row r="244">
-      <c r="A244" s="146"/>
+      <c r="A244" s="158"/>
     </row>
     <row r="245">
-      <c r="A245" s="146"/>
+      <c r="A245" s="158"/>
     </row>
     <row r="246">
-      <c r="A246" s="146"/>
+      <c r="A246" s="158"/>
     </row>
     <row r="247">
-      <c r="A247" s="146"/>
+      <c r="A247" s="158"/>
     </row>
     <row r="248">
-      <c r="A248" s="146"/>
+      <c r="A248" s="158"/>
     </row>
     <row r="249">
-      <c r="A249" s="146"/>
+      <c r="A249" s="158"/>
     </row>
     <row r="250">
-      <c r="A250" s="146"/>
+      <c r="A250" s="158"/>
     </row>
     <row r="251">
-      <c r="A251" s="146"/>
+      <c r="A251" s="158"/>
     </row>
     <row r="252">
-      <c r="A252" s="146"/>
+      <c r="A252" s="158"/>
     </row>
     <row r="253">
-      <c r="A253" s="146"/>
+      <c r="A253" s="158"/>
     </row>
     <row r="254">
-      <c r="A254" s="146"/>
+      <c r="A254" s="158"/>
     </row>
     <row r="255">
-      <c r="A255" s="146"/>
+      <c r="A255" s="158"/>
     </row>
     <row r="256">
-      <c r="A256" s="146"/>
+      <c r="A256" s="158"/>
     </row>
     <row r="257">
-      <c r="A257" s="146"/>
+      <c r="A257" s="158"/>
     </row>
     <row r="258">
-      <c r="A258" s="146"/>
+      <c r="A258" s="158"/>
     </row>
     <row r="259">
-      <c r="A259" s="146"/>
+      <c r="A259" s="158"/>
     </row>
     <row r="260">
-      <c r="A260" s="146"/>
+      <c r="A260" s="158"/>
     </row>
     <row r="261">
-      <c r="A261" s="146"/>
+      <c r="A261" s="158"/>
     </row>
     <row r="262">
-      <c r="A262" s="146"/>
+      <c r="A262" s="158"/>
     </row>
     <row r="263">
-      <c r="A263" s="146"/>
+      <c r="A263" s="158"/>
     </row>
     <row r="264">
-      <c r="A264" s="146"/>
+      <c r="A264" s="158"/>
     </row>
     <row r="265">
-      <c r="A265" s="146"/>
+      <c r="A265" s="158"/>
     </row>
     <row r="266">
-      <c r="A266" s="146"/>
+      <c r="A266" s="158"/>
     </row>
     <row r="267">
-      <c r="A267" s="146"/>
+      <c r="A267" s="158"/>
     </row>
     <row r="268">
-      <c r="A268" s="146"/>
+      <c r="A268" s="158"/>
     </row>
     <row r="269">
-      <c r="A269" s="146"/>
+      <c r="A269" s="158"/>
     </row>
     <row r="270">
-      <c r="A270" s="146"/>
+      <c r="A270" s="158"/>
     </row>
     <row r="271">
-      <c r="A271" s="146"/>
+      <c r="A271" s="158"/>
     </row>
     <row r="272">
-      <c r="A272" s="146"/>
+      <c r="A272" s="158"/>
     </row>
     <row r="273">
-      <c r="A273" s="146"/>
+      <c r="A273" s="158"/>
     </row>
     <row r="274">
-      <c r="A274" s="146"/>
+      <c r="A274" s="158"/>
     </row>
     <row r="275">
-      <c r="A275" s="146"/>
+      <c r="A275" s="158"/>
     </row>
     <row r="276">
-      <c r="A276" s="146"/>
+      <c r="A276" s="158"/>
     </row>
     <row r="277">
-      <c r="A277" s="146"/>
+      <c r="A277" s="158"/>
     </row>
     <row r="278">
-      <c r="A278" s="146"/>
+      <c r="A278" s="158"/>
     </row>
     <row r="279">
-      <c r="A279" s="146"/>
+      <c r="A279" s="158"/>
     </row>
     <row r="280">
-      <c r="A280" s="146"/>
+      <c r="A280" s="158"/>
     </row>
     <row r="281">
-      <c r="A281" s="146"/>
+      <c r="A281" s="158"/>
     </row>
     <row r="282">
-      <c r="A282" s="146"/>
+      <c r="A282" s="158"/>
     </row>
     <row r="283">
-      <c r="A283" s="146"/>
+      <c r="A283" s="158"/>
     </row>
     <row r="284">
-      <c r="A284" s="146"/>
+      <c r="A284" s="158"/>
     </row>
     <row r="285">
-      <c r="A285" s="146"/>
+      <c r="A285" s="158"/>
     </row>
     <row r="286">
-      <c r="A286" s="146"/>
+      <c r="A286" s="158"/>
     </row>
     <row r="287">
-      <c r="A287" s="146"/>
+      <c r="A287" s="158"/>
     </row>
     <row r="288">
-      <c r="A288" s="146"/>
+      <c r="A288" s="158"/>
     </row>
     <row r="289">
-      <c r="A289" s="146"/>
+      <c r="A289" s="158"/>
     </row>
     <row r="290">
-      <c r="A290" s="146"/>
+      <c r="A290" s="158"/>
     </row>
     <row r="291">
-      <c r="A291" s="146"/>
+      <c r="A291" s="158"/>
     </row>
     <row r="292">
-      <c r="A292" s="146"/>
+      <c r="A292" s="158"/>
     </row>
     <row r="293">
-      <c r="A293" s="146"/>
+      <c r="A293" s="158"/>
     </row>
     <row r="294">
-      <c r="A294" s="146"/>
+      <c r="A294" s="158"/>
     </row>
     <row r="295">
-      <c r="A295" s="146"/>
+      <c r="A295" s="158"/>
     </row>
     <row r="296">
-      <c r="A296" s="146"/>
+      <c r="A296" s="158"/>
     </row>
     <row r="297">
-      <c r="A297" s="146"/>
+      <c r="A297" s="158"/>
     </row>
     <row r="298">
-      <c r="A298" s="146"/>
+      <c r="A298" s="158"/>
     </row>
     <row r="299">
-      <c r="A299" s="146"/>
+      <c r="A299" s="158"/>
     </row>
     <row r="300">
-      <c r="A300" s="146"/>
+      <c r="A300" s="158"/>
     </row>
     <row r="301">
-      <c r="A301" s="146"/>
+      <c r="A301" s="158"/>
     </row>
     <row r="302">
-      <c r="A302" s="146"/>
+      <c r="A302" s="158"/>
     </row>
     <row r="303">
-      <c r="A303" s="146"/>
+      <c r="A303" s="158"/>
     </row>
     <row r="304">
-      <c r="A304" s="146"/>
+      <c r="A304" s="158"/>
     </row>
     <row r="305">
-      <c r="A305" s="146"/>
+      <c r="A305" s="158"/>
     </row>
     <row r="306">
-      <c r="A306" s="146"/>
+      <c r="A306" s="158"/>
     </row>
     <row r="307">
-      <c r="A307" s="146"/>
+      <c r="A307" s="158"/>
     </row>
     <row r="308">
-      <c r="A308" s="146"/>
+      <c r="A308" s="158"/>
     </row>
     <row r="309">
-      <c r="A309" s="146"/>
+      <c r="A309" s="158"/>
     </row>
     <row r="310">
-      <c r="A310" s="146"/>
+      <c r="A310" s="158"/>
     </row>
     <row r="311">
-      <c r="A311" s="146"/>
+      <c r="A311" s="158"/>
     </row>
     <row r="312">
-      <c r="A312" s="146"/>
+      <c r="A312" s="158"/>
     </row>
     <row r="313">
-      <c r="A313" s="146"/>
+      <c r="A313" s="158"/>
     </row>
     <row r="314">
-      <c r="A314" s="146"/>
+      <c r="A314" s="158"/>
     </row>
     <row r="315">
-      <c r="A315" s="146"/>
+      <c r="A315" s="158"/>
     </row>
     <row r="316">
-      <c r="A316" s="146"/>
+      <c r="A316" s="158"/>
     </row>
     <row r="317">
-      <c r="A317" s="146"/>
+      <c r="A317" s="158"/>
     </row>
     <row r="318">
-      <c r="A318" s="146"/>
+      <c r="A318" s="158"/>
     </row>
     <row r="319">
-      <c r="A319" s="146"/>
+      <c r="A319" s="158"/>
     </row>
     <row r="320">
-      <c r="A320" s="146"/>
+      <c r="A320" s="158"/>
     </row>
     <row r="321">
-      <c r="A321" s="146"/>
+      <c r="A321" s="158"/>
     </row>
     <row r="322">
-      <c r="A322" s="146"/>
+      <c r="A322" s="158"/>
     </row>
     <row r="323">
-      <c r="A323" s="146"/>
+      <c r="A323" s="158"/>
     </row>
     <row r="324">
-      <c r="A324" s="146"/>
+      <c r="A324" s="158"/>
     </row>
     <row r="325">
-      <c r="A325" s="146"/>
+      <c r="A325" s="158"/>
     </row>
     <row r="326">
-      <c r="A326" s="146"/>
+      <c r="A326" s="158"/>
     </row>
     <row r="327">
-      <c r="A327" s="146"/>
+      <c r="A327" s="158"/>
     </row>
     <row r="328">
-      <c r="A328" s="146"/>
+      <c r="A328" s="158"/>
     </row>
     <row r="329">
-      <c r="A329" s="146"/>
+      <c r="A329" s="158"/>
     </row>
     <row r="330">
-      <c r="A330" s="146"/>
+      <c r="A330" s="158"/>
     </row>
     <row r="331">
-      <c r="A331" s="146"/>
+      <c r="A331" s="158"/>
     </row>
     <row r="332">
-      <c r="A332" s="146"/>
+      <c r="A332" s="158"/>
     </row>
     <row r="333">
-      <c r="A333" s="146"/>
+      <c r="A333" s="158"/>
     </row>
     <row r="334">
-      <c r="A334" s="146"/>
+      <c r="A334" s="158"/>
     </row>
     <row r="335">
-      <c r="A335" s="146"/>
+      <c r="A335" s="158"/>
     </row>
     <row r="336">
-      <c r="A336" s="146"/>
+      <c r="A336" s="158"/>
     </row>
     <row r="337">
-      <c r="A337" s="146"/>
+      <c r="A337" s="158"/>
     </row>
     <row r="338">
-      <c r="A338" s="146"/>
+      <c r="A338" s="158"/>
     </row>
     <row r="339">
-      <c r="A339" s="146"/>
+      <c r="A339" s="158"/>
     </row>
     <row r="340">
-      <c r="A340" s="146"/>
+      <c r="A340" s="158"/>
     </row>
     <row r="341">
-      <c r="A341" s="146"/>
+      <c r="A341" s="158"/>
     </row>
     <row r="342">
-      <c r="A342" s="146"/>
+      <c r="A342" s="158"/>
     </row>
     <row r="343">
-      <c r="A343" s="146"/>
+      <c r="A343" s="158"/>
     </row>
     <row r="344">
-      <c r="A344" s="146"/>
+      <c r="A344" s="158"/>
     </row>
     <row r="345">
-      <c r="A345" s="146"/>
+      <c r="A345" s="158"/>
     </row>
     <row r="346">
-      <c r="A346" s="146"/>
+      <c r="A346" s="158"/>
     </row>
     <row r="347">
-      <c r="A347" s="146"/>
+      <c r="A347" s="158"/>
     </row>
     <row r="348">
-      <c r="A348" s="146"/>
+      <c r="A348" s="158"/>
     </row>
     <row r="349">
-      <c r="A349" s="146"/>
+      <c r="A349" s="158"/>
     </row>
     <row r="350">
-      <c r="A350" s="146"/>
+      <c r="A350" s="158"/>
     </row>
     <row r="351">
-      <c r="A351" s="146"/>
+      <c r="A351" s="158"/>
     </row>
     <row r="352">
-      <c r="A352" s="146"/>
+      <c r="A352" s="158"/>
     </row>
     <row r="353">
-      <c r="A353" s="146"/>
+      <c r="A353" s="158"/>
     </row>
     <row r="354">
-      <c r="A354" s="146"/>
+      <c r="A354" s="158"/>
     </row>
     <row r="355">
-      <c r="A355" s="146"/>
+      <c r="A355" s="158"/>
     </row>
     <row r="356">
-      <c r="A356" s="146"/>
+      <c r="A356" s="158"/>
     </row>
     <row r="357">
-      <c r="A357" s="146"/>
+      <c r="A357" s="158"/>
     </row>
     <row r="358">
-      <c r="A358" s="146"/>
+      <c r="A358" s="158"/>
     </row>
     <row r="359">
-      <c r="A359" s="146"/>
+      <c r="A359" s="158"/>
     </row>
     <row r="360">
-      <c r="A360" s="146"/>
+      <c r="A360" s="158"/>
     </row>
     <row r="361">
-      <c r="A361" s="146"/>
+      <c r="A361" s="158"/>
     </row>
     <row r="362">
-      <c r="A362" s="146"/>
+      <c r="A362" s="158"/>
     </row>
     <row r="363">
-      <c r="A363" s="146"/>
+      <c r="A363" s="158"/>
     </row>
     <row r="364">
-      <c r="A364" s="146"/>
+      <c r="A364" s="158"/>
     </row>
     <row r="365">
-      <c r="A365" s="146"/>
+      <c r="A365" s="158"/>
     </row>
     <row r="366">
-      <c r="A366" s="146"/>
+      <c r="A366" s="158"/>
     </row>
     <row r="367">
-      <c r="A367" s="146"/>
+      <c r="A367" s="158"/>
     </row>
     <row r="368">
-      <c r="A368" s="146"/>
+      <c r="A368" s="158"/>
     </row>
     <row r="369">
-      <c r="A369" s="146"/>
+      <c r="A369" s="158"/>
     </row>
     <row r="370">
-      <c r="A370" s="146"/>
+      <c r="A370" s="158"/>
     </row>
     <row r="371">
-      <c r="A371" s="146"/>
+      <c r="A371" s="158"/>
     </row>
     <row r="372">
-      <c r="A372" s="146"/>
+      <c r="A372" s="158"/>
     </row>
     <row r="373">
-      <c r="A373" s="146"/>
+      <c r="A373" s="158"/>
     </row>
     <row r="374">
-      <c r="A374" s="146"/>
+      <c r="A374" s="158"/>
     </row>
     <row r="375">
-      <c r="A375" s="146"/>
+      <c r="A375" s="158"/>
     </row>
     <row r="376">
-      <c r="A376" s="146"/>
+      <c r="A376" s="158"/>
     </row>
     <row r="377">
-      <c r="A377" s="146"/>
+      <c r="A377" s="158"/>
     </row>
     <row r="378">
-      <c r="A378" s="146"/>
+      <c r="A378" s="158"/>
     </row>
     <row r="379">
-      <c r="A379" s="146"/>
+      <c r="A379" s="158"/>
     </row>
     <row r="380">
-      <c r="A380" s="146"/>
+      <c r="A380" s="158"/>
     </row>
     <row r="381">
-      <c r="A381" s="146"/>
+      <c r="A381" s="158"/>
     </row>
     <row r="382">
-      <c r="A382" s="146"/>
+      <c r="A382" s="158"/>
     </row>
     <row r="383">
-      <c r="A383" s="146"/>
+      <c r="A383" s="158"/>
     </row>
     <row r="384">
-      <c r="A384" s="146"/>
+      <c r="A384" s="158"/>
     </row>
     <row r="385">
-      <c r="A385" s="146"/>
+      <c r="A385" s="158"/>
     </row>
     <row r="386">
-      <c r="A386" s="146"/>
+      <c r="A386" s="158"/>
     </row>
     <row r="387">
-      <c r="A387" s="146"/>
+      <c r="A387" s="158"/>
     </row>
     <row r="388">
-      <c r="A388" s="146"/>
+      <c r="A388" s="158"/>
     </row>
     <row r="389">
-      <c r="A389" s="146"/>
+      <c r="A389" s="158"/>
     </row>
     <row r="390">
-      <c r="A390" s="146"/>
+      <c r="A390" s="158"/>
     </row>
     <row r="391">
-      <c r="A391" s="146"/>
+      <c r="A391" s="158"/>
     </row>
     <row r="392">
-      <c r="A392" s="146"/>
+      <c r="A392" s="158"/>
     </row>
     <row r="393">
-      <c r="A393" s="146"/>
+      <c r="A393" s="158"/>
     </row>
     <row r="394">
-      <c r="A394" s="146"/>
+      <c r="A394" s="158"/>
     </row>
     <row r="395">
-      <c r="A395" s="146"/>
+      <c r="A395" s="158"/>
     </row>
     <row r="396">
-      <c r="A396" s="146"/>
+      <c r="A396" s="158"/>
     </row>
     <row r="397">
-      <c r="A397" s="146"/>
+      <c r="A397" s="158"/>
     </row>
     <row r="398">
-      <c r="A398" s="146"/>
+      <c r="A398" s="158"/>
     </row>
     <row r="399">
-      <c r="A399" s="146"/>
+      <c r="A399" s="158"/>
     </row>
     <row r="400">
-      <c r="A400" s="146"/>
+      <c r="A400" s="158"/>
     </row>
     <row r="401">
-      <c r="A401" s="146"/>
+      <c r="A401" s="158"/>
     </row>
     <row r="402">
-      <c r="A402" s="146"/>
+      <c r="A402" s="158"/>
     </row>
     <row r="403">
-      <c r="A403" s="146"/>
+      <c r="A403" s="158"/>
     </row>
     <row r="404">
-      <c r="A404" s="146"/>
+      <c r="A404" s="158"/>
     </row>
     <row r="405">
-      <c r="A405" s="146"/>
+      <c r="A405" s="158"/>
     </row>
     <row r="406">
-      <c r="A406" s="146"/>
+      <c r="A406" s="158"/>
     </row>
     <row r="407">
-      <c r="A407" s="146"/>
+      <c r="A407" s="158"/>
     </row>
     <row r="408">
-      <c r="A408" s="146"/>
+      <c r="A408" s="158"/>
     </row>
     <row r="409">
-      <c r="A409" s="146"/>
+      <c r="A409" s="158"/>
     </row>
     <row r="410">
-      <c r="A410" s="146"/>
+      <c r="A410" s="158"/>
     </row>
     <row r="411">
-      <c r="A411" s="146"/>
+      <c r="A411" s="158"/>
     </row>
     <row r="412">
-      <c r="A412" s="146"/>
+      <c r="A412" s="158"/>
     </row>
     <row r="413">
-      <c r="A413" s="146"/>
+      <c r="A413" s="158"/>
     </row>
     <row r="414">
-      <c r="A414" s="146"/>
+      <c r="A414" s="158"/>
     </row>
     <row r="415">
-      <c r="A415" s="146"/>
+      <c r="A415" s="158"/>
     </row>
     <row r="416">
-      <c r="A416" s="146"/>
+      <c r="A416" s="158"/>
     </row>
     <row r="417">
-      <c r="A417" s="146"/>
+      <c r="A417" s="158"/>
     </row>
     <row r="418">
-      <c r="A418" s="146"/>
+      <c r="A418" s="158"/>
     </row>
     <row r="419">
-      <c r="A419" s="146"/>
+      <c r="A419" s="158"/>
     </row>
     <row r="420">
-      <c r="A420" s="146"/>
+      <c r="A420" s="158"/>
     </row>
     <row r="421">
-      <c r="A421" s="146"/>
+      <c r="A421" s="158"/>
     </row>
     <row r="422">
-      <c r="A422" s="146"/>
+      <c r="A422" s="158"/>
     </row>
     <row r="423">
-      <c r="A423" s="146"/>
+      <c r="A423" s="158"/>
     </row>
     <row r="424">
-      <c r="A424" s="146"/>
+      <c r="A424" s="158"/>
     </row>
     <row r="425">
-      <c r="A425" s="146"/>
+      <c r="A425" s="158"/>
     </row>
     <row r="426">
-      <c r="A426" s="146"/>
+      <c r="A426" s="158"/>
     </row>
     <row r="427">
-      <c r="A427" s="146"/>
+      <c r="A427" s="158"/>
     </row>
     <row r="428">
-      <c r="A428" s="146"/>
+      <c r="A428" s="158"/>
     </row>
     <row r="429">
-      <c r="A429" s="146"/>
+      <c r="A429" s="158"/>
     </row>
     <row r="430">
-      <c r="A430" s="146"/>
+      <c r="A430" s="158"/>
     </row>
     <row r="431">
-      <c r="A431" s="146"/>
+      <c r="A431" s="158"/>
     </row>
     <row r="432">
-      <c r="A432" s="146"/>
+      <c r="A432" s="158"/>
     </row>
     <row r="433">
-      <c r="A433" s="146"/>
+      <c r="A433" s="158"/>
     </row>
     <row r="434">
-      <c r="A434" s="146"/>
+      <c r="A434" s="158"/>
     </row>
     <row r="435">
-      <c r="A435" s="146"/>
+      <c r="A435" s="158"/>
     </row>
     <row r="436">
-      <c r="A436" s="146"/>
+      <c r="A436" s="158"/>
     </row>
     <row r="437">
-      <c r="A437" s="146"/>
+      <c r="A437" s="158"/>
     </row>
     <row r="438">
-      <c r="A438" s="146"/>
+      <c r="A438" s="158"/>
     </row>
     <row r="439">
-      <c r="A439" s="146"/>
+      <c r="A439" s="158"/>
     </row>
     <row r="440">
-      <c r="A440" s="146"/>
+      <c r="A440" s="158"/>
     </row>
     <row r="441">
-      <c r="A441" s="146"/>
+      <c r="A441" s="158"/>
     </row>
     <row r="442">
-      <c r="A442" s="146"/>
+      <c r="A442" s="158"/>
     </row>
     <row r="443">
-      <c r="A443" s="146"/>
+      <c r="A443" s="158"/>
     </row>
     <row r="444">
-      <c r="A444" s="146"/>
+      <c r="A444" s="158"/>
     </row>
     <row r="445">
-      <c r="A445" s="146"/>
+      <c r="A445" s="158"/>
     </row>
     <row r="446">
-      <c r="A446" s="146"/>
+      <c r="A446" s="158"/>
     </row>
     <row r="447">
-      <c r="A447" s="146"/>
+      <c r="A447" s="158"/>
     </row>
     <row r="448">
-      <c r="A448" s="146"/>
+      <c r="A448" s="158"/>
     </row>
     <row r="449">
-      <c r="A449" s="146"/>
+      <c r="A449" s="158"/>
     </row>
     <row r="450">
-      <c r="A450" s="146"/>
+      <c r="A450" s="158"/>
     </row>
     <row r="451">
-      <c r="A451" s="146"/>
+      <c r="A451" s="158"/>
     </row>
     <row r="452">
-      <c r="A452" s="146"/>
+      <c r="A452" s="158"/>
     </row>
     <row r="453">
-      <c r="A453" s="146"/>
+      <c r="A453" s="158"/>
     </row>
     <row r="454">
-      <c r="A454" s="146"/>
+      <c r="A454" s="158"/>
     </row>
     <row r="455">
-      <c r="A455" s="146"/>
+      <c r="A455" s="158"/>
     </row>
     <row r="456">
-      <c r="A456" s="146"/>
+      <c r="A456" s="158"/>
     </row>
     <row r="457">
-      <c r="A457" s="146"/>
+      <c r="A457" s="158"/>
     </row>
     <row r="458">
-      <c r="A458" s="146"/>
+      <c r="A458" s="158"/>
     </row>
     <row r="459">
-      <c r="A459" s="146"/>
+      <c r="A459" s="158"/>
     </row>
     <row r="460">
-      <c r="A460" s="146"/>
+      <c r="A460" s="158"/>
     </row>
     <row r="461">
-      <c r="A461" s="146"/>
+      <c r="A461" s="158"/>
     </row>
     <row r="462">
-      <c r="A462" s="146"/>
+      <c r="A462" s="158"/>
     </row>
     <row r="463">
-      <c r="A463" s="146"/>
+      <c r="A463" s="158"/>
     </row>
     <row r="464">
-      <c r="A464" s="146"/>
+      <c r="A464" s="158"/>
     </row>
     <row r="465">
-      <c r="A465" s="146"/>
+      <c r="A465" s="158"/>
     </row>
     <row r="466">
-      <c r="A466" s="146"/>
+      <c r="A466" s="158"/>
     </row>
     <row r="467">
-      <c r="A467" s="146"/>
+      <c r="A467" s="158"/>
     </row>
     <row r="468">
-      <c r="A468" s="146"/>
+      <c r="A468" s="158"/>
     </row>
     <row r="469">
-      <c r="A469" s="146"/>
+      <c r="A469" s="158"/>
     </row>
     <row r="470">
-      <c r="A470" s="146"/>
+      <c r="A470" s="158"/>
     </row>
     <row r="471">
-      <c r="A471" s="146"/>
+      <c r="A471" s="158"/>
     </row>
     <row r="472">
-      <c r="A472" s="146"/>
+      <c r="A472" s="158"/>
     </row>
     <row r="473">
-      <c r="A473" s="146"/>
+      <c r="A473" s="158"/>
     </row>
     <row r="474">
-      <c r="A474" s="146"/>
+      <c r="A474" s="158"/>
     </row>
     <row r="475">
-      <c r="A475" s="146"/>
+      <c r="A475" s="158"/>
     </row>
     <row r="476">
-      <c r="A476" s="146"/>
+      <c r="A476" s="158"/>
     </row>
     <row r="477">
-      <c r="A477" s="146"/>
+      <c r="A477" s="158"/>
     </row>
     <row r="478">
-      <c r="A478" s="146"/>
+      <c r="A478" s="158"/>
     </row>
     <row r="479">
-      <c r="A479" s="146"/>
+      <c r="A479" s="158"/>
     </row>
     <row r="480">
-      <c r="A480" s="146"/>
+      <c r="A480" s="158"/>
     </row>
     <row r="481">
-      <c r="A481" s="146"/>
+      <c r="A481" s="158"/>
     </row>
     <row r="482">
-      <c r="A482" s="146"/>
+      <c r="A482" s="158"/>
     </row>
     <row r="483">
-      <c r="A483" s="146"/>
+      <c r="A483" s="158"/>
     </row>
     <row r="484">
-      <c r="A484" s="146"/>
+      <c r="A484" s="158"/>
     </row>
     <row r="485">
-      <c r="A485" s="146"/>
+      <c r="A485" s="158"/>
     </row>
     <row r="486">
-      <c r="A486" s="146"/>
+      <c r="A486" s="158"/>
     </row>
     <row r="487">
-      <c r="A487" s="146"/>
+      <c r="A487" s="158"/>
     </row>
     <row r="488">
-      <c r="A488" s="146"/>
+      <c r="A488" s="158"/>
     </row>
     <row r="489">
-      <c r="A489" s="146"/>
+      <c r="A489" s="158"/>
     </row>
     <row r="490">
-      <c r="A490" s="146"/>
+      <c r="A490" s="158"/>
     </row>
     <row r="491">
-      <c r="A491" s="146"/>
+      <c r="A491" s="158"/>
     </row>
     <row r="492">
-      <c r="A492" s="146"/>
+      <c r="A492" s="158"/>
     </row>
     <row r="493">
-      <c r="A493" s="146"/>
+      <c r="A493" s="158"/>
     </row>
     <row r="494">
-      <c r="A494" s="146"/>
+      <c r="A494" s="158"/>
     </row>
     <row r="495">
-      <c r="A495" s="146"/>
+      <c r="A495" s="158"/>
     </row>
     <row r="496">
-      <c r="A496" s="146"/>
+      <c r="A496" s="158"/>
     </row>
     <row r="497">
-      <c r="A497" s="146"/>
+      <c r="A497" s="158"/>
     </row>
     <row r="498">
-      <c r="A498" s="146"/>
+      <c r="A498" s="158"/>
     </row>
     <row r="499">
-      <c r="A499" s="146"/>
+      <c r="A499" s="158"/>
     </row>
     <row r="500">
-      <c r="A500" s="146"/>
+      <c r="A500" s="158"/>
     </row>
     <row r="501">
-      <c r="A501" s="146"/>
+      <c r="A501" s="158"/>
     </row>
     <row r="502">
-      <c r="A502" s="146"/>
+      <c r="A502" s="158"/>
     </row>
     <row r="503">
-      <c r="A503" s="146"/>
+      <c r="A503" s="158"/>
     </row>
     <row r="504">
-      <c r="A504" s="146"/>
+      <c r="A504" s="158"/>
     </row>
     <row r="505">
-      <c r="A505" s="146"/>
+      <c r="A505" s="158"/>
     </row>
     <row r="506">
-      <c r="A506" s="146"/>
+      <c r="A506" s="158"/>
     </row>
     <row r="507">
-      <c r="A507" s="146"/>
+      <c r="A507" s="158"/>
     </row>
     <row r="508">
-      <c r="A508" s="146"/>
+      <c r="A508" s="158"/>
     </row>
     <row r="509">
-      <c r="A509" s="146"/>
+      <c r="A509" s="158"/>
     </row>
     <row r="510">
-      <c r="A510" s="146"/>
+      <c r="A510" s="158"/>
     </row>
     <row r="511">
-      <c r="A511" s="146"/>
+      <c r="A511" s="158"/>
     </row>
     <row r="512">
-      <c r="A512" s="146"/>
+      <c r="A512" s="158"/>
     </row>
     <row r="513">
-      <c r="A513" s="146"/>
+      <c r="A513" s="158"/>
     </row>
     <row r="514">
-      <c r="A514" s="146"/>
+      <c r="A514" s="158"/>
     </row>
     <row r="515">
-      <c r="A515" s="146"/>
+      <c r="A515" s="158"/>
     </row>
     <row r="516">
-      <c r="A516" s="146"/>
+      <c r="A516" s="158"/>
     </row>
     <row r="517">
-      <c r="A517" s="146"/>
+      <c r="A517" s="158"/>
     </row>
     <row r="518">
-      <c r="A518" s="146"/>
+      <c r="A518" s="158"/>
     </row>
     <row r="519">
-      <c r="A519" s="146"/>
+      <c r="A519" s="158"/>
     </row>
     <row r="520">
-      <c r="A520" s="146"/>
+      <c r="A520" s="158"/>
     </row>
     <row r="521">
-      <c r="A521" s="146"/>
+      <c r="A521" s="158"/>
     </row>
     <row r="522">
-      <c r="A522" s="146"/>
+      <c r="A522" s="158"/>
     </row>
     <row r="523">
-      <c r="A523" s="146"/>
+      <c r="A523" s="158"/>
     </row>
     <row r="524">
-      <c r="A524" s="146"/>
+      <c r="A524" s="158"/>
     </row>
     <row r="525">
-      <c r="A525" s="146"/>
+      <c r="A525" s="158"/>
     </row>
     <row r="526">
-      <c r="A526" s="146"/>
+      <c r="A526" s="158"/>
     </row>
     <row r="527">
-      <c r="A527" s="146"/>
+      <c r="A527" s="158"/>
     </row>
     <row r="528">
-      <c r="A528" s="146"/>
+      <c r="A528" s="158"/>
     </row>
     <row r="529">
-      <c r="A529" s="146"/>
+      <c r="A529" s="158"/>
     </row>
     <row r="530">
-      <c r="A530" s="146"/>
+      <c r="A530" s="158"/>
     </row>
     <row r="531">
-      <c r="A531" s="146"/>
+      <c r="A531" s="158"/>
     </row>
     <row r="532">
-      <c r="A532" s="146"/>
+      <c r="A532" s="158"/>
     </row>
     <row r="533">
-      <c r="A533" s="146"/>
+      <c r="A533" s="158"/>
     </row>
     <row r="534">
-      <c r="A534" s="146"/>
+      <c r="A534" s="158"/>
     </row>
     <row r="535">
-      <c r="A535" s="146"/>
+      <c r="A535" s="158"/>
     </row>
     <row r="536">
-      <c r="A536" s="146"/>
+      <c r="A536" s="158"/>
     </row>
     <row r="537">
-      <c r="A537" s="146"/>
+      <c r="A537" s="158"/>
     </row>
     <row r="538">
-      <c r="A538" s="146"/>
+      <c r="A538" s="158"/>
     </row>
     <row r="539">
-      <c r="A539" s="146"/>
+      <c r="A539" s="158"/>
     </row>
     <row r="540">
-      <c r="A540" s="146"/>
+      <c r="A540" s="158"/>
     </row>
     <row r="541">
-      <c r="A541" s="146"/>
+      <c r="A541" s="158"/>
     </row>
     <row r="542">
-      <c r="A542" s="146"/>
+      <c r="A542" s="158"/>
     </row>
     <row r="543">
-      <c r="A543" s="146"/>
+      <c r="A543" s="158"/>
     </row>
     <row r="544">
-      <c r="A544" s="146"/>
+      <c r="A544" s="158"/>
     </row>
     <row r="545">
-      <c r="A545" s="146"/>
+      <c r="A545" s="158"/>
     </row>
     <row r="546">
-      <c r="A546" s="146"/>
+      <c r="A546" s="158"/>
     </row>
     <row r="547">
-      <c r="A547" s="146"/>
+      <c r="A547" s="158"/>
     </row>
     <row r="548">
-      <c r="A548" s="146"/>
+      <c r="A548" s="158"/>
     </row>
     <row r="549">
-      <c r="A549" s="146"/>
+      <c r="A549" s="158"/>
     </row>
     <row r="550">
-      <c r="A550" s="146"/>
+      <c r="A550" s="158"/>
     </row>
     <row r="551">
-      <c r="A551" s="146"/>
+      <c r="A551" s="158"/>
     </row>
     <row r="552">
-      <c r="A552" s="146"/>
+      <c r="A552" s="158"/>
     </row>
     <row r="553">
-      <c r="A553" s="146"/>
+      <c r="A553" s="158"/>
     </row>
     <row r="554">
-      <c r="A554" s="146"/>
+      <c r="A554" s="158"/>
     </row>
     <row r="555">
-      <c r="A555" s="146"/>
+      <c r="A555" s="158"/>
     </row>
     <row r="556">
-      <c r="A556" s="146"/>
+      <c r="A556" s="158"/>
     </row>
     <row r="557">
-      <c r="A557" s="146"/>
+      <c r="A557" s="158"/>
     </row>
     <row r="558">
-      <c r="A558" s="146"/>
+      <c r="A558" s="158"/>
     </row>
     <row r="559">
-      <c r="A559" s="146"/>
+      <c r="A559" s="158"/>
     </row>
     <row r="560">
-      <c r="A560" s="146"/>
+      <c r="A560" s="158"/>
     </row>
     <row r="561">
-      <c r="A561" s="146"/>
+      <c r="A561" s="158"/>
     </row>
     <row r="562">
-      <c r="A562" s="146"/>
+      <c r="A562" s="158"/>
     </row>
     <row r="563">
-      <c r="A563" s="146"/>
+      <c r="A563" s="158"/>
     </row>
     <row r="564">
-      <c r="A564" s="146"/>
+      <c r="A564" s="158"/>
     </row>
     <row r="565">
-      <c r="A565" s="146"/>
+      <c r="A565" s="158"/>
     </row>
     <row r="566">
-      <c r="A566" s="146"/>
+      <c r="A566" s="158"/>
     </row>
     <row r="567">
-      <c r="A567" s="146"/>
+      <c r="A567" s="158"/>
     </row>
     <row r="568">
-      <c r="A568" s="146"/>
+      <c r="A568" s="158"/>
     </row>
     <row r="569">
-      <c r="A569" s="146"/>
+      <c r="A569" s="158"/>
     </row>
     <row r="570">
-      <c r="A570" s="146"/>
+      <c r="A570" s="158"/>
     </row>
     <row r="571">
-      <c r="A571" s="146"/>
+      <c r="A571" s="158"/>
     </row>
     <row r="572">
-      <c r="A572" s="146"/>
+      <c r="A572" s="158"/>
     </row>
     <row r="573">
-      <c r="A573" s="146"/>
+      <c r="A573" s="158"/>
     </row>
     <row r="574">
-      <c r="A574" s="146"/>
+      <c r="A574" s="158"/>
     </row>
     <row r="575">
-      <c r="A575" s="146"/>
+      <c r="A575" s="158"/>
     </row>
     <row r="576">
-      <c r="A576" s="146"/>
+      <c r="A576" s="158"/>
     </row>
     <row r="577">
-      <c r="A577" s="146"/>
+      <c r="A577" s="158"/>
     </row>
     <row r="578">
-      <c r="A578" s="146"/>
+      <c r="A578" s="158"/>
     </row>
     <row r="579">
-      <c r="A579" s="146"/>
+      <c r="A579" s="158"/>
     </row>
     <row r="580">
-      <c r="A580" s="146"/>
+      <c r="A580" s="158"/>
     </row>
     <row r="581">
-      <c r="A581" s="146"/>
+      <c r="A581" s="158"/>
     </row>
     <row r="582">
-      <c r="A582" s="146"/>
+      <c r="A582" s="158"/>
     </row>
     <row r="583">
-      <c r="A583" s="146"/>
+      <c r="A583" s="158"/>
     </row>
     <row r="584">
-      <c r="A584" s="146"/>
+      <c r="A584" s="158"/>
     </row>
     <row r="585">
-      <c r="A585" s="146"/>
+      <c r="A585" s="158"/>
     </row>
     <row r="586">
-      <c r="A586" s="146"/>
+      <c r="A586" s="158"/>
     </row>
     <row r="587">
-      <c r="A587" s="146"/>
+      <c r="A587" s="158"/>
     </row>
     <row r="588">
-      <c r="A588" s="146"/>
+      <c r="A588" s="158"/>
     </row>
     <row r="589">
-      <c r="A589" s="146"/>
+      <c r="A589" s="158"/>
     </row>
     <row r="590">
-      <c r="A590" s="146"/>
+      <c r="A590" s="158"/>
     </row>
     <row r="591">
-      <c r="A591" s="146"/>
+      <c r="A591" s="158"/>
     </row>
     <row r="592">
-      <c r="A592" s="146"/>
+      <c r="A592" s="158"/>
     </row>
     <row r="593">
-      <c r="A593" s="146"/>
+      <c r="A593" s="158"/>
     </row>
     <row r="594">
-      <c r="A594" s="146"/>
+      <c r="A594" s="158"/>
     </row>
     <row r="595">
-      <c r="A595" s="146"/>
+      <c r="A595" s="158"/>
     </row>
     <row r="596">
-      <c r="A596" s="146"/>
+      <c r="A596" s="158"/>
     </row>
     <row r="597">
-      <c r="A597" s="146"/>
+      <c r="A597" s="158"/>
     </row>
     <row r="598">
-      <c r="A598" s="146"/>
+      <c r="A598" s="158"/>
     </row>
     <row r="599">
-      <c r="A599" s="146"/>
+      <c r="A599" s="158"/>
     </row>
     <row r="600">
-      <c r="A600" s="146"/>
+      <c r="A600" s="158"/>
     </row>
     <row r="601">
-      <c r="A601" s="146"/>
+      <c r="A601" s="158"/>
     </row>
     <row r="602">
-      <c r="A602" s="146"/>
+      <c r="A602" s="158"/>
     </row>
     <row r="603">
-      <c r="A603" s="146"/>
+      <c r="A603" s="158"/>
     </row>
     <row r="604">
-      <c r="A604" s="146"/>
+      <c r="A604" s="158"/>
     </row>
     <row r="605">
-      <c r="A605" s="146"/>
+      <c r="A605" s="158"/>
     </row>
     <row r="606">
-      <c r="A606" s="146"/>
+      <c r="A606" s="158"/>
     </row>
     <row r="607">
-      <c r="A607" s="146"/>
+      <c r="A607" s="158"/>
     </row>
     <row r="608">
-      <c r="A608" s="146"/>
+      <c r="A608" s="158"/>
     </row>
     <row r="609">
-      <c r="A609" s="146"/>
+      <c r="A609" s="158"/>
     </row>
     <row r="610">
-      <c r="A610" s="146"/>
+      <c r="A610" s="158"/>
     </row>
     <row r="611">
-      <c r="A611" s="146"/>
+      <c r="A611" s="158"/>
     </row>
     <row r="612">
-      <c r="A612" s="146"/>
+      <c r="A612" s="158"/>
     </row>
     <row r="613">
-      <c r="A613" s="146"/>
+      <c r="A613" s="158"/>
     </row>
     <row r="614">
-      <c r="A614" s="146"/>
+      <c r="A614" s="158"/>
     </row>
     <row r="615">
-      <c r="A615" s="146"/>
+      <c r="A615" s="158"/>
     </row>
     <row r="616">
-      <c r="A616" s="146"/>
+      <c r="A616" s="158"/>
     </row>
     <row r="617">
-      <c r="A617" s="146"/>
+      <c r="A617" s="158"/>
     </row>
     <row r="618">
-      <c r="A618" s="146"/>
+      <c r="A618" s="158"/>
     </row>
     <row r="619">
-      <c r="A619" s="146"/>
+      <c r="A619" s="158"/>
     </row>
     <row r="620">
-      <c r="A620" s="146"/>
+      <c r="A620" s="158"/>
     </row>
     <row r="621">
-      <c r="A621" s="146"/>
+      <c r="A621" s="158"/>
     </row>
     <row r="622">
-      <c r="A622" s="146"/>
+      <c r="A622" s="158"/>
     </row>
     <row r="623">
-      <c r="A623" s="146"/>
+      <c r="A623" s="158"/>
     </row>
     <row r="624">
-      <c r="A624" s="146"/>
+      <c r="A624" s="158"/>
     </row>
     <row r="625">
-      <c r="A625" s="146"/>
+      <c r="A625" s="158"/>
     </row>
     <row r="626">
-      <c r="A626" s="146"/>
+      <c r="A626" s="158"/>
     </row>
     <row r="627">
-      <c r="A627" s="146"/>
+      <c r="A627" s="158"/>
     </row>
     <row r="628">
-      <c r="A628" s="146"/>
+      <c r="A628" s="158"/>
     </row>
     <row r="629">
-      <c r="A629" s="146"/>
+      <c r="A629" s="158"/>
     </row>
     <row r="630">
-      <c r="A630" s="146"/>
+      <c r="A630" s="158"/>
     </row>
     <row r="631">
-      <c r="A631" s="146"/>
+      <c r="A631" s="158"/>
     </row>
     <row r="632">
-      <c r="A632" s="146"/>
+      <c r="A632" s="158"/>
     </row>
     <row r="633">
-      <c r="A633" s="146"/>
+      <c r="A633" s="158"/>
     </row>
     <row r="634">
-      <c r="A634" s="146"/>
+      <c r="A634" s="158"/>
     </row>
     <row r="635">
-      <c r="A635" s="146"/>
+      <c r="A635" s="158"/>
     </row>
     <row r="636">
-      <c r="A636" s="146"/>
+      <c r="A636" s="158"/>
     </row>
     <row r="637">
-      <c r="A637" s="146"/>
+      <c r="A637" s="158"/>
     </row>
     <row r="638">
-      <c r="A638" s="146"/>
+      <c r="A638" s="158"/>
     </row>
     <row r="639">
-      <c r="A639" s="146"/>
+      <c r="A639" s="158"/>
     </row>
     <row r="640">
-      <c r="A640" s="146"/>
+      <c r="A640" s="158"/>
     </row>
     <row r="641">
-      <c r="A641" s="146"/>
+      <c r="A641" s="158"/>
     </row>
     <row r="642">
-      <c r="A642" s="146"/>
+      <c r="A642" s="158"/>
     </row>
     <row r="643">
-      <c r="A643" s="146"/>
+      <c r="A643" s="158"/>
     </row>
     <row r="644">
-      <c r="A644" s="146"/>
+      <c r="A644" s="158"/>
     </row>
     <row r="645">
-      <c r="A645" s="146"/>
+      <c r="A645" s="158"/>
     </row>
     <row r="646">
-      <c r="A646" s="146"/>
+      <c r="A646" s="158"/>
     </row>
     <row r="647">
-      <c r="A647" s="146"/>
+      <c r="A647" s="158"/>
     </row>
     <row r="648">
-      <c r="A648" s="146"/>
+      <c r="A648" s="158"/>
     </row>
     <row r="649">
-      <c r="A649" s="146"/>
+      <c r="A649" s="158"/>
     </row>
     <row r="650">
-      <c r="A650" s="146"/>
+      <c r="A650" s="158"/>
     </row>
     <row r="651">
-      <c r="A651" s="146"/>
+      <c r="A651" s="158"/>
     </row>
     <row r="652">
-      <c r="A652" s="146"/>
+      <c r="A652" s="158"/>
     </row>
     <row r="653">
-      <c r="A653" s="146"/>
+      <c r="A653" s="158"/>
     </row>
     <row r="654">
-      <c r="A654" s="146"/>
+      <c r="A654" s="158"/>
     </row>
     <row r="655">
-      <c r="A655" s="146"/>
+      <c r="A655" s="158"/>
     </row>
     <row r="656">
-      <c r="A656" s="146"/>
+      <c r="A656" s="158"/>
     </row>
     <row r="657">
-      <c r="A657" s="146"/>
+      <c r="A657" s="158"/>
     </row>
     <row r="658">
-      <c r="A658" s="146"/>
+      <c r="A658" s="158"/>
     </row>
     <row r="659">
-      <c r="A659" s="146"/>
+      <c r="A659" s="158"/>
     </row>
     <row r="660">
-      <c r="A660" s="146"/>
+      <c r="A660" s="158"/>
     </row>
     <row r="661">
-      <c r="A661" s="146"/>
+      <c r="A661" s="158"/>
     </row>
     <row r="662">
-      <c r="A662" s="146"/>
+      <c r="A662" s="158"/>
     </row>
     <row r="663">
-      <c r="A663" s="146"/>
+      <c r="A663" s="158"/>
     </row>
     <row r="664">
-      <c r="A664" s="146"/>
+      <c r="A664" s="158"/>
     </row>
     <row r="665">
-      <c r="A665" s="146"/>
+      <c r="A665" s="158"/>
     </row>
     <row r="666">
-      <c r="A666" s="146"/>
+      <c r="A666" s="158"/>
     </row>
     <row r="667">
-      <c r="A667" s="146"/>
+      <c r="A667" s="158"/>
     </row>
     <row r="668">
-      <c r="A668" s="146"/>
+      <c r="A668" s="158"/>
     </row>
     <row r="669">
-      <c r="A669" s="146"/>
+      <c r="A669" s="158"/>
     </row>
     <row r="670">
-      <c r="A670" s="146"/>
+      <c r="A670" s="158"/>
     </row>
     <row r="671">
-      <c r="A671" s="146"/>
+      <c r="A671" s="158"/>
     </row>
     <row r="672">
-      <c r="A672" s="146"/>
+      <c r="A672" s="158"/>
     </row>
     <row r="673">
-      <c r="A673" s="146"/>
+      <c r="A673" s="158"/>
     </row>
     <row r="674">
-      <c r="A674" s="146"/>
+      <c r="A674" s="158"/>
     </row>
     <row r="675">
-      <c r="A675" s="146"/>
+      <c r="A675" s="158"/>
     </row>
     <row r="676">
-      <c r="A676" s="146"/>
+      <c r="A676" s="158"/>
     </row>
     <row r="677">
-      <c r="A677" s="146"/>
+      <c r="A677" s="158"/>
     </row>
     <row r="678">
-      <c r="A678" s="146"/>
+      <c r="A678" s="158"/>
     </row>
     <row r="679">
-      <c r="A679" s="146"/>
+      <c r="A679" s="158"/>
     </row>
     <row r="680">
-      <c r="A680" s="146"/>
+      <c r="A680" s="158"/>
     </row>
     <row r="681">
-      <c r="A681" s="146"/>
+      <c r="A681" s="158"/>
     </row>
     <row r="682">
-      <c r="A682" s="146"/>
+      <c r="A682" s="158"/>
     </row>
     <row r="683">
-      <c r="A683" s="146"/>
+      <c r="A683" s="158"/>
     </row>
     <row r="684">
-      <c r="A684" s="146"/>
+      <c r="A684" s="158"/>
     </row>
     <row r="685">
-      <c r="A685" s="146"/>
+      <c r="A685" s="158"/>
     </row>
     <row r="686">
-      <c r="A686" s="146"/>
+      <c r="A686" s="158"/>
     </row>
     <row r="687">
-      <c r="A687" s="146"/>
+      <c r="A687" s="158"/>
     </row>
     <row r="688">
-      <c r="A688" s="146"/>
+      <c r="A688" s="158"/>
     </row>
     <row r="689">
-      <c r="A689" s="146"/>
+      <c r="A689" s="158"/>
     </row>
     <row r="690">
-      <c r="A690" s="146"/>
+      <c r="A690" s="158"/>
     </row>
     <row r="691">
-      <c r="A691" s="146"/>
+      <c r="A691" s="158"/>
     </row>
     <row r="692">
-      <c r="A692" s="146"/>
+      <c r="A692" s="158"/>
     </row>
     <row r="693">
-      <c r="A693" s="146"/>
+      <c r="A693" s="158"/>
     </row>
     <row r="694">
-      <c r="A694" s="146"/>
+      <c r="A694" s="158"/>
     </row>
     <row r="695">
-      <c r="A695" s="146"/>
+      <c r="A695" s="158"/>
     </row>
     <row r="696">
-      <c r="A696" s="146"/>
+      <c r="A696" s="158"/>
     </row>
     <row r="697">
-      <c r="A697" s="146"/>
+      <c r="A697" s="158"/>
     </row>
     <row r="698">
-      <c r="A698" s="146"/>
+      <c r="A698" s="158"/>
     </row>
     <row r="699">
-      <c r="A699" s="146"/>
+      <c r="A699" s="158"/>
     </row>
     <row r="700">
-      <c r="A700" s="146"/>
+      <c r="A700" s="158"/>
     </row>
     <row r="701">
-      <c r="A701" s="146"/>
+      <c r="A701" s="158"/>
     </row>
     <row r="702">
-      <c r="A702" s="146"/>
+      <c r="A702" s="158"/>
     </row>
     <row r="703">
-      <c r="A703" s="146"/>
+      <c r="A703" s="158"/>
     </row>
     <row r="704">
-      <c r="A704" s="146"/>
+      <c r="A704" s="158"/>
     </row>
     <row r="705">
-      <c r="A705" s="146"/>
+      <c r="A705" s="158"/>
     </row>
     <row r="706">
-      <c r="A706" s="146"/>
+      <c r="A706" s="158"/>
     </row>
     <row r="707">
-      <c r="A707" s="146"/>
+      <c r="A707" s="158"/>
     </row>
     <row r="708">
-      <c r="A708" s="146"/>
+      <c r="A708" s="158"/>
     </row>
     <row r="709">
-      <c r="A709" s="146"/>
+      <c r="A709" s="158"/>
     </row>
     <row r="710">
-      <c r="A710" s="146"/>
+      <c r="A710" s="158"/>
     </row>
     <row r="711">
-      <c r="A711" s="146"/>
+      <c r="A711" s="158"/>
     </row>
     <row r="712">
-      <c r="A712" s="146"/>
+      <c r="A712" s="158"/>
     </row>
     <row r="713">
-      <c r="A713" s="146"/>
+      <c r="A713" s="158"/>
     </row>
     <row r="714">
-      <c r="A714" s="146"/>
+      <c r="A714" s="158"/>
     </row>
     <row r="715">
-      <c r="A715" s="146"/>
+      <c r="A715" s="158"/>
     </row>
     <row r="716">
-      <c r="A716" s="146"/>
+      <c r="A716" s="158"/>
     </row>
     <row r="717">
-      <c r="A717" s="146"/>
+      <c r="A717" s="158"/>
     </row>
     <row r="718">
-      <c r="A718" s="146"/>
+      <c r="A718" s="158"/>
     </row>
     <row r="719">
-      <c r="A719" s="146"/>
+      <c r="A719" s="158"/>
     </row>
     <row r="720">
-      <c r="A720" s="146"/>
+      <c r="A720" s="158"/>
     </row>
     <row r="721">
-      <c r="A721" s="146"/>
+      <c r="A721" s="158"/>
     </row>
     <row r="722">
-      <c r="A722" s="146"/>
+      <c r="A722" s="158"/>
     </row>
     <row r="723">
-      <c r="A723" s="146"/>
+      <c r="A723" s="158"/>
     </row>
     <row r="724">
-      <c r="A724" s="146"/>
+      <c r="A724" s="158"/>
     </row>
     <row r="725">
-      <c r="A725" s="146"/>
+      <c r="A725" s="158"/>
     </row>
     <row r="726">
-      <c r="A726" s="146"/>
+      <c r="A726" s="158"/>
     </row>
     <row r="727">
-      <c r="A727" s="146"/>
+      <c r="A727" s="158"/>
     </row>
     <row r="728">
-      <c r="A728" s="146"/>
+      <c r="A728" s="158"/>
     </row>
     <row r="729">
-      <c r="A729" s="146"/>
+      <c r="A729" s="158"/>
     </row>
     <row r="730">
-      <c r="A730" s="146"/>
+      <c r="A730" s="158"/>
     </row>
     <row r="731">
-      <c r="A731" s="146"/>
+      <c r="A731" s="158"/>
     </row>
     <row r="732">
-      <c r="A732" s="146"/>
+      <c r="A732" s="158"/>
     </row>
     <row r="733">
-      <c r="A733" s="146"/>
+      <c r="A733" s="158"/>
     </row>
     <row r="734">
-      <c r="A734" s="146"/>
+      <c r="A734" s="158"/>
     </row>
     <row r="735">
-      <c r="A735" s="146"/>
+      <c r="A735" s="158"/>
     </row>
     <row r="736">
-      <c r="A736" s="146"/>
+      <c r="A736" s="158"/>
     </row>
     <row r="737">
-      <c r="A737" s="146"/>
+      <c r="A737" s="158"/>
     </row>
     <row r="738">
-      <c r="A738" s="146"/>
+      <c r="A738" s="158"/>
     </row>
     <row r="739">
-      <c r="A739" s="146"/>
+      <c r="A739" s="158"/>
     </row>
     <row r="740">
-      <c r="A740" s="146"/>
+      <c r="A740" s="158"/>
     </row>
     <row r="741">
-      <c r="A741" s="146"/>
+      <c r="A741" s="158"/>
     </row>
     <row r="742">
-      <c r="A742" s="146"/>
+      <c r="A742" s="158"/>
     </row>
     <row r="743">
-      <c r="A743" s="146"/>
+      <c r="A743" s="158"/>
     </row>
     <row r="744">
-      <c r="A744" s="146"/>
+      <c r="A744" s="158"/>
     </row>
     <row r="745">
-      <c r="A745" s="146"/>
+      <c r="A745" s="158"/>
     </row>
     <row r="746">
-      <c r="A746" s="146"/>
+      <c r="A746" s="158"/>
     </row>
     <row r="747">
-      <c r="A747" s="146"/>
+      <c r="A747" s="158"/>
     </row>
     <row r="748">
-      <c r="A748" s="146"/>
+      <c r="A748" s="158"/>
     </row>
     <row r="749">
-      <c r="A749" s="146"/>
+      <c r="A749" s="158"/>
     </row>
     <row r="750">
-      <c r="A750" s="146"/>
+      <c r="A750" s="158"/>
     </row>
     <row r="751">
-      <c r="A751" s="146"/>
+      <c r="A751" s="158"/>
     </row>
     <row r="752">
-      <c r="A752" s="146"/>
+      <c r="A752" s="158"/>
     </row>
     <row r="753">
-      <c r="A753" s="146"/>
+      <c r="A753" s="158"/>
     </row>
     <row r="754">
-      <c r="A754" s="146"/>
+      <c r="A754" s="158"/>
     </row>
     <row r="755">
-      <c r="A755" s="146"/>
+      <c r="A755" s="158"/>
     </row>
     <row r="756">
-      <c r="A756" s="146"/>
+      <c r="A756" s="158"/>
     </row>
     <row r="757">
-      <c r="A757" s="146"/>
+      <c r="A757" s="158"/>
     </row>
     <row r="758">
-      <c r="A758" s="146"/>
+      <c r="A758" s="158"/>
     </row>
     <row r="759">
-      <c r="A759" s="146"/>
+      <c r="A759" s="158"/>
     </row>
     <row r="760">
-      <c r="A760" s="146"/>
+      <c r="A760" s="158"/>
     </row>
     <row r="761">
-      <c r="A761" s="146"/>
+      <c r="A761" s="158"/>
     </row>
     <row r="762">
-      <c r="A762" s="146"/>
+      <c r="A762" s="158"/>
     </row>
     <row r="763">
-      <c r="A763" s="146"/>
+      <c r="A763" s="158"/>
     </row>
     <row r="764">
-      <c r="A764" s="146"/>
+      <c r="A764" s="158"/>
     </row>
     <row r="765">
-      <c r="A765" s="146"/>
+      <c r="A765" s="158"/>
     </row>
     <row r="766">
-      <c r="A766" s="146"/>
+      <c r="A766" s="158"/>
     </row>
     <row r="767">
-      <c r="A767" s="146"/>
+      <c r="A767" s="158"/>
     </row>
     <row r="768">
-      <c r="A768" s="146"/>
+      <c r="A768" s="158"/>
     </row>
     <row r="769">
-      <c r="A769" s="146"/>
+      <c r="A769" s="158"/>
     </row>
     <row r="770">
-      <c r="A770" s="146"/>
+      <c r="A770" s="158"/>
     </row>
     <row r="771">
-      <c r="A771" s="146"/>
+      <c r="A771" s="158"/>
     </row>
     <row r="772">
-      <c r="A772" s="146"/>
+      <c r="A772" s="158"/>
     </row>
     <row r="773">
-      <c r="A773" s="146"/>
+      <c r="A773" s="158"/>
     </row>
     <row r="774">
-      <c r="A774" s="146"/>
+      <c r="A774" s="158"/>
     </row>
     <row r="775">
-      <c r="A775" s="146"/>
+      <c r="A775" s="158"/>
     </row>
     <row r="776">
-      <c r="A776" s="146"/>
+      <c r="A776" s="158"/>
     </row>
     <row r="777">
-      <c r="A777" s="146"/>
+      <c r="A777" s="158"/>
     </row>
     <row r="778">
-      <c r="A778" s="146"/>
+      <c r="A778" s="158"/>
     </row>
     <row r="779">
-      <c r="A779" s="146"/>
+      <c r="A779" s="158"/>
     </row>
     <row r="780">
-      <c r="A780" s="146"/>
+      <c r="A780" s="158"/>
     </row>
     <row r="781">
-      <c r="A781" s="146"/>
+      <c r="A781" s="158"/>
     </row>
     <row r="782">
-      <c r="A782" s="146"/>
+      <c r="A782" s="158"/>
     </row>
     <row r="783">
-      <c r="A783" s="146"/>
+      <c r="A783" s="158"/>
     </row>
     <row r="784">
-      <c r="A784" s="146"/>
+      <c r="A784" s="158"/>
     </row>
     <row r="785">
-      <c r="A785" s="146"/>
+      <c r="A785" s="158"/>
     </row>
     <row r="786">
-      <c r="A786" s="146"/>
+      <c r="A786" s="158"/>
     </row>
     <row r="787">
-      <c r="A787" s="146"/>
+      <c r="A787" s="158"/>
     </row>
     <row r="788">
-      <c r="A788" s="146"/>
+      <c r="A788" s="158"/>
     </row>
     <row r="789">
-      <c r="A789" s="146"/>
+      <c r="A789" s="158"/>
     </row>
     <row r="790">
-      <c r="A790" s="146"/>
+      <c r="A790" s="158"/>
     </row>
     <row r="791">
-      <c r="A791" s="146"/>
+      <c r="A791" s="158"/>
     </row>
     <row r="792">
-      <c r="A792" s="146"/>
+      <c r="A792" s="158"/>
     </row>
     <row r="793">
-      <c r="A793" s="146"/>
+      <c r="A793" s="158"/>
     </row>
     <row r="794">
-      <c r="A794" s="146"/>
+      <c r="A794" s="158"/>
     </row>
     <row r="795">
-      <c r="A795" s="146"/>
+      <c r="A795" s="158"/>
     </row>
     <row r="796">
-      <c r="A796" s="146"/>
+      <c r="A796" s="158"/>
     </row>
     <row r="797">
-      <c r="A797" s="146"/>
+      <c r="A797" s="158"/>
     </row>
     <row r="798">
-      <c r="A798" s="146"/>
+      <c r="A798" s="158"/>
     </row>
     <row r="799">
-      <c r="A799" s="146"/>
+      <c r="A799" s="158"/>
     </row>
     <row r="800">
-      <c r="A800" s="146"/>
+      <c r="A800" s="158"/>
     </row>
     <row r="801">
-      <c r="A801" s="146"/>
+      <c r="A801" s="158"/>
     </row>
     <row r="802">
-      <c r="A802" s="146"/>
+      <c r="A802" s="158"/>
     </row>
     <row r="803">
-      <c r="A803" s="146"/>
+      <c r="A803" s="158"/>
     </row>
     <row r="804">
-      <c r="A804" s="146"/>
+      <c r="A804" s="158"/>
     </row>
     <row r="805">
-      <c r="A805" s="146"/>
+      <c r="A805" s="158"/>
     </row>
     <row r="806">
-      <c r="A806" s="146"/>
+      <c r="A806" s="158"/>
     </row>
     <row r="807">
-      <c r="A807" s="146"/>
+      <c r="A807" s="158"/>
     </row>
     <row r="808">
-      <c r="A808" s="146"/>
+      <c r="A808" s="158"/>
     </row>
     <row r="809">
-      <c r="A809" s="146"/>
+      <c r="A809" s="158"/>
     </row>
     <row r="810">
-      <c r="A810" s="146"/>
+      <c r="A810" s="158"/>
     </row>
     <row r="811">
-      <c r="A811" s="146"/>
+      <c r="A811" s="158"/>
     </row>
     <row r="812">
-      <c r="A812" s="146"/>
+      <c r="A812" s="158"/>
     </row>
     <row r="813">
-      <c r="A813" s="146"/>
+      <c r="A813" s="158"/>
     </row>
     <row r="814">
-      <c r="A814" s="146"/>
+      <c r="A814" s="158"/>
     </row>
     <row r="815">
-      <c r="A815" s="146"/>
+      <c r="A815" s="158"/>
     </row>
     <row r="816">
-      <c r="A816" s="146"/>
+      <c r="A816" s="158"/>
     </row>
     <row r="817">
-      <c r="A817" s="146"/>
+      <c r="A817" s="158"/>
     </row>
     <row r="818">
-      <c r="A818" s="146"/>
+      <c r="A818" s="158"/>
     </row>
     <row r="819">
-      <c r="A819" s="146"/>
+      <c r="A819" s="158"/>
     </row>
     <row r="820">
-      <c r="A820" s="146"/>
+      <c r="A820" s="158"/>
     </row>
     <row r="821">
-      <c r="A821" s="146"/>
+      <c r="A821" s="158"/>
     </row>
     <row r="822">
-      <c r="A822" s="146"/>
+      <c r="A822" s="158"/>
     </row>
     <row r="823">
-      <c r="A823" s="146"/>
+      <c r="A823" s="158"/>
     </row>
     <row r="824">
-      <c r="A824" s="146"/>
+      <c r="A824" s="158"/>
     </row>
     <row r="825">
-      <c r="A825" s="146"/>
+      <c r="A825" s="158"/>
     </row>
     <row r="826">
-      <c r="A826" s="146"/>
+      <c r="A826" s="158"/>
     </row>
     <row r="827">
-      <c r="A827" s="146"/>
+      <c r="A827" s="158"/>
     </row>
     <row r="828">
-      <c r="A828" s="146"/>
+      <c r="A828" s="158"/>
     </row>
     <row r="829">
-      <c r="A829" s="146"/>
+      <c r="A829" s="158"/>
     </row>
     <row r="830">
-      <c r="A830" s="146"/>
+      <c r="A830" s="158"/>
     </row>
     <row r="831">
-      <c r="A831" s="146"/>
+      <c r="A831" s="158"/>
     </row>
     <row r="832">
-      <c r="A832" s="146"/>
+      <c r="A832" s="158"/>
     </row>
     <row r="833">
-      <c r="A833" s="146"/>
+      <c r="A833" s="158"/>
     </row>
     <row r="834">
-      <c r="A834" s="146"/>
+      <c r="A834" s="158"/>
     </row>
     <row r="835">
-      <c r="A835" s="146"/>
+      <c r="A835" s="158"/>
     </row>
     <row r="836">
-      <c r="A836" s="146"/>
+      <c r="A836" s="158"/>
     </row>
     <row r="837">
-      <c r="A837" s="146"/>
+      <c r="A837" s="158"/>
     </row>
     <row r="838">
-      <c r="A838" s="146"/>
+      <c r="A838" s="158"/>
     </row>
     <row r="839">
-      <c r="A839" s="146"/>
+      <c r="A839" s="158"/>
     </row>
     <row r="840">
-      <c r="A840" s="146"/>
+      <c r="A840" s="158"/>
     </row>
     <row r="841">
-      <c r="A841" s="146"/>
+      <c r="A841" s="158"/>
     </row>
     <row r="842">
-      <c r="A842" s="146"/>
+      <c r="A842" s="158"/>
     </row>
     <row r="843">
-      <c r="A843" s="146"/>
+      <c r="A843" s="158"/>
     </row>
     <row r="844">
-      <c r="A844" s="146"/>
+      <c r="A844" s="158"/>
     </row>
     <row r="845">
-      <c r="A845" s="146"/>
+      <c r="A845" s="158"/>
     </row>
     <row r="846">
-      <c r="A846" s="146"/>
+      <c r="A846" s="158"/>
     </row>
     <row r="847">
-      <c r="A847" s="146"/>
+      <c r="A847" s="158"/>
     </row>
     <row r="848">
-      <c r="A848" s="146"/>
+      <c r="A848" s="158"/>
     </row>
     <row r="849">
-      <c r="A849" s="146"/>
+      <c r="A849" s="158"/>
     </row>
     <row r="850">
-      <c r="A850" s="146"/>
+      <c r="A850" s="158"/>
     </row>
     <row r="851">
-      <c r="A851" s="146"/>
+      <c r="A851" s="158"/>
     </row>
     <row r="852">
-      <c r="A852" s="146"/>
+      <c r="A852" s="158"/>
     </row>
     <row r="853">
-      <c r="A853" s="146"/>
+      <c r="A853" s="158"/>
     </row>
     <row r="854">
-      <c r="A854" s="146"/>
+      <c r="A854" s="158"/>
     </row>
     <row r="855">
-      <c r="A855" s="146"/>
+      <c r="A855" s="158"/>
     </row>
     <row r="856">
-      <c r="A856" s="146"/>
+      <c r="A856" s="158"/>
     </row>
     <row r="857">
-      <c r="A857" s="146"/>
+      <c r="A857" s="158"/>
     </row>
     <row r="858">
-      <c r="A858" s="146"/>
+      <c r="A858" s="158"/>
     </row>
     <row r="859">
-      <c r="A859" s="146"/>
+      <c r="A859" s="158"/>
     </row>
     <row r="860">
-      <c r="A860" s="146"/>
+      <c r="A860" s="158"/>
     </row>
     <row r="861">
-      <c r="A861" s="146"/>
+      <c r="A861" s="158"/>
     </row>
     <row r="862">
-      <c r="A862" s="146"/>
+      <c r="A862" s="158"/>
     </row>
     <row r="863">
-      <c r="A863" s="146"/>
+      <c r="A863" s="158"/>
     </row>
     <row r="864">
-      <c r="A864" s="146"/>
+      <c r="A864" s="158"/>
     </row>
     <row r="865">
-      <c r="A865" s="146"/>
+      <c r="A865" s="158"/>
     </row>
     <row r="866">
-      <c r="A866" s="146"/>
+      <c r="A866" s="158"/>
     </row>
     <row r="867">
-      <c r="A867" s="146"/>
+      <c r="A867" s="158"/>
     </row>
     <row r="868">
-      <c r="A868" s="146"/>
+      <c r="A868" s="158"/>
     </row>
     <row r="869">
-      <c r="A869" s="146"/>
+      <c r="A869" s="158"/>
     </row>
     <row r="870">
-      <c r="A870" s="146"/>
+      <c r="A870" s="158"/>
     </row>
     <row r="871">
-      <c r="A871" s="146"/>
+      <c r="A871" s="158"/>
     </row>
     <row r="872">
-      <c r="A872" s="146"/>
+      <c r="A872" s="158"/>
     </row>
     <row r="873">
-      <c r="A873" s="146"/>
+      <c r="A873" s="158"/>
     </row>
     <row r="874">
-      <c r="A874" s="146"/>
+      <c r="A874" s="158"/>
     </row>
     <row r="875">
-      <c r="A875" s="146"/>
+      <c r="A875" s="158"/>
     </row>
     <row r="876">
-      <c r="A876" s="146"/>
+      <c r="A876" s="158"/>
     </row>
     <row r="877">
-      <c r="A877" s="146"/>
+      <c r="A877" s="158"/>
     </row>
     <row r="878">
-      <c r="A878" s="146"/>
+      <c r="A878" s="158"/>
     </row>
     <row r="879">
-      <c r="A879" s="146"/>
+      <c r="A879" s="158"/>
     </row>
     <row r="880">
-      <c r="A880" s="146"/>
+      <c r="A880" s="158"/>
     </row>
     <row r="881">
-      <c r="A881" s="146"/>
+      <c r="A881" s="158"/>
     </row>
     <row r="882">
-      <c r="A882" s="146"/>
+      <c r="A882" s="158"/>
     </row>
     <row r="883">
-      <c r="A883" s="146"/>
+      <c r="A883" s="158"/>
     </row>
     <row r="884">
-      <c r="A884" s="146"/>
+      <c r="A884" s="158"/>
     </row>
     <row r="885">
-      <c r="A885" s="146"/>
+      <c r="A885" s="158"/>
     </row>
     <row r="886">
-      <c r="A886" s="146"/>
+      <c r="A886" s="158"/>
     </row>
     <row r="887">
-      <c r="A887" s="146"/>
+      <c r="A887" s="158"/>
     </row>
     <row r="888">
-      <c r="A888" s="146"/>
+      <c r="A888" s="158"/>
     </row>
     <row r="889">
-      <c r="A889" s="146"/>
+      <c r="A889" s="158"/>
     </row>
     <row r="890">
-      <c r="A890" s="146"/>
+      <c r="A890" s="158"/>
     </row>
     <row r="891">
-      <c r="A891" s="146"/>
+      <c r="A891" s="158"/>
     </row>
     <row r="892">
-      <c r="A892" s="146"/>
+      <c r="A892" s="158"/>
     </row>
     <row r="893">
-      <c r="A893" s="146"/>
+      <c r="A893" s="158"/>
     </row>
     <row r="894">
-      <c r="A894" s="146"/>
+      <c r="A894" s="158"/>
     </row>
     <row r="895">
-      <c r="A895" s="146"/>
+      <c r="A895" s="158"/>
     </row>
     <row r="896">
-      <c r="A896" s="146"/>
+      <c r="A896" s="158"/>
     </row>
     <row r="897">
-      <c r="A897" s="146"/>
+      <c r="A897" s="158"/>
     </row>
     <row r="898">
-      <c r="A898" s="146"/>
+      <c r="A898" s="158"/>
     </row>
     <row r="899">
-      <c r="A899" s="146"/>
+      <c r="A899" s="158"/>
     </row>
     <row r="900">
-      <c r="A900" s="146"/>
+      <c r="A900" s="158"/>
     </row>
     <row r="901">
-      <c r="A901" s="146"/>
+      <c r="A901" s="158"/>
     </row>
     <row r="902">
-      <c r="A902" s="146"/>
+      <c r="A902" s="158"/>
     </row>
     <row r="903">
-      <c r="A903" s="146"/>
+      <c r="A903" s="158"/>
     </row>
     <row r="904">
-      <c r="A904" s="146"/>
+      <c r="A904" s="158"/>
     </row>
     <row r="905">
-      <c r="A905" s="146"/>
+      <c r="A905" s="158"/>
     </row>
     <row r="906">
-      <c r="A906" s="146"/>
+      <c r="A906" s="158"/>
     </row>
     <row r="907">
-      <c r="A907" s="146"/>
+      <c r="A907" s="158"/>
     </row>
     <row r="908">
-      <c r="A908" s="146"/>
+      <c r="A908" s="158"/>
     </row>
     <row r="909">
-      <c r="A909" s="146"/>
+      <c r="A909" s="158"/>
     </row>
     <row r="910">
-      <c r="A910" s="146"/>
+      <c r="A910" s="158"/>
     </row>
     <row r="911">
-      <c r="A911" s="146"/>
+      <c r="A911" s="158"/>
     </row>
     <row r="912">
-      <c r="A912" s="146"/>
+      <c r="A912" s="158"/>
     </row>
     <row r="913">
-      <c r="A913" s="146"/>
+      <c r="A913" s="158"/>
     </row>
     <row r="914">
-      <c r="A914" s="146"/>
+      <c r="A914" s="158"/>
     </row>
     <row r="915">
-      <c r="A915" s="146"/>
+      <c r="A915" s="158"/>
     </row>
     <row r="916">
-      <c r="A916" s="146"/>
+      <c r="A916" s="158"/>
     </row>
     <row r="917">
-      <c r="A917" s="146"/>
+      <c r="A917" s="158"/>
     </row>
     <row r="918">
-      <c r="A918" s="146"/>
+      <c r="A918" s="158"/>
     </row>
     <row r="919">
-      <c r="A919" s="146"/>
+      <c r="A919" s="158"/>
     </row>
     <row r="920">
-      <c r="A920" s="146"/>
+      <c r="A920" s="158"/>
     </row>
     <row r="921">
-      <c r="A921" s="146"/>
+      <c r="A921" s="158"/>
     </row>
     <row r="922">
-      <c r="A922" s="146"/>
+      <c r="A922" s="158"/>
     </row>
     <row r="923">
-      <c r="A923" s="146"/>
+      <c r="A923" s="158"/>
     </row>
     <row r="924">
-      <c r="A924" s="146"/>
+      <c r="A924" s="158"/>
     </row>
     <row r="925">
-      <c r="A925" s="146"/>
+      <c r="A925" s="158"/>
     </row>
     <row r="926">
-      <c r="A926" s="146"/>
+      <c r="A926" s="158"/>
     </row>
     <row r="927">
-      <c r="A927" s="146"/>
+      <c r="A927" s="158"/>
     </row>
     <row r="928">
-      <c r="A928" s="146"/>
+      <c r="A928" s="158"/>
     </row>
     <row r="929">
-      <c r="A929" s="146"/>
+      <c r="A929" s="158"/>
     </row>
     <row r="930">
-      <c r="A930" s="146"/>
+      <c r="A930" s="158"/>
     </row>
     <row r="931">
-      <c r="A931" s="146"/>
+      <c r="A931" s="158"/>
     </row>
     <row r="932">
-      <c r="A932" s="146"/>
+      <c r="A932" s="158"/>
     </row>
     <row r="933">
-      <c r="A933" s="146"/>
+      <c r="A933" s="158"/>
     </row>
     <row r="934">
-      <c r="A934" s="146"/>
+      <c r="A934" s="158"/>
     </row>
     <row r="935">
-      <c r="A935" s="146"/>
+      <c r="A935" s="158"/>
     </row>
     <row r="936">
-      <c r="A936" s="146"/>
+      <c r="A936" s="158"/>
     </row>
     <row r="937">
-      <c r="A937" s="146"/>
+      <c r="A937" s="158"/>
     </row>
     <row r="938">
-      <c r="A938" s="146"/>
+      <c r="A938" s="158"/>
     </row>
     <row r="939">
-      <c r="A939" s="146"/>
+      <c r="A939" s="158"/>
     </row>
     <row r="940">
-      <c r="A940" s="146"/>
+      <c r="A940" s="158"/>
     </row>
     <row r="941">
-      <c r="A941" s="146"/>
+      <c r="A941" s="158"/>
     </row>
     <row r="942">
-      <c r="A942" s="146"/>
+      <c r="A942" s="158"/>
     </row>
     <row r="943">
-      <c r="A943" s="146"/>
+      <c r="A943" s="158"/>
     </row>
     <row r="944">
-      <c r="A944" s="146"/>
+      <c r="A944" s="158"/>
     </row>
     <row r="945">
-      <c r="A945" s="146"/>
+      <c r="A945" s="158"/>
     </row>
     <row r="946">
-      <c r="A946" s="146"/>
+      <c r="A946" s="158"/>
     </row>
     <row r="947">
-      <c r="A947" s="146"/>
+      <c r="A947" s="158"/>
     </row>
     <row r="948">
-      <c r="A948" s="146"/>
+      <c r="A948" s="158"/>
     </row>
     <row r="949">
-      <c r="A949" s="146"/>
+      <c r="A949" s="158"/>
     </row>
     <row r="950">
-      <c r="A950" s="146"/>
+      <c r="A950" s="158"/>
     </row>
     <row r="951">
-      <c r="A951" s="146"/>
+      <c r="A951" s="158"/>
     </row>
     <row r="952">
-      <c r="A952" s="146"/>
+      <c r="A952" s="158"/>
     </row>
     <row r="953">
-      <c r="A953" s="146"/>
+      <c r="A953" s="158"/>
     </row>
     <row r="954">
-      <c r="A954" s="146"/>
+      <c r="A954" s="158"/>
     </row>
     <row r="955">
-      <c r="A955" s="146"/>
+      <c r="A955" s="158"/>
     </row>
     <row r="956">
-      <c r="A956" s="146"/>
+      <c r="A956" s="158"/>
     </row>
     <row r="957">
-      <c r="A957" s="146"/>
+      <c r="A957" s="158"/>
     </row>
     <row r="958">
-      <c r="A958" s="146"/>
+      <c r="A958" s="158"/>
     </row>
     <row r="959">
-      <c r="A959" s="146"/>
+      <c r="A959" s="158"/>
     </row>
     <row r="960">
-      <c r="A960" s="146"/>
+      <c r="A960" s="158"/>
     </row>
     <row r="961">
-      <c r="A961" s="146"/>
+      <c r="A961" s="158"/>
     </row>
     <row r="962">
-      <c r="A962" s="146"/>
+      <c r="A962" s="158"/>
     </row>
     <row r="963">
-      <c r="A963" s="146"/>
+      <c r="A963" s="158"/>
     </row>
     <row r="964">
-      <c r="A964" s="146"/>
+      <c r="A964" s="158"/>
     </row>
     <row r="965">
-      <c r="A965" s="146"/>
+      <c r="A965" s="158"/>
     </row>
     <row r="966">
-      <c r="A966" s="146"/>
+      <c r="A966" s="158"/>
     </row>
     <row r="967">
-      <c r="A967" s="146"/>
+      <c r="A967" s="158"/>
     </row>
     <row r="968">
-      <c r="A968" s="146"/>
+      <c r="A968" s="158"/>
     </row>
     <row r="969">
-      <c r="A969" s="146"/>
+      <c r="A969" s="158"/>
     </row>
     <row r="970">
-      <c r="A970" s="146"/>
+      <c r="A970" s="158"/>
     </row>
     <row r="971">
-      <c r="A971" s="146"/>
+      <c r="A971" s="158"/>
     </row>
     <row r="972">
-      <c r="A972" s="146"/>
+      <c r="A972" s="158"/>
     </row>
     <row r="973">
-      <c r="A973" s="146"/>
+      <c r="A973" s="158"/>
     </row>
     <row r="974">
-      <c r="A974" s="146"/>
+      <c r="A974" s="158"/>
     </row>
     <row r="975">
-      <c r="A975" s="146"/>
+      <c r="A975" s="158"/>
     </row>
     <row r="976">
-      <c r="A976" s="146"/>
+      <c r="A976" s="158"/>
     </row>
     <row r="977">
-      <c r="A977" s="146"/>
+      <c r="A977" s="158"/>
     </row>
     <row r="978">
-      <c r="A978" s="146"/>
+      <c r="A978" s="158"/>
     </row>
     <row r="979">
-      <c r="A979" s="146"/>
+      <c r="A979" s="158"/>
     </row>
     <row r="980">
-      <c r="A980" s="146"/>
+      <c r="A980" s="158"/>
     </row>
     <row r="981">
-      <c r="A981" s="146"/>
+      <c r="A981" s="158"/>
     </row>
     <row r="982">
-      <c r="A982" s="146"/>
+      <c r="A982" s="158"/>
     </row>
     <row r="983">
-      <c r="A983" s="146"/>
+      <c r="A983" s="158"/>
     </row>
     <row r="984">
-      <c r="A984" s="146"/>
+      <c r="A984" s="158"/>
     </row>
     <row r="985">
-      <c r="A985" s="146"/>
+      <c r="A985" s="158"/>
     </row>
     <row r="986">
-      <c r="A986" s="146"/>
+      <c r="A986" s="158"/>
     </row>
     <row r="987">
-      <c r="A987" s="146"/>
+      <c r="A987" s="158"/>
     </row>
     <row r="988">
-      <c r="A988" s="146"/>
+      <c r="A988" s="158"/>
     </row>
     <row r="989">
-      <c r="A989" s="146"/>
+      <c r="A989" s="158"/>
     </row>
     <row r="990">
-      <c r="A990" s="146"/>
+      <c r="A990" s="158"/>
     </row>
     <row r="991">
-      <c r="A991" s="146"/>
+      <c r="A991" s="158"/>
     </row>
     <row r="992">
-      <c r="A992" s="146"/>
+      <c r="A992" s="158"/>
     </row>
     <row r="993">
-      <c r="A993" s="146"/>
+      <c r="A993" s="158"/>
     </row>
     <row r="994">
-      <c r="A994" s="146"/>
+      <c r="A994" s="158"/>
     </row>
     <row r="995">
-      <c r="A995" s="146"/>
+      <c r="A995" s="158"/>
     </row>
     <row r="996">
-      <c r="A996" s="146"/>
+      <c r="A996" s="158"/>
     </row>
     <row r="997">
-      <c r="A997" s="146"/>
+      <c r="A997" s="158"/>
     </row>
     <row r="998">
-      <c r="A998" s="146"/>
+      <c r="A998" s="158"/>
     </row>
     <row r="999">
-      <c r="A999" s="146"/>
+      <c r="A999" s="158"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="146"/>
+      <c r="A1000" s="158"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9430,28 +9497,28 @@
       <c r="F18" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
       <c r="K18" s="71">
         <v>0.0</v>
       </c>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
     </row>
     <row r="19">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="81" t="s">
         <v>445</v>
       </c>
       <c r="B19" s="72" t="s">
@@ -9470,25 +9537,25 @@
       <c r="G19" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
       <c r="K19" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="79" t="s">
+      <c r="L19" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
       <c r="O19" s="76"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
     </row>
     <row r="20">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="81" t="s">
         <v>449</v>
       </c>
       <c r="B20" s="72" t="s">
@@ -9507,25 +9574,25 @@
       <c r="G20" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
       <c r="K20" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="79" t="s">
+      <c r="L20" s="80" t="s">
         <v>452</v>
       </c>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
     </row>
     <row r="21">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="81" t="s">
         <v>453</v>
       </c>
       <c r="B21" s="72" t="s">
@@ -9544,244 +9611,244 @@
       <c r="G21" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
       <c r="K21" s="71" t="s">
         <v>456</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="L21" s="83" t="s">
         <v>457</v>
       </c>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
     </row>
     <row r="22">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="86" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="G22" s="88" t="s">
+      <c r="G22" s="90" t="s">
         <v>460</v>
       </c>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91">
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93">
         <v>0.0</v>
       </c>
-      <c r="L22" s="92" t="s">
+      <c r="L22" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
     </row>
     <row r="23">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="84" t="s">
         <v>461</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="86" t="s">
         <v>424</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="91" t="s">
+      <c r="D23" s="87"/>
+      <c r="E23" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="93" t="s">
+      <c r="F23" s="95" t="s">
         <v>372</v>
       </c>
-      <c r="G23" s="93" t="s">
+      <c r="G23" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91" t="s">
+      <c r="H23" s="91"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="96" t="s">
         <v>464</v>
       </c>
-      <c r="L23" s="94" t="s">
+      <c r="L23" s="97" t="s">
         <v>465</v>
       </c>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
     </row>
     <row r="24">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="98" t="s">
         <v>466</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="100" t="s">
         <v>421</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="G24" s="100" t="s">
+      <c r="G24" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103">
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="107">
         <v>0.0</v>
       </c>
-      <c r="L24" s="104" t="s">
+      <c r="L24" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
     </row>
     <row r="25">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="99" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="100" t="s">
         <v>424</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="103" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="100" t="s">
+      <c r="F25" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="103" t="s">
         <v>471</v>
       </c>
-      <c r="H25" s="105"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="106" t="s">
+      <c r="H25" s="109"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="110" t="s">
         <v>472</v>
       </c>
-      <c r="L25" s="104" t="s">
+      <c r="L25" s="108" t="s">
         <v>473</v>
       </c>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
     </row>
     <row r="26">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="111" t="s">
         <v>474</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="112" t="s">
         <v>475</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="113" t="s">
         <v>421</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="111" t="s">
+      <c r="D26" s="114"/>
+      <c r="E26" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="116" t="s">
         <v>367</v>
       </c>
-      <c r="G26" s="113" t="s">
+      <c r="G26" s="117" t="s">
         <v>476</v>
       </c>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="116" t="s">
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="117" t="s">
+      <c r="L26" s="121" t="s">
         <v>477</v>
       </c>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="115"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
     </row>
     <row r="27">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="122" t="s">
         <v>478</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="112" t="s">
         <v>479</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="111" t="s">
+      <c r="D27" s="123"/>
+      <c r="E27" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="116" t="s">
         <v>368</v>
       </c>
-      <c r="G27" s="118" t="s">
+      <c r="G27" s="122" t="s">
         <v>480</v>
       </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116" t="s">
+      <c r="H27" s="123"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="117" t="s">
+      <c r="L27" s="121" t="s">
         <v>481</v>
       </c>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="115"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="119"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -9816,16 +9883,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="124" t="s">
         <v>384</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="124" t="s">
         <v>482</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -9834,13 +9901,13 @@
       <c r="F1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="125" t="s">
         <v>340</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="126" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="15" t="s">
@@ -9849,7 +9916,7 @@
       <c r="K1" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="127" t="s">
         <v>485</v>
       </c>
     </row>
@@ -9860,9 +9927,9 @@
       <c r="B2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C2" s="121"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="13"/>
-      <c r="G2" s="122"/>
+      <c r="G2" s="129"/>
       <c r="I2" s="2" t="s">
         <v>488</v>
       </c>
@@ -9877,13 +9944,13 @@
       <c r="B3" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="13"/>
-      <c r="G3" s="122"/>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="129"/>
+      <c r="I3" s="127" t="s">
         <v>491</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="127" t="s">
         <v>492</v>
       </c>
     </row>
@@ -9894,15 +9961,15 @@
       <c r="B4" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C4" s="122"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="123"/>
-      <c r="G4" s="124"/>
-      <c r="I4" s="2" t="s">
+      <c r="E4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="I4" s="127" t="s">
         <v>494</v>
       </c>
-      <c r="K4" s="125"/>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="132"/>
+      <c r="L4" s="127" t="s">
         <v>495</v>
       </c>
     </row>
@@ -9913,16 +9980,16 @@
       <c r="B5" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="I5" s="2" t="s">
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="I5" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -9932,9 +9999,9 @@
         <v>498</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="126"/>
-      <c r="G6" s="122"/>
-      <c r="I6" s="2" t="s">
+      <c r="E6" s="133"/>
+      <c r="G6" s="129"/>
+      <c r="I6" s="127" t="s">
         <v>499</v>
       </c>
     </row>
@@ -9949,8 +10016,8 @@
         <v>73</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="126"/>
-      <c r="G7" s="122"/>
+      <c r="E7" s="133"/>
+      <c r="G7" s="129"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -9963,8 +10030,8 @@
         <v>504</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="126"/>
-      <c r="G8" s="122"/>
+      <c r="E8" s="133"/>
+      <c r="G8" s="129"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9987,16 +10054,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="134" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="134" t="s">
         <v>506</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="134" t="s">
         <v>507</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="134" t="s">
         <v>508</v>
       </c>
       <c r="E1" s="15"/>
@@ -10085,7 +10152,7 @@
       <c r="B6" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="126" t="s">
         <v>516</v>
       </c>
       <c r="D6" s="15"/>
@@ -10103,7 +10170,7 @@
       <c r="B7" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="126" t="s">
         <v>516</v>
       </c>
       <c r="D7" s="15"/>
@@ -10121,7 +10188,7 @@
       <c r="B8" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="126" t="s">
         <v>516</v>
       </c>
       <c r="D8" s="15"/>
@@ -10139,7 +10206,7 @@
       <c r="B9" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="126" t="s">
         <v>516</v>
       </c>
       <c r="D9" s="15"/>
@@ -10167,97 +10234,97 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="135" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="136" t="s">
         <v>521</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="135" t="s">
         <v>522</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
       <c r="L12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="135" t="s">
         <v>523</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="139" t="s">
         <v>524</v>
       </c>
       <c r="L13" s="15"/>
     </row>
     <row r="14">
-      <c r="A14" s="15"/>
+      <c r="A14" s="135"/>
       <c r="L14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="135"/>
       <c r="L15" s="15"/>
     </row>
     <row r="16">
-      <c r="A16" s="15"/>
+      <c r="A16" s="135"/>
       <c r="L16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="15"/>
+      <c r="A17" s="135"/>
       <c r="L17" s="15"/>
     </row>
     <row r="18">
-      <c r="A18" s="15"/>
+      <c r="A18" s="135"/>
       <c r="L18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="15"/>
+      <c r="A19" s="135"/>
       <c r="L19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="140" t="s">
         <v>525</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="141" t="s">
         <v>526</v>
       </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="140" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="141" t="s">
         <v>528</v>
       </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="140" t="s">
         <v>529</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="142"/>
       <c r="L22" s="15"/>
     </row>
     <row r="23" hidden="1">
@@ -10274,16 +10341,16 @@
     </row>
     <row r="25">
       <c r="A25" s="15"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
       <c r="L25" s="15"/>
     </row>
   </sheetData>
@@ -10318,7 +10385,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10332,34 +10399,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="144" t="s">
         <v>534</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="145" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="146" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="145" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="147" t="s">
         <v>538</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="145" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="147" t="s">
         <v>540</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="145" t="s">
         <v>541</v>
       </c>
     </row>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="602">
   <si>
     <t>id</t>
   </si>
@@ -75,10 +75,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
     <t>spleen</t>
   </si>
   <si>
-    <t>spleen model</t>
+    <t>ApiNATOMY model of the spleen</t>
   </si>
   <si>
     <t>ontologyTerms</t>
@@ -1657,9 +1660,6 @@
   </si>
   <si>
     <t>Model Name</t>
-  </si>
-  <si>
-    <t>ApiNATOMY model of the spleen</t>
   </si>
   <si>
     <t>Model short name</t>
@@ -2797,7 +2797,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.25"/>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
+    <col customWidth="1" min="2" max="3" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2807,12 +2807,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2844,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="140" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="139" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E1" s="139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="139" t="s">
         <v>550</v>
@@ -2861,13 +2867,13 @@
         <v>551</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>552</v>
@@ -2878,11 +2884,11 @@
         <v>553</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>552</v>
@@ -3061,7 +3067,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="146" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6175,82 +6181,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="12"/>
       <c r="J2" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="15"/>
@@ -6261,29 +6267,29 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="15"/>
@@ -6294,29 +6300,29 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="15"/>
@@ -6327,29 +6333,29 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="15"/>
@@ -6360,13 +6366,13 @@
     </row>
     <row r="6" ht="46.5" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="19" t="b">
@@ -6376,7 +6382,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
@@ -6391,29 +6397,29 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="15"/>
@@ -6424,13 +6430,13 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -6442,7 +6448,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="15"/>
@@ -6453,13 +6459,13 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -6471,7 +6477,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="15"/>
@@ -6482,13 +6488,13 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -6500,7 +6506,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="15"/>
@@ -6511,13 +6517,13 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -6529,7 +6535,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="15"/>
@@ -6540,13 +6546,13 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -6558,7 +6564,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="15"/>
@@ -6569,23 +6575,23 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="15"/>
@@ -6599,18 +6605,18 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -6618,10 +6624,10 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -6631,18 +6637,18 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6651,10 +6657,10 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -6664,18 +6670,18 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -6684,10 +6690,10 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
@@ -6697,18 +6703,18 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -6717,10 +6723,10 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
@@ -6730,18 +6736,18 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -6750,10 +6756,10 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -6763,13 +6769,13 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="22"/>
@@ -6790,13 +6796,13 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="22"/>
@@ -6804,7 +6810,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="15"/>
@@ -6819,13 +6825,13 @@
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="15"/>
@@ -6846,13 +6852,13 @@
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="15"/>
@@ -6873,13 +6879,13 @@
     </row>
     <row r="23">
       <c r="A23" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="15"/>
@@ -6900,13 +6906,13 @@
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="15"/>
@@ -6927,13 +6933,13 @@
     </row>
     <row r="25">
       <c r="A25" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="15"/>
@@ -6954,13 +6960,13 @@
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="15"/>
@@ -6981,13 +6987,13 @@
     </row>
     <row r="27">
       <c r="A27" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="15"/>
@@ -6998,7 +7004,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="15"/>
       <c r="L27" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M27" s="12">
         <v>0.0</v>
@@ -7012,13 +7018,13 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -7029,7 +7035,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="15"/>
       <c r="L28" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M28" s="12">
         <v>0.0</v>
@@ -7043,13 +7049,13 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="22"/>
@@ -7057,7 +7063,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="15"/>
@@ -7071,13 +7077,13 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="22" t="b">
@@ -7087,7 +7093,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="15"/>
@@ -7102,13 +7108,13 @@
     </row>
     <row r="31">
       <c r="A31" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="31"/>
@@ -7129,13 +7135,13 @@
     </row>
     <row r="32">
       <c r="A32" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="31"/>
@@ -7156,25 +7162,25 @@
     </row>
     <row r="33">
       <c r="A33" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="31" t="b">
         <v>1</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="15"/>
@@ -7189,25 +7195,25 @@
     </row>
     <row r="34">
       <c r="A34" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="31" t="b">
         <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="15"/>
@@ -7222,25 +7228,25 @@
     </row>
     <row r="35">
       <c r="A35" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="31" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="15"/>
@@ -7255,25 +7261,25 @@
     </row>
     <row r="36">
       <c r="A36" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="31" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="15"/>
@@ -7288,13 +7294,13 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -7303,7 +7309,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
@@ -7314,18 +7320,18 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -7334,7 +7340,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -7347,13 +7353,13 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -7362,7 +7368,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -7375,13 +7381,13 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -7390,7 +7396,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -7403,13 +7409,13 @@
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -7418,7 +7424,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
@@ -7429,18 +7435,18 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
@@ -7449,7 +7455,7 @@
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
@@ -7460,18 +7466,18 @@
       <c r="Q42" s="37"/>
       <c r="R42" s="37"/>
       <c r="S42" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
@@ -7480,7 +7486,7 @@
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
@@ -7491,18 +7497,18 @@
       <c r="Q43" s="37"/>
       <c r="R43" s="37"/>
       <c r="S43" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -7511,7 +7517,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -7522,18 +7528,18 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="12" t="b">
@@ -7543,7 +7549,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J45" s="20"/>
       <c r="L45" s="15"/>
@@ -7557,13 +7563,13 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="12" t="b">
@@ -7573,7 +7579,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J46" s="20"/>
       <c r="L46" s="15"/>
@@ -7587,13 +7593,13 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="12" t="b">
@@ -7603,7 +7609,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J47" s="20"/>
       <c r="L47" s="15"/>
@@ -7617,13 +7623,13 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="12" t="b">
@@ -7633,7 +7639,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J48" s="20"/>
       <c r="L48" s="15"/>
@@ -7647,13 +7653,13 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -7663,7 +7669,7 @@
       <c r="I49" s="15"/>
       <c r="J49" s="20"/>
       <c r="K49" s="42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -7676,13 +7682,13 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="12" t="b">
@@ -7692,7 +7698,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J50" s="20"/>
       <c r="L50" s="15"/>
@@ -7706,13 +7712,13 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -7720,7 +7726,7 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J51" s="20"/>
       <c r="L51" s="15"/>
@@ -7734,13 +7740,13 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -7748,7 +7754,7 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J52" s="20"/>
       <c r="L52" s="15"/>
@@ -7762,13 +7768,13 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -7776,7 +7782,7 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J53" s="20"/>
       <c r="L53" s="15"/>
@@ -7790,13 +7796,13 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="12" t="b">
@@ -7806,7 +7812,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J54" s="20"/>
       <c r="L54" s="15"/>
@@ -7820,13 +7826,13 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -7834,7 +7840,7 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J55" s="20"/>
       <c r="L55" s="15"/>
@@ -7848,13 +7854,13 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -7862,7 +7868,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J56" s="20"/>
       <c r="L56" s="15"/>
@@ -7904,431 +7910,431 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D2" s="27"/>
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D3" s="27"/>
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>210</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D8" s="27"/>
     </row>
     <row r="9">
       <c r="A9" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D9" s="27"/>
     </row>
     <row r="10">
       <c r="A10" s="46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D10" s="27"/>
     </row>
     <row r="11">
       <c r="A11" s="46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D11" s="27"/>
     </row>
     <row r="12">
       <c r="A12" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D12" s="27"/>
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D13" s="27"/>
     </row>
     <row r="14">
       <c r="A14" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D14" s="27"/>
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D15" s="27"/>
     </row>
     <row r="16">
       <c r="A16" s="46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D17" s="27"/>
     </row>
     <row r="18">
       <c r="A18" s="46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D18" s="27"/>
     </row>
     <row r="19">
       <c r="A19" s="46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D20" s="27"/>
     </row>
     <row r="21">
       <c r="A21" s="46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D21" s="27"/>
     </row>
     <row r="22">
       <c r="A22" s="46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D24" s="27"/>
     </row>
     <row r="25">
       <c r="A25" s="46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D25" s="27"/>
     </row>
     <row r="26">
       <c r="A26" s="46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D26" s="50"/>
     </row>
     <row r="27">
       <c r="A27" s="46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D27" s="50"/>
     </row>
     <row r="28">
       <c r="A28" s="46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D28" s="50"/>
     </row>
     <row r="29">
       <c r="A29" s="46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D29" s="50"/>
     </row>
     <row r="30">
       <c r="A30" s="46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D30" s="50"/>
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D31" s="50"/>
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D32" s="50"/>
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D33" s="50"/>
     </row>
     <row r="34">
       <c r="A34" s="46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D34" s="50"/>
     </row>
     <row r="35">
       <c r="A35" s="46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D35" s="50"/>
     </row>
@@ -8337,10 +8343,10 @@
         <v>54.0</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D36" s="27"/>
     </row>
@@ -8349,10 +8355,10 @@
         <v>55.0</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D37" s="27"/>
     </row>
@@ -8361,10 +8367,10 @@
         <v>56.0</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D38" s="27"/>
     </row>
@@ -8373,200 +8379,200 @@
         <v>116.0</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D39" s="27"/>
     </row>
     <row r="40">
       <c r="A40" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" s="27"/>
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="27"/>
     </row>
     <row r="42">
       <c r="A42" s="29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="27"/>
     </row>
     <row r="43">
       <c r="A43" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D43" s="27"/>
     </row>
     <row r="44">
       <c r="A44" s="29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D44" s="27"/>
     </row>
     <row r="45">
       <c r="A45" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" s="27"/>
     </row>
     <row r="46">
       <c r="A46" s="29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D46" s="27"/>
     </row>
     <row r="47">
       <c r="A47" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D47" s="27"/>
     </row>
     <row r="48">
       <c r="A48" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D48" s="27"/>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D49" s="27"/>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D50" s="27"/>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D51" s="27"/>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="27"/>
     </row>
     <row r="53">
       <c r="A53" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D53" s="27"/>
     </row>
     <row r="54">
       <c r="A54" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D54" s="27"/>
     </row>
     <row r="55">
       <c r="A55" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D55" s="27"/>
     </row>
@@ -8601,188 +8607,188 @@
         <v>1</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="59"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="15"/>
@@ -8813,34 +8819,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D2" s="15"/>
       <c r="F2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D3" s="15"/>
       <c r="F3" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -8885,46 +8891,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="57" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
@@ -8932,14 +8938,14 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="12"/>
@@ -8951,7 +8957,7 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P2" s="22" t="b">
         <v>1</v>
@@ -8962,16 +8968,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
@@ -8984,7 +8990,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="21"/>
       <c r="O3" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P3" s="12" t="b">
         <v>1</v>
@@ -8995,35 +9001,35 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="20"/>
       <c r="K4" s="15"/>
       <c r="L4" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P4" s="12" t="b">
         <v>1</v>
@@ -9034,31 +9040,31 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="20"/>
       <c r="K5" s="15"/>
       <c r="L5" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="12"/>
@@ -9069,31 +9075,31 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="12"/>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="12"/>
@@ -9104,30 +9110,30 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="63"/>
       <c r="L7" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -9138,30 +9144,30 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C8" s="62"/>
       <c r="E8" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="63"/>
       <c r="L8" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -9172,20 +9178,20 @@
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G9" s="67"/>
       <c r="H9" s="70"/>
@@ -9195,7 +9201,7 @@
         <v>0.0</v>
       </c>
       <c r="L9" s="64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" s="71"/>
       <c r="N9" s="71"/>
@@ -9207,23 +9213,23 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="71"/>
@@ -9232,7 +9238,7 @@
         <v>0.0</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="71"/>
       <c r="N10" s="71"/>
@@ -9244,20 +9250,20 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G11" s="67"/>
       <c r="H11" s="70"/>
@@ -9267,7 +9273,7 @@
         <v>0.0</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="71"/>
       <c r="N11" s="71"/>
@@ -9279,23 +9285,23 @@
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
@@ -9304,7 +9310,7 @@
         <v>0.0</v>
       </c>
       <c r="L12" s="64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" s="71"/>
       <c r="N12" s="71"/>
@@ -9316,20 +9322,20 @@
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G13" s="67"/>
       <c r="H13" s="71"/>
@@ -9339,7 +9345,7 @@
         <v>0.0</v>
       </c>
       <c r="L13" s="64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M13" s="71"/>
       <c r="N13" s="71"/>
@@ -9351,23 +9357,23 @@
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="71"/>
@@ -9376,7 +9382,7 @@
         <v>0.0</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M14" s="71"/>
       <c r="N14" s="71"/>
@@ -9388,20 +9394,20 @@
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G15" s="67"/>
       <c r="H15" s="70"/>
@@ -9411,7 +9417,7 @@
         <v>0.0</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" s="71"/>
       <c r="N15" s="71"/>
@@ -9423,23 +9429,23 @@
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="71"/>
@@ -9448,7 +9454,7 @@
         <v>0.0</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="71"/>
       <c r="N16" s="71"/>
@@ -9460,32 +9466,32 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="71"/>
       <c r="J17" s="71"/>
       <c r="K17" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M17" s="71"/>
       <c r="N17" s="71"/>
@@ -9497,23 +9503,23 @@
     </row>
     <row r="18">
       <c r="A18" s="73" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D18" s="76"/>
       <c r="E18" s="77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="80"/>
@@ -9522,7 +9528,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" s="81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M18" s="80"/>
       <c r="N18" s="80"/>
@@ -9534,32 +9540,32 @@
     </row>
     <row r="19">
       <c r="A19" s="82" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D19" s="76"/>
       <c r="E19" s="73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H19" s="83"/>
       <c r="I19" s="80"/>
       <c r="J19" s="80"/>
       <c r="K19" s="73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L19" s="81" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M19" s="80"/>
       <c r="N19" s="80"/>
@@ -9571,32 +9577,32 @@
     </row>
     <row r="20">
       <c r="A20" s="82" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D20" s="76"/>
       <c r="E20" s="73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H20" s="83"/>
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
       <c r="K20" s="73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L20" s="81" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M20" s="80"/>
       <c r="N20" s="80"/>
@@ -9608,32 +9614,32 @@
     </row>
     <row r="21">
       <c r="A21" s="82" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D21" s="76"/>
       <c r="E21" s="73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H21" s="83"/>
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
       <c r="K21" s="73" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L21" s="84" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M21" s="80"/>
       <c r="N21" s="80"/>
@@ -9645,23 +9651,23 @@
     </row>
     <row r="22">
       <c r="A22" s="85" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D22" s="88"/>
       <c r="E22" s="89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="90" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G22" s="90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H22" s="91"/>
       <c r="I22" s="92"/>
@@ -9670,7 +9676,7 @@
         <v>0.0</v>
       </c>
       <c r="L22" s="94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M22" s="92"/>
       <c r="N22" s="92"/>
@@ -9682,32 +9688,32 @@
     </row>
     <row r="23">
       <c r="A23" s="85" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D23" s="88"/>
       <c r="E23" s="93" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G23" s="95" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H23" s="91"/>
       <c r="I23" s="92"/>
       <c r="J23" s="92"/>
       <c r="K23" s="93" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L23" s="96" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
@@ -9719,23 +9725,23 @@
     </row>
     <row r="24">
       <c r="A24" s="97" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G24" s="102" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H24" s="103"/>
       <c r="I24" s="104"/>
@@ -9744,7 +9750,7 @@
         <v>0.0</v>
       </c>
       <c r="L24" s="106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="104"/>
       <c r="N24" s="104"/>
@@ -9756,32 +9762,32 @@
     </row>
     <row r="25">
       <c r="A25" s="97" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D25" s="100"/>
       <c r="E25" s="105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" s="102" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G25" s="102" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H25" s="107"/>
       <c r="I25" s="104"/>
       <c r="J25" s="104"/>
       <c r="K25" s="108" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L25" s="106" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M25" s="104"/>
       <c r="N25" s="104"/>
@@ -9793,32 +9799,32 @@
     </row>
     <row r="26">
       <c r="A26" s="109" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D26" s="112"/>
       <c r="E26" s="113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F26" s="114" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G26" s="115" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H26" s="116"/>
       <c r="I26" s="117"/>
       <c r="J26" s="117"/>
       <c r="K26" s="118" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L26" s="119" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M26" s="117"/>
       <c r="N26" s="117"/>
@@ -9830,32 +9836,32 @@
     </row>
     <row r="27">
       <c r="A27" s="120" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C27" s="111" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D27" s="121"/>
       <c r="E27" s="113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F27" s="114" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H27" s="121"/>
       <c r="I27" s="117"/>
       <c r="J27" s="117"/>
       <c r="K27" s="118" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L27" s="119" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M27" s="117"/>
       <c r="N27" s="117"/>
@@ -9905,95 +9911,95 @@
         <v>1</v>
       </c>
       <c r="C1" s="122" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G1" s="122" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C2" s="123"/>
       <c r="D2" s="13"/>
       <c r="G2" s="124"/>
       <c r="I2" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C3" s="124"/>
       <c r="D3" s="13"/>
       <c r="G3" s="124"/>
       <c r="I3" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C4" s="124"/>
       <c r="D4" s="13"/>
       <c r="E4" s="125"/>
       <c r="G4" s="126"/>
       <c r="I4" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K4" s="127"/>
       <c r="L4" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C5" s="124"/>
       <c r="D5" s="13"/>
@@ -10001,39 +10007,39 @@
       <c r="F5" s="126"/>
       <c r="G5" s="126"/>
       <c r="I5" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K5" s="127"/>
       <c r="L5" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="128"/>
       <c r="G6" s="124"/>
       <c r="I6" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="128"/>
@@ -10041,13 +10047,13 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="128"/>
@@ -10075,16 +10081,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -10100,13 +10106,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -10147,13 +10153,13 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -10170,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -10188,10 +10194,10 @@
     <row r="7">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>525</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>524</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -10206,10 +10212,10 @@
     <row r="8">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -10224,10 +10230,10 @@
     <row r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -10255,10 +10261,10 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B11" s="129" t="s">
-        <v>529</v>
+        <v>4</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -10276,7 +10282,7 @@
         <v>530</v>
       </c>
       <c r="B12" s="130" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="131"/>
       <c r="D12" s="131"/>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="624">
   <si>
     <t>id</t>
   </si>
@@ -1081,6 +1081,9 @@
     <t>ndg, n-vag,whole-body</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
     <t>SPL-M_2</t>
   </si>
   <si>
@@ -1240,6 +1243,9 @@
     <t>Peripheral nervous system tissue</t>
   </si>
   <si>
+    <t>UBERON:0003714</t>
+  </si>
+  <si>
     <t>UBERON:0000010</t>
   </si>
   <si>
@@ -1486,6 +1492,9 @@
     <t>tunica adventitia</t>
   </si>
   <si>
+    <t>UBERON:0005734</t>
+  </si>
+  <si>
     <t>trabecular connective tissue</t>
   </si>
   <si>
@@ -1603,19 +1612,19 @@
     <t>groups</t>
   </si>
   <si>
+    <t>seed</t>
+  </si>
+  <si>
     <t>neuronTypes</t>
   </si>
   <si>
-    <t>seed</t>
-  </si>
-  <si>
     <t>Neuron population 1 with somas in t5-t8 spinal cord segments</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-splen-1</t>
   </si>
   <si>
-    <t>preganglionic sympathetic neruon</t>
+    <t>preganglionic sympathetic neuron</t>
   </si>
   <si>
     <t>Neuron population 2 with a soma in the dorsal motor nucleus of the vagus</t>
@@ -1633,7 +1642,7 @@
     <t>ilxtr:neuron-type-splen-3</t>
   </si>
   <si>
-    <t>parasympathetic motor neuron</t>
+    <t>descending neuron</t>
   </si>
   <si>
     <t>Neuron population 4 with a soma in the nodose ganglion</t>
@@ -1642,7 +1651,7 @@
     <t>ilxtr:neuron-type-splen-4</t>
   </si>
   <si>
-    <t>vagal afferent neuron?</t>
+    <t>sensory neuron</t>
   </si>
   <si>
     <t xml:space="preserve">Neuron population 5 with a soma in the fused celiac ganglion and superior mesenteric ganglion </t>
@@ -2174,7 +2183,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2563,9 +2572,12 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2573,6 +2585,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -2960,31 +2975,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="153" t="s">
-        <v>569</v>
+      <c r="F1" s="155" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>133</v>
@@ -2993,37 +3008,37 @@
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="39" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -3047,106 +3062,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="155" t="s">
-        <v>578</v>
-      </c>
-      <c r="B2" s="156" t="s">
-        <v>579</v>
+      <c r="A2" s="157" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="158" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="155" t="s">
-        <v>580</v>
-      </c>
-      <c r="B3" s="157" t="s">
-        <v>581</v>
+      <c r="A3" s="157" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" s="159" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="155" t="s">
-        <v>582</v>
-      </c>
-      <c r="B4" s="158" t="s">
-        <v>583</v>
+      <c r="A4" s="157" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4" s="160" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="155" t="s">
-        <v>584</v>
-      </c>
-      <c r="B5" s="158" t="s">
-        <v>585</v>
+      <c r="A5" s="157" t="s">
+        <v>587</v>
+      </c>
+      <c r="B5" s="160" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="155" t="s">
-        <v>586</v>
-      </c>
-      <c r="B6" s="158" t="s">
-        <v>587</v>
+      <c r="A6" s="157" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="160" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="155" t="s">
-        <v>588</v>
-      </c>
-      <c r="B7" s="158" t="s">
-        <v>589</v>
+      <c r="A7" s="157" t="s">
+        <v>591</v>
+      </c>
+      <c r="B7" s="160" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="155" t="s">
-        <v>590</v>
-      </c>
-      <c r="B8" s="158" t="s">
-        <v>591</v>
+      <c r="A8" s="157" t="s">
+        <v>593</v>
+      </c>
+      <c r="B8" s="160" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="155" t="s">
-        <v>592</v>
-      </c>
-      <c r="B9" s="158" t="s">
-        <v>593</v>
+      <c r="A9" s="157" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9" s="160" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="155" t="s">
-        <v>594</v>
-      </c>
-      <c r="B10" s="158" t="s">
-        <v>595</v>
+      <c r="A10" s="157" t="s">
+        <v>597</v>
+      </c>
+      <c r="B10" s="160" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="155" t="s">
-        <v>596</v>
-      </c>
-      <c r="B11" s="158" t="s">
-        <v>597</v>
+      <c r="A11" s="157" t="s">
+        <v>599</v>
+      </c>
+      <c r="B11" s="160" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B12" s="150" t="s">
-        <v>599</v>
+        <v>601</v>
+      </c>
+      <c r="B12" s="152" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>600</v>
-      </c>
-      <c r="B13" s="159" t="s">
-        <v>601</v>
+        <v>603</v>
+      </c>
+      <c r="B13" s="161" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -3183,3069 +3198,3069 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="162" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="161" t="s">
-        <v>603</v>
+      <c r="A2" s="163" t="s">
+        <v>606</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="161" t="s">
-        <v>606</v>
+      <c r="A3" s="163" t="s">
+        <v>609</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="163" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>605</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="161" t="s">
-        <v>610</v>
-      </c>
-      <c r="B5" s="162" t="s">
-        <v>611</v>
+      <c r="A5" s="163" t="s">
+        <v>613</v>
+      </c>
+      <c r="B5" s="164" t="s">
+        <v>614</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="161" t="s">
-        <v>612</v>
-      </c>
-      <c r="B6" s="162" t="s">
-        <v>613</v>
+      <c r="A6" s="163" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" s="164" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="161" t="s">
-        <v>614</v>
-      </c>
-      <c r="B7" s="162" t="s">
-        <v>615</v>
+      <c r="A7" s="163" t="s">
+        <v>617</v>
+      </c>
+      <c r="B7" s="164" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="163"/>
-      <c r="B8" s="162" t="s">
-        <v>616</v>
+      <c r="A8" s="165"/>
+      <c r="B8" s="164" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="163"/>
-      <c r="B9" s="162" t="s">
-        <v>617</v>
+      <c r="A9" s="165"/>
+      <c r="B9" s="164" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="163"/>
-      <c r="B10" s="162" t="s">
-        <v>618</v>
+      <c r="A10" s="165"/>
+      <c r="B10" s="164" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="163"/>
-      <c r="B11" s="162" t="s">
-        <v>619</v>
+      <c r="A11" s="165"/>
+      <c r="B11" s="164" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="163"/>
-      <c r="B12" s="162" t="s">
-        <v>620</v>
+      <c r="A12" s="165"/>
+      <c r="B12" s="164" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="163"/>
+      <c r="A13" s="165"/>
     </row>
     <row r="14">
-      <c r="A14" s="163"/>
+      <c r="A14" s="165"/>
     </row>
     <row r="15">
-      <c r="A15" s="163"/>
+      <c r="A15" s="165"/>
     </row>
     <row r="16">
-      <c r="A16" s="163"/>
+      <c r="A16" s="165"/>
     </row>
     <row r="17">
-      <c r="A17" s="163"/>
+      <c r="A17" s="165"/>
     </row>
     <row r="18">
-      <c r="A18" s="163"/>
+      <c r="A18" s="165"/>
     </row>
     <row r="19">
-      <c r="A19" s="163"/>
+      <c r="A19" s="165"/>
     </row>
     <row r="20">
-      <c r="A20" s="163"/>
+      <c r="A20" s="165"/>
     </row>
     <row r="21">
-      <c r="A21" s="163"/>
+      <c r="A21" s="165"/>
     </row>
     <row r="22">
-      <c r="A22" s="163"/>
+      <c r="A22" s="165"/>
     </row>
     <row r="23">
-      <c r="A23" s="163"/>
+      <c r="A23" s="165"/>
     </row>
     <row r="24">
-      <c r="A24" s="163"/>
+      <c r="A24" s="165"/>
     </row>
     <row r="25">
-      <c r="A25" s="163"/>
+      <c r="A25" s="165"/>
     </row>
     <row r="26">
-      <c r="A26" s="163"/>
+      <c r="A26" s="165"/>
     </row>
     <row r="27">
-      <c r="A27" s="163"/>
+      <c r="A27" s="165"/>
     </row>
     <row r="28">
-      <c r="A28" s="163"/>
+      <c r="A28" s="165"/>
     </row>
     <row r="29">
-      <c r="A29" s="163"/>
+      <c r="A29" s="165"/>
     </row>
     <row r="30">
-      <c r="A30" s="163"/>
+      <c r="A30" s="165"/>
     </row>
     <row r="31">
-      <c r="A31" s="163"/>
+      <c r="A31" s="165"/>
     </row>
     <row r="32">
-      <c r="A32" s="163"/>
+      <c r="A32" s="165"/>
     </row>
     <row r="33">
-      <c r="A33" s="163"/>
+      <c r="A33" s="165"/>
     </row>
     <row r="34">
-      <c r="A34" s="163"/>
+      <c r="A34" s="165"/>
     </row>
     <row r="35">
-      <c r="A35" s="163"/>
+      <c r="A35" s="165"/>
     </row>
     <row r="36">
-      <c r="A36" s="163"/>
+      <c r="A36" s="165"/>
     </row>
     <row r="37">
-      <c r="A37" s="163"/>
+      <c r="A37" s="165"/>
     </row>
     <row r="38">
-      <c r="A38" s="163"/>
+      <c r="A38" s="165"/>
     </row>
     <row r="39">
-      <c r="A39" s="163"/>
+      <c r="A39" s="165"/>
     </row>
     <row r="40">
-      <c r="A40" s="163"/>
+      <c r="A40" s="165"/>
     </row>
     <row r="41">
-      <c r="A41" s="163"/>
+      <c r="A41" s="165"/>
     </row>
     <row r="42">
-      <c r="A42" s="163"/>
+      <c r="A42" s="165"/>
     </row>
     <row r="43">
-      <c r="A43" s="163"/>
+      <c r="A43" s="165"/>
     </row>
     <row r="44">
-      <c r="A44" s="163"/>
+      <c r="A44" s="165"/>
     </row>
     <row r="45">
-      <c r="A45" s="163"/>
+      <c r="A45" s="165"/>
     </row>
     <row r="46">
-      <c r="A46" s="163"/>
+      <c r="A46" s="165"/>
     </row>
     <row r="47">
-      <c r="A47" s="163"/>
+      <c r="A47" s="165"/>
     </row>
     <row r="48">
-      <c r="A48" s="163"/>
+      <c r="A48" s="165"/>
     </row>
     <row r="49">
-      <c r="A49" s="163"/>
+      <c r="A49" s="165"/>
     </row>
     <row r="50">
-      <c r="A50" s="163"/>
+      <c r="A50" s="165"/>
     </row>
     <row r="51">
-      <c r="A51" s="163"/>
+      <c r="A51" s="165"/>
     </row>
     <row r="52">
-      <c r="A52" s="163"/>
+      <c r="A52" s="165"/>
     </row>
     <row r="53">
-      <c r="A53" s="163"/>
+      <c r="A53" s="165"/>
     </row>
     <row r="54">
-      <c r="A54" s="163"/>
+      <c r="A54" s="165"/>
     </row>
     <row r="55">
-      <c r="A55" s="163"/>
+      <c r="A55" s="165"/>
     </row>
     <row r="56">
-      <c r="A56" s="163"/>
+      <c r="A56" s="165"/>
     </row>
     <row r="57">
-      <c r="A57" s="163"/>
+      <c r="A57" s="165"/>
     </row>
     <row r="58">
-      <c r="A58" s="163"/>
+      <c r="A58" s="165"/>
     </row>
     <row r="59">
-      <c r="A59" s="163"/>
+      <c r="A59" s="165"/>
     </row>
     <row r="60">
-      <c r="A60" s="163"/>
+      <c r="A60" s="165"/>
     </row>
     <row r="61">
-      <c r="A61" s="163"/>
+      <c r="A61" s="165"/>
     </row>
     <row r="62">
-      <c r="A62" s="163"/>
+      <c r="A62" s="165"/>
     </row>
     <row r="63">
-      <c r="A63" s="163"/>
+      <c r="A63" s="165"/>
     </row>
     <row r="64">
-      <c r="A64" s="163"/>
+      <c r="A64" s="165"/>
     </row>
     <row r="65">
-      <c r="A65" s="163"/>
+      <c r="A65" s="165"/>
     </row>
     <row r="66">
-      <c r="A66" s="163"/>
+      <c r="A66" s="165"/>
     </row>
     <row r="67">
-      <c r="A67" s="163"/>
+      <c r="A67" s="165"/>
     </row>
     <row r="68">
-      <c r="A68" s="163"/>
+      <c r="A68" s="165"/>
     </row>
     <row r="69">
-      <c r="A69" s="163"/>
+      <c r="A69" s="165"/>
     </row>
     <row r="70">
-      <c r="A70" s="163"/>
+      <c r="A70" s="165"/>
     </row>
     <row r="71">
-      <c r="A71" s="163"/>
+      <c r="A71" s="165"/>
     </row>
     <row r="72">
-      <c r="A72" s="163"/>
+      <c r="A72" s="165"/>
     </row>
     <row r="73">
-      <c r="A73" s="163"/>
+      <c r="A73" s="165"/>
     </row>
     <row r="74">
-      <c r="A74" s="163"/>
+      <c r="A74" s="165"/>
     </row>
     <row r="75">
-      <c r="A75" s="163"/>
+      <c r="A75" s="165"/>
     </row>
     <row r="76">
-      <c r="A76" s="163"/>
+      <c r="A76" s="165"/>
     </row>
     <row r="77">
-      <c r="A77" s="163"/>
+      <c r="A77" s="165"/>
     </row>
     <row r="78">
-      <c r="A78" s="163"/>
+      <c r="A78" s="165"/>
     </row>
     <row r="79">
-      <c r="A79" s="163"/>
+      <c r="A79" s="165"/>
     </row>
     <row r="80">
-      <c r="A80" s="163"/>
+      <c r="A80" s="165"/>
     </row>
     <row r="81">
-      <c r="A81" s="163"/>
+      <c r="A81" s="165"/>
     </row>
     <row r="82">
-      <c r="A82" s="163"/>
+      <c r="A82" s="165"/>
     </row>
     <row r="83">
-      <c r="A83" s="163"/>
+      <c r="A83" s="165"/>
     </row>
     <row r="84">
-      <c r="A84" s="163"/>
+      <c r="A84" s="165"/>
     </row>
     <row r="85">
-      <c r="A85" s="163"/>
+      <c r="A85" s="165"/>
     </row>
     <row r="86">
-      <c r="A86" s="163"/>
+      <c r="A86" s="165"/>
     </row>
     <row r="87">
-      <c r="A87" s="163"/>
+      <c r="A87" s="165"/>
     </row>
     <row r="88">
-      <c r="A88" s="163"/>
+      <c r="A88" s="165"/>
     </row>
     <row r="89">
-      <c r="A89" s="163"/>
+      <c r="A89" s="165"/>
     </row>
     <row r="90">
-      <c r="A90" s="163"/>
+      <c r="A90" s="165"/>
     </row>
     <row r="91">
-      <c r="A91" s="163"/>
+      <c r="A91" s="165"/>
     </row>
     <row r="92">
-      <c r="A92" s="163"/>
+      <c r="A92" s="165"/>
     </row>
     <row r="93">
-      <c r="A93" s="163"/>
+      <c r="A93" s="165"/>
     </row>
     <row r="94">
-      <c r="A94" s="163"/>
+      <c r="A94" s="165"/>
     </row>
     <row r="95">
-      <c r="A95" s="163"/>
+      <c r="A95" s="165"/>
     </row>
     <row r="96">
-      <c r="A96" s="163"/>
+      <c r="A96" s="165"/>
     </row>
     <row r="97">
-      <c r="A97" s="163"/>
+      <c r="A97" s="165"/>
     </row>
     <row r="98">
-      <c r="A98" s="163"/>
+      <c r="A98" s="165"/>
     </row>
     <row r="99">
-      <c r="A99" s="163"/>
+      <c r="A99" s="165"/>
     </row>
     <row r="100">
-      <c r="A100" s="163"/>
+      <c r="A100" s="165"/>
     </row>
     <row r="101">
-      <c r="A101" s="163"/>
+      <c r="A101" s="165"/>
     </row>
     <row r="102">
-      <c r="A102" s="163"/>
+      <c r="A102" s="165"/>
     </row>
     <row r="103">
-      <c r="A103" s="163"/>
+      <c r="A103" s="165"/>
     </row>
     <row r="104">
-      <c r="A104" s="163"/>
+      <c r="A104" s="165"/>
     </row>
     <row r="105">
-      <c r="A105" s="163"/>
+      <c r="A105" s="165"/>
     </row>
     <row r="106">
-      <c r="A106" s="163"/>
+      <c r="A106" s="165"/>
     </row>
     <row r="107">
-      <c r="A107" s="163"/>
+      <c r="A107" s="165"/>
     </row>
     <row r="108">
-      <c r="A108" s="163"/>
+      <c r="A108" s="165"/>
     </row>
     <row r="109">
-      <c r="A109" s="163"/>
+      <c r="A109" s="165"/>
     </row>
     <row r="110">
-      <c r="A110" s="163"/>
+      <c r="A110" s="165"/>
     </row>
     <row r="111">
-      <c r="A111" s="163"/>
+      <c r="A111" s="165"/>
     </row>
     <row r="112">
-      <c r="A112" s="163"/>
+      <c r="A112" s="165"/>
     </row>
     <row r="113">
-      <c r="A113" s="163"/>
+      <c r="A113" s="165"/>
     </row>
     <row r="114">
-      <c r="A114" s="163"/>
+      <c r="A114" s="165"/>
     </row>
     <row r="115">
-      <c r="A115" s="163"/>
+      <c r="A115" s="165"/>
     </row>
     <row r="116">
-      <c r="A116" s="163"/>
+      <c r="A116" s="165"/>
     </row>
     <row r="117">
-      <c r="A117" s="163"/>
+      <c r="A117" s="165"/>
     </row>
     <row r="118">
-      <c r="A118" s="163"/>
+      <c r="A118" s="165"/>
     </row>
     <row r="119">
-      <c r="A119" s="163"/>
+      <c r="A119" s="165"/>
     </row>
     <row r="120">
-      <c r="A120" s="163"/>
+      <c r="A120" s="165"/>
     </row>
     <row r="121">
-      <c r="A121" s="163"/>
+      <c r="A121" s="165"/>
     </row>
     <row r="122">
-      <c r="A122" s="163"/>
+      <c r="A122" s="165"/>
     </row>
     <row r="123">
-      <c r="A123" s="163"/>
+      <c r="A123" s="165"/>
     </row>
     <row r="124">
-      <c r="A124" s="163"/>
+      <c r="A124" s="165"/>
     </row>
     <row r="125">
-      <c r="A125" s="163"/>
+      <c r="A125" s="165"/>
     </row>
     <row r="126">
-      <c r="A126" s="163"/>
+      <c r="A126" s="165"/>
     </row>
     <row r="127">
-      <c r="A127" s="163"/>
+      <c r="A127" s="165"/>
     </row>
     <row r="128">
-      <c r="A128" s="163"/>
+      <c r="A128" s="165"/>
     </row>
     <row r="129">
-      <c r="A129" s="163"/>
+      <c r="A129" s="165"/>
     </row>
     <row r="130">
-      <c r="A130" s="163"/>
+      <c r="A130" s="165"/>
     </row>
     <row r="131">
-      <c r="A131" s="163"/>
+      <c r="A131" s="165"/>
     </row>
     <row r="132">
-      <c r="A132" s="163"/>
+      <c r="A132" s="165"/>
     </row>
     <row r="133">
-      <c r="A133" s="163"/>
+      <c r="A133" s="165"/>
     </row>
     <row r="134">
-      <c r="A134" s="163"/>
+      <c r="A134" s="165"/>
     </row>
     <row r="135">
-      <c r="A135" s="163"/>
+      <c r="A135" s="165"/>
     </row>
     <row r="136">
-      <c r="A136" s="163"/>
+      <c r="A136" s="165"/>
     </row>
     <row r="137">
-      <c r="A137" s="163"/>
+      <c r="A137" s="165"/>
     </row>
     <row r="138">
-      <c r="A138" s="163"/>
+      <c r="A138" s="165"/>
     </row>
     <row r="139">
-      <c r="A139" s="163"/>
+      <c r="A139" s="165"/>
     </row>
     <row r="140">
-      <c r="A140" s="163"/>
+      <c r="A140" s="165"/>
     </row>
     <row r="141">
-      <c r="A141" s="163"/>
+      <c r="A141" s="165"/>
     </row>
     <row r="142">
-      <c r="A142" s="163"/>
+      <c r="A142" s="165"/>
     </row>
     <row r="143">
-      <c r="A143" s="163"/>
+      <c r="A143" s="165"/>
     </row>
     <row r="144">
-      <c r="A144" s="163"/>
+      <c r="A144" s="165"/>
     </row>
     <row r="145">
-      <c r="A145" s="163"/>
+      <c r="A145" s="165"/>
     </row>
     <row r="146">
-      <c r="A146" s="163"/>
+      <c r="A146" s="165"/>
     </row>
     <row r="147">
-      <c r="A147" s="163"/>
+      <c r="A147" s="165"/>
     </row>
     <row r="148">
-      <c r="A148" s="163"/>
+      <c r="A148" s="165"/>
     </row>
     <row r="149">
-      <c r="A149" s="163"/>
+      <c r="A149" s="165"/>
     </row>
     <row r="150">
-      <c r="A150" s="163"/>
+      <c r="A150" s="165"/>
     </row>
     <row r="151">
-      <c r="A151" s="163"/>
+      <c r="A151" s="165"/>
     </row>
     <row r="152">
-      <c r="A152" s="163"/>
+      <c r="A152" s="165"/>
     </row>
     <row r="153">
-      <c r="A153" s="163"/>
+      <c r="A153" s="165"/>
     </row>
     <row r="154">
-      <c r="A154" s="163"/>
+      <c r="A154" s="165"/>
     </row>
     <row r="155">
-      <c r="A155" s="163"/>
+      <c r="A155" s="165"/>
     </row>
     <row r="156">
-      <c r="A156" s="163"/>
+      <c r="A156" s="165"/>
     </row>
     <row r="157">
-      <c r="A157" s="163"/>
+      <c r="A157" s="165"/>
     </row>
     <row r="158">
-      <c r="A158" s="163"/>
+      <c r="A158" s="165"/>
     </row>
     <row r="159">
-      <c r="A159" s="163"/>
+      <c r="A159" s="165"/>
     </row>
     <row r="160">
-      <c r="A160" s="163"/>
+      <c r="A160" s="165"/>
     </row>
     <row r="161">
-      <c r="A161" s="163"/>
+      <c r="A161" s="165"/>
     </row>
     <row r="162">
-      <c r="A162" s="163"/>
+      <c r="A162" s="165"/>
     </row>
     <row r="163">
-      <c r="A163" s="163"/>
+      <c r="A163" s="165"/>
     </row>
     <row r="164">
-      <c r="A164" s="163"/>
+      <c r="A164" s="165"/>
     </row>
     <row r="165">
-      <c r="A165" s="163"/>
+      <c r="A165" s="165"/>
     </row>
     <row r="166">
-      <c r="A166" s="163"/>
+      <c r="A166" s="165"/>
     </row>
     <row r="167">
-      <c r="A167" s="163"/>
+      <c r="A167" s="165"/>
     </row>
     <row r="168">
-      <c r="A168" s="163"/>
+      <c r="A168" s="165"/>
     </row>
     <row r="169">
-      <c r="A169" s="163"/>
+      <c r="A169" s="165"/>
     </row>
     <row r="170">
-      <c r="A170" s="163"/>
+      <c r="A170" s="165"/>
     </row>
     <row r="171">
-      <c r="A171" s="163"/>
+      <c r="A171" s="165"/>
     </row>
     <row r="172">
-      <c r="A172" s="163"/>
+      <c r="A172" s="165"/>
     </row>
     <row r="173">
-      <c r="A173" s="163"/>
+      <c r="A173" s="165"/>
     </row>
     <row r="174">
-      <c r="A174" s="163"/>
+      <c r="A174" s="165"/>
     </row>
     <row r="175">
-      <c r="A175" s="163"/>
+      <c r="A175" s="165"/>
     </row>
     <row r="176">
-      <c r="A176" s="163"/>
+      <c r="A176" s="165"/>
     </row>
     <row r="177">
-      <c r="A177" s="163"/>
+      <c r="A177" s="165"/>
     </row>
     <row r="178">
-      <c r="A178" s="163"/>
+      <c r="A178" s="165"/>
     </row>
     <row r="179">
-      <c r="A179" s="163"/>
+      <c r="A179" s="165"/>
     </row>
     <row r="180">
-      <c r="A180" s="163"/>
+      <c r="A180" s="165"/>
     </row>
     <row r="181">
-      <c r="A181" s="163"/>
+      <c r="A181" s="165"/>
     </row>
     <row r="182">
-      <c r="A182" s="163"/>
+      <c r="A182" s="165"/>
     </row>
     <row r="183">
-      <c r="A183" s="163"/>
+      <c r="A183" s="165"/>
     </row>
     <row r="184">
-      <c r="A184" s="163"/>
+      <c r="A184" s="165"/>
     </row>
     <row r="185">
-      <c r="A185" s="163"/>
+      <c r="A185" s="165"/>
     </row>
     <row r="186">
-      <c r="A186" s="163"/>
+      <c r="A186" s="165"/>
     </row>
     <row r="187">
-      <c r="A187" s="163"/>
+      <c r="A187" s="165"/>
     </row>
     <row r="188">
-      <c r="A188" s="163"/>
+      <c r="A188" s="165"/>
     </row>
     <row r="189">
-      <c r="A189" s="163"/>
+      <c r="A189" s="165"/>
     </row>
     <row r="190">
-      <c r="A190" s="163"/>
+      <c r="A190" s="165"/>
     </row>
     <row r="191">
-      <c r="A191" s="163"/>
+      <c r="A191" s="165"/>
     </row>
     <row r="192">
-      <c r="A192" s="163"/>
+      <c r="A192" s="165"/>
     </row>
     <row r="193">
-      <c r="A193" s="163"/>
+      <c r="A193" s="165"/>
     </row>
     <row r="194">
-      <c r="A194" s="163"/>
+      <c r="A194" s="165"/>
     </row>
     <row r="195">
-      <c r="A195" s="163"/>
+      <c r="A195" s="165"/>
     </row>
     <row r="196">
-      <c r="A196" s="163"/>
+      <c r="A196" s="165"/>
     </row>
     <row r="197">
-      <c r="A197" s="163"/>
+      <c r="A197" s="165"/>
     </row>
     <row r="198">
-      <c r="A198" s="163"/>
+      <c r="A198" s="165"/>
     </row>
     <row r="199">
-      <c r="A199" s="163"/>
+      <c r="A199" s="165"/>
     </row>
     <row r="200">
-      <c r="A200" s="163"/>
+      <c r="A200" s="165"/>
     </row>
     <row r="201">
-      <c r="A201" s="163"/>
+      <c r="A201" s="165"/>
     </row>
     <row r="202">
-      <c r="A202" s="163"/>
+      <c r="A202" s="165"/>
     </row>
     <row r="203">
-      <c r="A203" s="163"/>
+      <c r="A203" s="165"/>
     </row>
     <row r="204">
-      <c r="A204" s="163"/>
+      <c r="A204" s="165"/>
     </row>
     <row r="205">
-      <c r="A205" s="163"/>
+      <c r="A205" s="165"/>
     </row>
     <row r="206">
-      <c r="A206" s="163"/>
+      <c r="A206" s="165"/>
     </row>
     <row r="207">
-      <c r="A207" s="163"/>
+      <c r="A207" s="165"/>
     </row>
     <row r="208">
-      <c r="A208" s="163"/>
+      <c r="A208" s="165"/>
     </row>
     <row r="209">
-      <c r="A209" s="163"/>
+      <c r="A209" s="165"/>
     </row>
     <row r="210">
-      <c r="A210" s="163"/>
+      <c r="A210" s="165"/>
     </row>
     <row r="211">
-      <c r="A211" s="163"/>
+      <c r="A211" s="165"/>
     </row>
     <row r="212">
-      <c r="A212" s="163"/>
+      <c r="A212" s="165"/>
     </row>
     <row r="213">
-      <c r="A213" s="163"/>
+      <c r="A213" s="165"/>
     </row>
     <row r="214">
-      <c r="A214" s="163"/>
+      <c r="A214" s="165"/>
     </row>
     <row r="215">
-      <c r="A215" s="163"/>
+      <c r="A215" s="165"/>
     </row>
     <row r="216">
-      <c r="A216" s="163"/>
+      <c r="A216" s="165"/>
     </row>
     <row r="217">
-      <c r="A217" s="163"/>
+      <c r="A217" s="165"/>
     </row>
     <row r="218">
-      <c r="A218" s="163"/>
+      <c r="A218" s="165"/>
     </row>
     <row r="219">
-      <c r="A219" s="163"/>
+      <c r="A219" s="165"/>
     </row>
     <row r="220">
-      <c r="A220" s="163"/>
+      <c r="A220" s="165"/>
     </row>
     <row r="221">
-      <c r="A221" s="163"/>
+      <c r="A221" s="165"/>
     </row>
     <row r="222">
-      <c r="A222" s="163"/>
+      <c r="A222" s="165"/>
     </row>
     <row r="223">
-      <c r="A223" s="163"/>
+      <c r="A223" s="165"/>
     </row>
     <row r="224">
-      <c r="A224" s="163"/>
+      <c r="A224" s="165"/>
     </row>
     <row r="225">
-      <c r="A225" s="163"/>
+      <c r="A225" s="165"/>
     </row>
     <row r="226">
-      <c r="A226" s="163"/>
+      <c r="A226" s="165"/>
     </row>
     <row r="227">
-      <c r="A227" s="163"/>
+      <c r="A227" s="165"/>
     </row>
     <row r="228">
-      <c r="A228" s="163"/>
+      <c r="A228" s="165"/>
     </row>
     <row r="229">
-      <c r="A229" s="163"/>
+      <c r="A229" s="165"/>
     </row>
     <row r="230">
-      <c r="A230" s="163"/>
+      <c r="A230" s="165"/>
     </row>
     <row r="231">
-      <c r="A231" s="163"/>
+      <c r="A231" s="165"/>
     </row>
     <row r="232">
-      <c r="A232" s="163"/>
+      <c r="A232" s="165"/>
     </row>
     <row r="233">
-      <c r="A233" s="163"/>
+      <c r="A233" s="165"/>
     </row>
     <row r="234">
-      <c r="A234" s="163"/>
+      <c r="A234" s="165"/>
     </row>
     <row r="235">
-      <c r="A235" s="163"/>
+      <c r="A235" s="165"/>
     </row>
     <row r="236">
-      <c r="A236" s="163"/>
+      <c r="A236" s="165"/>
     </row>
     <row r="237">
-      <c r="A237" s="163"/>
+      <c r="A237" s="165"/>
     </row>
     <row r="238">
-      <c r="A238" s="163"/>
+      <c r="A238" s="165"/>
     </row>
     <row r="239">
-      <c r="A239" s="163"/>
+      <c r="A239" s="165"/>
     </row>
     <row r="240">
-      <c r="A240" s="163"/>
+      <c r="A240" s="165"/>
     </row>
     <row r="241">
-      <c r="A241" s="163"/>
+      <c r="A241" s="165"/>
     </row>
     <row r="242">
-      <c r="A242" s="163"/>
+      <c r="A242" s="165"/>
     </row>
     <row r="243">
-      <c r="A243" s="163"/>
+      <c r="A243" s="165"/>
     </row>
     <row r="244">
-      <c r="A244" s="163"/>
+      <c r="A244" s="165"/>
     </row>
     <row r="245">
-      <c r="A245" s="163"/>
+      <c r="A245" s="165"/>
     </row>
     <row r="246">
-      <c r="A246" s="163"/>
+      <c r="A246" s="165"/>
     </row>
     <row r="247">
-      <c r="A247" s="163"/>
+      <c r="A247" s="165"/>
     </row>
     <row r="248">
-      <c r="A248" s="163"/>
+      <c r="A248" s="165"/>
     </row>
     <row r="249">
-      <c r="A249" s="163"/>
+      <c r="A249" s="165"/>
     </row>
     <row r="250">
-      <c r="A250" s="163"/>
+      <c r="A250" s="165"/>
     </row>
     <row r="251">
-      <c r="A251" s="163"/>
+      <c r="A251" s="165"/>
     </row>
     <row r="252">
-      <c r="A252" s="163"/>
+      <c r="A252" s="165"/>
     </row>
     <row r="253">
-      <c r="A253" s="163"/>
+      <c r="A253" s="165"/>
     </row>
     <row r="254">
-      <c r="A254" s="163"/>
+      <c r="A254" s="165"/>
     </row>
     <row r="255">
-      <c r="A255" s="163"/>
+      <c r="A255" s="165"/>
     </row>
     <row r="256">
-      <c r="A256" s="163"/>
+      <c r="A256" s="165"/>
     </row>
     <row r="257">
-      <c r="A257" s="163"/>
+      <c r="A257" s="165"/>
     </row>
     <row r="258">
-      <c r="A258" s="163"/>
+      <c r="A258" s="165"/>
     </row>
     <row r="259">
-      <c r="A259" s="163"/>
+      <c r="A259" s="165"/>
     </row>
     <row r="260">
-      <c r="A260" s="163"/>
+      <c r="A260" s="165"/>
     </row>
     <row r="261">
-      <c r="A261" s="163"/>
+      <c r="A261" s="165"/>
     </row>
     <row r="262">
-      <c r="A262" s="163"/>
+      <c r="A262" s="165"/>
     </row>
     <row r="263">
-      <c r="A263" s="163"/>
+      <c r="A263" s="165"/>
     </row>
     <row r="264">
-      <c r="A264" s="163"/>
+      <c r="A264" s="165"/>
     </row>
     <row r="265">
-      <c r="A265" s="163"/>
+      <c r="A265" s="165"/>
     </row>
     <row r="266">
-      <c r="A266" s="163"/>
+      <c r="A266" s="165"/>
     </row>
     <row r="267">
-      <c r="A267" s="163"/>
+      <c r="A267" s="165"/>
     </row>
     <row r="268">
-      <c r="A268" s="163"/>
+      <c r="A268" s="165"/>
     </row>
     <row r="269">
-      <c r="A269" s="163"/>
+      <c r="A269" s="165"/>
     </row>
     <row r="270">
-      <c r="A270" s="163"/>
+      <c r="A270" s="165"/>
     </row>
     <row r="271">
-      <c r="A271" s="163"/>
+      <c r="A271" s="165"/>
     </row>
     <row r="272">
-      <c r="A272" s="163"/>
+      <c r="A272" s="165"/>
     </row>
     <row r="273">
-      <c r="A273" s="163"/>
+      <c r="A273" s="165"/>
     </row>
     <row r="274">
-      <c r="A274" s="163"/>
+      <c r="A274" s="165"/>
     </row>
     <row r="275">
-      <c r="A275" s="163"/>
+      <c r="A275" s="165"/>
     </row>
     <row r="276">
-      <c r="A276" s="163"/>
+      <c r="A276" s="165"/>
     </row>
     <row r="277">
-      <c r="A277" s="163"/>
+      <c r="A277" s="165"/>
     </row>
     <row r="278">
-      <c r="A278" s="163"/>
+      <c r="A278" s="165"/>
     </row>
     <row r="279">
-      <c r="A279" s="163"/>
+      <c r="A279" s="165"/>
     </row>
     <row r="280">
-      <c r="A280" s="163"/>
+      <c r="A280" s="165"/>
     </row>
     <row r="281">
-      <c r="A281" s="163"/>
+      <c r="A281" s="165"/>
     </row>
     <row r="282">
-      <c r="A282" s="163"/>
+      <c r="A282" s="165"/>
     </row>
     <row r="283">
-      <c r="A283" s="163"/>
+      <c r="A283" s="165"/>
     </row>
     <row r="284">
-      <c r="A284" s="163"/>
+      <c r="A284" s="165"/>
     </row>
     <row r="285">
-      <c r="A285" s="163"/>
+      <c r="A285" s="165"/>
     </row>
     <row r="286">
-      <c r="A286" s="163"/>
+      <c r="A286" s="165"/>
     </row>
     <row r="287">
-      <c r="A287" s="163"/>
+      <c r="A287" s="165"/>
     </row>
     <row r="288">
-      <c r="A288" s="163"/>
+      <c r="A288" s="165"/>
     </row>
     <row r="289">
-      <c r="A289" s="163"/>
+      <c r="A289" s="165"/>
     </row>
     <row r="290">
-      <c r="A290" s="163"/>
+      <c r="A290" s="165"/>
     </row>
     <row r="291">
-      <c r="A291" s="163"/>
+      <c r="A291" s="165"/>
     </row>
     <row r="292">
-      <c r="A292" s="163"/>
+      <c r="A292" s="165"/>
     </row>
     <row r="293">
-      <c r="A293" s="163"/>
+      <c r="A293" s="165"/>
     </row>
     <row r="294">
-      <c r="A294" s="163"/>
+      <c r="A294" s="165"/>
     </row>
     <row r="295">
-      <c r="A295" s="163"/>
+      <c r="A295" s="165"/>
     </row>
     <row r="296">
-      <c r="A296" s="163"/>
+      <c r="A296" s="165"/>
     </row>
     <row r="297">
-      <c r="A297" s="163"/>
+      <c r="A297" s="165"/>
     </row>
     <row r="298">
-      <c r="A298" s="163"/>
+      <c r="A298" s="165"/>
     </row>
     <row r="299">
-      <c r="A299" s="163"/>
+      <c r="A299" s="165"/>
     </row>
     <row r="300">
-      <c r="A300" s="163"/>
+      <c r="A300" s="165"/>
     </row>
     <row r="301">
-      <c r="A301" s="163"/>
+      <c r="A301" s="165"/>
     </row>
     <row r="302">
-      <c r="A302" s="163"/>
+      <c r="A302" s="165"/>
     </row>
     <row r="303">
-      <c r="A303" s="163"/>
+      <c r="A303" s="165"/>
     </row>
     <row r="304">
-      <c r="A304" s="163"/>
+      <c r="A304" s="165"/>
     </row>
     <row r="305">
-      <c r="A305" s="163"/>
+      <c r="A305" s="165"/>
     </row>
     <row r="306">
-      <c r="A306" s="163"/>
+      <c r="A306" s="165"/>
     </row>
     <row r="307">
-      <c r="A307" s="163"/>
+      <c r="A307" s="165"/>
     </row>
     <row r="308">
-      <c r="A308" s="163"/>
+      <c r="A308" s="165"/>
     </row>
     <row r="309">
-      <c r="A309" s="163"/>
+      <c r="A309" s="165"/>
     </row>
     <row r="310">
-      <c r="A310" s="163"/>
+      <c r="A310" s="165"/>
     </row>
     <row r="311">
-      <c r="A311" s="163"/>
+      <c r="A311" s="165"/>
     </row>
     <row r="312">
-      <c r="A312" s="163"/>
+      <c r="A312" s="165"/>
     </row>
     <row r="313">
-      <c r="A313" s="163"/>
+      <c r="A313" s="165"/>
     </row>
     <row r="314">
-      <c r="A314" s="163"/>
+      <c r="A314" s="165"/>
     </row>
     <row r="315">
-      <c r="A315" s="163"/>
+      <c r="A315" s="165"/>
     </row>
     <row r="316">
-      <c r="A316" s="163"/>
+      <c r="A316" s="165"/>
     </row>
     <row r="317">
-      <c r="A317" s="163"/>
+      <c r="A317" s="165"/>
     </row>
     <row r="318">
-      <c r="A318" s="163"/>
+      <c r="A318" s="165"/>
     </row>
     <row r="319">
-      <c r="A319" s="163"/>
+      <c r="A319" s="165"/>
     </row>
     <row r="320">
-      <c r="A320" s="163"/>
+      <c r="A320" s="165"/>
     </row>
     <row r="321">
-      <c r="A321" s="163"/>
+      <c r="A321" s="165"/>
     </row>
     <row r="322">
-      <c r="A322" s="163"/>
+      <c r="A322" s="165"/>
     </row>
     <row r="323">
-      <c r="A323" s="163"/>
+      <c r="A323" s="165"/>
     </row>
     <row r="324">
-      <c r="A324" s="163"/>
+      <c r="A324" s="165"/>
     </row>
     <row r="325">
-      <c r="A325" s="163"/>
+      <c r="A325" s="165"/>
     </row>
     <row r="326">
-      <c r="A326" s="163"/>
+      <c r="A326" s="165"/>
     </row>
     <row r="327">
-      <c r="A327" s="163"/>
+      <c r="A327" s="165"/>
     </row>
     <row r="328">
-      <c r="A328" s="163"/>
+      <c r="A328" s="165"/>
     </row>
     <row r="329">
-      <c r="A329" s="163"/>
+      <c r="A329" s="165"/>
     </row>
     <row r="330">
-      <c r="A330" s="163"/>
+      <c r="A330" s="165"/>
     </row>
     <row r="331">
-      <c r="A331" s="163"/>
+      <c r="A331" s="165"/>
     </row>
     <row r="332">
-      <c r="A332" s="163"/>
+      <c r="A332" s="165"/>
     </row>
     <row r="333">
-      <c r="A333" s="163"/>
+      <c r="A333" s="165"/>
     </row>
     <row r="334">
-      <c r="A334" s="163"/>
+      <c r="A334" s="165"/>
     </row>
     <row r="335">
-      <c r="A335" s="163"/>
+      <c r="A335" s="165"/>
     </row>
     <row r="336">
-      <c r="A336" s="163"/>
+      <c r="A336" s="165"/>
     </row>
     <row r="337">
-      <c r="A337" s="163"/>
+      <c r="A337" s="165"/>
     </row>
     <row r="338">
-      <c r="A338" s="163"/>
+      <c r="A338" s="165"/>
     </row>
     <row r="339">
-      <c r="A339" s="163"/>
+      <c r="A339" s="165"/>
     </row>
     <row r="340">
-      <c r="A340" s="163"/>
+      <c r="A340" s="165"/>
     </row>
     <row r="341">
-      <c r="A341" s="163"/>
+      <c r="A341" s="165"/>
     </row>
     <row r="342">
-      <c r="A342" s="163"/>
+      <c r="A342" s="165"/>
     </row>
     <row r="343">
-      <c r="A343" s="163"/>
+      <c r="A343" s="165"/>
     </row>
     <row r="344">
-      <c r="A344" s="163"/>
+      <c r="A344" s="165"/>
     </row>
     <row r="345">
-      <c r="A345" s="163"/>
+      <c r="A345" s="165"/>
     </row>
     <row r="346">
-      <c r="A346" s="163"/>
+      <c r="A346" s="165"/>
     </row>
     <row r="347">
-      <c r="A347" s="163"/>
+      <c r="A347" s="165"/>
     </row>
     <row r="348">
-      <c r="A348" s="163"/>
+      <c r="A348" s="165"/>
     </row>
     <row r="349">
-      <c r="A349" s="163"/>
+      <c r="A349" s="165"/>
     </row>
     <row r="350">
-      <c r="A350" s="163"/>
+      <c r="A350" s="165"/>
     </row>
     <row r="351">
-      <c r="A351" s="163"/>
+      <c r="A351" s="165"/>
     </row>
     <row r="352">
-      <c r="A352" s="163"/>
+      <c r="A352" s="165"/>
     </row>
     <row r="353">
-      <c r="A353" s="163"/>
+      <c r="A353" s="165"/>
     </row>
     <row r="354">
-      <c r="A354" s="163"/>
+      <c r="A354" s="165"/>
     </row>
     <row r="355">
-      <c r="A355" s="163"/>
+      <c r="A355" s="165"/>
     </row>
     <row r="356">
-      <c r="A356" s="163"/>
+      <c r="A356" s="165"/>
     </row>
     <row r="357">
-      <c r="A357" s="163"/>
+      <c r="A357" s="165"/>
     </row>
     <row r="358">
-      <c r="A358" s="163"/>
+      <c r="A358" s="165"/>
     </row>
     <row r="359">
-      <c r="A359" s="163"/>
+      <c r="A359" s="165"/>
     </row>
     <row r="360">
-      <c r="A360" s="163"/>
+      <c r="A360" s="165"/>
     </row>
     <row r="361">
-      <c r="A361" s="163"/>
+      <c r="A361" s="165"/>
     </row>
     <row r="362">
-      <c r="A362" s="163"/>
+      <c r="A362" s="165"/>
     </row>
     <row r="363">
-      <c r="A363" s="163"/>
+      <c r="A363" s="165"/>
     </row>
     <row r="364">
-      <c r="A364" s="163"/>
+      <c r="A364" s="165"/>
     </row>
     <row r="365">
-      <c r="A365" s="163"/>
+      <c r="A365" s="165"/>
     </row>
     <row r="366">
-      <c r="A366" s="163"/>
+      <c r="A366" s="165"/>
     </row>
     <row r="367">
-      <c r="A367" s="163"/>
+      <c r="A367" s="165"/>
     </row>
     <row r="368">
-      <c r="A368" s="163"/>
+      <c r="A368" s="165"/>
     </row>
     <row r="369">
-      <c r="A369" s="163"/>
+      <c r="A369" s="165"/>
     </row>
     <row r="370">
-      <c r="A370" s="163"/>
+      <c r="A370" s="165"/>
     </row>
     <row r="371">
-      <c r="A371" s="163"/>
+      <c r="A371" s="165"/>
     </row>
     <row r="372">
-      <c r="A372" s="163"/>
+      <c r="A372" s="165"/>
     </row>
     <row r="373">
-      <c r="A373" s="163"/>
+      <c r="A373" s="165"/>
     </row>
     <row r="374">
-      <c r="A374" s="163"/>
+      <c r="A374" s="165"/>
     </row>
     <row r="375">
-      <c r="A375" s="163"/>
+      <c r="A375" s="165"/>
     </row>
     <row r="376">
-      <c r="A376" s="163"/>
+      <c r="A376" s="165"/>
     </row>
     <row r="377">
-      <c r="A377" s="163"/>
+      <c r="A377" s="165"/>
     </row>
     <row r="378">
-      <c r="A378" s="163"/>
+      <c r="A378" s="165"/>
     </row>
     <row r="379">
-      <c r="A379" s="163"/>
+      <c r="A379" s="165"/>
     </row>
     <row r="380">
-      <c r="A380" s="163"/>
+      <c r="A380" s="165"/>
     </row>
     <row r="381">
-      <c r="A381" s="163"/>
+      <c r="A381" s="165"/>
     </row>
     <row r="382">
-      <c r="A382" s="163"/>
+      <c r="A382" s="165"/>
     </row>
     <row r="383">
-      <c r="A383" s="163"/>
+      <c r="A383" s="165"/>
     </row>
     <row r="384">
-      <c r="A384" s="163"/>
+      <c r="A384" s="165"/>
     </row>
     <row r="385">
-      <c r="A385" s="163"/>
+      <c r="A385" s="165"/>
     </row>
     <row r="386">
-      <c r="A386" s="163"/>
+      <c r="A386" s="165"/>
     </row>
     <row r="387">
-      <c r="A387" s="163"/>
+      <c r="A387" s="165"/>
     </row>
     <row r="388">
-      <c r="A388" s="163"/>
+      <c r="A388" s="165"/>
     </row>
     <row r="389">
-      <c r="A389" s="163"/>
+      <c r="A389" s="165"/>
     </row>
     <row r="390">
-      <c r="A390" s="163"/>
+      <c r="A390" s="165"/>
     </row>
     <row r="391">
-      <c r="A391" s="163"/>
+      <c r="A391" s="165"/>
     </row>
     <row r="392">
-      <c r="A392" s="163"/>
+      <c r="A392" s="165"/>
     </row>
     <row r="393">
-      <c r="A393" s="163"/>
+      <c r="A393" s="165"/>
     </row>
     <row r="394">
-      <c r="A394" s="163"/>
+      <c r="A394" s="165"/>
     </row>
     <row r="395">
-      <c r="A395" s="163"/>
+      <c r="A395" s="165"/>
     </row>
     <row r="396">
-      <c r="A396" s="163"/>
+      <c r="A396" s="165"/>
     </row>
     <row r="397">
-      <c r="A397" s="163"/>
+      <c r="A397" s="165"/>
     </row>
     <row r="398">
-      <c r="A398" s="163"/>
+      <c r="A398" s="165"/>
     </row>
     <row r="399">
-      <c r="A399" s="163"/>
+      <c r="A399" s="165"/>
     </row>
     <row r="400">
-      <c r="A400" s="163"/>
+      <c r="A400" s="165"/>
     </row>
     <row r="401">
-      <c r="A401" s="163"/>
+      <c r="A401" s="165"/>
     </row>
     <row r="402">
-      <c r="A402" s="163"/>
+      <c r="A402" s="165"/>
     </row>
     <row r="403">
-      <c r="A403" s="163"/>
+      <c r="A403" s="165"/>
     </row>
     <row r="404">
-      <c r="A404" s="163"/>
+      <c r="A404" s="165"/>
     </row>
     <row r="405">
-      <c r="A405" s="163"/>
+      <c r="A405" s="165"/>
     </row>
     <row r="406">
-      <c r="A406" s="163"/>
+      <c r="A406" s="165"/>
     </row>
     <row r="407">
-      <c r="A407" s="163"/>
+      <c r="A407" s="165"/>
     </row>
     <row r="408">
-      <c r="A408" s="163"/>
+      <c r="A408" s="165"/>
     </row>
     <row r="409">
-      <c r="A409" s="163"/>
+      <c r="A409" s="165"/>
     </row>
     <row r="410">
-      <c r="A410" s="163"/>
+      <c r="A410" s="165"/>
     </row>
     <row r="411">
-      <c r="A411" s="163"/>
+      <c r="A411" s="165"/>
     </row>
     <row r="412">
-      <c r="A412" s="163"/>
+      <c r="A412" s="165"/>
     </row>
     <row r="413">
-      <c r="A413" s="163"/>
+      <c r="A413" s="165"/>
     </row>
     <row r="414">
-      <c r="A414" s="163"/>
+      <c r="A414" s="165"/>
     </row>
     <row r="415">
-      <c r="A415" s="163"/>
+      <c r="A415" s="165"/>
     </row>
     <row r="416">
-      <c r="A416" s="163"/>
+      <c r="A416" s="165"/>
     </row>
     <row r="417">
-      <c r="A417" s="163"/>
+      <c r="A417" s="165"/>
     </row>
     <row r="418">
-      <c r="A418" s="163"/>
+      <c r="A418" s="165"/>
     </row>
     <row r="419">
-      <c r="A419" s="163"/>
+      <c r="A419" s="165"/>
     </row>
     <row r="420">
-      <c r="A420" s="163"/>
+      <c r="A420" s="165"/>
     </row>
     <row r="421">
-      <c r="A421" s="163"/>
+      <c r="A421" s="165"/>
     </row>
     <row r="422">
-      <c r="A422" s="163"/>
+      <c r="A422" s="165"/>
     </row>
     <row r="423">
-      <c r="A423" s="163"/>
+      <c r="A423" s="165"/>
     </row>
     <row r="424">
-      <c r="A424" s="163"/>
+      <c r="A424" s="165"/>
     </row>
     <row r="425">
-      <c r="A425" s="163"/>
+      <c r="A425" s="165"/>
     </row>
     <row r="426">
-      <c r="A426" s="163"/>
+      <c r="A426" s="165"/>
     </row>
     <row r="427">
-      <c r="A427" s="163"/>
+      <c r="A427" s="165"/>
     </row>
     <row r="428">
-      <c r="A428" s="163"/>
+      <c r="A428" s="165"/>
     </row>
     <row r="429">
-      <c r="A429" s="163"/>
+      <c r="A429" s="165"/>
     </row>
     <row r="430">
-      <c r="A430" s="163"/>
+      <c r="A430" s="165"/>
     </row>
     <row r="431">
-      <c r="A431" s="163"/>
+      <c r="A431" s="165"/>
     </row>
     <row r="432">
-      <c r="A432" s="163"/>
+      <c r="A432" s="165"/>
     </row>
     <row r="433">
-      <c r="A433" s="163"/>
+      <c r="A433" s="165"/>
     </row>
     <row r="434">
-      <c r="A434" s="163"/>
+      <c r="A434" s="165"/>
     </row>
     <row r="435">
-      <c r="A435" s="163"/>
+      <c r="A435" s="165"/>
     </row>
     <row r="436">
-      <c r="A436" s="163"/>
+      <c r="A436" s="165"/>
     </row>
     <row r="437">
-      <c r="A437" s="163"/>
+      <c r="A437" s="165"/>
     </row>
     <row r="438">
-      <c r="A438" s="163"/>
+      <c r="A438" s="165"/>
     </row>
     <row r="439">
-      <c r="A439" s="163"/>
+      <c r="A439" s="165"/>
     </row>
     <row r="440">
-      <c r="A440" s="163"/>
+      <c r="A440" s="165"/>
     </row>
     <row r="441">
-      <c r="A441" s="163"/>
+      <c r="A441" s="165"/>
     </row>
     <row r="442">
-      <c r="A442" s="163"/>
+      <c r="A442" s="165"/>
     </row>
     <row r="443">
-      <c r="A443" s="163"/>
+      <c r="A443" s="165"/>
     </row>
     <row r="444">
-      <c r="A444" s="163"/>
+      <c r="A444" s="165"/>
     </row>
     <row r="445">
-      <c r="A445" s="163"/>
+      <c r="A445" s="165"/>
     </row>
     <row r="446">
-      <c r="A446" s="163"/>
+      <c r="A446" s="165"/>
     </row>
     <row r="447">
-      <c r="A447" s="163"/>
+      <c r="A447" s="165"/>
     </row>
     <row r="448">
-      <c r="A448" s="163"/>
+      <c r="A448" s="165"/>
     </row>
     <row r="449">
-      <c r="A449" s="163"/>
+      <c r="A449" s="165"/>
     </row>
     <row r="450">
-      <c r="A450" s="163"/>
+      <c r="A450" s="165"/>
     </row>
     <row r="451">
-      <c r="A451" s="163"/>
+      <c r="A451" s="165"/>
     </row>
     <row r="452">
-      <c r="A452" s="163"/>
+      <c r="A452" s="165"/>
     </row>
     <row r="453">
-      <c r="A453" s="163"/>
+      <c r="A453" s="165"/>
     </row>
     <row r="454">
-      <c r="A454" s="163"/>
+      <c r="A454" s="165"/>
     </row>
     <row r="455">
-      <c r="A455" s="163"/>
+      <c r="A455" s="165"/>
     </row>
     <row r="456">
-      <c r="A456" s="163"/>
+      <c r="A456" s="165"/>
     </row>
     <row r="457">
-      <c r="A457" s="163"/>
+      <c r="A457" s="165"/>
     </row>
     <row r="458">
-      <c r="A458" s="163"/>
+      <c r="A458" s="165"/>
     </row>
     <row r="459">
-      <c r="A459" s="163"/>
+      <c r="A459" s="165"/>
     </row>
     <row r="460">
-      <c r="A460" s="163"/>
+      <c r="A460" s="165"/>
     </row>
     <row r="461">
-      <c r="A461" s="163"/>
+      <c r="A461" s="165"/>
     </row>
     <row r="462">
-      <c r="A462" s="163"/>
+      <c r="A462" s="165"/>
     </row>
     <row r="463">
-      <c r="A463" s="163"/>
+      <c r="A463" s="165"/>
     </row>
     <row r="464">
-      <c r="A464" s="163"/>
+      <c r="A464" s="165"/>
     </row>
     <row r="465">
-      <c r="A465" s="163"/>
+      <c r="A465" s="165"/>
     </row>
     <row r="466">
-      <c r="A466" s="163"/>
+      <c r="A466" s="165"/>
     </row>
     <row r="467">
-      <c r="A467" s="163"/>
+      <c r="A467" s="165"/>
     </row>
     <row r="468">
-      <c r="A468" s="163"/>
+      <c r="A468" s="165"/>
     </row>
     <row r="469">
-      <c r="A469" s="163"/>
+      <c r="A469" s="165"/>
     </row>
     <row r="470">
-      <c r="A470" s="163"/>
+      <c r="A470" s="165"/>
     </row>
     <row r="471">
-      <c r="A471" s="163"/>
+      <c r="A471" s="165"/>
     </row>
     <row r="472">
-      <c r="A472" s="163"/>
+      <c r="A472" s="165"/>
     </row>
     <row r="473">
-      <c r="A473" s="163"/>
+      <c r="A473" s="165"/>
     </row>
     <row r="474">
-      <c r="A474" s="163"/>
+      <c r="A474" s="165"/>
     </row>
     <row r="475">
-      <c r="A475" s="163"/>
+      <c r="A475" s="165"/>
     </row>
     <row r="476">
-      <c r="A476" s="163"/>
+      <c r="A476" s="165"/>
     </row>
     <row r="477">
-      <c r="A477" s="163"/>
+      <c r="A477" s="165"/>
     </row>
     <row r="478">
-      <c r="A478" s="163"/>
+      <c r="A478" s="165"/>
     </row>
     <row r="479">
-      <c r="A479" s="163"/>
+      <c r="A479" s="165"/>
     </row>
     <row r="480">
-      <c r="A480" s="163"/>
+      <c r="A480" s="165"/>
     </row>
     <row r="481">
-      <c r="A481" s="163"/>
+      <c r="A481" s="165"/>
     </row>
     <row r="482">
-      <c r="A482" s="163"/>
+      <c r="A482" s="165"/>
     </row>
     <row r="483">
-      <c r="A483" s="163"/>
+      <c r="A483" s="165"/>
     </row>
     <row r="484">
-      <c r="A484" s="163"/>
+      <c r="A484" s="165"/>
     </row>
     <row r="485">
-      <c r="A485" s="163"/>
+      <c r="A485" s="165"/>
     </row>
     <row r="486">
-      <c r="A486" s="163"/>
+      <c r="A486" s="165"/>
     </row>
     <row r="487">
-      <c r="A487" s="163"/>
+      <c r="A487" s="165"/>
     </row>
     <row r="488">
-      <c r="A488" s="163"/>
+      <c r="A488" s="165"/>
     </row>
     <row r="489">
-      <c r="A489" s="163"/>
+      <c r="A489" s="165"/>
     </row>
     <row r="490">
-      <c r="A490" s="163"/>
+      <c r="A490" s="165"/>
     </row>
     <row r="491">
-      <c r="A491" s="163"/>
+      <c r="A491" s="165"/>
     </row>
     <row r="492">
-      <c r="A492" s="163"/>
+      <c r="A492" s="165"/>
     </row>
     <row r="493">
-      <c r="A493" s="163"/>
+      <c r="A493" s="165"/>
     </row>
     <row r="494">
-      <c r="A494" s="163"/>
+      <c r="A494" s="165"/>
     </row>
     <row r="495">
-      <c r="A495" s="163"/>
+      <c r="A495" s="165"/>
     </row>
     <row r="496">
-      <c r="A496" s="163"/>
+      <c r="A496" s="165"/>
     </row>
     <row r="497">
-      <c r="A497" s="163"/>
+      <c r="A497" s="165"/>
     </row>
     <row r="498">
-      <c r="A498" s="163"/>
+      <c r="A498" s="165"/>
     </row>
     <row r="499">
-      <c r="A499" s="163"/>
+      <c r="A499" s="165"/>
     </row>
     <row r="500">
-      <c r="A500" s="163"/>
+      <c r="A500" s="165"/>
     </row>
     <row r="501">
-      <c r="A501" s="163"/>
+      <c r="A501" s="165"/>
     </row>
     <row r="502">
-      <c r="A502" s="163"/>
+      <c r="A502" s="165"/>
     </row>
     <row r="503">
-      <c r="A503" s="163"/>
+      <c r="A503" s="165"/>
     </row>
     <row r="504">
-      <c r="A504" s="163"/>
+      <c r="A504" s="165"/>
     </row>
     <row r="505">
-      <c r="A505" s="163"/>
+      <c r="A505" s="165"/>
     </row>
     <row r="506">
-      <c r="A506" s="163"/>
+      <c r="A506" s="165"/>
     </row>
     <row r="507">
-      <c r="A507" s="163"/>
+      <c r="A507" s="165"/>
     </row>
     <row r="508">
-      <c r="A508" s="163"/>
+      <c r="A508" s="165"/>
     </row>
     <row r="509">
-      <c r="A509" s="163"/>
+      <c r="A509" s="165"/>
     </row>
     <row r="510">
-      <c r="A510" s="163"/>
+      <c r="A510" s="165"/>
     </row>
     <row r="511">
-      <c r="A511" s="163"/>
+      <c r="A511" s="165"/>
     </row>
     <row r="512">
-      <c r="A512" s="163"/>
+      <c r="A512" s="165"/>
     </row>
     <row r="513">
-      <c r="A513" s="163"/>
+      <c r="A513" s="165"/>
     </row>
     <row r="514">
-      <c r="A514" s="163"/>
+      <c r="A514" s="165"/>
     </row>
     <row r="515">
-      <c r="A515" s="163"/>
+      <c r="A515" s="165"/>
     </row>
     <row r="516">
-      <c r="A516" s="163"/>
+      <c r="A516" s="165"/>
     </row>
     <row r="517">
-      <c r="A517" s="163"/>
+      <c r="A517" s="165"/>
     </row>
     <row r="518">
-      <c r="A518" s="163"/>
+      <c r="A518" s="165"/>
     </row>
     <row r="519">
-      <c r="A519" s="163"/>
+      <c r="A519" s="165"/>
     </row>
     <row r="520">
-      <c r="A520" s="163"/>
+      <c r="A520" s="165"/>
     </row>
     <row r="521">
-      <c r="A521" s="163"/>
+      <c r="A521" s="165"/>
     </row>
     <row r="522">
-      <c r="A522" s="163"/>
+      <c r="A522" s="165"/>
     </row>
     <row r="523">
-      <c r="A523" s="163"/>
+      <c r="A523" s="165"/>
     </row>
     <row r="524">
-      <c r="A524" s="163"/>
+      <c r="A524" s="165"/>
     </row>
     <row r="525">
-      <c r="A525" s="163"/>
+      <c r="A525" s="165"/>
     </row>
     <row r="526">
-      <c r="A526" s="163"/>
+      <c r="A526" s="165"/>
     </row>
     <row r="527">
-      <c r="A527" s="163"/>
+      <c r="A527" s="165"/>
     </row>
     <row r="528">
-      <c r="A528" s="163"/>
+      <c r="A528" s="165"/>
     </row>
     <row r="529">
-      <c r="A529" s="163"/>
+      <c r="A529" s="165"/>
     </row>
     <row r="530">
-      <c r="A530" s="163"/>
+      <c r="A530" s="165"/>
     </row>
     <row r="531">
-      <c r="A531" s="163"/>
+      <c r="A531" s="165"/>
     </row>
     <row r="532">
-      <c r="A532" s="163"/>
+      <c r="A532" s="165"/>
     </row>
     <row r="533">
-      <c r="A533" s="163"/>
+      <c r="A533" s="165"/>
     </row>
     <row r="534">
-      <c r="A534" s="163"/>
+      <c r="A534" s="165"/>
     </row>
     <row r="535">
-      <c r="A535" s="163"/>
+      <c r="A535" s="165"/>
     </row>
     <row r="536">
-      <c r="A536" s="163"/>
+      <c r="A536" s="165"/>
     </row>
     <row r="537">
-      <c r="A537" s="163"/>
+      <c r="A537" s="165"/>
     </row>
     <row r="538">
-      <c r="A538" s="163"/>
+      <c r="A538" s="165"/>
     </row>
     <row r="539">
-      <c r="A539" s="163"/>
+      <c r="A539" s="165"/>
     </row>
     <row r="540">
-      <c r="A540" s="163"/>
+      <c r="A540" s="165"/>
     </row>
     <row r="541">
-      <c r="A541" s="163"/>
+      <c r="A541" s="165"/>
     </row>
     <row r="542">
-      <c r="A542" s="163"/>
+      <c r="A542" s="165"/>
     </row>
     <row r="543">
-      <c r="A543" s="163"/>
+      <c r="A543" s="165"/>
     </row>
     <row r="544">
-      <c r="A544" s="163"/>
+      <c r="A544" s="165"/>
     </row>
     <row r="545">
-      <c r="A545" s="163"/>
+      <c r="A545" s="165"/>
     </row>
     <row r="546">
-      <c r="A546" s="163"/>
+      <c r="A546" s="165"/>
     </row>
     <row r="547">
-      <c r="A547" s="163"/>
+      <c r="A547" s="165"/>
     </row>
     <row r="548">
-      <c r="A548" s="163"/>
+      <c r="A548" s="165"/>
     </row>
     <row r="549">
-      <c r="A549" s="163"/>
+      <c r="A549" s="165"/>
     </row>
     <row r="550">
-      <c r="A550" s="163"/>
+      <c r="A550" s="165"/>
     </row>
     <row r="551">
-      <c r="A551" s="163"/>
+      <c r="A551" s="165"/>
     </row>
     <row r="552">
-      <c r="A552" s="163"/>
+      <c r="A552" s="165"/>
     </row>
     <row r="553">
-      <c r="A553" s="163"/>
+      <c r="A553" s="165"/>
     </row>
     <row r="554">
-      <c r="A554" s="163"/>
+      <c r="A554" s="165"/>
     </row>
     <row r="555">
-      <c r="A555" s="163"/>
+      <c r="A555" s="165"/>
     </row>
     <row r="556">
-      <c r="A556" s="163"/>
+      <c r="A556" s="165"/>
     </row>
     <row r="557">
-      <c r="A557" s="163"/>
+      <c r="A557" s="165"/>
     </row>
     <row r="558">
-      <c r="A558" s="163"/>
+      <c r="A558" s="165"/>
     </row>
     <row r="559">
-      <c r="A559" s="163"/>
+      <c r="A559" s="165"/>
     </row>
     <row r="560">
-      <c r="A560" s="163"/>
+      <c r="A560" s="165"/>
     </row>
     <row r="561">
-      <c r="A561" s="163"/>
+      <c r="A561" s="165"/>
     </row>
     <row r="562">
-      <c r="A562" s="163"/>
+      <c r="A562" s="165"/>
     </row>
     <row r="563">
-      <c r="A563" s="163"/>
+      <c r="A563" s="165"/>
     </row>
     <row r="564">
-      <c r="A564" s="163"/>
+      <c r="A564" s="165"/>
     </row>
     <row r="565">
-      <c r="A565" s="163"/>
+      <c r="A565" s="165"/>
     </row>
     <row r="566">
-      <c r="A566" s="163"/>
+      <c r="A566" s="165"/>
     </row>
     <row r="567">
-      <c r="A567" s="163"/>
+      <c r="A567" s="165"/>
     </row>
     <row r="568">
-      <c r="A568" s="163"/>
+      <c r="A568" s="165"/>
     </row>
     <row r="569">
-      <c r="A569" s="163"/>
+      <c r="A569" s="165"/>
     </row>
     <row r="570">
-      <c r="A570" s="163"/>
+      <c r="A570" s="165"/>
     </row>
     <row r="571">
-      <c r="A571" s="163"/>
+      <c r="A571" s="165"/>
     </row>
     <row r="572">
-      <c r="A572" s="163"/>
+      <c r="A572" s="165"/>
     </row>
     <row r="573">
-      <c r="A573" s="163"/>
+      <c r="A573" s="165"/>
     </row>
     <row r="574">
-      <c r="A574" s="163"/>
+      <c r="A574" s="165"/>
     </row>
     <row r="575">
-      <c r="A575" s="163"/>
+      <c r="A575" s="165"/>
     </row>
     <row r="576">
-      <c r="A576" s="163"/>
+      <c r="A576" s="165"/>
     </row>
     <row r="577">
-      <c r="A577" s="163"/>
+      <c r="A577" s="165"/>
     </row>
     <row r="578">
-      <c r="A578" s="163"/>
+      <c r="A578" s="165"/>
     </row>
     <row r="579">
-      <c r="A579" s="163"/>
+      <c r="A579" s="165"/>
     </row>
     <row r="580">
-      <c r="A580" s="163"/>
+      <c r="A580" s="165"/>
     </row>
     <row r="581">
-      <c r="A581" s="163"/>
+      <c r="A581" s="165"/>
     </row>
     <row r="582">
-      <c r="A582" s="163"/>
+      <c r="A582" s="165"/>
     </row>
     <row r="583">
-      <c r="A583" s="163"/>
+      <c r="A583" s="165"/>
     </row>
     <row r="584">
-      <c r="A584" s="163"/>
+      <c r="A584" s="165"/>
     </row>
     <row r="585">
-      <c r="A585" s="163"/>
+      <c r="A585" s="165"/>
     </row>
     <row r="586">
-      <c r="A586" s="163"/>
+      <c r="A586" s="165"/>
     </row>
     <row r="587">
-      <c r="A587" s="163"/>
+      <c r="A587" s="165"/>
     </row>
     <row r="588">
-      <c r="A588" s="163"/>
+      <c r="A588" s="165"/>
     </row>
     <row r="589">
-      <c r="A589" s="163"/>
+      <c r="A589" s="165"/>
     </row>
     <row r="590">
-      <c r="A590" s="163"/>
+      <c r="A590" s="165"/>
     </row>
     <row r="591">
-      <c r="A591" s="163"/>
+      <c r="A591" s="165"/>
     </row>
     <row r="592">
-      <c r="A592" s="163"/>
+      <c r="A592" s="165"/>
     </row>
     <row r="593">
-      <c r="A593" s="163"/>
+      <c r="A593" s="165"/>
     </row>
     <row r="594">
-      <c r="A594" s="163"/>
+      <c r="A594" s="165"/>
     </row>
     <row r="595">
-      <c r="A595" s="163"/>
+      <c r="A595" s="165"/>
     </row>
     <row r="596">
-      <c r="A596" s="163"/>
+      <c r="A596" s="165"/>
     </row>
     <row r="597">
-      <c r="A597" s="163"/>
+      <c r="A597" s="165"/>
     </row>
     <row r="598">
-      <c r="A598" s="163"/>
+      <c r="A598" s="165"/>
     </row>
     <row r="599">
-      <c r="A599" s="163"/>
+      <c r="A599" s="165"/>
     </row>
     <row r="600">
-      <c r="A600" s="163"/>
+      <c r="A600" s="165"/>
     </row>
     <row r="601">
-      <c r="A601" s="163"/>
+      <c r="A601" s="165"/>
     </row>
     <row r="602">
-      <c r="A602" s="163"/>
+      <c r="A602" s="165"/>
     </row>
     <row r="603">
-      <c r="A603" s="163"/>
+      <c r="A603" s="165"/>
     </row>
     <row r="604">
-      <c r="A604" s="163"/>
+      <c r="A604" s="165"/>
     </row>
     <row r="605">
-      <c r="A605" s="163"/>
+      <c r="A605" s="165"/>
     </row>
     <row r="606">
-      <c r="A606" s="163"/>
+      <c r="A606" s="165"/>
     </row>
     <row r="607">
-      <c r="A607" s="163"/>
+      <c r="A607" s="165"/>
     </row>
     <row r="608">
-      <c r="A608" s="163"/>
+      <c r="A608" s="165"/>
     </row>
     <row r="609">
-      <c r="A609" s="163"/>
+      <c r="A609" s="165"/>
     </row>
     <row r="610">
-      <c r="A610" s="163"/>
+      <c r="A610" s="165"/>
     </row>
     <row r="611">
-      <c r="A611" s="163"/>
+      <c r="A611" s="165"/>
     </row>
     <row r="612">
-      <c r="A612" s="163"/>
+      <c r="A612" s="165"/>
     </row>
     <row r="613">
-      <c r="A613" s="163"/>
+      <c r="A613" s="165"/>
     </row>
     <row r="614">
-      <c r="A614" s="163"/>
+      <c r="A614" s="165"/>
     </row>
     <row r="615">
-      <c r="A615" s="163"/>
+      <c r="A615" s="165"/>
     </row>
     <row r="616">
-      <c r="A616" s="163"/>
+      <c r="A616" s="165"/>
     </row>
     <row r="617">
-      <c r="A617" s="163"/>
+      <c r="A617" s="165"/>
     </row>
     <row r="618">
-      <c r="A618" s="163"/>
+      <c r="A618" s="165"/>
     </row>
     <row r="619">
-      <c r="A619" s="163"/>
+      <c r="A619" s="165"/>
     </row>
     <row r="620">
-      <c r="A620" s="163"/>
+      <c r="A620" s="165"/>
     </row>
     <row r="621">
-      <c r="A621" s="163"/>
+      <c r="A621" s="165"/>
     </row>
     <row r="622">
-      <c r="A622" s="163"/>
+      <c r="A622" s="165"/>
     </row>
     <row r="623">
-      <c r="A623" s="163"/>
+      <c r="A623" s="165"/>
     </row>
     <row r="624">
-      <c r="A624" s="163"/>
+      <c r="A624" s="165"/>
     </row>
     <row r="625">
-      <c r="A625" s="163"/>
+      <c r="A625" s="165"/>
     </row>
     <row r="626">
-      <c r="A626" s="163"/>
+      <c r="A626" s="165"/>
     </row>
     <row r="627">
-      <c r="A627" s="163"/>
+      <c r="A627" s="165"/>
     </row>
     <row r="628">
-      <c r="A628" s="163"/>
+      <c r="A628" s="165"/>
     </row>
     <row r="629">
-      <c r="A629" s="163"/>
+      <c r="A629" s="165"/>
     </row>
     <row r="630">
-      <c r="A630" s="163"/>
+      <c r="A630" s="165"/>
     </row>
     <row r="631">
-      <c r="A631" s="163"/>
+      <c r="A631" s="165"/>
     </row>
     <row r="632">
-      <c r="A632" s="163"/>
+      <c r="A632" s="165"/>
     </row>
     <row r="633">
-      <c r="A633" s="163"/>
+      <c r="A633" s="165"/>
     </row>
     <row r="634">
-      <c r="A634" s="163"/>
+      <c r="A634" s="165"/>
     </row>
     <row r="635">
-      <c r="A635" s="163"/>
+      <c r="A635" s="165"/>
     </row>
     <row r="636">
-      <c r="A636" s="163"/>
+      <c r="A636" s="165"/>
     </row>
     <row r="637">
-      <c r="A637" s="163"/>
+      <c r="A637" s="165"/>
     </row>
     <row r="638">
-      <c r="A638" s="163"/>
+      <c r="A638" s="165"/>
     </row>
     <row r="639">
-      <c r="A639" s="163"/>
+      <c r="A639" s="165"/>
     </row>
     <row r="640">
-      <c r="A640" s="163"/>
+      <c r="A640" s="165"/>
     </row>
     <row r="641">
-      <c r="A641" s="163"/>
+      <c r="A641" s="165"/>
     </row>
     <row r="642">
-      <c r="A642" s="163"/>
+      <c r="A642" s="165"/>
     </row>
     <row r="643">
-      <c r="A643" s="163"/>
+      <c r="A643" s="165"/>
     </row>
     <row r="644">
-      <c r="A644" s="163"/>
+      <c r="A644" s="165"/>
     </row>
     <row r="645">
-      <c r="A645" s="163"/>
+      <c r="A645" s="165"/>
     </row>
     <row r="646">
-      <c r="A646" s="163"/>
+      <c r="A646" s="165"/>
     </row>
     <row r="647">
-      <c r="A647" s="163"/>
+      <c r="A647" s="165"/>
     </row>
     <row r="648">
-      <c r="A648" s="163"/>
+      <c r="A648" s="165"/>
     </row>
     <row r="649">
-      <c r="A649" s="163"/>
+      <c r="A649" s="165"/>
     </row>
     <row r="650">
-      <c r="A650" s="163"/>
+      <c r="A650" s="165"/>
     </row>
     <row r="651">
-      <c r="A651" s="163"/>
+      <c r="A651" s="165"/>
     </row>
     <row r="652">
-      <c r="A652" s="163"/>
+      <c r="A652" s="165"/>
     </row>
     <row r="653">
-      <c r="A653" s="163"/>
+      <c r="A653" s="165"/>
     </row>
     <row r="654">
-      <c r="A654" s="163"/>
+      <c r="A654" s="165"/>
     </row>
     <row r="655">
-      <c r="A655" s="163"/>
+      <c r="A655" s="165"/>
     </row>
     <row r="656">
-      <c r="A656" s="163"/>
+      <c r="A656" s="165"/>
     </row>
     <row r="657">
-      <c r="A657" s="163"/>
+      <c r="A657" s="165"/>
     </row>
     <row r="658">
-      <c r="A658" s="163"/>
+      <c r="A658" s="165"/>
     </row>
     <row r="659">
-      <c r="A659" s="163"/>
+      <c r="A659" s="165"/>
     </row>
     <row r="660">
-      <c r="A660" s="163"/>
+      <c r="A660" s="165"/>
     </row>
     <row r="661">
-      <c r="A661" s="163"/>
+      <c r="A661" s="165"/>
     </row>
     <row r="662">
-      <c r="A662" s="163"/>
+      <c r="A662" s="165"/>
     </row>
     <row r="663">
-      <c r="A663" s="163"/>
+      <c r="A663" s="165"/>
     </row>
     <row r="664">
-      <c r="A664" s="163"/>
+      <c r="A664" s="165"/>
     </row>
     <row r="665">
-      <c r="A665" s="163"/>
+      <c r="A665" s="165"/>
     </row>
     <row r="666">
-      <c r="A666" s="163"/>
+      <c r="A666" s="165"/>
     </row>
     <row r="667">
-      <c r="A667" s="163"/>
+      <c r="A667" s="165"/>
     </row>
     <row r="668">
-      <c r="A668" s="163"/>
+      <c r="A668" s="165"/>
     </row>
     <row r="669">
-      <c r="A669" s="163"/>
+      <c r="A669" s="165"/>
     </row>
     <row r="670">
-      <c r="A670" s="163"/>
+      <c r="A670" s="165"/>
     </row>
     <row r="671">
-      <c r="A671" s="163"/>
+      <c r="A671" s="165"/>
     </row>
     <row r="672">
-      <c r="A672" s="163"/>
+      <c r="A672" s="165"/>
     </row>
     <row r="673">
-      <c r="A673" s="163"/>
+      <c r="A673" s="165"/>
     </row>
     <row r="674">
-      <c r="A674" s="163"/>
+      <c r="A674" s="165"/>
     </row>
     <row r="675">
-      <c r="A675" s="163"/>
+      <c r="A675" s="165"/>
     </row>
     <row r="676">
-      <c r="A676" s="163"/>
+      <c r="A676" s="165"/>
     </row>
     <row r="677">
-      <c r="A677" s="163"/>
+      <c r="A677" s="165"/>
     </row>
     <row r="678">
-      <c r="A678" s="163"/>
+      <c r="A678" s="165"/>
     </row>
     <row r="679">
-      <c r="A679" s="163"/>
+      <c r="A679" s="165"/>
     </row>
     <row r="680">
-      <c r="A680" s="163"/>
+      <c r="A680" s="165"/>
     </row>
     <row r="681">
-      <c r="A681" s="163"/>
+      <c r="A681" s="165"/>
     </row>
     <row r="682">
-      <c r="A682" s="163"/>
+      <c r="A682" s="165"/>
     </row>
     <row r="683">
-      <c r="A683" s="163"/>
+      <c r="A683" s="165"/>
     </row>
     <row r="684">
-      <c r="A684" s="163"/>
+      <c r="A684" s="165"/>
     </row>
     <row r="685">
-      <c r="A685" s="163"/>
+      <c r="A685" s="165"/>
     </row>
     <row r="686">
-      <c r="A686" s="163"/>
+      <c r="A686" s="165"/>
     </row>
     <row r="687">
-      <c r="A687" s="163"/>
+      <c r="A687" s="165"/>
     </row>
     <row r="688">
-      <c r="A688" s="163"/>
+      <c r="A688" s="165"/>
     </row>
     <row r="689">
-      <c r="A689" s="163"/>
+      <c r="A689" s="165"/>
     </row>
     <row r="690">
-      <c r="A690" s="163"/>
+      <c r="A690" s="165"/>
     </row>
     <row r="691">
-      <c r="A691" s="163"/>
+      <c r="A691" s="165"/>
     </row>
     <row r="692">
-      <c r="A692" s="163"/>
+      <c r="A692" s="165"/>
     </row>
     <row r="693">
-      <c r="A693" s="163"/>
+      <c r="A693" s="165"/>
     </row>
     <row r="694">
-      <c r="A694" s="163"/>
+      <c r="A694" s="165"/>
     </row>
     <row r="695">
-      <c r="A695" s="163"/>
+      <c r="A695" s="165"/>
     </row>
     <row r="696">
-      <c r="A696" s="163"/>
+      <c r="A696" s="165"/>
     </row>
     <row r="697">
-      <c r="A697" s="163"/>
+      <c r="A697" s="165"/>
     </row>
     <row r="698">
-      <c r="A698" s="163"/>
+      <c r="A698" s="165"/>
     </row>
     <row r="699">
-      <c r="A699" s="163"/>
+      <c r="A699" s="165"/>
     </row>
     <row r="700">
-      <c r="A700" s="163"/>
+      <c r="A700" s="165"/>
     </row>
     <row r="701">
-      <c r="A701" s="163"/>
+      <c r="A701" s="165"/>
     </row>
     <row r="702">
-      <c r="A702" s="163"/>
+      <c r="A702" s="165"/>
     </row>
     <row r="703">
-      <c r="A703" s="163"/>
+      <c r="A703" s="165"/>
     </row>
     <row r="704">
-      <c r="A704" s="163"/>
+      <c r="A704" s="165"/>
     </row>
     <row r="705">
-      <c r="A705" s="163"/>
+      <c r="A705" s="165"/>
     </row>
     <row r="706">
-      <c r="A706" s="163"/>
+      <c r="A706" s="165"/>
     </row>
     <row r="707">
-      <c r="A707" s="163"/>
+      <c r="A707" s="165"/>
     </row>
     <row r="708">
-      <c r="A708" s="163"/>
+      <c r="A708" s="165"/>
     </row>
     <row r="709">
-      <c r="A709" s="163"/>
+      <c r="A709" s="165"/>
     </row>
     <row r="710">
-      <c r="A710" s="163"/>
+      <c r="A710" s="165"/>
     </row>
     <row r="711">
-      <c r="A711" s="163"/>
+      <c r="A711" s="165"/>
     </row>
     <row r="712">
-      <c r="A712" s="163"/>
+      <c r="A712" s="165"/>
     </row>
     <row r="713">
-      <c r="A713" s="163"/>
+      <c r="A713" s="165"/>
     </row>
     <row r="714">
-      <c r="A714" s="163"/>
+      <c r="A714" s="165"/>
     </row>
     <row r="715">
-      <c r="A715" s="163"/>
+      <c r="A715" s="165"/>
     </row>
     <row r="716">
-      <c r="A716" s="163"/>
+      <c r="A716" s="165"/>
     </row>
     <row r="717">
-      <c r="A717" s="163"/>
+      <c r="A717" s="165"/>
     </row>
     <row r="718">
-      <c r="A718" s="163"/>
+      <c r="A718" s="165"/>
     </row>
     <row r="719">
-      <c r="A719" s="163"/>
+      <c r="A719" s="165"/>
     </row>
     <row r="720">
-      <c r="A720" s="163"/>
+      <c r="A720" s="165"/>
     </row>
     <row r="721">
-      <c r="A721" s="163"/>
+      <c r="A721" s="165"/>
     </row>
     <row r="722">
-      <c r="A722" s="163"/>
+      <c r="A722" s="165"/>
     </row>
     <row r="723">
-      <c r="A723" s="163"/>
+      <c r="A723" s="165"/>
     </row>
     <row r="724">
-      <c r="A724" s="163"/>
+      <c r="A724" s="165"/>
     </row>
     <row r="725">
-      <c r="A725" s="163"/>
+      <c r="A725" s="165"/>
     </row>
     <row r="726">
-      <c r="A726" s="163"/>
+      <c r="A726" s="165"/>
     </row>
     <row r="727">
-      <c r="A727" s="163"/>
+      <c r="A727" s="165"/>
     </row>
     <row r="728">
-      <c r="A728" s="163"/>
+      <c r="A728" s="165"/>
     </row>
     <row r="729">
-      <c r="A729" s="163"/>
+      <c r="A729" s="165"/>
     </row>
     <row r="730">
-      <c r="A730" s="163"/>
+      <c r="A730" s="165"/>
     </row>
     <row r="731">
-      <c r="A731" s="163"/>
+      <c r="A731" s="165"/>
     </row>
     <row r="732">
-      <c r="A732" s="163"/>
+      <c r="A732" s="165"/>
     </row>
     <row r="733">
-      <c r="A733" s="163"/>
+      <c r="A733" s="165"/>
     </row>
     <row r="734">
-      <c r="A734" s="163"/>
+      <c r="A734" s="165"/>
     </row>
     <row r="735">
-      <c r="A735" s="163"/>
+      <c r="A735" s="165"/>
     </row>
     <row r="736">
-      <c r="A736" s="163"/>
+      <c r="A736" s="165"/>
     </row>
     <row r="737">
-      <c r="A737" s="163"/>
+      <c r="A737" s="165"/>
     </row>
     <row r="738">
-      <c r="A738" s="163"/>
+      <c r="A738" s="165"/>
     </row>
     <row r="739">
-      <c r="A739" s="163"/>
+      <c r="A739" s="165"/>
     </row>
     <row r="740">
-      <c r="A740" s="163"/>
+      <c r="A740" s="165"/>
     </row>
     <row r="741">
-      <c r="A741" s="163"/>
+      <c r="A741" s="165"/>
     </row>
     <row r="742">
-      <c r="A742" s="163"/>
+      <c r="A742" s="165"/>
     </row>
     <row r="743">
-      <c r="A743" s="163"/>
+      <c r="A743" s="165"/>
     </row>
     <row r="744">
-      <c r="A744" s="163"/>
+      <c r="A744" s="165"/>
     </row>
     <row r="745">
-      <c r="A745" s="163"/>
+      <c r="A745" s="165"/>
     </row>
     <row r="746">
-      <c r="A746" s="163"/>
+      <c r="A746" s="165"/>
     </row>
     <row r="747">
-      <c r="A747" s="163"/>
+      <c r="A747" s="165"/>
     </row>
     <row r="748">
-      <c r="A748" s="163"/>
+      <c r="A748" s="165"/>
     </row>
     <row r="749">
-      <c r="A749" s="163"/>
+      <c r="A749" s="165"/>
     </row>
     <row r="750">
-      <c r="A750" s="163"/>
+      <c r="A750" s="165"/>
     </row>
     <row r="751">
-      <c r="A751" s="163"/>
+      <c r="A751" s="165"/>
     </row>
     <row r="752">
-      <c r="A752" s="163"/>
+      <c r="A752" s="165"/>
     </row>
     <row r="753">
-      <c r="A753" s="163"/>
+      <c r="A753" s="165"/>
     </row>
     <row r="754">
-      <c r="A754" s="163"/>
+      <c r="A754" s="165"/>
     </row>
     <row r="755">
-      <c r="A755" s="163"/>
+      <c r="A755" s="165"/>
     </row>
     <row r="756">
-      <c r="A756" s="163"/>
+      <c r="A756" s="165"/>
     </row>
     <row r="757">
-      <c r="A757" s="163"/>
+      <c r="A757" s="165"/>
     </row>
     <row r="758">
-      <c r="A758" s="163"/>
+      <c r="A758" s="165"/>
     </row>
     <row r="759">
-      <c r="A759" s="163"/>
+      <c r="A759" s="165"/>
     </row>
     <row r="760">
-      <c r="A760" s="163"/>
+      <c r="A760" s="165"/>
     </row>
     <row r="761">
-      <c r="A761" s="163"/>
+      <c r="A761" s="165"/>
     </row>
     <row r="762">
-      <c r="A762" s="163"/>
+      <c r="A762" s="165"/>
     </row>
     <row r="763">
-      <c r="A763" s="163"/>
+      <c r="A763" s="165"/>
     </row>
     <row r="764">
-      <c r="A764" s="163"/>
+      <c r="A764" s="165"/>
     </row>
     <row r="765">
-      <c r="A765" s="163"/>
+      <c r="A765" s="165"/>
     </row>
     <row r="766">
-      <c r="A766" s="163"/>
+      <c r="A766" s="165"/>
     </row>
     <row r="767">
-      <c r="A767" s="163"/>
+      <c r="A767" s="165"/>
     </row>
     <row r="768">
-      <c r="A768" s="163"/>
+      <c r="A768" s="165"/>
     </row>
     <row r="769">
-      <c r="A769" s="163"/>
+      <c r="A769" s="165"/>
     </row>
     <row r="770">
-      <c r="A770" s="163"/>
+      <c r="A770" s="165"/>
     </row>
     <row r="771">
-      <c r="A771" s="163"/>
+      <c r="A771" s="165"/>
     </row>
     <row r="772">
-      <c r="A772" s="163"/>
+      <c r="A772" s="165"/>
     </row>
     <row r="773">
-      <c r="A773" s="163"/>
+      <c r="A773" s="165"/>
     </row>
     <row r="774">
-      <c r="A774" s="163"/>
+      <c r="A774" s="165"/>
     </row>
     <row r="775">
-      <c r="A775" s="163"/>
+      <c r="A775" s="165"/>
     </row>
     <row r="776">
-      <c r="A776" s="163"/>
+      <c r="A776" s="165"/>
     </row>
     <row r="777">
-      <c r="A777" s="163"/>
+      <c r="A777" s="165"/>
     </row>
     <row r="778">
-      <c r="A778" s="163"/>
+      <c r="A778" s="165"/>
     </row>
     <row r="779">
-      <c r="A779" s="163"/>
+      <c r="A779" s="165"/>
     </row>
     <row r="780">
-      <c r="A780" s="163"/>
+      <c r="A780" s="165"/>
     </row>
     <row r="781">
-      <c r="A781" s="163"/>
+      <c r="A781" s="165"/>
     </row>
     <row r="782">
-      <c r="A782" s="163"/>
+      <c r="A782" s="165"/>
     </row>
     <row r="783">
-      <c r="A783" s="163"/>
+      <c r="A783" s="165"/>
     </row>
     <row r="784">
-      <c r="A784" s="163"/>
+      <c r="A784" s="165"/>
     </row>
     <row r="785">
-      <c r="A785" s="163"/>
+      <c r="A785" s="165"/>
     </row>
     <row r="786">
-      <c r="A786" s="163"/>
+      <c r="A786" s="165"/>
     </row>
     <row r="787">
-      <c r="A787" s="163"/>
+      <c r="A787" s="165"/>
     </row>
     <row r="788">
-      <c r="A788" s="163"/>
+      <c r="A788" s="165"/>
     </row>
     <row r="789">
-      <c r="A789" s="163"/>
+      <c r="A789" s="165"/>
     </row>
     <row r="790">
-      <c r="A790" s="163"/>
+      <c r="A790" s="165"/>
     </row>
     <row r="791">
-      <c r="A791" s="163"/>
+      <c r="A791" s="165"/>
     </row>
     <row r="792">
-      <c r="A792" s="163"/>
+      <c r="A792" s="165"/>
     </row>
     <row r="793">
-      <c r="A793" s="163"/>
+      <c r="A793" s="165"/>
     </row>
     <row r="794">
-      <c r="A794" s="163"/>
+      <c r="A794" s="165"/>
     </row>
     <row r="795">
-      <c r="A795" s="163"/>
+      <c r="A795" s="165"/>
     </row>
     <row r="796">
-      <c r="A796" s="163"/>
+      <c r="A796" s="165"/>
     </row>
     <row r="797">
-      <c r="A797" s="163"/>
+      <c r="A797" s="165"/>
     </row>
     <row r="798">
-      <c r="A798" s="163"/>
+      <c r="A798" s="165"/>
     </row>
     <row r="799">
-      <c r="A799" s="163"/>
+      <c r="A799" s="165"/>
     </row>
     <row r="800">
-      <c r="A800" s="163"/>
+      <c r="A800" s="165"/>
     </row>
     <row r="801">
-      <c r="A801" s="163"/>
+      <c r="A801" s="165"/>
     </row>
     <row r="802">
-      <c r="A802" s="163"/>
+      <c r="A802" s="165"/>
     </row>
     <row r="803">
-      <c r="A803" s="163"/>
+      <c r="A803" s="165"/>
     </row>
     <row r="804">
-      <c r="A804" s="163"/>
+      <c r="A804" s="165"/>
     </row>
     <row r="805">
-      <c r="A805" s="163"/>
+      <c r="A805" s="165"/>
     </row>
     <row r="806">
-      <c r="A806" s="163"/>
+      <c r="A806" s="165"/>
     </row>
     <row r="807">
-      <c r="A807" s="163"/>
+      <c r="A807" s="165"/>
     </row>
     <row r="808">
-      <c r="A808" s="163"/>
+      <c r="A808" s="165"/>
     </row>
     <row r="809">
-      <c r="A809" s="163"/>
+      <c r="A809" s="165"/>
     </row>
     <row r="810">
-      <c r="A810" s="163"/>
+      <c r="A810" s="165"/>
     </row>
     <row r="811">
-      <c r="A811" s="163"/>
+      <c r="A811" s="165"/>
     </row>
     <row r="812">
-      <c r="A812" s="163"/>
+      <c r="A812" s="165"/>
     </row>
     <row r="813">
-      <c r="A813" s="163"/>
+      <c r="A813" s="165"/>
     </row>
     <row r="814">
-      <c r="A814" s="163"/>
+      <c r="A814" s="165"/>
     </row>
     <row r="815">
-      <c r="A815" s="163"/>
+      <c r="A815" s="165"/>
     </row>
     <row r="816">
-      <c r="A816" s="163"/>
+      <c r="A816" s="165"/>
     </row>
     <row r="817">
-      <c r="A817" s="163"/>
+      <c r="A817" s="165"/>
     </row>
     <row r="818">
-      <c r="A818" s="163"/>
+      <c r="A818" s="165"/>
     </row>
     <row r="819">
-      <c r="A819" s="163"/>
+      <c r="A819" s="165"/>
     </row>
     <row r="820">
-      <c r="A820" s="163"/>
+      <c r="A820" s="165"/>
     </row>
     <row r="821">
-      <c r="A821" s="163"/>
+      <c r="A821" s="165"/>
     </row>
     <row r="822">
-      <c r="A822" s="163"/>
+      <c r="A822" s="165"/>
     </row>
     <row r="823">
-      <c r="A823" s="163"/>
+      <c r="A823" s="165"/>
     </row>
     <row r="824">
-      <c r="A824" s="163"/>
+      <c r="A824" s="165"/>
     </row>
     <row r="825">
-      <c r="A825" s="163"/>
+      <c r="A825" s="165"/>
     </row>
     <row r="826">
-      <c r="A826" s="163"/>
+      <c r="A826" s="165"/>
     </row>
     <row r="827">
-      <c r="A827" s="163"/>
+      <c r="A827" s="165"/>
     </row>
     <row r="828">
-      <c r="A828" s="163"/>
+      <c r="A828" s="165"/>
     </row>
     <row r="829">
-      <c r="A829" s="163"/>
+      <c r="A829" s="165"/>
     </row>
     <row r="830">
-      <c r="A830" s="163"/>
+      <c r="A830" s="165"/>
     </row>
     <row r="831">
-      <c r="A831" s="163"/>
+      <c r="A831" s="165"/>
     </row>
     <row r="832">
-      <c r="A832" s="163"/>
+      <c r="A832" s="165"/>
     </row>
     <row r="833">
-      <c r="A833" s="163"/>
+      <c r="A833" s="165"/>
     </row>
     <row r="834">
-      <c r="A834" s="163"/>
+      <c r="A834" s="165"/>
     </row>
     <row r="835">
-      <c r="A835" s="163"/>
+      <c r="A835" s="165"/>
     </row>
     <row r="836">
-      <c r="A836" s="163"/>
+      <c r="A836" s="165"/>
     </row>
     <row r="837">
-      <c r="A837" s="163"/>
+      <c r="A837" s="165"/>
     </row>
     <row r="838">
-      <c r="A838" s="163"/>
+      <c r="A838" s="165"/>
     </row>
     <row r="839">
-      <c r="A839" s="163"/>
+      <c r="A839" s="165"/>
     </row>
     <row r="840">
-      <c r="A840" s="163"/>
+      <c r="A840" s="165"/>
     </row>
     <row r="841">
-      <c r="A841" s="163"/>
+      <c r="A841" s="165"/>
     </row>
     <row r="842">
-      <c r="A842" s="163"/>
+      <c r="A842" s="165"/>
     </row>
     <row r="843">
-      <c r="A843" s="163"/>
+      <c r="A843" s="165"/>
     </row>
     <row r="844">
-      <c r="A844" s="163"/>
+      <c r="A844" s="165"/>
     </row>
     <row r="845">
-      <c r="A845" s="163"/>
+      <c r="A845" s="165"/>
     </row>
     <row r="846">
-      <c r="A846" s="163"/>
+      <c r="A846" s="165"/>
     </row>
     <row r="847">
-      <c r="A847" s="163"/>
+      <c r="A847" s="165"/>
     </row>
     <row r="848">
-      <c r="A848" s="163"/>
+      <c r="A848" s="165"/>
     </row>
     <row r="849">
-      <c r="A849" s="163"/>
+      <c r="A849" s="165"/>
     </row>
     <row r="850">
-      <c r="A850" s="163"/>
+      <c r="A850" s="165"/>
     </row>
     <row r="851">
-      <c r="A851" s="163"/>
+      <c r="A851" s="165"/>
     </row>
     <row r="852">
-      <c r="A852" s="163"/>
+      <c r="A852" s="165"/>
     </row>
     <row r="853">
-      <c r="A853" s="163"/>
+      <c r="A853" s="165"/>
     </row>
     <row r="854">
-      <c r="A854" s="163"/>
+      <c r="A854" s="165"/>
     </row>
     <row r="855">
-      <c r="A855" s="163"/>
+      <c r="A855" s="165"/>
     </row>
     <row r="856">
-      <c r="A856" s="163"/>
+      <c r="A856" s="165"/>
     </row>
     <row r="857">
-      <c r="A857" s="163"/>
+      <c r="A857" s="165"/>
     </row>
     <row r="858">
-      <c r="A858" s="163"/>
+      <c r="A858" s="165"/>
     </row>
     <row r="859">
-      <c r="A859" s="163"/>
+      <c r="A859" s="165"/>
     </row>
     <row r="860">
-      <c r="A860" s="163"/>
+      <c r="A860" s="165"/>
     </row>
     <row r="861">
-      <c r="A861" s="163"/>
+      <c r="A861" s="165"/>
     </row>
     <row r="862">
-      <c r="A862" s="163"/>
+      <c r="A862" s="165"/>
     </row>
     <row r="863">
-      <c r="A863" s="163"/>
+      <c r="A863" s="165"/>
     </row>
     <row r="864">
-      <c r="A864" s="163"/>
+      <c r="A864" s="165"/>
     </row>
     <row r="865">
-      <c r="A865" s="163"/>
+      <c r="A865" s="165"/>
     </row>
     <row r="866">
-      <c r="A866" s="163"/>
+      <c r="A866" s="165"/>
     </row>
     <row r="867">
-      <c r="A867" s="163"/>
+      <c r="A867" s="165"/>
     </row>
     <row r="868">
-      <c r="A868" s="163"/>
+      <c r="A868" s="165"/>
     </row>
     <row r="869">
-      <c r="A869" s="163"/>
+      <c r="A869" s="165"/>
     </row>
     <row r="870">
-      <c r="A870" s="163"/>
+      <c r="A870" s="165"/>
     </row>
     <row r="871">
-      <c r="A871" s="163"/>
+      <c r="A871" s="165"/>
     </row>
     <row r="872">
-      <c r="A872" s="163"/>
+      <c r="A872" s="165"/>
     </row>
     <row r="873">
-      <c r="A873" s="163"/>
+      <c r="A873" s="165"/>
     </row>
     <row r="874">
-      <c r="A874" s="163"/>
+      <c r="A874" s="165"/>
     </row>
     <row r="875">
-      <c r="A875" s="163"/>
+      <c r="A875" s="165"/>
     </row>
     <row r="876">
-      <c r="A876" s="163"/>
+      <c r="A876" s="165"/>
     </row>
     <row r="877">
-      <c r="A877" s="163"/>
+      <c r="A877" s="165"/>
     </row>
     <row r="878">
-      <c r="A878" s="163"/>
+      <c r="A878" s="165"/>
     </row>
     <row r="879">
-      <c r="A879" s="163"/>
+      <c r="A879" s="165"/>
     </row>
     <row r="880">
-      <c r="A880" s="163"/>
+      <c r="A880" s="165"/>
     </row>
     <row r="881">
-      <c r="A881" s="163"/>
+      <c r="A881" s="165"/>
     </row>
     <row r="882">
-      <c r="A882" s="163"/>
+      <c r="A882" s="165"/>
     </row>
     <row r="883">
-      <c r="A883" s="163"/>
+      <c r="A883" s="165"/>
     </row>
     <row r="884">
-      <c r="A884" s="163"/>
+      <c r="A884" s="165"/>
     </row>
     <row r="885">
-      <c r="A885" s="163"/>
+      <c r="A885" s="165"/>
     </row>
     <row r="886">
-      <c r="A886" s="163"/>
+      <c r="A886" s="165"/>
     </row>
     <row r="887">
-      <c r="A887" s="163"/>
+      <c r="A887" s="165"/>
     </row>
     <row r="888">
-      <c r="A888" s="163"/>
+      <c r="A888" s="165"/>
     </row>
     <row r="889">
-      <c r="A889" s="163"/>
+      <c r="A889" s="165"/>
     </row>
     <row r="890">
-      <c r="A890" s="163"/>
+      <c r="A890" s="165"/>
     </row>
     <row r="891">
-      <c r="A891" s="163"/>
+      <c r="A891" s="165"/>
     </row>
     <row r="892">
-      <c r="A892" s="163"/>
+      <c r="A892" s="165"/>
     </row>
     <row r="893">
-      <c r="A893" s="163"/>
+      <c r="A893" s="165"/>
     </row>
     <row r="894">
-      <c r="A894" s="163"/>
+      <c r="A894" s="165"/>
     </row>
     <row r="895">
-      <c r="A895" s="163"/>
+      <c r="A895" s="165"/>
     </row>
     <row r="896">
-      <c r="A896" s="163"/>
+      <c r="A896" s="165"/>
     </row>
     <row r="897">
-      <c r="A897" s="163"/>
+      <c r="A897" s="165"/>
     </row>
     <row r="898">
-      <c r="A898" s="163"/>
+      <c r="A898" s="165"/>
     </row>
     <row r="899">
-      <c r="A899" s="163"/>
+      <c r="A899" s="165"/>
     </row>
     <row r="900">
-      <c r="A900" s="163"/>
+      <c r="A900" s="165"/>
     </row>
     <row r="901">
-      <c r="A901" s="163"/>
+      <c r="A901" s="165"/>
     </row>
     <row r="902">
-      <c r="A902" s="163"/>
+      <c r="A902" s="165"/>
     </row>
     <row r="903">
-      <c r="A903" s="163"/>
+      <c r="A903" s="165"/>
     </row>
     <row r="904">
-      <c r="A904" s="163"/>
+      <c r="A904" s="165"/>
     </row>
     <row r="905">
-      <c r="A905" s="163"/>
+      <c r="A905" s="165"/>
     </row>
     <row r="906">
-      <c r="A906" s="163"/>
+      <c r="A906" s="165"/>
     </row>
     <row r="907">
-      <c r="A907" s="163"/>
+      <c r="A907" s="165"/>
     </row>
     <row r="908">
-      <c r="A908" s="163"/>
+      <c r="A908" s="165"/>
     </row>
     <row r="909">
-      <c r="A909" s="163"/>
+      <c r="A909" s="165"/>
     </row>
     <row r="910">
-      <c r="A910" s="163"/>
+      <c r="A910" s="165"/>
     </row>
     <row r="911">
-      <c r="A911" s="163"/>
+      <c r="A911" s="165"/>
     </row>
     <row r="912">
-      <c r="A912" s="163"/>
+      <c r="A912" s="165"/>
     </row>
     <row r="913">
-      <c r="A913" s="163"/>
+      <c r="A913" s="165"/>
     </row>
     <row r="914">
-      <c r="A914" s="163"/>
+      <c r="A914" s="165"/>
     </row>
     <row r="915">
-      <c r="A915" s="163"/>
+      <c r="A915" s="165"/>
     </row>
     <row r="916">
-      <c r="A916" s="163"/>
+      <c r="A916" s="165"/>
     </row>
     <row r="917">
-      <c r="A917" s="163"/>
+      <c r="A917" s="165"/>
     </row>
     <row r="918">
-      <c r="A918" s="163"/>
+      <c r="A918" s="165"/>
     </row>
     <row r="919">
-      <c r="A919" s="163"/>
+      <c r="A919" s="165"/>
     </row>
     <row r="920">
-      <c r="A920" s="163"/>
+      <c r="A920" s="165"/>
     </row>
     <row r="921">
-      <c r="A921" s="163"/>
+      <c r="A921" s="165"/>
     </row>
     <row r="922">
-      <c r="A922" s="163"/>
+      <c r="A922" s="165"/>
     </row>
     <row r="923">
-      <c r="A923" s="163"/>
+      <c r="A923" s="165"/>
     </row>
     <row r="924">
-      <c r="A924" s="163"/>
+      <c r="A924" s="165"/>
     </row>
     <row r="925">
-      <c r="A925" s="163"/>
+      <c r="A925" s="165"/>
     </row>
     <row r="926">
-      <c r="A926" s="163"/>
+      <c r="A926" s="165"/>
     </row>
     <row r="927">
-      <c r="A927" s="163"/>
+      <c r="A927" s="165"/>
     </row>
     <row r="928">
-      <c r="A928" s="163"/>
+      <c r="A928" s="165"/>
     </row>
     <row r="929">
-      <c r="A929" s="163"/>
+      <c r="A929" s="165"/>
     </row>
     <row r="930">
-      <c r="A930" s="163"/>
+      <c r="A930" s="165"/>
     </row>
     <row r="931">
-      <c r="A931" s="163"/>
+      <c r="A931" s="165"/>
     </row>
     <row r="932">
-      <c r="A932" s="163"/>
+      <c r="A932" s="165"/>
     </row>
     <row r="933">
-      <c r="A933" s="163"/>
+      <c r="A933" s="165"/>
     </row>
     <row r="934">
-      <c r="A934" s="163"/>
+      <c r="A934" s="165"/>
     </row>
     <row r="935">
-      <c r="A935" s="163"/>
+      <c r="A935" s="165"/>
     </row>
     <row r="936">
-      <c r="A936" s="163"/>
+      <c r="A936" s="165"/>
     </row>
     <row r="937">
-      <c r="A937" s="163"/>
+      <c r="A937" s="165"/>
     </row>
     <row r="938">
-      <c r="A938" s="163"/>
+      <c r="A938" s="165"/>
     </row>
     <row r="939">
-      <c r="A939" s="163"/>
+      <c r="A939" s="165"/>
     </row>
     <row r="940">
-      <c r="A940" s="163"/>
+      <c r="A940" s="165"/>
     </row>
     <row r="941">
-      <c r="A941" s="163"/>
+      <c r="A941" s="165"/>
     </row>
     <row r="942">
-      <c r="A942" s="163"/>
+      <c r="A942" s="165"/>
     </row>
     <row r="943">
-      <c r="A943" s="163"/>
+      <c r="A943" s="165"/>
     </row>
     <row r="944">
-      <c r="A944" s="163"/>
+      <c r="A944" s="165"/>
     </row>
     <row r="945">
-      <c r="A945" s="163"/>
+      <c r="A945" s="165"/>
     </row>
     <row r="946">
-      <c r="A946" s="163"/>
+      <c r="A946" s="165"/>
     </row>
     <row r="947">
-      <c r="A947" s="163"/>
+      <c r="A947" s="165"/>
     </row>
     <row r="948">
-      <c r="A948" s="163"/>
+      <c r="A948" s="165"/>
     </row>
     <row r="949">
-      <c r="A949" s="163"/>
+      <c r="A949" s="165"/>
     </row>
     <row r="950">
-      <c r="A950" s="163"/>
+      <c r="A950" s="165"/>
     </row>
     <row r="951">
-      <c r="A951" s="163"/>
+      <c r="A951" s="165"/>
     </row>
     <row r="952">
-      <c r="A952" s="163"/>
+      <c r="A952" s="165"/>
     </row>
     <row r="953">
-      <c r="A953" s="163"/>
+      <c r="A953" s="165"/>
     </row>
     <row r="954">
-      <c r="A954" s="163"/>
+      <c r="A954" s="165"/>
     </row>
     <row r="955">
-      <c r="A955" s="163"/>
+      <c r="A955" s="165"/>
     </row>
     <row r="956">
-      <c r="A956" s="163"/>
+      <c r="A956" s="165"/>
     </row>
     <row r="957">
-      <c r="A957" s="163"/>
+      <c r="A957" s="165"/>
     </row>
     <row r="958">
-      <c r="A958" s="163"/>
+      <c r="A958" s="165"/>
     </row>
     <row r="959">
-      <c r="A959" s="163"/>
+      <c r="A959" s="165"/>
     </row>
     <row r="960">
-      <c r="A960" s="163"/>
+      <c r="A960" s="165"/>
     </row>
     <row r="961">
-      <c r="A961" s="163"/>
+      <c r="A961" s="165"/>
     </row>
     <row r="962">
-      <c r="A962" s="163"/>
+      <c r="A962" s="165"/>
     </row>
     <row r="963">
-      <c r="A963" s="163"/>
+      <c r="A963" s="165"/>
     </row>
     <row r="964">
-      <c r="A964" s="163"/>
+      <c r="A964" s="165"/>
     </row>
     <row r="965">
-      <c r="A965" s="163"/>
+      <c r="A965" s="165"/>
     </row>
     <row r="966">
-      <c r="A966" s="163"/>
+      <c r="A966" s="165"/>
     </row>
     <row r="967">
-      <c r="A967" s="163"/>
+      <c r="A967" s="165"/>
     </row>
     <row r="968">
-      <c r="A968" s="163"/>
+      <c r="A968" s="165"/>
     </row>
     <row r="969">
-      <c r="A969" s="163"/>
+      <c r="A969" s="165"/>
     </row>
     <row r="970">
-      <c r="A970" s="163"/>
+      <c r="A970" s="165"/>
     </row>
     <row r="971">
-      <c r="A971" s="163"/>
+      <c r="A971" s="165"/>
     </row>
     <row r="972">
-      <c r="A972" s="163"/>
+      <c r="A972" s="165"/>
     </row>
     <row r="973">
-      <c r="A973" s="163"/>
+      <c r="A973" s="165"/>
     </row>
     <row r="974">
-      <c r="A974" s="163"/>
+      <c r="A974" s="165"/>
     </row>
     <row r="975">
-      <c r="A975" s="163"/>
+      <c r="A975" s="165"/>
     </row>
     <row r="976">
-      <c r="A976" s="163"/>
+      <c r="A976" s="165"/>
     </row>
     <row r="977">
-      <c r="A977" s="163"/>
+      <c r="A977" s="165"/>
     </row>
     <row r="978">
-      <c r="A978" s="163"/>
+      <c r="A978" s="165"/>
     </row>
     <row r="979">
-      <c r="A979" s="163"/>
+      <c r="A979" s="165"/>
     </row>
     <row r="980">
-      <c r="A980" s="163"/>
+      <c r="A980" s="165"/>
     </row>
     <row r="981">
-      <c r="A981" s="163"/>
+      <c r="A981" s="165"/>
     </row>
     <row r="982">
-      <c r="A982" s="163"/>
+      <c r="A982" s="165"/>
     </row>
     <row r="983">
-      <c r="A983" s="163"/>
+      <c r="A983" s="165"/>
     </row>
     <row r="984">
-      <c r="A984" s="163"/>
+      <c r="A984" s="165"/>
     </row>
     <row r="985">
-      <c r="A985" s="163"/>
+      <c r="A985" s="165"/>
     </row>
     <row r="986">
-      <c r="A986" s="163"/>
+      <c r="A986" s="165"/>
     </row>
     <row r="987">
-      <c r="A987" s="163"/>
+      <c r="A987" s="165"/>
     </row>
     <row r="988">
-      <c r="A988" s="163"/>
+      <c r="A988" s="165"/>
     </row>
     <row r="989">
-      <c r="A989" s="163"/>
+      <c r="A989" s="165"/>
     </row>
     <row r="990">
-      <c r="A990" s="163"/>
+      <c r="A990" s="165"/>
     </row>
     <row r="991">
-      <c r="A991" s="163"/>
+      <c r="A991" s="165"/>
     </row>
     <row r="992">
-      <c r="A992" s="163"/>
+      <c r="A992" s="165"/>
     </row>
     <row r="993">
-      <c r="A993" s="163"/>
+      <c r="A993" s="165"/>
     </row>
     <row r="994">
-      <c r="A994" s="163"/>
+      <c r="A994" s="165"/>
     </row>
     <row r="995">
-      <c r="A995" s="163"/>
+      <c r="A995" s="165"/>
     </row>
     <row r="996">
-      <c r="A996" s="163"/>
+      <c r="A996" s="165"/>
     </row>
     <row r="997">
-      <c r="A997" s="163"/>
+      <c r="A997" s="165"/>
     </row>
     <row r="998">
-      <c r="A998" s="163"/>
+      <c r="A998" s="165"/>
     </row>
     <row r="999">
-      <c r="A999" s="163"/>
+      <c r="A999" s="165"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="163"/>
+      <c r="A1000" s="165"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9142,14 +9157,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="30.5"/>
     <col customWidth="1" min="2" max="2" width="39.13"/>
-    <col customWidth="1" min="3" max="3" width="23.0"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
+    <col customWidth="1" min="3" max="3" width="14.5"/>
+    <col customWidth="1" min="4" max="4" width="14.38"/>
+    <col customWidth="1" min="5" max="5" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9162,495 +9181,541 @@
       <c r="C1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="122" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="121" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="123" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="36"/>
+        <v>340</v>
+      </c>
+      <c r="D2" s="124"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3">
       <c r="A3" s="123" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" s="124" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="36"/>
+        <v>343</v>
+      </c>
+      <c r="D3" s="124"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4">
       <c r="A4" s="123" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" s="125" t="s">
         <v>346</v>
+      </c>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="123" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125" t="s">
         <v>347</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="125" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="123" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="126" t="s">
         <v>352</v>
+      </c>
+      <c r="D6" s="124"/>
+      <c r="E6" s="126" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="123" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="125" t="s">
-        <v>346</v>
+        <v>356</v>
+      </c>
+      <c r="D7" s="124"/>
+      <c r="E7" s="125" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="123" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8" s="36"/>
+        <v>359</v>
+      </c>
+      <c r="D8" s="124"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9">
       <c r="A9" s="123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="36"/>
+        <v>362</v>
+      </c>
+      <c r="D9" s="124"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10">
       <c r="A10" s="123" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B10" s="127" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>364</v>
-      </c>
-      <c r="D10" s="36"/>
+        <v>365</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11">
       <c r="A11" s="123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B11" s="127" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>367</v>
-      </c>
-      <c r="D11" s="36"/>
+        <v>368</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12">
       <c r="A12" s="123" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>370</v>
-      </c>
-      <c r="D12" s="36"/>
+        <v>371</v>
+      </c>
+      <c r="D12" s="124"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13">
       <c r="A13" s="123" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>373</v>
-      </c>
-      <c r="D13" s="36"/>
+        <v>374</v>
+      </c>
+      <c r="D13" s="124"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14">
       <c r="A14" s="123" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>376</v>
-      </c>
-      <c r="D14" s="36"/>
+        <v>377</v>
+      </c>
+      <c r="D14" s="124"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15">
       <c r="A15" s="123" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B15" s="127" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>379</v>
-      </c>
-      <c r="D15" s="36"/>
+        <v>380</v>
+      </c>
+      <c r="D15" s="124"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16">
       <c r="A16" s="123" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B16" s="127" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" s="36"/>
+        <v>383</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17">
       <c r="A17" s="123" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B17" s="127" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>351</v>
-      </c>
-      <c r="D17" s="36"/>
+        <v>352</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18">
       <c r="A18" s="123" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" s="36"/>
+        <v>388</v>
+      </c>
+      <c r="D18" s="124"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19">
       <c r="A19" s="123" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="128" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="125" t="s">
-        <v>340</v>
+      <c r="C19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>392</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="123" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C20" s="129" t="s">
-        <v>393</v>
-      </c>
-      <c r="D20" s="36"/>
+        <v>395</v>
+      </c>
+      <c r="D20" s="129"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21">
       <c r="A21" s="123" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>396</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>398</v>
+      </c>
+      <c r="D21" s="129"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22">
       <c r="A22" s="123" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>399</v>
-      </c>
-      <c r="D22" s="125" t="s">
-        <v>340</v>
+        <v>400</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>401</v>
+      </c>
+      <c r="E22" s="125" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="123" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>402</v>
-      </c>
-      <c r="D23" s="125" t="s">
-        <v>359</v>
+        <v>404</v>
+      </c>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="123" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C24" s="124" t="s">
-        <v>405</v>
-      </c>
-      <c r="D24" s="36"/>
+        <v>407</v>
+      </c>
+      <c r="D24" s="124"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25">
       <c r="A25" s="123" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C25" s="124" t="s">
-        <v>408</v>
-      </c>
-      <c r="D25" s="36"/>
+        <v>410</v>
+      </c>
+      <c r="D25" s="124"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26">
       <c r="A26" s="123" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
     </row>
     <row r="27">
       <c r="A27" s="123" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C27" s="127" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
     </row>
     <row r="28">
       <c r="A28" s="123" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29">
       <c r="A29" s="123" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C29" s="127" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
     </row>
     <row r="30">
       <c r="A30" s="123" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C30" s="127" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
     </row>
     <row r="31">
       <c r="A31" s="123" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C31" s="127" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
     </row>
     <row r="32">
       <c r="A32" s="123" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C32" s="127" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
     </row>
     <row r="33">
       <c r="A33" s="123" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C33" s="127" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
     </row>
     <row r="34">
       <c r="A34" s="123" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
     </row>
     <row r="35">
       <c r="A35" s="123" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C35" s="127" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
     </row>
     <row r="36">
       <c r="A36" s="130">
         <v>54.0</v>
       </c>
       <c r="B36" s="131" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37">
       <c r="A37" s="130">
         <v>55.0</v>
       </c>
       <c r="B37" s="131" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38">
       <c r="A38" s="130">
         <v>56.0</v>
       </c>
       <c r="B38" s="131" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39">
       <c r="A39" s="130">
         <v>116.0</v>
       </c>
       <c r="B39" s="131" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="D39" s="36"/>
+        <v>447</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B40" s="131" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="36"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>110</v>
@@ -9658,11 +9723,12 @@
       <c r="C41" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="36"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>113</v>
@@ -9670,11 +9736,12 @@
       <c r="C42" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>116</v>
@@ -9682,11 +9749,12 @@
       <c r="C43" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="36"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="36"/>
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>119</v>
@@ -9694,11 +9762,12 @@
       <c r="C44" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="36"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45">
       <c r="A45" s="33" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>122</v>
@@ -9706,125 +9775,138 @@
       <c r="C45" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="36"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>128</v>
       </c>
       <c r="C46" s="132" t="s">
-        <v>454</v>
-      </c>
-      <c r="D46" s="36"/>
+        <v>456</v>
+      </c>
+      <c r="D46" s="132"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47">
       <c r="A47" s="33" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C47" s="132" t="s">
-        <v>457</v>
-      </c>
-      <c r="D47" s="36"/>
+        <v>459</v>
+      </c>
+      <c r="D47" s="132"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C48" s="132" t="s">
-        <v>460</v>
-      </c>
-      <c r="D48" s="36"/>
+        <v>462</v>
+      </c>
+      <c r="D48" s="132"/>
+      <c r="E48" s="36"/>
     </row>
     <row r="49">
       <c r="A49" s="33" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C49" s="132" t="s">
-        <v>463</v>
-      </c>
-      <c r="D49" s="36"/>
+        <v>465</v>
+      </c>
+      <c r="D49" s="132"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50">
       <c r="A50" s="33" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C50" s="132" t="s">
-        <v>466</v>
-      </c>
-      <c r="D50" s="36"/>
+        <v>468</v>
+      </c>
+      <c r="D50" s="132"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51">
       <c r="A51" s="33" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C51" s="132" t="s">
-        <v>469</v>
-      </c>
-      <c r="D51" s="36"/>
+        <v>471</v>
+      </c>
+      <c r="D51" s="132"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52">
       <c r="A52" s="33" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="C52" s="133"/>
-      <c r="D52" s="36"/>
+        <v>473</v>
+      </c>
+      <c r="C52" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="D52" s="134"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53">
       <c r="A53" s="33" t="s">
         <v>187</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="C53" s="134" t="s">
-        <v>473</v>
-      </c>
-      <c r="D53" s="36"/>
+        <v>475</v>
+      </c>
+      <c r="C53" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" s="135"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54">
       <c r="A54" s="33" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="C54" s="134" t="s">
-        <v>476</v>
-      </c>
-      <c r="D54" s="36"/>
+        <v>478</v>
+      </c>
+      <c r="C54" s="133" t="s">
+        <v>479</v>
+      </c>
+      <c r="D54" s="135"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55">
       <c r="A55" s="38" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>479</v>
-      </c>
-      <c r="D55" s="36"/>
+        <v>482</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="36"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9857,13 +9939,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>9</v>
@@ -9874,10 +9956,10 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>273</v>
@@ -9888,15 +9970,15 @@
       <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="135"/>
+      <c r="F2" s="136"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>276</v>
@@ -9907,15 +9989,15 @@
       <c r="E3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="135"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>279</v>
@@ -9926,15 +10008,15 @@
       <c r="E4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="135"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>282</v>
@@ -9945,15 +10027,15 @@
       <c r="E5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="136"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>289</v>
@@ -9964,15 +10046,15 @@
       <c r="E6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="136"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>318</v>
@@ -9983,15 +10065,15 @@
       <c r="E7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>327</v>
@@ -10002,15 +10084,15 @@
       <c r="E8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="135"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>308</v>
@@ -10021,26 +10103,26 @@
       <c r="E9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="135"/>
+      <c r="F9" s="136"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="15"/>
     </row>
   </sheetData>
@@ -10072,13 +10154,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
@@ -10087,7 +10169,7 @@
       </c>
       <c r="D2" s="15"/>
       <c r="F2" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3">
@@ -10096,7 +10178,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="F3" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -10121,34 +10203,35 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="69.63"/>
     <col customWidth="1" min="3" max="3" width="25.5"/>
-    <col customWidth="1" min="4" max="4" width="8.75"/>
-    <col customWidth="1" min="5" max="5" width="8.38"/>
-    <col customWidth="1" min="6" max="6" width="7.5"/>
-    <col customWidth="1" min="7" max="7" width="12.38"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="8.75"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="8.38"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="7.5"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="12.38"/>
+    <col hidden="1" min="8" max="8" width="12.63"/>
     <col customWidth="1" min="9" max="9" width="18.38"/>
-    <col customWidth="1" min="12" max="12" width="33.75"/>
+    <col customWidth="1" min="11" max="11" width="33.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="136" t="s">
-        <v>508</v>
+      <c r="D1" s="137" t="s">
+        <v>511</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G1" s="136" t="s">
+        <v>513</v>
+      </c>
+      <c r="G1" s="137" t="s">
         <v>222</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -10158,13 +10241,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
+      </c>
+      <c r="K1" s="138" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="2">
@@ -10172,16 +10252,16 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C2" s="137"/>
+        <v>516</v>
+      </c>
+      <c r="C2" s="139"/>
       <c r="D2" s="13"/>
-      <c r="G2" s="138"/>
+      <c r="G2" s="140"/>
       <c r="I2" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="3">
@@ -10189,16 +10269,16 @@
         <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C3" s="138"/>
+        <v>519</v>
+      </c>
+      <c r="C3" s="140"/>
       <c r="D3" s="13"/>
-      <c r="G3" s="138"/>
+      <c r="G3" s="140"/>
       <c r="I3" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
@@ -10206,18 +10286,18 @@
         <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C4" s="138"/>
+        <v>522</v>
+      </c>
+      <c r="C4" s="140"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="139"/>
-      <c r="G4" s="140"/>
+      <c r="E4" s="141"/>
+      <c r="G4" s="142"/>
       <c r="I4" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="K4" s="141"/>
-      <c r="L4" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
+      </c>
+      <c r="J4" s="143"/>
+      <c r="K4" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="5">
@@ -10225,19 +10305,19 @@
         <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C5" s="138"/>
+        <v>525</v>
+      </c>
+      <c r="C5" s="140"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="I5" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
+      </c>
+      <c r="J5" s="143"/>
+      <c r="K5" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
@@ -10245,45 +10325,45 @@
         <v>170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="142"/>
-      <c r="G6" s="138"/>
+      <c r="E6" s="144"/>
+      <c r="G6" s="140"/>
       <c r="I6" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="142"/>
-      <c r="G7" s="138"/>
+      <c r="E7" s="144"/>
+      <c r="G7" s="140"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="142"/>
-      <c r="G8" s="138"/>
+      <c r="E8" s="144"/>
+      <c r="G8" s="140"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10307,16 +10387,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -10332,13 +10412,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -10379,13 +10459,13 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -10402,10 +10482,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -10420,10 +10500,10 @@
     <row r="7">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -10438,10 +10518,10 @@
     <row r="8">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -10456,10 +10536,10 @@
     <row r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>547</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>544</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -10487,9 +10567,9 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="B11" s="143" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" s="145" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="15"/>
@@ -10505,28 +10585,28 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="B12" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="B12" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
       <c r="L12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="B13" s="144" t="s">
-        <v>551</v>
+        <v>553</v>
+      </c>
+      <c r="B13" s="146" t="s">
+        <v>554</v>
       </c>
       <c r="L13" s="15"/>
     </row>
@@ -10555,54 +10635,54 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="145" t="s">
-        <v>552</v>
-      </c>
-      <c r="B20" s="146" t="s">
-        <v>553</v>
+      <c r="A20" s="147" t="s">
+        <v>555</v>
+      </c>
+      <c r="B20" s="148" t="s">
+        <v>556</v>
       </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21">
-      <c r="A21" s="145" t="s">
-        <v>554</v>
-      </c>
-      <c r="B21" s="146" t="s">
-        <v>555</v>
+      <c r="A21" s="147" t="s">
+        <v>557</v>
+      </c>
+      <c r="B21" s="148" t="s">
+        <v>558</v>
       </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="145" t="s">
-        <v>556</v>
-      </c>
-      <c r="B22" s="147"/>
+      <c r="A22" s="147" t="s">
+        <v>559</v>
+      </c>
+      <c r="B22" s="149"/>
       <c r="L22" s="15"/>
     </row>
     <row r="23" hidden="1">
       <c r="A23" s="15" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L23" s="15"/>
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="15" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="15"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="15"/>
     </row>
   </sheetData>
@@ -10637,49 +10717,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="149" t="s">
-        <v>561</v>
-      </c>
-      <c r="C2" s="150" t="s">
-        <v>562</v>
+      <c r="A2" s="151" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="C3" s="150" t="s">
-        <v>564</v>
+      <c r="A3" s="153" t="s">
+        <v>566</v>
+      </c>
+      <c r="C3" s="152" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="152" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" s="150" t="s">
-        <v>566</v>
+      <c r="A4" s="154" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="152" t="s">
-        <v>567</v>
-      </c>
-      <c r="C5" s="150" t="s">
-        <v>568</v>
+      <c r="A5" s="154" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="625">
   <si>
     <t>id</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>nts, dmv</t>
+  </si>
+  <si>
+    <t>2,2</t>
   </si>
   <si>
     <t>dmv</t>
@@ -1624,7 +1627,7 @@
     <t>ilxtr:neuron-type-splen-1</t>
   </si>
   <si>
-    <t>preganglionic sympathetic neuron</t>
+    <t>pre-ganglionic sympathetic neuron</t>
   </si>
   <si>
     <t>Neuron population 2 with a soma in the dorsal motor nucleus of the vagus</t>
@@ -1633,7 +1636,7 @@
     <t>ilxtr:neuron-type-splen-2</t>
   </si>
   <si>
-    <t xml:space="preserve">preganglionic parasympathetic neuron </t>
+    <t xml:space="preserve">pre-ganglionic parasympathetic neuron </t>
   </si>
   <si>
     <t xml:space="preserve">Neuron population 3 with a soma in the nucleus tractus solitarius </t>
@@ -1660,7 +1663,7 @@
     <t>ilxtr:neuron-type-splen-5</t>
   </si>
   <si>
-    <t>sympathetic postganglionic neuron</t>
+    <t>sympathetic post-ganglionic neuron</t>
   </si>
   <si>
     <t>col-spl</t>
@@ -2985,60 +2988,60 @@
         <v>5</v>
       </c>
       <c r="D1" s="155" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E1" s="155" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="155" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="39" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -3062,106 +3065,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="157" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B2" s="158" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="157" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B3" s="159" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="157" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B4" s="160" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="157" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B5" s="160" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="157" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B6" s="160" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="157" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="157" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="157" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B9" s="160" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="157" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B10" s="160" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="157" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B11" s="160" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B12" s="152" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -3205,97 +3208,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="163" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="163" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="163" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="163" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B5" s="164" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="163" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B6" s="164" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="163" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="165"/>
       <c r="B8" s="164" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="165"/>
       <c r="B9" s="164" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="165"/>
       <c r="B10" s="164" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="165"/>
       <c r="B11" s="164" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="165"/>
       <c r="B12" s="164" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13">
@@ -6551,7 +6554,9 @@
       <c r="M7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -6560,13 +6565,13 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -6578,7 +6583,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="15"/>
@@ -6589,13 +6594,13 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -6607,7 +6612,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="15"/>
@@ -6618,13 +6623,13 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -6636,7 +6641,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="15"/>
@@ -6647,13 +6652,13 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -6665,7 +6670,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="15"/>
@@ -6676,13 +6681,13 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -6694,7 +6699,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="15"/>
@@ -6705,23 +6710,23 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="15"/>
@@ -6735,18 +6740,18 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -6754,10 +6759,10 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -6767,18 +6772,18 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6787,10 +6792,10 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -6800,18 +6805,18 @@
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -6820,10 +6825,10 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -6833,13 +6838,13 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -6851,7 +6856,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="15"/>
@@ -6862,18 +6867,18 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -6882,10 +6887,10 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -6895,13 +6900,13 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -6913,7 +6918,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="15"/>
@@ -6924,18 +6929,18 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -6944,10 +6949,10 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -6957,13 +6962,13 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="31"/>
@@ -6984,13 +6989,13 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="31"/>
@@ -6998,7 +7003,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="15"/>
@@ -7013,13 +7018,13 @@
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="15"/>
@@ -7040,13 +7045,13 @@
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="36"/>
       <c r="E24" s="15"/>
@@ -7067,13 +7072,13 @@
     </row>
     <row r="25">
       <c r="A25" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="15"/>
@@ -7094,13 +7099,13 @@
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="15"/>
@@ -7121,13 +7126,13 @@
     </row>
     <row r="27">
       <c r="A27" s="38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="15"/>
@@ -7148,13 +7153,13 @@
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="15"/>
@@ -7175,13 +7180,13 @@
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="15"/>
@@ -7202,13 +7207,13 @@
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="15"/>
@@ -7219,7 +7224,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="15"/>
       <c r="M30" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N30" s="12">
         <v>0.0</v>
@@ -7232,13 +7237,13 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -7249,7 +7254,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="15"/>
       <c r="M31" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N31" s="12">
         <v>0.0</v>
@@ -7262,13 +7267,13 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="31"/>
@@ -7276,7 +7281,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="15"/>
@@ -7290,13 +7295,13 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="31" t="b">
@@ -7306,7 +7311,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="15"/>
@@ -7321,13 +7326,13 @@
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="41"/>
@@ -7348,13 +7353,13 @@
     </row>
     <row r="35">
       <c r="A35" s="40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="41"/>
@@ -7375,25 +7380,25 @@
     </row>
     <row r="36">
       <c r="A36" s="43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="15"/>
@@ -7408,13 +7413,13 @@
     </row>
     <row r="37">
       <c r="A37" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="41" t="b">
@@ -7426,7 +7431,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="15"/>
@@ -7441,25 +7446,25 @@
     </row>
     <row r="38">
       <c r="A38" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J38" s="20"/>
       <c r="K38" s="15"/>
@@ -7474,13 +7479,13 @@
     </row>
     <row r="39">
       <c r="A39" s="43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="41" t="b">
@@ -7492,7 +7497,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J39" s="20"/>
       <c r="K39" s="15"/>
@@ -7510,10 +7515,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -7522,7 +7527,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -7533,7 +7538,7 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -7541,10 +7546,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -7553,7 +7558,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
@@ -7569,10 +7574,10 @@
         <v>31</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -7581,7 +7586,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -7597,10 +7602,10 @@
         <v>27</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -7609,7 +7614,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -7622,13 +7627,13 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -7637,7 +7642,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -7648,18 +7653,18 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
@@ -7668,7 +7673,7 @@
       <c r="H45" s="48"/>
       <c r="I45" s="48"/>
       <c r="J45" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
@@ -7679,18 +7684,18 @@
       <c r="Q45" s="48"/>
       <c r="R45" s="48"/>
       <c r="S45" s="51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="48"/>
@@ -7699,7 +7704,7 @@
       <c r="H46" s="48"/>
       <c r="I46" s="48"/>
       <c r="J46" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
@@ -7710,18 +7715,18 @@
       <c r="Q46" s="48"/>
       <c r="R46" s="48"/>
       <c r="S46" s="51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -7730,7 +7735,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -7741,18 +7746,18 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="12" t="b">
@@ -7762,7 +7767,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J48" s="20"/>
       <c r="L48" s="15"/>
@@ -7776,13 +7781,13 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="12" t="b">
@@ -7792,7 +7797,7 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J49" s="20"/>
       <c r="L49" s="15"/>
@@ -7806,13 +7811,13 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="12" t="b">
@@ -7822,7 +7827,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J50" s="20"/>
       <c r="L50" s="15"/>
@@ -7836,13 +7841,13 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="12" t="b">
@@ -7852,7 +7857,7 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J51" s="20"/>
       <c r="L51" s="15"/>
@@ -7866,13 +7871,13 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -7882,7 +7887,7 @@
       <c r="I52" s="15"/>
       <c r="J52" s="20"/>
       <c r="K52" s="53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
@@ -7895,13 +7900,13 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="12" t="b">
@@ -7911,7 +7916,7 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J53" s="20"/>
       <c r="L53" s="15"/>
@@ -7925,13 +7930,13 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -7939,7 +7944,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J54" s="20"/>
       <c r="L54" s="15"/>
@@ -7953,13 +7958,13 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -7967,7 +7972,7 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J55" s="20"/>
       <c r="L55" s="15"/>
@@ -7981,13 +7986,13 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -7995,7 +8000,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J56" s="20"/>
       <c r="L56" s="15"/>
@@ -8009,13 +8014,13 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="12" t="b">
@@ -8025,7 +8030,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J57" s="20"/>
       <c r="L57" s="15"/>
@@ -8039,13 +8044,13 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -8053,7 +8058,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J58" s="20"/>
       <c r="L58" s="15"/>
@@ -8067,13 +8072,13 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -8081,7 +8086,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J59" s="20"/>
       <c r="L59" s="15"/>
@@ -8095,13 +8100,13 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -8166,43 +8171,43 @@
         <v>5</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H1" s="54" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N1" s="54" t="s">
         <v>20</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -8210,14 +8215,14 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="12"/>
@@ -8229,7 +8234,7 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P2" s="31" t="b">
         <v>1</v>
@@ -8240,16 +8245,16 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
@@ -8262,7 +8267,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="21"/>
       <c r="O3" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P3" s="12" t="b">
         <v>1</v>
@@ -8273,35 +8278,35 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="20"/>
       <c r="K4" s="15"/>
       <c r="L4" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P4" s="12" t="b">
         <v>1</v>
@@ -8312,31 +8317,31 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="20"/>
       <c r="K5" s="15"/>
       <c r="L5" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="12"/>
@@ -8347,31 +8352,31 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="12"/>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="12"/>
@@ -8382,30 +8387,30 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="60"/>
       <c r="E7" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="61"/>
       <c r="L7" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -8416,30 +8421,30 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C8" s="60"/>
       <c r="E8" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="61"/>
       <c r="L8" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -8450,32 +8455,32 @@
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
@@ -8487,32 +8492,32 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
@@ -8524,32 +8529,32 @@
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D11" s="65"/>
       <c r="E11" s="62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
@@ -8561,32 +8566,32 @@
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D12" s="65"/>
       <c r="E12" s="62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
@@ -8598,20 +8603,20 @@
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D13" s="65"/>
       <c r="E13" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G13" s="65"/>
       <c r="H13" s="67"/>
@@ -8633,20 +8638,20 @@
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D14" s="65"/>
       <c r="E14" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="67"/>
@@ -8668,20 +8673,20 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="68"/>
@@ -8703,20 +8708,20 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="67"/>
@@ -8738,32 +8743,32 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G17" s="66" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H17" s="67"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
@@ -8775,23 +8780,23 @@
     </row>
     <row r="18">
       <c r="A18" s="71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H18" s="77"/>
       <c r="I18" s="78"/>
@@ -8800,7 +8805,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" s="79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="78"/>
       <c r="N18" s="78"/>
@@ -8812,32 +8817,32 @@
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H19" s="81"/>
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L19" s="79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M19" s="78"/>
       <c r="N19" s="78"/>
@@ -8849,32 +8854,32 @@
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F20" s="76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G20" s="76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L20" s="79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M20" s="78"/>
       <c r="N20" s="78"/>
@@ -8886,32 +8891,32 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H21" s="81"/>
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="71" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L21" s="82" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M21" s="78"/>
       <c r="N21" s="78"/>
@@ -8923,23 +8928,23 @@
     </row>
     <row r="22">
       <c r="A22" s="83" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D22" s="86"/>
       <c r="E22" s="87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G22" s="88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H22" s="89"/>
       <c r="I22" s="90"/>
@@ -8948,7 +8953,7 @@
         <v>0.0</v>
       </c>
       <c r="L22" s="92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M22" s="90"/>
       <c r="N22" s="90"/>
@@ -8960,32 +8965,32 @@
     </row>
     <row r="23">
       <c r="A23" s="83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D23" s="86"/>
       <c r="E23" s="91" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H23" s="89"/>
       <c r="I23" s="90"/>
       <c r="J23" s="90"/>
       <c r="K23" s="91" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L23" s="94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M23" s="90"/>
       <c r="N23" s="90"/>
@@ -8997,23 +9002,23 @@
     </row>
     <row r="24">
       <c r="A24" s="95" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H24" s="101"/>
       <c r="I24" s="102"/>
@@ -9022,7 +9027,7 @@
         <v>0.0</v>
       </c>
       <c r="L24" s="104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="102"/>
       <c r="N24" s="102"/>
@@ -9034,32 +9039,32 @@
     </row>
     <row r="25">
       <c r="A25" s="95" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H25" s="105"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
       <c r="K25" s="106" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L25" s="104" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M25" s="102"/>
       <c r="N25" s="102"/>
@@ -9071,32 +9076,32 @@
     </row>
     <row r="26">
       <c r="A26" s="107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B26" s="108" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C26" s="109" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D26" s="110"/>
       <c r="E26" s="111" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="112" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G26" s="113" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H26" s="114"/>
       <c r="I26" s="115"/>
       <c r="J26" s="115"/>
       <c r="K26" s="116" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L26" s="117" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M26" s="115"/>
       <c r="N26" s="115"/>
@@ -9108,32 +9113,32 @@
     </row>
     <row r="27">
       <c r="A27" s="118" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B27" s="108" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D27" s="119"/>
       <c r="E27" s="111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F27" s="112" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G27" s="118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H27" s="119"/>
       <c r="I27" s="115"/>
       <c r="J27" s="115"/>
       <c r="K27" s="116" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L27" s="117" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M27" s="115"/>
       <c r="N27" s="115"/>
@@ -9182,7 +9187,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E1" s="121" t="s">
         <v>13</v>
@@ -9190,460 +9195,460 @@
     </row>
     <row r="2">
       <c r="A2" s="123" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="36"/>
     </row>
     <row r="3">
       <c r="A3" s="123" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C3" s="124" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D3" s="124"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4">
       <c r="A4" s="123" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D4" s="124"/>
       <c r="E4" s="125" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="123" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D5" s="124"/>
       <c r="E5" s="125" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="123" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D6" s="124"/>
       <c r="E6" s="126" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="123" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D7" s="124"/>
       <c r="E7" s="125" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="123" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D8" s="124"/>
       <c r="E8" s="36"/>
     </row>
     <row r="9">
       <c r="A9" s="123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D9" s="124"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10">
       <c r="A10" s="123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B10" s="127" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D10" s="124"/>
       <c r="E10" s="36"/>
     </row>
     <row r="11">
       <c r="A11" s="123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B11" s="127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D11" s="124"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12">
       <c r="A12" s="123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D12" s="124"/>
       <c r="E12" s="36"/>
     </row>
     <row r="13">
       <c r="A13" s="123" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D13" s="124"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14">
       <c r="A14" s="123" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D14" s="124"/>
       <c r="E14" s="36"/>
     </row>
     <row r="15">
       <c r="A15" s="123" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B15" s="127" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D15" s="124"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16">
       <c r="A16" s="123" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B16" s="127" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D16" s="124"/>
       <c r="E16" s="36"/>
     </row>
     <row r="17">
       <c r="A17" s="123" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B17" s="127" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D17" s="124"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18">
       <c r="A18" s="123" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19">
       <c r="A19" s="123" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D19" s="128" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="123" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C20" s="129" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D20" s="129"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21">
       <c r="A21" s="123" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D21" s="129"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22">
       <c r="A22" s="123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D22" s="129" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="123" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D23" s="124"/>
       <c r="E23" s="125" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C24" s="124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D24" s="124"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25">
       <c r="A25" s="123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C25" s="124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D25" s="124"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26">
       <c r="A26" s="123" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D26" s="127"/>
       <c r="E26" s="127"/>
     </row>
     <row r="27">
       <c r="A27" s="123" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C27" s="127" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D27" s="127"/>
       <c r="E27" s="127"/>
     </row>
     <row r="28">
       <c r="A28" s="123" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D28" s="127"/>
       <c r="E28" s="127"/>
     </row>
     <row r="29">
       <c r="A29" s="123" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C29" s="127" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
     </row>
     <row r="30">
       <c r="A30" s="123" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C30" s="127" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D30" s="127"/>
       <c r="E30" s="127"/>
     </row>
     <row r="31">
       <c r="A31" s="123" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C31" s="127" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D31" s="127"/>
       <c r="E31" s="127"/>
     </row>
     <row r="32">
       <c r="A32" s="123" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C32" s="127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D32" s="127"/>
       <c r="E32" s="127"/>
     </row>
     <row r="33">
       <c r="A33" s="123" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C33" s="127" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D33" s="127"/>
       <c r="E33" s="127"/>
     </row>
     <row r="34">
       <c r="A34" s="123" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D34" s="127"/>
       <c r="E34" s="127"/>
     </row>
     <row r="35">
       <c r="A35" s="123" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C35" s="127" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D35" s="127"/>
       <c r="E35" s="127"/>
@@ -9653,10 +9658,10 @@
         <v>54.0</v>
       </c>
       <c r="B36" s="131" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
@@ -9666,10 +9671,10 @@
         <v>55.0</v>
       </c>
       <c r="B37" s="131" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
@@ -9679,10 +9684,10 @@
         <v>56.0</v>
       </c>
       <c r="B38" s="131" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
@@ -9692,218 +9697,218 @@
         <v>116.0</v>
       </c>
       <c r="B39" s="131" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="36"/>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B40" s="131" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B41" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="132" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" s="132" t="s">
-        <v>109</v>
       </c>
       <c r="D41" s="132"/>
       <c r="E41" s="36"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="132" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" s="132" t="s">
-        <v>112</v>
       </c>
       <c r="D42" s="132"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B43" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="132" t="s">
         <v>116</v>
-      </c>
-      <c r="C43" s="132" t="s">
-        <v>115</v>
       </c>
       <c r="D43" s="132"/>
       <c r="E43" s="36"/>
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B44" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="132" t="s">
         <v>119</v>
-      </c>
-      <c r="C44" s="132" t="s">
-        <v>118</v>
       </c>
       <c r="D44" s="132"/>
       <c r="E44" s="36"/>
     </row>
     <row r="45">
       <c r="A45" s="33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B45" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="132" t="s">
         <v>122</v>
-      </c>
-      <c r="C45" s="132" t="s">
-        <v>121</v>
       </c>
       <c r="D45" s="132"/>
       <c r="E45" s="36"/>
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" s="132" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D46" s="132"/>
       <c r="E46" s="36"/>
     </row>
     <row r="47">
       <c r="A47" s="33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C47" s="132" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D47" s="132"/>
       <c r="E47" s="36"/>
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C48" s="132" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D48" s="132"/>
       <c r="E48" s="36"/>
     </row>
     <row r="49">
       <c r="A49" s="33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C49" s="132" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D49" s="132"/>
       <c r="E49" s="36"/>
     </row>
     <row r="50">
       <c r="A50" s="33" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C50" s="132" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D50" s="132"/>
       <c r="E50" s="36"/>
     </row>
     <row r="51">
       <c r="A51" s="33" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C51" s="132" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D51" s="132"/>
       <c r="E51" s="36"/>
     </row>
     <row r="52">
       <c r="A52" s="33" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C52" s="133" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D52" s="134"/>
       <c r="E52" s="36"/>
     </row>
     <row r="53">
       <c r="A53" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C53" s="133" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D53" s="135"/>
       <c r="E53" s="36"/>
     </row>
     <row r="54">
       <c r="A54" s="33" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C54" s="133" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D54" s="135"/>
       <c r="E54" s="36"/>
     </row>
     <row r="55">
       <c r="A55" s="38" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="36"/>
@@ -9939,33 +9944,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>39</v>
@@ -9975,16 +9980,16 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>35</v>
@@ -9994,16 +9999,16 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>31</v>
@@ -10013,16 +10018,16 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>27</v>
@@ -10032,95 +10037,95 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="136"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="136"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="136"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="136"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F10" s="136"/>
       <c r="G10" s="15"/>
@@ -10154,31 +10159,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="15"/>
       <c r="F2" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D3" s="15"/>
       <c r="F3" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -10220,19 +10225,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="137" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D1" s="137" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G1" s="137" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
@@ -10241,71 +10246,71 @@
         <v>5</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K1" s="138" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C2" s="139"/>
       <c r="D2" s="13"/>
       <c r="G2" s="140"/>
       <c r="I2" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="13"/>
       <c r="G3" s="140"/>
       <c r="I3" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C4" s="140"/>
       <c r="D4" s="13"/>
       <c r="E4" s="141"/>
       <c r="G4" s="142"/>
       <c r="I4" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J4" s="143"/>
       <c r="K4" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C5" s="140"/>
       <c r="D5" s="13"/>
@@ -10313,39 +10318,39 @@
       <c r="F5" s="142"/>
       <c r="G5" s="142"/>
       <c r="I5" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J5" s="143"/>
       <c r="K5" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="144"/>
       <c r="G6" s="140"/>
       <c r="I6" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="144"/>
@@ -10353,13 +10358,13 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="144"/>
@@ -10387,16 +10392,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -10412,13 +10417,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -10459,13 +10464,13 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -10482,10 +10487,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -10500,10 +10505,10 @@
     <row r="7">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>547</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -10518,10 +10523,10 @@
     <row r="8">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -10536,10 +10541,10 @@
     <row r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -10567,7 +10572,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B11" s="145" t="s">
         <v>4</v>
@@ -10585,7 +10590,7 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B12" s="146" t="s">
         <v>3</v>
@@ -10603,10 +10608,10 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L13" s="15"/>
     </row>
@@ -10636,38 +10641,38 @@
     </row>
     <row r="20">
       <c r="A20" s="147" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B20" s="148" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="147" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B21" s="148" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="147" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B22" s="149"/>
       <c r="L22" s="15"/>
     </row>
     <row r="23" hidden="1">
       <c r="A23" s="15" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L23" s="15"/>
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="15" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -10724,42 +10729,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="151" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C2" s="152" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="153" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="154" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="154" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C5" s="152" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="627">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>ApiNATOMY model of the spleen</t>
+  </si>
+  <si>
+    <t>splen</t>
   </si>
   <si>
     <t>ontologyTerms</t>
@@ -842,6 +845,9 @@
   </si>
   <si>
     <t>ns_seg_out</t>
+  </si>
+  <si>
+    <t>2,0</t>
   </si>
   <si>
     <t>T8,n-gspl</t>
@@ -2954,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2985,63 +2991,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="155" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E1" s="155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="155" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="39" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -3065,106 +3071,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="157" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B2" s="158" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="157" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B3" s="159" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="157" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B4" s="160" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="157" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B5" s="160" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="157" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B6" s="160" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="157" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="157" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="157" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B9" s="160" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="157" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B10" s="160" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="157" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B11" s="160" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B12" s="152" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -3202,103 +3208,103 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="163" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="163" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="163" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="163" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B5" s="164" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="163" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B6" s="164" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="163" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="165"/>
       <c r="B8" s="164" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="165"/>
       <c r="B9" s="164" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="165"/>
       <c r="B10" s="164" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="165"/>
       <c r="B11" s="164" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="165"/>
       <c r="B12" s="164" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13">
@@ -6311,85 +6317,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="12"/>
       <c r="J2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="15"/>
@@ -6400,29 +6406,29 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="15"/>
@@ -6433,29 +6439,29 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="15"/>
@@ -6466,29 +6472,29 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="15"/>
@@ -6499,13 +6505,13 @@
     </row>
     <row r="6" ht="46.5" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="19" t="b">
@@ -6515,7 +6521,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
@@ -6530,32 +6536,32 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -6565,13 +6571,13 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -6583,7 +6589,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="15"/>
@@ -6594,13 +6600,13 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -6612,7 +6618,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="15"/>
@@ -6623,13 +6629,13 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -6641,7 +6647,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="15"/>
@@ -6652,13 +6658,13 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -6670,7 +6676,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="15"/>
@@ -6681,13 +6687,13 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -6699,7 +6705,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="15"/>
@@ -6710,23 +6716,23 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="15"/>
@@ -6740,18 +6746,18 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -6759,10 +6765,10 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -6772,18 +6778,18 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6792,10 +6798,10 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -6805,18 +6811,18 @@
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -6825,10 +6831,10 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -6838,13 +6844,13 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -6856,7 +6862,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="15"/>
@@ -6867,18 +6873,18 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -6887,10 +6893,10 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -6900,13 +6906,13 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -6918,7 +6924,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="15"/>
@@ -6929,18 +6935,18 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -6949,10 +6955,10 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -6962,13 +6968,13 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="31"/>
@@ -6989,13 +6995,13 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="31"/>
@@ -7003,7 +7009,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="15"/>
@@ -7018,13 +7024,13 @@
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="15"/>
@@ -7045,13 +7051,13 @@
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24" s="36"/>
       <c r="E24" s="15"/>
@@ -7072,13 +7078,13 @@
     </row>
     <row r="25">
       <c r="A25" s="38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="15"/>
@@ -7099,13 +7105,13 @@
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="15"/>
@@ -7126,13 +7132,13 @@
     </row>
     <row r="27">
       <c r="A27" s="38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="15"/>
@@ -7153,13 +7159,13 @@
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="15"/>
@@ -7180,13 +7186,13 @@
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="15"/>
@@ -7207,13 +7213,13 @@
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="15"/>
@@ -7224,7 +7230,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="15"/>
       <c r="M30" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N30" s="12">
         <v>0.0</v>
@@ -7237,13 +7243,13 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -7254,7 +7260,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="15"/>
       <c r="M31" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N31" s="12">
         <v>0.0</v>
@@ -7267,13 +7273,13 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="31"/>
@@ -7281,7 +7287,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="15"/>
@@ -7295,13 +7301,13 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="31" t="b">
@@ -7311,7 +7317,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="15"/>
@@ -7326,13 +7332,13 @@
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="41"/>
@@ -7353,13 +7359,13 @@
     </row>
     <row r="35">
       <c r="A35" s="40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="41"/>
@@ -7380,25 +7386,25 @@
     </row>
     <row r="36">
       <c r="A36" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="15"/>
@@ -7413,25 +7419,25 @@
     </row>
     <row r="37">
       <c r="A37" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="15"/>
@@ -7446,25 +7452,25 @@
     </row>
     <row r="38">
       <c r="A38" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J38" s="20"/>
       <c r="K38" s="15"/>
@@ -7479,25 +7485,25 @@
     </row>
     <row r="39">
       <c r="A39" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J39" s="20"/>
       <c r="K39" s="15"/>
@@ -7512,13 +7518,13 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -7527,7 +7533,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -7538,18 +7544,18 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -7558,7 +7564,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
@@ -7571,13 +7577,13 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -7586,7 +7592,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -7599,13 +7605,13 @@
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -7614,7 +7620,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -7627,13 +7633,13 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -7642,7 +7648,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -7653,18 +7659,18 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
@@ -7673,7 +7679,7 @@
       <c r="H45" s="48"/>
       <c r="I45" s="48"/>
       <c r="J45" s="45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
@@ -7684,18 +7690,18 @@
       <c r="Q45" s="48"/>
       <c r="R45" s="48"/>
       <c r="S45" s="51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="48"/>
@@ -7704,7 +7710,7 @@
       <c r="H46" s="48"/>
       <c r="I46" s="48"/>
       <c r="J46" s="45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
@@ -7715,18 +7721,18 @@
       <c r="Q46" s="48"/>
       <c r="R46" s="48"/>
       <c r="S46" s="51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -7735,7 +7741,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -7746,18 +7752,18 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="12" t="b">
@@ -7767,7 +7773,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J48" s="20"/>
       <c r="L48" s="15"/>
@@ -7781,13 +7787,13 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="12" t="b">
@@ -7797,7 +7803,7 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J49" s="20"/>
       <c r="L49" s="15"/>
@@ -7811,13 +7817,13 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="12" t="b">
@@ -7827,7 +7833,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J50" s="20"/>
       <c r="L50" s="15"/>
@@ -7841,13 +7847,13 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="12" t="b">
@@ -7857,7 +7863,7 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J51" s="20"/>
       <c r="L51" s="15"/>
@@ -7871,13 +7877,13 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -7887,7 +7893,7 @@
       <c r="I52" s="15"/>
       <c r="J52" s="20"/>
       <c r="K52" s="53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
@@ -7900,13 +7906,13 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="12" t="b">
@@ -7916,7 +7922,7 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J53" s="20"/>
       <c r="L53" s="15"/>
@@ -7930,13 +7936,13 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -7944,7 +7950,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J54" s="20"/>
       <c r="L54" s="15"/>
@@ -7958,13 +7964,13 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -7972,7 +7978,7 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J55" s="20"/>
       <c r="L55" s="15"/>
@@ -7986,13 +7992,13 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -8000,7 +8006,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J56" s="20"/>
       <c r="L56" s="15"/>
@@ -8014,13 +8020,13 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="12" t="b">
@@ -8030,7 +8036,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J57" s="20"/>
       <c r="L57" s="15"/>
@@ -8044,13 +8050,13 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -8058,7 +8064,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J58" s="20"/>
       <c r="L58" s="15"/>
@@ -8072,13 +8078,13 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -8086,7 +8092,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J59" s="20"/>
       <c r="L59" s="15"/>
@@ -8100,13 +8106,13 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -8168,46 +8174,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H1" s="54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -8215,14 +8221,14 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="12"/>
@@ -8234,7 +8240,7 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P2" s="31" t="b">
         <v>1</v>
@@ -8245,16 +8251,16 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
@@ -8267,7 +8273,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="21"/>
       <c r="O3" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P3" s="12" t="b">
         <v>1</v>
@@ -8278,35 +8284,35 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="20"/>
       <c r="K4" s="15"/>
       <c r="L4" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P4" s="12" t="b">
         <v>1</v>
@@ -8317,31 +8323,31 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="20"/>
       <c r="K5" s="15"/>
       <c r="L5" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="12"/>
@@ -8352,31 +8358,31 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="12"/>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="12"/>
@@ -8387,30 +8393,30 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7" s="60"/>
       <c r="E7" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="61"/>
       <c r="L7" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -8421,30 +8427,30 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C8" s="60"/>
       <c r="E8" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="61"/>
       <c r="L8" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -8455,32 +8461,32 @@
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="69" t="s">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
@@ -8492,32 +8498,32 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="69" t="s">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
@@ -8529,32 +8535,32 @@
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D11" s="65"/>
       <c r="E11" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="69" t="s">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
@@ -8566,32 +8572,32 @@
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D12" s="65"/>
       <c r="E12" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="69" t="s">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
@@ -8603,30 +8609,30 @@
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D13" s="65"/>
       <c r="E13" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G13" s="65"/>
       <c r="H13" s="67"/>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="69">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" s="68"/>
       <c r="N13" s="68"/>
@@ -8638,30 +8644,30 @@
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>275</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>273</v>
       </c>
       <c r="D14" s="65"/>
       <c r="E14" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="67"/>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="69">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
@@ -8673,30 +8679,30 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="69">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
@@ -8708,30 +8714,30 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="67"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="69">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
@@ -8743,32 +8749,32 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G17" s="66" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H17" s="67"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
@@ -8780,23 +8786,23 @@
     </row>
     <row r="18">
       <c r="A18" s="71" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H18" s="77"/>
       <c r="I18" s="78"/>
@@ -8805,7 +8811,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" s="79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="78"/>
       <c r="N18" s="78"/>
@@ -8817,32 +8823,32 @@
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H19" s="81"/>
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L19" s="79" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M19" s="78"/>
       <c r="N19" s="78"/>
@@ -8854,32 +8860,32 @@
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F20" s="76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G20" s="76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L20" s="79" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M20" s="78"/>
       <c r="N20" s="78"/>
@@ -8891,32 +8897,32 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H21" s="81"/>
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L21" s="82" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M21" s="78"/>
       <c r="N21" s="78"/>
@@ -8928,23 +8934,23 @@
     </row>
     <row r="22">
       <c r="A22" s="83" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D22" s="86"/>
       <c r="E22" s="87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G22" s="88" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H22" s="89"/>
       <c r="I22" s="90"/>
@@ -8953,7 +8959,7 @@
         <v>0.0</v>
       </c>
       <c r="L22" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M22" s="90"/>
       <c r="N22" s="90"/>
@@ -8965,32 +8971,32 @@
     </row>
     <row r="23">
       <c r="A23" s="83" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D23" s="86"/>
       <c r="E23" s="91" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H23" s="89"/>
       <c r="I23" s="90"/>
       <c r="J23" s="90"/>
       <c r="K23" s="91" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L23" s="94" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M23" s="90"/>
       <c r="N23" s="90"/>
@@ -9002,23 +9008,23 @@
     </row>
     <row r="24">
       <c r="A24" s="95" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="99" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H24" s="101"/>
       <c r="I24" s="102"/>
@@ -9027,7 +9033,7 @@
         <v>0.0</v>
       </c>
       <c r="L24" s="104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M24" s="102"/>
       <c r="N24" s="102"/>
@@ -9039,32 +9045,32 @@
     </row>
     <row r="25">
       <c r="A25" s="95" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="103" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H25" s="105"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
       <c r="K25" s="106" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L25" s="104" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M25" s="102"/>
       <c r="N25" s="102"/>
@@ -9076,32 +9082,32 @@
     </row>
     <row r="26">
       <c r="A26" s="107" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B26" s="108" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C26" s="109" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D26" s="110"/>
       <c r="E26" s="111" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="112" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G26" s="113" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H26" s="114"/>
       <c r="I26" s="115"/>
       <c r="J26" s="115"/>
       <c r="K26" s="116" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L26" s="117" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M26" s="115"/>
       <c r="N26" s="115"/>
@@ -9113,32 +9119,32 @@
     </row>
     <row r="27">
       <c r="A27" s="118" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B27" s="108" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D27" s="119"/>
       <c r="E27" s="111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F27" s="112" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G27" s="118" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H27" s="119"/>
       <c r="I27" s="115"/>
       <c r="J27" s="115"/>
       <c r="K27" s="116" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L27" s="117" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M27" s="115"/>
       <c r="N27" s="115"/>
@@ -9184,471 +9190,471 @@
         <v>1</v>
       </c>
       <c r="C1" s="122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E1" s="121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="123" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="36"/>
     </row>
     <row r="3">
       <c r="A3" s="123" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C3" s="124" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D3" s="124"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4">
       <c r="A4" s="123" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D4" s="124"/>
       <c r="E4" s="125" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="123" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D5" s="124"/>
       <c r="E5" s="125" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="123" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D6" s="124"/>
       <c r="E6" s="126" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="123" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D7" s="124"/>
       <c r="E7" s="125" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="123" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D8" s="124"/>
       <c r="E8" s="36"/>
     </row>
     <row r="9">
       <c r="A9" s="123" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D9" s="124"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10">
       <c r="A10" s="123" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B10" s="127" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D10" s="124"/>
       <c r="E10" s="36"/>
     </row>
     <row r="11">
       <c r="A11" s="123" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B11" s="127" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D11" s="124"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12">
       <c r="A12" s="123" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D12" s="124"/>
       <c r="E12" s="36"/>
     </row>
     <row r="13">
       <c r="A13" s="123" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D13" s="124"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14">
       <c r="A14" s="123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D14" s="124"/>
       <c r="E14" s="36"/>
     </row>
     <row r="15">
       <c r="A15" s="123" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B15" s="127" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D15" s="124"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16">
       <c r="A16" s="123" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B16" s="127" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D16" s="124"/>
       <c r="E16" s="36"/>
     </row>
     <row r="17">
       <c r="A17" s="123" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B17" s="127" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D17" s="124"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18">
       <c r="A18" s="123" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19">
       <c r="A19" s="123" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D19" s="128" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="123" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C20" s="129" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D20" s="129"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21">
       <c r="A21" s="123" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D21" s="129"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22">
       <c r="A22" s="123" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D22" s="129" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="123" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D23" s="124"/>
       <c r="E23" s="125" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="123" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C24" s="124" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D24" s="124"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25">
       <c r="A25" s="123" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C25" s="124" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D25" s="124"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26">
       <c r="A26" s="123" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D26" s="127"/>
       <c r="E26" s="127"/>
     </row>
     <row r="27">
       <c r="A27" s="123" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C27" s="127" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D27" s="127"/>
       <c r="E27" s="127"/>
     </row>
     <row r="28">
       <c r="A28" s="123" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D28" s="127"/>
       <c r="E28" s="127"/>
     </row>
     <row r="29">
       <c r="A29" s="123" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C29" s="127" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
     </row>
     <row r="30">
       <c r="A30" s="123" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C30" s="127" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D30" s="127"/>
       <c r="E30" s="127"/>
     </row>
     <row r="31">
       <c r="A31" s="123" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C31" s="127" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D31" s="127"/>
       <c r="E31" s="127"/>
     </row>
     <row r="32">
       <c r="A32" s="123" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C32" s="127" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D32" s="127"/>
       <c r="E32" s="127"/>
     </row>
     <row r="33">
       <c r="A33" s="123" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C33" s="127" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D33" s="127"/>
       <c r="E33" s="127"/>
     </row>
     <row r="34">
       <c r="A34" s="123" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D34" s="127"/>
       <c r="E34" s="127"/>
     </row>
     <row r="35">
       <c r="A35" s="123" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C35" s="127" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D35" s="127"/>
       <c r="E35" s="127"/>
@@ -9658,10 +9664,10 @@
         <v>54.0</v>
       </c>
       <c r="B36" s="131" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
@@ -9671,10 +9677,10 @@
         <v>55.0</v>
       </c>
       <c r="B37" s="131" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
@@ -9684,10 +9690,10 @@
         <v>56.0</v>
       </c>
       <c r="B38" s="131" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
@@ -9697,218 +9703,218 @@
         <v>116.0</v>
       </c>
       <c r="B39" s="131" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="36"/>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B40" s="131" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B41" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="132" t="s">
         <v>111</v>
-      </c>
-      <c r="C41" s="132" t="s">
-        <v>110</v>
       </c>
       <c r="D41" s="132"/>
       <c r="E41" s="36"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="132" t="s">
         <v>114</v>
-      </c>
-      <c r="C42" s="132" t="s">
-        <v>113</v>
       </c>
       <c r="D42" s="132"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B43" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="132" t="s">
         <v>117</v>
-      </c>
-      <c r="C43" s="132" t="s">
-        <v>116</v>
       </c>
       <c r="D43" s="132"/>
       <c r="E43" s="36"/>
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B44" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="132" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="132" t="s">
-        <v>119</v>
       </c>
       <c r="D44" s="132"/>
       <c r="E44" s="36"/>
     </row>
     <row r="45">
       <c r="A45" s="33" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B45" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="132" t="s">
         <v>123</v>
-      </c>
-      <c r="C45" s="132" t="s">
-        <v>122</v>
       </c>
       <c r="D45" s="132"/>
       <c r="E45" s="36"/>
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" s="132" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D46" s="132"/>
       <c r="E46" s="36"/>
     </row>
     <row r="47">
       <c r="A47" s="33" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C47" s="132" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D47" s="132"/>
       <c r="E47" s="36"/>
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C48" s="132" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D48" s="132"/>
       <c r="E48" s="36"/>
     </row>
     <row r="49">
       <c r="A49" s="33" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C49" s="132" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D49" s="132"/>
       <c r="E49" s="36"/>
     </row>
     <row r="50">
       <c r="A50" s="33" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C50" s="132" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D50" s="132"/>
       <c r="E50" s="36"/>
     </row>
     <row r="51">
       <c r="A51" s="33" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C51" s="132" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D51" s="132"/>
       <c r="E51" s="36"/>
     </row>
     <row r="52">
       <c r="A52" s="33" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C52" s="133" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D52" s="134"/>
       <c r="E52" s="36"/>
     </row>
     <row r="53">
       <c r="A53" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C53" s="133" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D53" s="135"/>
       <c r="E53" s="36"/>
     </row>
     <row r="54">
       <c r="A54" s="33" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C54" s="133" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D54" s="135"/>
       <c r="E54" s="36"/>
     </row>
     <row r="55">
       <c r="A55" s="38" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="36"/>
@@ -9944,188 +9950,188 @@
         <v>1</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="136"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="136"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="136"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="136"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="136"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" s="136"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" s="136"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" s="136"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F10" s="136"/>
       <c r="G10" s="15"/>
@@ -10156,34 +10162,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="15"/>
       <c r="F2" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D3" s="15"/>
       <c r="F3" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -10225,92 +10231,92 @@
         <v>1</v>
       </c>
       <c r="C1" s="137" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D1" s="137" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G1" s="137" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K1" s="138" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C2" s="139"/>
       <c r="D2" s="13"/>
       <c r="G2" s="140"/>
       <c r="I2" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="13"/>
       <c r="G3" s="140"/>
       <c r="I3" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C4" s="140"/>
       <c r="D4" s="13"/>
       <c r="E4" s="141"/>
       <c r="G4" s="142"/>
       <c r="I4" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J4" s="143"/>
       <c r="K4" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C5" s="140"/>
       <c r="D5" s="13"/>
@@ -10318,39 +10324,39 @@
       <c r="F5" s="142"/>
       <c r="G5" s="142"/>
       <c r="I5" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J5" s="143"/>
       <c r="K5" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="144"/>
       <c r="G6" s="140"/>
       <c r="I6" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="144"/>
@@ -10358,13 +10364,13 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="144"/>
@@ -10392,16 +10398,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -10417,13 +10423,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -10464,13 +10470,13 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -10487,10 +10493,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -10505,10 +10511,10 @@
     <row r="7">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -10523,10 +10529,10 @@
     <row r="8">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>550</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>548</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -10541,10 +10547,10 @@
     <row r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -10572,7 +10578,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B11" s="145" t="s">
         <v>4</v>
@@ -10590,7 +10596,7 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B12" s="146" t="s">
         <v>3</v>
@@ -10608,10 +10614,10 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L13" s="15"/>
     </row>
@@ -10641,38 +10647,38 @@
     </row>
     <row r="20">
       <c r="A20" s="147" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B20" s="148" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="147" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B21" s="148" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="147" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B22" s="149"/>
       <c r="L22" s="15"/>
     </row>
     <row r="23" hidden="1">
       <c r="A23" s="15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L23" s="15"/>
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="15" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -10729,42 +10735,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="151" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C2" s="152" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="153" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="154" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="154" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C5" s="152" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="628">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>sn_t5</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>T6</t>
@@ -2242,7 +2245,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2257,7 +2260,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -2994,60 +2997,60 @@
         <v>6</v>
       </c>
       <c r="D1" s="155" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E1" s="155" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="155" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="39" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3071,106 +3074,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="157" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B2" s="158" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="157" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B3" s="159" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="157" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B4" s="160" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="157" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B5" s="160" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="157" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B6" s="160" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="157" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="157" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="157" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B9" s="160" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="157" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B10" s="160" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="157" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B11" s="160" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B12" s="152" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -3214,97 +3217,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="163" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="163" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="163" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="163" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B5" s="164" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="163" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B6" s="164" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="163" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="165"/>
       <c r="B8" s="164" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="165"/>
       <c r="B9" s="164" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="165"/>
       <c r="B10" s="164" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="165"/>
       <c r="B11" s="164" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="165"/>
       <c r="B12" s="164" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13">
@@ -6397,7 +6400,9 @@
       <c r="M2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -6406,13 +6411,13 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -6428,9 +6433,11 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -6439,13 +6446,13 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -6461,9 +6468,11 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -6472,13 +6481,13 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -6494,9 +6503,11 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -6508,10 +6519,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="19" t="b">
@@ -6521,13 +6532,13 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -6536,13 +6547,13 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -6552,16 +6563,16 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="16" t="s">
         <v>48</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -6571,13 +6582,13 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -6589,9 +6600,9 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="N8" s="21"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -6600,13 +6611,13 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -6618,9 +6629,9 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="N9" s="21"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -6629,13 +6640,13 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -6646,10 +6657,10 @@
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="21"/>
+      <c r="M10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="16"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -6658,13 +6669,13 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -6676,9 +6687,9 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="N11" s="21"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -6687,13 +6698,13 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -6705,9 +6716,9 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="N12" s="21"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -6716,28 +6727,28 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="N13" s="16"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -6746,18 +6757,18 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -6765,10 +6776,10 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="21" t="s">
         <v>77</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -6778,18 +6789,18 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6798,10 +6809,10 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="21" t="s">
         <v>77</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -6811,18 +6822,18 @@
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -6831,10 +6842,10 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -6844,13 +6855,13 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -6862,9 +6873,9 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="N17" s="16"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -6873,18 +6884,18 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -6893,10 +6904,10 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" s="21" t="s">
         <v>85</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -6906,13 +6917,13 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -6924,9 +6935,9 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="N19" s="16"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
@@ -6935,18 +6946,18 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -6955,10 +6966,10 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -6968,13 +6979,13 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="31"/>
@@ -6986,7 +6997,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
@@ -6995,13 +7006,13 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="31"/>
@@ -7009,13 +7020,13 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="21"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
@@ -7024,13 +7035,13 @@
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="15"/>
@@ -7042,7 +7053,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
@@ -7051,13 +7062,13 @@
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24" s="36"/>
       <c r="E24" s="15"/>
@@ -7069,7 +7080,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
+      <c r="N24" s="21"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
@@ -7078,13 +7089,13 @@
     </row>
     <row r="25">
       <c r="A25" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="15"/>
@@ -7096,7 +7107,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
@@ -7105,13 +7116,13 @@
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="15"/>
@@ -7123,7 +7134,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="16"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
@@ -7132,13 +7143,13 @@
     </row>
     <row r="27">
       <c r="A27" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="15"/>
@@ -7150,7 +7161,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="16"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -7159,13 +7170,13 @@
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="15"/>
@@ -7177,7 +7188,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
@@ -7186,13 +7197,13 @@
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="15"/>
@@ -7204,7 +7215,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
@@ -7213,13 +7224,13 @@
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="15"/>
@@ -7230,7 +7241,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="15"/>
       <c r="M30" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N30" s="12">
         <v>0.0</v>
@@ -7243,13 +7254,13 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -7260,7 +7271,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="15"/>
       <c r="M31" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N31" s="12">
         <v>0.0</v>
@@ -7273,13 +7284,13 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="31"/>
@@ -7287,12 +7298,12 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="15"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="16"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
@@ -7301,13 +7312,13 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="31" t="b">
@@ -7317,13 +7328,13 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="16"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
@@ -7332,13 +7343,13 @@
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="41"/>
@@ -7350,7 +7361,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
@@ -7359,13 +7370,13 @@
     </row>
     <row r="35">
       <c r="A35" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="41"/>
@@ -7377,7 +7388,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
@@ -7386,31 +7397,31 @@
     </row>
     <row r="36">
       <c r="A36" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
@@ -7419,13 +7430,13 @@
     </row>
     <row r="37">
       <c r="A37" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="41" t="b">
@@ -7437,13 +7448,13 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="16"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
@@ -7452,31 +7463,31 @@
     </row>
     <row r="38">
       <c r="A38" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J38" s="20"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="16"/>
+      <c r="N38" s="21"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
@@ -7485,13 +7496,13 @@
     </row>
     <row r="39">
       <c r="A39" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="41" t="b">
@@ -7503,13 +7514,13 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J39" s="20"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="16"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
@@ -7518,13 +7529,13 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -7533,29 +7544,29 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="16"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -7564,12 +7575,12 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="16"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
@@ -7577,13 +7588,13 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -7592,12 +7603,12 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="16"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
@@ -7608,10 +7619,10 @@
         <v>28</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -7620,12 +7631,12 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="16"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
@@ -7633,13 +7644,13 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -7648,29 +7659,29 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="16"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
@@ -7679,7 +7690,7 @@
       <c r="H45" s="48"/>
       <c r="I45" s="48"/>
       <c r="J45" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
@@ -7690,18 +7701,18 @@
       <c r="Q45" s="48"/>
       <c r="R45" s="48"/>
       <c r="S45" s="51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="48"/>
@@ -7710,7 +7721,7 @@
       <c r="H46" s="48"/>
       <c r="I46" s="48"/>
       <c r="J46" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
@@ -7721,18 +7732,18 @@
       <c r="Q46" s="48"/>
       <c r="R46" s="48"/>
       <c r="S46" s="51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -7741,29 +7752,29 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
-      <c r="N47" s="16"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="12" t="b">
@@ -7773,12 +7784,12 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J48" s="20"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="16"/>
+      <c r="N48" s="21"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
@@ -7787,13 +7798,13 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="12" t="b">
@@ -7803,12 +7814,12 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J49" s="20"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
-      <c r="N49" s="16"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
@@ -7817,13 +7828,13 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="12" t="b">
@@ -7833,12 +7844,12 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J50" s="20"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="16"/>
+      <c r="N50" s="21"/>
       <c r="O50" s="15"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
@@ -7847,13 +7858,13 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="12" t="b">
@@ -7863,12 +7874,12 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J51" s="20"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
-      <c r="N51" s="16"/>
+      <c r="N51" s="21"/>
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
@@ -7877,13 +7888,13 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -7893,11 +7904,11 @@
       <c r="I52" s="15"/>
       <c r="J52" s="20"/>
       <c r="K52" s="53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
-      <c r="N52" s="16"/>
+      <c r="N52" s="21"/>
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
@@ -7906,13 +7917,13 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="12" t="b">
@@ -7922,12 +7933,12 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J53" s="20"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
-      <c r="N53" s="16"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
@@ -7936,13 +7947,13 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -7950,12 +7961,12 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J54" s="20"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
-      <c r="N54" s="16"/>
+      <c r="N54" s="21"/>
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
@@ -7964,13 +7975,13 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -7978,12 +7989,12 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J55" s="20"/>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
-      <c r="N55" s="16"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
@@ -7992,13 +8003,13 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -8006,12 +8017,12 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J56" s="20"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
-      <c r="N56" s="16"/>
+      <c r="N56" s="21"/>
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
@@ -8020,13 +8031,13 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="12" t="b">
@@ -8036,12 +8047,12 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J57" s="20"/>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
-      <c r="N57" s="16"/>
+      <c r="N57" s="21"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
@@ -8050,13 +8061,13 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -8064,12 +8075,12 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J58" s="20"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
-      <c r="N58" s="16"/>
+      <c r="N58" s="21"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
@@ -8078,13 +8089,13 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -8092,12 +8103,12 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J59" s="20"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
-      <c r="N59" s="16"/>
+      <c r="N59" s="21"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
@@ -8106,13 +8117,13 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -8123,7 +8134,7 @@
       <c r="J60" s="20"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="16"/>
+      <c r="N60" s="21"/>
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
@@ -8177,43 +8188,43 @@
         <v>6</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H1" s="54" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N1" s="54" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -8221,14 +8232,14 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="12"/>
@@ -8240,7 +8251,7 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P2" s="31" t="b">
         <v>1</v>
@@ -8251,16 +8262,16 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B3" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
@@ -8271,9 +8282,9 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="21"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P3" s="12" t="b">
         <v>1</v>
@@ -8284,35 +8295,35 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="20"/>
       <c r="K4" s="15"/>
       <c r="L4" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="21"/>
+        <v>86</v>
+      </c>
+      <c r="N4" s="16"/>
       <c r="O4" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P4" s="12" t="b">
         <v>1</v>
@@ -8323,33 +8334,33 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="20"/>
       <c r="K5" s="15"/>
       <c r="L5" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="N5" s="16"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="15"/>
@@ -8358,33 +8369,33 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="12"/>
       <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="N6" s="16"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="15"/>
@@ -8393,30 +8404,30 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="60"/>
       <c r="E7" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="61"/>
       <c r="L7" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -8427,30 +8438,30 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C8" s="60"/>
       <c r="E8" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="61"/>
       <c r="L8" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -8461,32 +8472,32 @@
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
@@ -8498,32 +8509,32 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
@@ -8535,32 +8546,32 @@
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D11" s="65"/>
       <c r="E11" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
@@ -8572,32 +8583,32 @@
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D12" s="65"/>
       <c r="E12" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
@@ -8609,20 +8620,20 @@
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D13" s="65"/>
       <c r="E13" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G13" s="65"/>
       <c r="H13" s="67"/>
@@ -8632,7 +8643,7 @@
         <v>2.0</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M13" s="68"/>
       <c r="N13" s="68"/>
@@ -8644,20 +8655,20 @@
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D14" s="65"/>
       <c r="E14" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="67"/>
@@ -8667,7 +8678,7 @@
         <v>2.0</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
@@ -8679,20 +8690,20 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="68"/>
@@ -8702,7 +8713,7 @@
         <v>2.0</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
@@ -8714,20 +8725,20 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="67"/>
@@ -8749,32 +8760,32 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G17" s="66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H17" s="67"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
@@ -8786,23 +8797,23 @@
     </row>
     <row r="18">
       <c r="A18" s="71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H18" s="77"/>
       <c r="I18" s="78"/>
@@ -8811,7 +8822,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" s="79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="78"/>
       <c r="N18" s="78"/>
@@ -8823,32 +8834,32 @@
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H19" s="81"/>
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L19" s="79" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M19" s="78"/>
       <c r="N19" s="78"/>
@@ -8860,32 +8871,32 @@
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G20" s="76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L20" s="79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M20" s="78"/>
       <c r="N20" s="78"/>
@@ -8897,32 +8908,32 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H21" s="81"/>
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="71" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L21" s="82" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M21" s="78"/>
       <c r="N21" s="78"/>
@@ -8934,23 +8945,23 @@
     </row>
     <row r="22">
       <c r="A22" s="83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D22" s="86"/>
       <c r="E22" s="87" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G22" s="88" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H22" s="89"/>
       <c r="I22" s="90"/>
@@ -8959,7 +8970,7 @@
         <v>0.0</v>
       </c>
       <c r="L22" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M22" s="90"/>
       <c r="N22" s="90"/>
@@ -8971,32 +8982,32 @@
     </row>
     <row r="23">
       <c r="A23" s="83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D23" s="86"/>
       <c r="E23" s="91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H23" s="89"/>
       <c r="I23" s="90"/>
       <c r="J23" s="90"/>
       <c r="K23" s="91" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L23" s="94" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M23" s="90"/>
       <c r="N23" s="90"/>
@@ -9008,23 +9019,23 @@
     </row>
     <row r="24">
       <c r="A24" s="95" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="99" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H24" s="101"/>
       <c r="I24" s="102"/>
@@ -9033,7 +9044,7 @@
         <v>0.0</v>
       </c>
       <c r="L24" s="104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M24" s="102"/>
       <c r="N24" s="102"/>
@@ -9045,32 +9056,32 @@
     </row>
     <row r="25">
       <c r="A25" s="95" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="103" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H25" s="105"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
       <c r="K25" s="106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L25" s="104" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M25" s="102"/>
       <c r="N25" s="102"/>
@@ -9082,32 +9093,32 @@
     </row>
     <row r="26">
       <c r="A26" s="107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B26" s="108" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C26" s="109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D26" s="110"/>
       <c r="E26" s="111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="112" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G26" s="113" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H26" s="114"/>
       <c r="I26" s="115"/>
       <c r="J26" s="115"/>
       <c r="K26" s="116" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L26" s="117" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M26" s="115"/>
       <c r="N26" s="115"/>
@@ -9119,32 +9130,32 @@
     </row>
     <row r="27">
       <c r="A27" s="118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B27" s="108" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D27" s="119"/>
       <c r="E27" s="111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" s="112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G27" s="118" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H27" s="119"/>
       <c r="I27" s="115"/>
       <c r="J27" s="115"/>
       <c r="K27" s="116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L27" s="117" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M27" s="115"/>
       <c r="N27" s="115"/>
@@ -9193,7 +9204,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E1" s="121" t="s">
         <v>14</v>
@@ -9201,460 +9212,460 @@
     </row>
     <row r="2">
       <c r="A2" s="123" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="36"/>
     </row>
     <row r="3">
       <c r="A3" s="123" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" s="124" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D3" s="124"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4">
       <c r="A4" s="123" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D4" s="124"/>
       <c r="E4" s="125" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="123" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D5" s="124"/>
       <c r="E5" s="125" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="123" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D6" s="124"/>
       <c r="E6" s="126" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="123" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D7" s="124"/>
       <c r="E7" s="125" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D8" s="124"/>
       <c r="E8" s="36"/>
     </row>
     <row r="9">
       <c r="A9" s="123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D9" s="124"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10">
       <c r="A10" s="123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B10" s="127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D10" s="124"/>
       <c r="E10" s="36"/>
     </row>
     <row r="11">
       <c r="A11" s="123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B11" s="127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D11" s="124"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12">
       <c r="A12" s="123" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D12" s="124"/>
       <c r="E12" s="36"/>
     </row>
     <row r="13">
       <c r="A13" s="123" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D13" s="124"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14">
       <c r="A14" s="123" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D14" s="124"/>
       <c r="E14" s="36"/>
     </row>
     <row r="15">
       <c r="A15" s="123" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B15" s="127" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D15" s="124"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16">
       <c r="A16" s="123" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B16" s="127" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D16" s="124"/>
       <c r="E16" s="36"/>
     </row>
     <row r="17">
       <c r="A17" s="123" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B17" s="127" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D17" s="124"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18">
       <c r="A18" s="123" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19">
       <c r="A19" s="123" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D19" s="128" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E19" s="125" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="123" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C20" s="129" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D20" s="129"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21">
       <c r="A21" s="123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D21" s="129"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22">
       <c r="A22" s="123" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D22" s="129" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D23" s="124"/>
       <c r="E23" s="125" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C24" s="124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D24" s="124"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25">
       <c r="A25" s="123" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C25" s="124" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D25" s="124"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26">
       <c r="A26" s="123" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D26" s="127"/>
       <c r="E26" s="127"/>
     </row>
     <row r="27">
       <c r="A27" s="123" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C27" s="127" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D27" s="127"/>
       <c r="E27" s="127"/>
     </row>
     <row r="28">
       <c r="A28" s="123" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D28" s="127"/>
       <c r="E28" s="127"/>
     </row>
     <row r="29">
       <c r="A29" s="123" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C29" s="127" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
     </row>
     <row r="30">
       <c r="A30" s="123" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C30" s="127" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D30" s="127"/>
       <c r="E30" s="127"/>
     </row>
     <row r="31">
       <c r="A31" s="123" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C31" s="127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D31" s="127"/>
       <c r="E31" s="127"/>
     </row>
     <row r="32">
       <c r="A32" s="123" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C32" s="127" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D32" s="127"/>
       <c r="E32" s="127"/>
     </row>
     <row r="33">
       <c r="A33" s="123" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C33" s="127" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D33" s="127"/>
       <c r="E33" s="127"/>
     </row>
     <row r="34">
       <c r="A34" s="123" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D34" s="127"/>
       <c r="E34" s="127"/>
     </row>
     <row r="35">
       <c r="A35" s="123" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C35" s="127" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D35" s="127"/>
       <c r="E35" s="127"/>
@@ -9664,10 +9675,10 @@
         <v>54.0</v>
       </c>
       <c r="B36" s="131" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
@@ -9677,10 +9688,10 @@
         <v>55.0</v>
       </c>
       <c r="B37" s="131" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
@@ -9690,10 +9701,10 @@
         <v>56.0</v>
       </c>
       <c r="B38" s="131" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
@@ -9703,218 +9714,218 @@
         <v>116.0</v>
       </c>
       <c r="B39" s="131" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="36"/>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B40" s="131" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B41" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="132" t="s">
         <v>112</v>
-      </c>
-      <c r="C41" s="132" t="s">
-        <v>111</v>
       </c>
       <c r="D41" s="132"/>
       <c r="E41" s="36"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="132" t="s">
         <v>115</v>
-      </c>
-      <c r="C42" s="132" t="s">
-        <v>114</v>
       </c>
       <c r="D42" s="132"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B43" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="132" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" s="132" t="s">
-        <v>117</v>
       </c>
       <c r="D43" s="132"/>
       <c r="E43" s="36"/>
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B44" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="132" t="s">
         <v>121</v>
-      </c>
-      <c r="C44" s="132" t="s">
-        <v>120</v>
       </c>
       <c r="D44" s="132"/>
       <c r="E44" s="36"/>
     </row>
     <row r="45">
       <c r="A45" s="33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B45" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="132" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="132" t="s">
-        <v>123</v>
       </c>
       <c r="D45" s="132"/>
       <c r="E45" s="36"/>
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C46" s="132" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D46" s="132"/>
       <c r="E46" s="36"/>
     </row>
     <row r="47">
       <c r="A47" s="33" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C47" s="132" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D47" s="132"/>
       <c r="E47" s="36"/>
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C48" s="132" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D48" s="132"/>
       <c r="E48" s="36"/>
     </row>
     <row r="49">
       <c r="A49" s="33" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C49" s="132" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D49" s="132"/>
       <c r="E49" s="36"/>
     </row>
     <row r="50">
       <c r="A50" s="33" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C50" s="132" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D50" s="132"/>
       <c r="E50" s="36"/>
     </row>
     <row r="51">
       <c r="A51" s="33" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C51" s="132" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D51" s="132"/>
       <c r="E51" s="36"/>
     </row>
     <row r="52">
       <c r="A52" s="33" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C52" s="133" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D52" s="134"/>
       <c r="E52" s="36"/>
     </row>
     <row r="53">
       <c r="A53" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C53" s="133" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D53" s="135"/>
       <c r="E53" s="36"/>
     </row>
     <row r="54">
       <c r="A54" s="33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C54" s="133" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D54" s="135"/>
       <c r="E54" s="36"/>
     </row>
     <row r="55">
       <c r="A55" s="38" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="36"/>
@@ -9950,90 +9961,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="136"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="136"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="136"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>28</v>
@@ -10043,95 +10054,95 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="136"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="136"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" s="136"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="136"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F10" s="136"/>
       <c r="G10" s="15"/>
@@ -10165,31 +10176,31 @@
         <v>6</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="15"/>
       <c r="F2" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D3" s="15"/>
       <c r="F3" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -10231,19 +10242,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="137" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="137" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G1" s="137" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
@@ -10252,71 +10263,71 @@
         <v>6</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K1" s="138" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C2" s="139"/>
       <c r="D2" s="13"/>
       <c r="G2" s="140"/>
       <c r="I2" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="13"/>
       <c r="G3" s="140"/>
       <c r="I3" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C4" s="140"/>
       <c r="D4" s="13"/>
       <c r="E4" s="141"/>
       <c r="G4" s="142"/>
       <c r="I4" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J4" s="143"/>
       <c r="K4" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C5" s="140"/>
       <c r="D5" s="13"/>
@@ -10324,39 +10335,39 @@
       <c r="F5" s="142"/>
       <c r="G5" s="142"/>
       <c r="I5" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J5" s="143"/>
       <c r="K5" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="144"/>
       <c r="G6" s="140"/>
       <c r="I6" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="144"/>
@@ -10364,13 +10375,13 @@
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="144"/>
@@ -10398,16 +10409,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -10423,13 +10434,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -10470,13 +10481,13 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -10493,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -10511,10 +10522,10 @@
     <row r="7">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>551</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -10529,10 +10540,10 @@
     <row r="8">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -10547,10 +10558,10 @@
     <row r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -10578,7 +10589,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B11" s="145" t="s">
         <v>4</v>
@@ -10596,7 +10607,7 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B12" s="146" t="s">
         <v>3</v>
@@ -10614,10 +10625,10 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L13" s="15"/>
     </row>
@@ -10647,38 +10658,38 @@
     </row>
     <row r="20">
       <c r="A20" s="147" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B20" s="148" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="147" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B21" s="148" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="147" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B22" s="149"/>
       <c r="L22" s="15"/>
     </row>
     <row r="23" hidden="1">
       <c r="A23" s="15" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L23" s="15"/>
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="15" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -10735,42 +10746,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="151" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C2" s="152" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="153" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="154" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="154" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C5" s="152" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/models/spleen/source/spleen.xlsx
+++ b/models/spleen/source/spleen.xlsx
@@ -8314,12 +8314,11 @@
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="L4" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="12" t="s">
@@ -8353,12 +8352,11 @@
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="L5" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="12"/>
@@ -8388,12 +8386,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="12"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="L6" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="12"/>
@@ -8422,12 +8419,11 @@
       <c r="H7" s="11"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="L7" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -8456,12 +8452,11 @@
       <c r="H8" s="11"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="61"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="L8" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
